--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -41049,7 +41049,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5144935</v>
+        <v>5144084</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41061,40 +41061,40 @@
         <v>44773.52083333334</v>
       </c>
       <c r="F456" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G456" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H456">
+        <v>1</v>
+      </c>
+      <c r="I456">
         <v>3</v>
       </c>
-      <c r="I456">
-        <v>2</v>
-      </c>
       <c r="J456" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K456">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M456">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N456">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O456">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P456">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="Q456">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R456">
         <v>1.95</v>
@@ -41106,19 +41106,19 @@
         <v>2.75</v>
       </c>
       <c r="U456">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V456">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W456">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z456">
         <v>-1</v>
@@ -41127,7 +41127,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB456">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -41138,7 +41138,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5144084</v>
+        <v>5144935</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41150,40 +41150,40 @@
         <v>44773.52083333334</v>
       </c>
       <c r="F457" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G457" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J457" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K457">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L457">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M457">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="N457">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O457">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P457">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="Q457">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R457">
         <v>1.95</v>
@@ -41195,19 +41195,19 @@
         <v>2.75</v>
       </c>
       <c r="U457">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V457">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W457">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X457">
         <v>-1</v>
       </c>
       <c r="Y457">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z457">
         <v>-1</v>
@@ -41216,7 +41216,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB457">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC457">
         <v>-1</v>
@@ -65702,7 +65702,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5456594</v>
+        <v>5428774</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65714,76 +65714,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F733" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G733" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I733">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J733" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K733">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L733">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M733">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N733">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="O733">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P733">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q733">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R733">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S733">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T733">
         <v>3</v>
       </c>
       <c r="U733">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V733">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W733">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X733">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y733">
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA733">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB733">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC733">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65791,7 +65791,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5456603</v>
+        <v>5456594</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65803,76 +65803,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F734" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G734" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J734" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K734">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L734">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M734">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N734">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="O734">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P734">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q734">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R734">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S734">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T734">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U734">
+        <v>1.9</v>
+      </c>
+      <c r="V734">
         <v>1.95</v>
       </c>
-      <c r="V734">
-        <v>1.9</v>
-      </c>
       <c r="W734">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X734">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y734">
         <v>-1</v>
       </c>
       <c r="Z734">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA734">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB734">
         <v>-1</v>
       </c>
       <c r="AC734">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -65880,7 +65880,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5461474</v>
+        <v>5456603</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65892,76 +65892,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F735" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G735" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H735">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J735" t="s">
         <v>55</v>
       </c>
       <c r="K735">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="L735">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M735">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N735">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="O735">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P735">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q735">
+        <v>-1.75</v>
+      </c>
+      <c r="R735">
+        <v>1.925</v>
+      </c>
+      <c r="S735">
+        <v>1.925</v>
+      </c>
+      <c r="T735">
+        <v>3.25</v>
+      </c>
+      <c r="U735">
+        <v>1.95</v>
+      </c>
+      <c r="V735">
+        <v>1.9</v>
+      </c>
+      <c r="W735">
+        <v>0.222</v>
+      </c>
+      <c r="X735">
+        <v>-1</v>
+      </c>
+      <c r="Y735">
+        <v>-1</v>
+      </c>
+      <c r="Z735">
+        <v>0.4625</v>
+      </c>
+      <c r="AA735">
         <v>-0.5</v>
       </c>
-      <c r="R735">
-        <v>1.825</v>
-      </c>
-      <c r="S735">
-        <v>2.025</v>
-      </c>
-      <c r="T735">
-        <v>2.75</v>
-      </c>
-      <c r="U735">
-        <v>1.9</v>
-      </c>
-      <c r="V735">
-        <v>1.95</v>
-      </c>
-      <c r="W735">
-        <v>0.833</v>
-      </c>
-      <c r="X735">
-        <v>-1</v>
-      </c>
-      <c r="Y735">
-        <v>-1</v>
-      </c>
-      <c r="Z735">
-        <v>0.825</v>
-      </c>
-      <c r="AA735">
-        <v>-1</v>
-      </c>
       <c r="AB735">
+        <v>-1</v>
+      </c>
+      <c r="AC735">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC735">
-        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65969,7 +65969,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5428774</v>
+        <v>5461474</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65981,58 +65981,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F736" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G736" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H736">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I736">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J736" t="s">
         <v>55</v>
       </c>
       <c r="K736">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L736">
+        <v>3.8</v>
+      </c>
+      <c r="M736">
         <v>4</v>
       </c>
-      <c r="M736">
-        <v>4.75</v>
-      </c>
       <c r="N736">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O736">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P736">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q736">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R736">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S736">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T736">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U736">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V736">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W736">
-        <v>0.5329999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X736">
         <v>-1</v>
@@ -66041,13 +66041,13 @@
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA736">
         <v>-1</v>
       </c>
       <c r="AB736">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC736">
         <v>-1</v>
@@ -66058,7 +66058,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5461475</v>
+        <v>5460884</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66070,76 +66070,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F737" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G737" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H737">
         <v>0</v>
       </c>
       <c r="I737">
+        <v>0</v>
+      </c>
+      <c r="J737" t="s">
+        <v>56</v>
+      </c>
+      <c r="K737">
+        <v>3.6</v>
+      </c>
+      <c r="L737">
+        <v>3.5</v>
+      </c>
+      <c r="M737">
+        <v>1.909</v>
+      </c>
+      <c r="N737">
         <v>3</v>
       </c>
-      <c r="J737" t="s">
-        <v>54</v>
-      </c>
-      <c r="K737">
+      <c r="O737">
+        <v>3.5</v>
+      </c>
+      <c r="P737">
         <v>2.1</v>
       </c>
-      <c r="L737">
-        <v>3.3</v>
-      </c>
-      <c r="M737">
-        <v>3.2</v>
-      </c>
-      <c r="N737">
-        <v>2.375</v>
-      </c>
-      <c r="O737">
-        <v>3.3</v>
-      </c>
-      <c r="P737">
-        <v>2.7</v>
-      </c>
       <c r="Q737">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R737">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S737">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T737">
+        <v>2.75</v>
+      </c>
+      <c r="U737">
+        <v>1.975</v>
+      </c>
+      <c r="V737">
+        <v>1.875</v>
+      </c>
+      <c r="W737">
+        <v>-1</v>
+      </c>
+      <c r="X737">
         <v>2.5</v>
       </c>
-      <c r="U737">
-        <v>1.825</v>
-      </c>
-      <c r="V737">
-        <v>2.025</v>
-      </c>
-      <c r="W737">
-        <v>-1</v>
-      </c>
-      <c r="X737">
-        <v>-1</v>
-      </c>
       <c r="Y737">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA737">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB737">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC737">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66147,7 +66147,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5467427</v>
+        <v>5461475</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66159,76 +66159,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F738" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G738" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J738" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K738">
+        <v>2.1</v>
+      </c>
+      <c r="L738">
+        <v>3.3</v>
+      </c>
+      <c r="M738">
+        <v>3.2</v>
+      </c>
+      <c r="N738">
         <v>2.375</v>
       </c>
-      <c r="L738">
-        <v>3.2</v>
-      </c>
-      <c r="M738">
-        <v>2.8</v>
-      </c>
-      <c r="N738">
-        <v>2.6</v>
-      </c>
       <c r="O738">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P738">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q738">
         <v>0</v>
       </c>
       <c r="R738">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S738">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U738">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V738">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W738">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z738">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB738">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC738">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66236,7 +66236,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5465446</v>
+        <v>5467427</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66248,13 +66248,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F739" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G739" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H739">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I739">
         <v>0</v>
@@ -66263,43 +66263,43 @@
         <v>55</v>
       </c>
       <c r="K739">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L739">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M739">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N739">
+        <v>2.6</v>
+      </c>
+      <c r="O739">
+        <v>3.1</v>
+      </c>
+      <c r="P739">
+        <v>2.625</v>
+      </c>
+      <c r="Q739">
+        <v>0</v>
+      </c>
+      <c r="R739">
+        <v>1.925</v>
+      </c>
+      <c r="S739">
+        <v>1.925</v>
+      </c>
+      <c r="T739">
         <v>2.25</v>
       </c>
-      <c r="O739">
-        <v>3.6</v>
-      </c>
-      <c r="P739">
-        <v>2.7</v>
-      </c>
-      <c r="Q739">
-        <v>-0.25</v>
-      </c>
-      <c r="R739">
-        <v>2.05</v>
-      </c>
-      <c r="S739">
-        <v>1.75</v>
-      </c>
-      <c r="T739">
-        <v>2.5</v>
-      </c>
       <c r="U739">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V739">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W739">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66308,16 +66308,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC739">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66325,7 +66325,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5460884</v>
+        <v>5465446</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66337,76 +66337,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F740" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G740" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I740">
         <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K740">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L740">
         <v>3.5</v>
       </c>
       <c r="M740">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N740">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O740">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P740">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q740">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R740">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S740">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T740">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V740">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W740">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X740">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AA740">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB740">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC740">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -38468,7 +38468,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>3925813</v>
+        <v>3945594</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38480,73 +38480,73 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F427" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G427" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H427">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J427" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K427">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L427">
+        <v>4.75</v>
+      </c>
+      <c r="M427">
+        <v>8</v>
+      </c>
+      <c r="N427">
+        <v>1.4</v>
+      </c>
+      <c r="O427">
+        <v>4.75</v>
+      </c>
+      <c r="P427">
+        <v>6</v>
+      </c>
+      <c r="Q427">
+        <v>-1.25</v>
+      </c>
+      <c r="R427">
+        <v>1.875</v>
+      </c>
+      <c r="S427">
+        <v>1.975</v>
+      </c>
+      <c r="T427">
+        <v>3.25</v>
+      </c>
+      <c r="U427">
+        <v>1.925</v>
+      </c>
+      <c r="V427">
+        <v>1.925</v>
+      </c>
+      <c r="W427">
+        <v>-1</v>
+      </c>
+      <c r="X427">
         <v>3.75</v>
       </c>
-      <c r="M427">
-        <v>2.3</v>
-      </c>
-      <c r="N427">
-        <v>2.5</v>
-      </c>
-      <c r="O427">
-        <v>3.75</v>
-      </c>
-      <c r="P427">
-        <v>2.375</v>
-      </c>
-      <c r="Q427">
-        <v>0</v>
-      </c>
-      <c r="R427">
-        <v>1.975</v>
-      </c>
-      <c r="S427">
-        <v>1.875</v>
-      </c>
-      <c r="T427">
-        <v>3</v>
-      </c>
-      <c r="U427">
-        <v>1.825</v>
-      </c>
-      <c r="V427">
-        <v>2.025</v>
-      </c>
-      <c r="W427">
-        <v>-1</v>
-      </c>
-      <c r="X427">
-        <v>-1</v>
-      </c>
       <c r="Y427">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB427">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC427">
         <v>-1</v>
@@ -38557,7 +38557,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3945594</v>
+        <v>3925813</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38569,73 +38569,73 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F428" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G428" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I428">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J428" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K428">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L428">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M428">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N428">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O428">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P428">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q428">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R428">
+        <v>1.975</v>
+      </c>
+      <c r="S428">
         <v>1.875</v>
       </c>
-      <c r="S428">
-        <v>1.975</v>
-      </c>
       <c r="T428">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U428">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V428">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W428">
         <v>-1</v>
       </c>
       <c r="X428">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y428">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z428">
         <v>-1</v>
       </c>
       <c r="AA428">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB428">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC428">
         <v>-1</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -65702,7 +65702,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5428774</v>
+        <v>5456594</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65714,76 +65714,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F733" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G733" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H733">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I733">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J733" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K733">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L733">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M733">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N733">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="O733">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P733">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q733">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R733">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S733">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T733">
         <v>3</v>
       </c>
       <c r="U733">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V733">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W733">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X733">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y733">
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA733">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB733">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC733">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65791,7 +65791,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5456594</v>
+        <v>5456603</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65803,76 +65803,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F734" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G734" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J734" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K734">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L734">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M734">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N734">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O734">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P734">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q734">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R734">
+        <v>1.925</v>
+      </c>
+      <c r="S734">
+        <v>1.925</v>
+      </c>
+      <c r="T734">
+        <v>3.25</v>
+      </c>
+      <c r="U734">
+        <v>1.95</v>
+      </c>
+      <c r="V734">
         <v>1.9</v>
       </c>
-      <c r="S734">
-        <v>1.95</v>
-      </c>
-      <c r="T734">
-        <v>3</v>
-      </c>
-      <c r="U734">
-        <v>1.9</v>
-      </c>
-      <c r="V734">
-        <v>1.95</v>
-      </c>
       <c r="W734">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X734">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y734">
         <v>-1</v>
       </c>
       <c r="Z734">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA734">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB734">
         <v>-1</v>
       </c>
       <c r="AC734">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -65880,7 +65880,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5456603</v>
+        <v>5461474</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65892,58 +65892,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F735" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G735" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I735">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J735" t="s">
         <v>55</v>
       </c>
       <c r="K735">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="L735">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M735">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N735">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O735">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P735">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q735">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R735">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S735">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T735">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U735">
+        <v>1.9</v>
+      </c>
+      <c r="V735">
         <v>1.95</v>
       </c>
-      <c r="V735">
-        <v>1.9</v>
-      </c>
       <c r="W735">
-        <v>0.222</v>
+        <v>0.833</v>
       </c>
       <c r="X735">
         <v>-1</v>
@@ -65952,16 +65952,16 @@
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA735">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB735">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC735">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65969,7 +65969,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5461474</v>
+        <v>5428774</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65981,58 +65981,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F736" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G736" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H736">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J736" t="s">
         <v>55</v>
       </c>
       <c r="K736">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L736">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M736">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N736">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O736">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P736">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R736">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S736">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T736">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U736">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V736">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W736">
-        <v>0.833</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X736">
         <v>-1</v>
@@ -66041,13 +66041,13 @@
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA736">
         <v>-1</v>
       </c>
       <c r="AB736">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC736">
         <v>-1</v>
@@ -66058,7 +66058,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5460884</v>
+        <v>5461475</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66070,76 +66070,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F737" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G737" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H737">
         <v>0</v>
       </c>
       <c r="I737">
+        <v>3</v>
+      </c>
+      <c r="J737" t="s">
+        <v>54</v>
+      </c>
+      <c r="K737">
+        <v>2.1</v>
+      </c>
+      <c r="L737">
+        <v>3.3</v>
+      </c>
+      <c r="M737">
+        <v>3.2</v>
+      </c>
+      <c r="N737">
+        <v>2.375</v>
+      </c>
+      <c r="O737">
+        <v>3.3</v>
+      </c>
+      <c r="P737">
+        <v>2.7</v>
+      </c>
+      <c r="Q737">
         <v>0</v>
       </c>
-      <c r="J737" t="s">
-        <v>56</v>
-      </c>
-      <c r="K737">
-        <v>3.6</v>
-      </c>
-      <c r="L737">
-        <v>3.5</v>
-      </c>
-      <c r="M737">
-        <v>1.909</v>
-      </c>
-      <c r="N737">
-        <v>3</v>
-      </c>
-      <c r="O737">
-        <v>3.5</v>
-      </c>
-      <c r="P737">
-        <v>2.1</v>
-      </c>
-      <c r="Q737">
-        <v>0.25</v>
-      </c>
       <c r="R737">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S737">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T737">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U737">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V737">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W737">
         <v>-1</v>
       </c>
       <c r="X737">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y737">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z737">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA737">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB737">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC737">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66147,7 +66147,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5461475</v>
+        <v>5467427</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66159,76 +66159,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F738" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G738" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H738">
+        <v>1</v>
+      </c>
+      <c r="I738">
         <v>0</v>
       </c>
-      <c r="I738">
-        <v>3</v>
-      </c>
       <c r="J738" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K738">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L738">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M738">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N738">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="O738">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P738">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q738">
         <v>0</v>
       </c>
       <c r="R738">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S738">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T738">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U738">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V738">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z738">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA738">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC738">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66236,7 +66236,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5467427</v>
+        <v>5465446</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66248,13 +66248,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F739" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G739" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I739">
         <v>0</v>
@@ -66263,43 +66263,43 @@
         <v>55</v>
       </c>
       <c r="K739">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L739">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M739">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N739">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O739">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P739">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q739">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R739">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S739">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T739">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U739">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V739">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W739">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66308,16 +66308,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC739">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66325,7 +66325,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5465446</v>
+        <v>5460884</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66337,76 +66337,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F740" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G740" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H740">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740">
         <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K740">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L740">
         <v>3.5</v>
       </c>
       <c r="M740">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N740">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O740">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P740">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q740">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R740">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S740">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T740">
+        <v>2.75</v>
+      </c>
+      <c r="U740">
+        <v>1.975</v>
+      </c>
+      <c r="V740">
+        <v>1.875</v>
+      </c>
+      <c r="W740">
+        <v>-1</v>
+      </c>
+      <c r="X740">
         <v>2.5</v>
       </c>
-      <c r="U740">
-        <v>1.825</v>
-      </c>
-      <c r="V740">
-        <v>2.025</v>
-      </c>
-      <c r="W740">
-        <v>1.25</v>
-      </c>
-      <c r="X740">
-        <v>-1</v>
-      </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AA740">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB740">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC740">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="741" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -65702,7 +65702,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5456594</v>
+        <v>5428774</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65714,76 +65714,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F733" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G733" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I733">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J733" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K733">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L733">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M733">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N733">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="O733">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P733">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q733">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R733">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S733">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T733">
         <v>3</v>
       </c>
       <c r="U733">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V733">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W733">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X733">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y733">
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA733">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB733">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC733">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65791,7 +65791,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5456603</v>
+        <v>5456594</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65803,76 +65803,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F734" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G734" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J734" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K734">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L734">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M734">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N734">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="O734">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P734">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q734">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R734">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S734">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T734">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U734">
+        <v>1.9</v>
+      </c>
+      <c r="V734">
         <v>1.95</v>
       </c>
-      <c r="V734">
-        <v>1.9</v>
-      </c>
       <c r="W734">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X734">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y734">
         <v>-1</v>
       </c>
       <c r="Z734">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA734">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB734">
         <v>-1</v>
       </c>
       <c r="AC734">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -65880,7 +65880,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5461474</v>
+        <v>5456603</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65892,76 +65892,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F735" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G735" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H735">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J735" t="s">
         <v>55</v>
       </c>
       <c r="K735">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="L735">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M735">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N735">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="O735">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P735">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q735">
+        <v>-1.75</v>
+      </c>
+      <c r="R735">
+        <v>1.925</v>
+      </c>
+      <c r="S735">
+        <v>1.925</v>
+      </c>
+      <c r="T735">
+        <v>3.25</v>
+      </c>
+      <c r="U735">
+        <v>1.95</v>
+      </c>
+      <c r="V735">
+        <v>1.9</v>
+      </c>
+      <c r="W735">
+        <v>0.222</v>
+      </c>
+      <c r="X735">
+        <v>-1</v>
+      </c>
+      <c r="Y735">
+        <v>-1</v>
+      </c>
+      <c r="Z735">
+        <v>0.4625</v>
+      </c>
+      <c r="AA735">
         <v>-0.5</v>
       </c>
-      <c r="R735">
-        <v>1.825</v>
-      </c>
-      <c r="S735">
-        <v>2.025</v>
-      </c>
-      <c r="T735">
-        <v>2.75</v>
-      </c>
-      <c r="U735">
-        <v>1.9</v>
-      </c>
-      <c r="V735">
-        <v>1.95</v>
-      </c>
-      <c r="W735">
-        <v>0.833</v>
-      </c>
-      <c r="X735">
-        <v>-1</v>
-      </c>
-      <c r="Y735">
-        <v>-1</v>
-      </c>
-      <c r="Z735">
-        <v>0.825</v>
-      </c>
-      <c r="AA735">
-        <v>-1</v>
-      </c>
       <c r="AB735">
+        <v>-1</v>
+      </c>
+      <c r="AC735">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC735">
-        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65969,7 +65969,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5428774</v>
+        <v>5461474</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65981,58 +65981,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F736" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G736" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H736">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I736">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J736" t="s">
         <v>55</v>
       </c>
       <c r="K736">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L736">
+        <v>3.8</v>
+      </c>
+      <c r="M736">
         <v>4</v>
       </c>
-      <c r="M736">
-        <v>4.75</v>
-      </c>
       <c r="N736">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O736">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P736">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q736">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R736">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S736">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T736">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U736">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V736">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W736">
-        <v>0.5329999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X736">
         <v>-1</v>
@@ -66041,13 +66041,13 @@
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA736">
         <v>-1</v>
       </c>
       <c r="AB736">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC736">
         <v>-1</v>
@@ -66058,7 +66058,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5461475</v>
+        <v>5460884</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66070,76 +66070,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F737" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G737" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H737">
         <v>0</v>
       </c>
       <c r="I737">
+        <v>0</v>
+      </c>
+      <c r="J737" t="s">
+        <v>56</v>
+      </c>
+      <c r="K737">
+        <v>3.6</v>
+      </c>
+      <c r="L737">
+        <v>3.5</v>
+      </c>
+      <c r="M737">
+        <v>1.909</v>
+      </c>
+      <c r="N737">
         <v>3</v>
       </c>
-      <c r="J737" t="s">
-        <v>54</v>
-      </c>
-      <c r="K737">
+      <c r="O737">
+        <v>3.5</v>
+      </c>
+      <c r="P737">
         <v>2.1</v>
       </c>
-      <c r="L737">
-        <v>3.3</v>
-      </c>
-      <c r="M737">
-        <v>3.2</v>
-      </c>
-      <c r="N737">
-        <v>2.375</v>
-      </c>
-      <c r="O737">
-        <v>3.3</v>
-      </c>
-      <c r="P737">
-        <v>2.7</v>
-      </c>
       <c r="Q737">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R737">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S737">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T737">
+        <v>2.75</v>
+      </c>
+      <c r="U737">
+        <v>1.975</v>
+      </c>
+      <c r="V737">
+        <v>1.875</v>
+      </c>
+      <c r="W737">
+        <v>-1</v>
+      </c>
+      <c r="X737">
         <v>2.5</v>
       </c>
-      <c r="U737">
-        <v>1.825</v>
-      </c>
-      <c r="V737">
-        <v>2.025</v>
-      </c>
-      <c r="W737">
-        <v>-1</v>
-      </c>
-      <c r="X737">
-        <v>-1</v>
-      </c>
       <c r="Y737">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z737">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA737">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB737">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC737">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66147,7 +66147,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5467427</v>
+        <v>5461475</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66159,76 +66159,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F738" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G738" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J738" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K738">
+        <v>2.1</v>
+      </c>
+      <c r="L738">
+        <v>3.3</v>
+      </c>
+      <c r="M738">
+        <v>3.2</v>
+      </c>
+      <c r="N738">
         <v>2.375</v>
       </c>
-      <c r="L738">
-        <v>3.2</v>
-      </c>
-      <c r="M738">
-        <v>2.8</v>
-      </c>
-      <c r="N738">
-        <v>2.6</v>
-      </c>
       <c r="O738">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P738">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q738">
         <v>0</v>
       </c>
       <c r="R738">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S738">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U738">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V738">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W738">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z738">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA738">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB738">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC738">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66236,7 +66236,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5465446</v>
+        <v>5467427</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66248,13 +66248,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F739" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G739" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H739">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I739">
         <v>0</v>
@@ -66263,43 +66263,43 @@
         <v>55</v>
       </c>
       <c r="K739">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L739">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M739">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N739">
+        <v>2.6</v>
+      </c>
+      <c r="O739">
+        <v>3.1</v>
+      </c>
+      <c r="P739">
+        <v>2.625</v>
+      </c>
+      <c r="Q739">
+        <v>0</v>
+      </c>
+      <c r="R739">
+        <v>1.925</v>
+      </c>
+      <c r="S739">
+        <v>1.925</v>
+      </c>
+      <c r="T739">
         <v>2.25</v>
       </c>
-      <c r="O739">
-        <v>3.6</v>
-      </c>
-      <c r="P739">
-        <v>2.7</v>
-      </c>
-      <c r="Q739">
-        <v>-0.25</v>
-      </c>
-      <c r="R739">
-        <v>2.05</v>
-      </c>
-      <c r="S739">
-        <v>1.75</v>
-      </c>
-      <c r="T739">
-        <v>2.5</v>
-      </c>
       <c r="U739">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V739">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W739">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66308,16 +66308,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC739">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66325,7 +66325,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5460884</v>
+        <v>5465446</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66337,76 +66337,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F740" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G740" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I740">
         <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K740">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L740">
         <v>3.5</v>
       </c>
       <c r="M740">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N740">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O740">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P740">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q740">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R740">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S740">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T740">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U740">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V740">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W740">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X740">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AA740">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB740">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC740">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="741" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2602687</v>
+        <v>2602690</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,58 +8576,58 @@
         <v>44306.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
         <v>3</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>55</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L91">
+        <v>3.4</v>
+      </c>
+      <c r="M91">
         <v>3.5</v>
       </c>
-      <c r="M91">
-        <v>3.8</v>
-      </c>
       <c r="N91">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>1.775</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
+        <v>1.8</v>
+      </c>
+      <c r="V91">
         <v>2.05</v>
       </c>
-      <c r="S91">
-        <v>1.8</v>
-      </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>1.825</v>
-      </c>
-      <c r="V91">
-        <v>2.025</v>
-      </c>
       <c r="W91">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8636,13 +8636,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8653,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2602690</v>
+        <v>2602687</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8665,58 +8665,58 @@
         <v>44306.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>55</v>
       </c>
       <c r="K92">
+        <v>1.909</v>
+      </c>
+      <c r="L92">
+        <v>3.5</v>
+      </c>
+      <c r="M92">
+        <v>3.8</v>
+      </c>
+      <c r="N92">
+        <v>1.75</v>
+      </c>
+      <c r="O92">
+        <v>3.8</v>
+      </c>
+      <c r="P92">
+        <v>4.333</v>
+      </c>
+      <c r="Q92">
+        <v>-0.75</v>
+      </c>
+      <c r="R92">
         <v>2.05</v>
       </c>
-      <c r="L92">
-        <v>3.4</v>
-      </c>
-      <c r="M92">
-        <v>3.5</v>
-      </c>
-      <c r="N92">
-        <v>2.3</v>
-      </c>
-      <c r="O92">
-        <v>3.4</v>
-      </c>
-      <c r="P92">
-        <v>3</v>
-      </c>
-      <c r="Q92">
-        <v>-0.25</v>
-      </c>
-      <c r="R92">
-        <v>2.1</v>
-      </c>
       <c r="S92">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8725,13 +8725,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8742,7 +8742,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2602685</v>
+        <v>2602686</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8754,73 +8754,73 @@
         <v>44307.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>55</v>
+      </c>
+      <c r="K93">
+        <v>2.3</v>
+      </c>
+      <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
         <v>3</v>
       </c>
-      <c r="I93">
+      <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
+        <v>3.75</v>
+      </c>
+      <c r="P93">
+        <v>2.9</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>2.05</v>
+      </c>
+      <c r="S93">
+        <v>1.8</v>
+      </c>
+      <c r="T93">
         <v>3</v>
       </c>
-      <c r="J93" t="s">
-        <v>56</v>
-      </c>
-      <c r="K93">
-        <v>2.25</v>
-      </c>
-      <c r="L93">
-        <v>3.3</v>
-      </c>
-      <c r="M93">
-        <v>3.1</v>
-      </c>
-      <c r="N93">
-        <v>2.75</v>
-      </c>
-      <c r="O93">
-        <v>3.4</v>
-      </c>
-      <c r="P93">
-        <v>2.4</v>
-      </c>
-      <c r="Q93">
-        <v>0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.775</v>
-      </c>
-      <c r="S93">
-        <v>2.1</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8831,7 +8831,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2602686</v>
+        <v>2602685</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8843,73 +8843,73 @@
         <v>44307.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K94">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L94">
+        <v>3.3</v>
+      </c>
+      <c r="M94">
+        <v>3.1</v>
+      </c>
+      <c r="N94">
+        <v>2.75</v>
+      </c>
+      <c r="O94">
         <v>3.4</v>
       </c>
-      <c r="M94">
-        <v>3</v>
-      </c>
-      <c r="N94">
-        <v>2.2</v>
-      </c>
-      <c r="O94">
-        <v>3.75</v>
-      </c>
       <c r="P94">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.05</v>
+        <v>0.3875</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2602718</v>
+        <v>2633433</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,76 +11335,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2634307</v>
+        <v>2602718</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,76 +11424,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N123">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2602717</v>
+        <v>2634307</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,10 +11513,10 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11528,61 +11528,61 @@
         <v>56</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2633423</v>
+        <v>2639771</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125">
+        <v>1.363</v>
+      </c>
+      <c r="L125">
+        <v>4.75</v>
+      </c>
+      <c r="M125">
+        <v>8</v>
+      </c>
+      <c r="N125">
+        <v>1.533</v>
+      </c>
+      <c r="O125">
+        <v>4.333</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="J125" t="s">
-        <v>54</v>
-      </c>
-      <c r="K125">
-        <v>2.5</v>
-      </c>
-      <c r="L125">
-        <v>3.2</v>
-      </c>
-      <c r="M125">
-        <v>2.8</v>
-      </c>
-      <c r="N125">
-        <v>2.05</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>3.3</v>
-      </c>
-      <c r="Q125">
-        <v>-0.5</v>
-      </c>
-      <c r="R125">
-        <v>2.05</v>
-      </c>
-      <c r="S125">
-        <v>1.8</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2633433</v>
+        <v>2602717</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,76 +11691,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K126">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L126">
         <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N126">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O126">
         <v>3.4</v>
       </c>
       <c r="P126">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.9</v>
       </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
       <c r="W126">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2602716</v>
+        <v>2639772</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N127">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="O127">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q127">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W127">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2639772</v>
+        <v>2602716</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,76 +11869,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>55</v>
+      </c>
+      <c r="K128">
         <v>3</v>
       </c>
-      <c r="J128" t="s">
-        <v>54</v>
-      </c>
-      <c r="K128">
-        <v>2</v>
-      </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N128">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11946,7 +11946,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2639771</v>
+        <v>2633423</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11958,76 +11958,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N129">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -38468,7 +38468,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>3945594</v>
+        <v>3925813</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38480,73 +38480,73 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F427" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G427" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I427">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J427" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K427">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L427">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M427">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N427">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O427">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P427">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q427">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R427">
+        <v>1.975</v>
+      </c>
+      <c r="S427">
         <v>1.875</v>
       </c>
-      <c r="S427">
-        <v>1.975</v>
-      </c>
       <c r="T427">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U427">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V427">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W427">
         <v>-1</v>
       </c>
       <c r="X427">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y427">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB427">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC427">
         <v>-1</v>
@@ -38557,7 +38557,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3925813</v>
+        <v>3951661</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38569,55 +38569,55 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F428" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G428" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H428">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J428" t="s">
         <v>54</v>
       </c>
       <c r="K428">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L428">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M428">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N428">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O428">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P428">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q428">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R428">
+        <v>1.875</v>
+      </c>
+      <c r="S428">
         <v>1.975</v>
       </c>
-      <c r="S428">
-        <v>1.875</v>
-      </c>
       <c r="T428">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U428">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V428">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W428">
         <v>-1</v>
@@ -38626,19 +38626,19 @@
         <v>-1</v>
       </c>
       <c r="Y428">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z428">
         <v>-1</v>
       </c>
       <c r="AA428">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB428">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC428">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="429" spans="1:29">
@@ -38646,7 +38646,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>3958083</v>
+        <v>3945594</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -38658,76 +38658,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F429" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G429" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J429" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K429">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="L429">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M429">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="N429">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O429">
+        <v>4.75</v>
+      </c>
+      <c r="P429">
         <v>6</v>
       </c>
-      <c r="P429">
-        <v>11</v>
-      </c>
       <c r="Q429">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R429">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S429">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T429">
         <v>3.25</v>
       </c>
       <c r="U429">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V429">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W429">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA429">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB429">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC429">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430" spans="1:29">
@@ -38735,7 +38735,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>3958082</v>
+        <v>3951659</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38747,58 +38747,58 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F430" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G430" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="s">
         <v>55</v>
       </c>
       <c r="K430">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="L430">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M430">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N430">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O430">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P430">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q430">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R430">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S430">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T430">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U430">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V430">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W430">
-        <v>0.333</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X430">
         <v>-1</v>
@@ -38807,16 +38807,16 @@
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA430">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB430">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC430">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38824,7 +38824,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>3951663</v>
+        <v>3958083</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38836,10 +38836,10 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F431" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G431" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H431">
         <v>3</v>
@@ -38851,61 +38851,61 @@
         <v>55</v>
       </c>
       <c r="K431">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L431">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M431">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N431">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="O431">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P431">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Q431">
+        <v>-1.75</v>
+      </c>
+      <c r="R431">
+        <v>1.8</v>
+      </c>
+      <c r="S431">
+        <v>2.05</v>
+      </c>
+      <c r="T431">
+        <v>3.25</v>
+      </c>
+      <c r="U431">
+        <v>1.95</v>
+      </c>
+      <c r="V431">
+        <v>1.9</v>
+      </c>
+      <c r="W431">
+        <v>0.222</v>
+      </c>
+      <c r="X431">
+        <v>-1</v>
+      </c>
+      <c r="Y431">
+        <v>-1</v>
+      </c>
+      <c r="Z431">
+        <v>0.8</v>
+      </c>
+      <c r="AA431">
+        <v>-1</v>
+      </c>
+      <c r="AB431">
         <v>-0.5</v>
       </c>
-      <c r="R431">
-        <v>1.975</v>
-      </c>
-      <c r="S431">
-        <v>1.875</v>
-      </c>
-      <c r="T431">
-        <v>2.75</v>
-      </c>
-      <c r="U431">
-        <v>1.8</v>
-      </c>
-      <c r="V431">
-        <v>2.05</v>
-      </c>
-      <c r="W431">
-        <v>0.909</v>
-      </c>
-      <c r="X431">
-        <v>-1</v>
-      </c>
-      <c r="Y431">
-        <v>-1</v>
-      </c>
-      <c r="Z431">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA431">
-        <v>-1</v>
-      </c>
-      <c r="AB431">
-        <v>0.4</v>
-      </c>
       <c r="AC431">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -38913,7 +38913,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3951662</v>
+        <v>3958082</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38925,76 +38925,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F432" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G432" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432">
         <v>1</v>
       </c>
       <c r="J432" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K432">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L432">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M432">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N432">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O432">
+        <v>5.25</v>
+      </c>
+      <c r="P432">
+        <v>7</v>
+      </c>
+      <c r="Q432">
+        <v>-1.5</v>
+      </c>
+      <c r="R432">
+        <v>2.025</v>
+      </c>
+      <c r="S432">
+        <v>1.825</v>
+      </c>
+      <c r="T432">
         <v>3.25</v>
       </c>
-      <c r="P432">
-        <v>3.1</v>
-      </c>
-      <c r="Q432">
-        <v>-0.25</v>
-      </c>
-      <c r="R432">
-        <v>2</v>
-      </c>
-      <c r="S432">
+      <c r="U432">
         <v>1.85</v>
       </c>
-      <c r="T432">
-        <v>2.5</v>
-      </c>
-      <c r="U432">
-        <v>1.95</v>
-      </c>
       <c r="V432">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W432">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X432">
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z432">
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB432">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC432">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39002,7 +39002,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>3951660</v>
+        <v>3951663</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39014,76 +39014,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F433" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G433" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K433">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L433">
         <v>3.4</v>
       </c>
       <c r="M433">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N433">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O433">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P433">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q433">
         <v>-0.5</v>
       </c>
       <c r="R433">
+        <v>1.975</v>
+      </c>
+      <c r="S433">
+        <v>1.875</v>
+      </c>
+      <c r="T433">
+        <v>2.75</v>
+      </c>
+      <c r="U433">
+        <v>1.8</v>
+      </c>
+      <c r="V433">
         <v>2.05</v>
       </c>
-      <c r="S433">
-        <v>1.8</v>
-      </c>
-      <c r="T433">
-        <v>2.5</v>
-      </c>
-      <c r="U433">
-        <v>1.925</v>
-      </c>
-      <c r="V433">
-        <v>1.925</v>
-      </c>
       <c r="W433">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X433">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y433">
         <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA433">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC433">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39091,7 +39091,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>3951661</v>
+        <v>3951660</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39103,76 +39103,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F434" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G434" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434">
         <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K434">
+        <v>1.833</v>
+      </c>
+      <c r="L434">
         <v>3.4</v>
       </c>
-      <c r="L434">
+      <c r="M434">
+        <v>4</v>
+      </c>
+      <c r="N434">
+        <v>2</v>
+      </c>
+      <c r="O434">
         <v>3.3</v>
       </c>
-      <c r="M434">
+      <c r="P434">
+        <v>3.4</v>
+      </c>
+      <c r="Q434">
+        <v>-0.5</v>
+      </c>
+      <c r="R434">
         <v>2.05</v>
       </c>
-      <c r="N434">
-        <v>3.6</v>
-      </c>
-      <c r="O434">
-        <v>3.5</v>
-      </c>
-      <c r="P434">
-        <v>1.909</v>
-      </c>
-      <c r="Q434">
-        <v>0.5</v>
-      </c>
-      <c r="R434">
-        <v>1.875</v>
-      </c>
       <c r="S434">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T434">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U434">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V434">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W434">
         <v>-1</v>
       </c>
       <c r="X434">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y434">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z434">
         <v>-1</v>
       </c>
       <c r="AA434">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB434">
         <v>-1</v>
       </c>
       <c r="AC434">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39180,7 +39180,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>3951659</v>
+        <v>3951662</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39192,76 +39192,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F435" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G435" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H435">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K435">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L435">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M435">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N435">
+        <v>2.2</v>
+      </c>
+      <c r="O435">
+        <v>3.25</v>
+      </c>
+      <c r="P435">
+        <v>3.1</v>
+      </c>
+      <c r="Q435">
+        <v>-0.25</v>
+      </c>
+      <c r="R435">
+        <v>2</v>
+      </c>
+      <c r="S435">
         <v>1.85</v>
-      </c>
-      <c r="O435">
-        <v>3.3</v>
-      </c>
-      <c r="P435">
-        <v>4</v>
-      </c>
-      <c r="Q435">
-        <v>-0.5</v>
-      </c>
-      <c r="R435">
-        <v>1.925</v>
-      </c>
-      <c r="S435">
-        <v>1.925</v>
       </c>
       <c r="T435">
         <v>2.5</v>
       </c>
       <c r="U435">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V435">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W435">
+        <v>-1</v>
+      </c>
+      <c r="X435">
+        <v>-1</v>
+      </c>
+      <c r="Y435">
+        <v>2.1</v>
+      </c>
+      <c r="Z435">
+        <v>-1</v>
+      </c>
+      <c r="AA435">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X435">
-        <v>-1</v>
-      </c>
-      <c r="Y435">
-        <v>-1</v>
-      </c>
-      <c r="Z435">
-        <v>0.925</v>
-      </c>
-      <c r="AA435">
-        <v>-1</v>
-      </c>
       <c r="AB435">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC435">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="436" spans="1:29">
@@ -65702,7 +65702,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5428774</v>
+        <v>5456594</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65714,76 +65714,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F733" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G733" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H733">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I733">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J733" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K733">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L733">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M733">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N733">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="O733">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P733">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q733">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R733">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S733">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T733">
         <v>3</v>
       </c>
       <c r="U733">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V733">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W733">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X733">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y733">
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA733">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB733">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC733">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65791,7 +65791,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5456594</v>
+        <v>5461475</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65803,76 +65803,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F734" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G734" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J734" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K734">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L734">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M734">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N734">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O734">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P734">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q734">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R734">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S734">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T734">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U734">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V734">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W734">
         <v>-1</v>
       </c>
       <c r="X734">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y734">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z734">
         <v>-1</v>
       </c>
       <c r="AA734">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB734">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC734">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -65880,7 +65880,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5456603</v>
+        <v>5428774</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65892,13 +65892,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F735" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G735" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I735">
         <v>0</v>
@@ -65907,43 +65907,43 @@
         <v>55</v>
       </c>
       <c r="K735">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L735">
+        <v>4</v>
+      </c>
+      <c r="M735">
         <v>4.75</v>
       </c>
-      <c r="M735">
-        <v>6.5</v>
-      </c>
       <c r="N735">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O735">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P735">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q735">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R735">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S735">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T735">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U735">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V735">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W735">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X735">
         <v>-1</v>
@@ -65952,16 +65952,16 @@
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA735">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB735">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC735">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65969,7 +65969,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5461474</v>
+        <v>5460884</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65981,76 +65981,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F736" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G736" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H736">
+        <v>0</v>
+      </c>
+      <c r="I736">
+        <v>0</v>
+      </c>
+      <c r="J736" t="s">
+        <v>56</v>
+      </c>
+      <c r="K736">
+        <v>3.6</v>
+      </c>
+      <c r="L736">
+        <v>3.5</v>
+      </c>
+      <c r="M736">
+        <v>1.909</v>
+      </c>
+      <c r="N736">
         <v>3</v>
       </c>
-      <c r="I736">
-        <v>1</v>
-      </c>
-      <c r="J736" t="s">
-        <v>55</v>
-      </c>
-      <c r="K736">
-        <v>1.7</v>
-      </c>
-      <c r="L736">
-        <v>3.8</v>
-      </c>
-      <c r="M736">
-        <v>4</v>
-      </c>
-      <c r="N736">
-        <v>1.833</v>
-      </c>
       <c r="O736">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P736">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R736">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S736">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T736">
         <v>2.75</v>
       </c>
       <c r="U736">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V736">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W736">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X736">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y736">
         <v>-1</v>
       </c>
       <c r="Z736">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA736">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB736">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC736">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="737" spans="1:29">
@@ -66058,7 +66058,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5460884</v>
+        <v>5465446</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66070,76 +66070,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F737" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G737" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I737">
         <v>0</v>
       </c>
       <c r="J737" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K737">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L737">
         <v>3.5</v>
       </c>
       <c r="M737">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N737">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O737">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P737">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q737">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R737">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S737">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T737">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U737">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V737">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W737">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X737">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y737">
         <v>-1</v>
       </c>
       <c r="Z737">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AA737">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB737">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC737">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66147,7 +66147,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5461475</v>
+        <v>5467427</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66159,76 +66159,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F738" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G738" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H738">
+        <v>1</v>
+      </c>
+      <c r="I738">
         <v>0</v>
       </c>
-      <c r="I738">
-        <v>3</v>
-      </c>
       <c r="J738" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K738">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L738">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M738">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N738">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="O738">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P738">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q738">
         <v>0</v>
       </c>
       <c r="R738">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S738">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T738">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U738">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V738">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W738">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X738">
         <v>-1</v>
       </c>
       <c r="Y738">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z738">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA738">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB738">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC738">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66236,7 +66236,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5467427</v>
+        <v>5461474</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66248,58 +66248,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F739" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G739" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H739">
+        <v>3</v>
+      </c>
+      <c r="I739">
         <v>1</v>
-      </c>
-      <c r="I739">
-        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>55</v>
       </c>
       <c r="K739">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L739">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M739">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N739">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O739">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P739">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q739">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R739">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S739">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T739">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U739">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V739">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W739">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66308,16 +66308,16 @@
         <v>-1</v>
       </c>
       <c r="Z739">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA739">
         <v>-1</v>
       </c>
       <c r="AB739">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC739">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740" spans="1:29">
@@ -66325,7 +66325,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5465446</v>
+        <v>5456603</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66337,13 +66337,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F740" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G740" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H740">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740">
         <v>0</v>
@@ -66352,43 +66352,43 @@
         <v>55</v>
       </c>
       <c r="K740">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L740">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M740">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N740">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O740">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P740">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q740">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R740">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S740">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T740">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U740">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V740">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W740">
-        <v>1.25</v>
+        <v>0.222</v>
       </c>
       <c r="X740">
         <v>-1</v>
@@ -66397,16 +66397,16 @@
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA740">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB740">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC740">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="741" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -8386,7 +8386,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2602691</v>
+        <v>2602689</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8398,76 +8398,76 @@
         <v>44306.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
         <v>2.025</v>
       </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2602689</v>
+        <v>2602691</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>44306.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
+        <v>2.025</v>
+      </c>
+      <c r="V90">
         <v>1.825</v>
       </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
       <c r="W90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8920,7 +8920,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2602688</v>
+        <v>2602684</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8932,76 +8932,76 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="L95">
         <v>3.3</v>
       </c>
       <c r="M95">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9009,7 +9009,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2602684</v>
+        <v>2602688</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9021,76 +9021,76 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L96">
         <v>3.3</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N96">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="O96">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z96">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2633433</v>
+        <v>2639772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,73 +11335,73 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N122">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W122">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11501,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2634307</v>
+        <v>2602716</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11513,76 +11513,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N124">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="O124">
         <v>4.2</v>
       </c>
       <c r="P124">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X124">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11590,7 +11590,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2639771</v>
+        <v>2602717</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11602,76 +11602,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K125">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.825</v>
+      </c>
+      <c r="S125">
+        <v>2.025</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
         <v>1.95</v>
       </c>
-      <c r="S125">
+      <c r="V125">
         <v>1.9</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.825</v>
-      </c>
-      <c r="V125">
-        <v>2.025</v>
-      </c>
       <c r="W125">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11679,7 +11679,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2602717</v>
+        <v>2639771</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11691,76 +11691,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K126">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M126">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P126">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R126">
+        <v>1.95</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
         <v>1.825</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>2.025</v>
       </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11768,7 +11768,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2639772</v>
+        <v>2634307</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11780,76 +11780,76 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>56</v>
+      </c>
+      <c r="K127">
+        <v>1.727</v>
+      </c>
+      <c r="L127">
+        <v>3.75</v>
+      </c>
+      <c r="M127">
+        <v>4.5</v>
+      </c>
+      <c r="N127">
+        <v>1.65</v>
+      </c>
+      <c r="O127">
+        <v>4.2</v>
+      </c>
+      <c r="P127">
+        <v>4.5</v>
+      </c>
+      <c r="Q127">
+        <v>-0.75</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>3</v>
       </c>
-      <c r="J127" t="s">
-        <v>54</v>
-      </c>
-      <c r="K127">
-        <v>2</v>
-      </c>
-      <c r="L127">
-        <v>3.5</v>
-      </c>
-      <c r="M127">
-        <v>3.6</v>
-      </c>
-      <c r="N127">
-        <v>1.45</v>
-      </c>
-      <c r="O127">
-        <v>4.5</v>
-      </c>
-      <c r="P127">
-        <v>6.5</v>
-      </c>
-      <c r="Q127">
-        <v>-1</v>
-      </c>
-      <c r="R127">
-        <v>1.8</v>
-      </c>
-      <c r="S127">
-        <v>2.05</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y127">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2602716</v>
+        <v>2633433</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11869,40 +11869,40 @@
         <v>44332.52083333334</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>55</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
         <v>3.25</v>
       </c>
       <c r="M128">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N128">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R128">
         <v>1.875</v>
@@ -11911,16 +11911,16 @@
         <v>1.975</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11935,10 +11935,10 @@
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -34463,7 +34463,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>3672510</v>
+        <v>3672612</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34475,49 +34475,49 @@
         <v>44667.3125</v>
       </c>
       <c r="F382" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G382" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
         <v>1</v>
       </c>
-      <c r="I382">
-        <v>0</v>
-      </c>
       <c r="J382" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K382">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L382">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M382">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N382">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O382">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P382">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q382">
         <v>0.25</v>
       </c>
       <c r="R382">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S382">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T382">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U382">
         <v>1.925</v>
@@ -34526,19 +34526,19 @@
         <v>1.925</v>
       </c>
       <c r="W382">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X382">
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z382">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB382">
         <v>-1</v>
@@ -34552,7 +34552,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>3672612</v>
+        <v>3672510</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34564,49 +34564,49 @@
         <v>44667.3125</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G383" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
         <v>0</v>
       </c>
-      <c r="I383">
-        <v>1</v>
-      </c>
       <c r="J383" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K383">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L383">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M383">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N383">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O383">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P383">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q383">
         <v>0.25</v>
       </c>
       <c r="R383">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S383">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T383">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U383">
         <v>1.925</v>
@@ -34615,19 +34615,19 @@
         <v>1.925</v>
       </c>
       <c r="W383">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA383">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
         <v>-1</v>
@@ -38468,7 +38468,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>3925813</v>
+        <v>3951661</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38480,55 +38480,55 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F427" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G427" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H427">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J427" t="s">
         <v>54</v>
       </c>
       <c r="K427">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="L427">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M427">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N427">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O427">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P427">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q427">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R427">
+        <v>1.875</v>
+      </c>
+      <c r="S427">
         <v>1.975</v>
       </c>
-      <c r="S427">
-        <v>1.875</v>
-      </c>
       <c r="T427">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U427">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V427">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W427">
         <v>-1</v>
@@ -38537,19 +38537,19 @@
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB427">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC427">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38557,7 +38557,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3951661</v>
+        <v>3951660</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38569,76 +38569,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F428" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G428" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I428">
         <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K428">
+        <v>1.833</v>
+      </c>
+      <c r="L428">
         <v>3.4</v>
       </c>
-      <c r="L428">
+      <c r="M428">
+        <v>4</v>
+      </c>
+      <c r="N428">
+        <v>2</v>
+      </c>
+      <c r="O428">
         <v>3.3</v>
       </c>
-      <c r="M428">
+      <c r="P428">
+        <v>3.4</v>
+      </c>
+      <c r="Q428">
+        <v>-0.5</v>
+      </c>
+      <c r="R428">
         <v>2.05</v>
       </c>
-      <c r="N428">
-        <v>3.6</v>
-      </c>
-      <c r="O428">
-        <v>3.5</v>
-      </c>
-      <c r="P428">
-        <v>1.909</v>
-      </c>
-      <c r="Q428">
-        <v>0.5</v>
-      </c>
-      <c r="R428">
-        <v>1.875</v>
-      </c>
       <c r="S428">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T428">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U428">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V428">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W428">
         <v>-1</v>
       </c>
       <c r="X428">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y428">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z428">
         <v>-1</v>
       </c>
       <c r="AA428">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB428">
         <v>-1</v>
       </c>
       <c r="AC428">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="429" spans="1:29">
@@ -38646,7 +38646,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>3945594</v>
+        <v>3951659</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -38658,73 +38658,73 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F429" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G429" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I429">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J429" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K429">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="L429">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M429">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="N429">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O429">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P429">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q429">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R429">
+        <v>1.925</v>
+      </c>
+      <c r="S429">
+        <v>1.925</v>
+      </c>
+      <c r="T429">
+        <v>2.5</v>
+      </c>
+      <c r="U429">
         <v>1.875</v>
       </c>
-      <c r="S429">
+      <c r="V429">
         <v>1.975</v>
       </c>
-      <c r="T429">
-        <v>3.25</v>
-      </c>
-      <c r="U429">
-        <v>1.925</v>
-      </c>
-      <c r="V429">
-        <v>1.925</v>
-      </c>
       <c r="W429">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X429">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA429">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB429">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC429">
         <v>-1</v>
@@ -38735,7 +38735,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>3951659</v>
+        <v>3945594</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38747,73 +38747,73 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F430" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G430" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J430" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K430">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L430">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M430">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="N430">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="O430">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P430">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q430">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R430">
+        <v>1.875</v>
+      </c>
+      <c r="S430">
+        <v>1.975</v>
+      </c>
+      <c r="T430">
+        <v>3.25</v>
+      </c>
+      <c r="U430">
         <v>1.925</v>
       </c>
-      <c r="S430">
+      <c r="V430">
         <v>1.925</v>
       </c>
-      <c r="T430">
-        <v>2.5</v>
-      </c>
-      <c r="U430">
-        <v>1.875</v>
-      </c>
-      <c r="V430">
-        <v>1.975</v>
-      </c>
       <c r="W430">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X430">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y430">
         <v>-1</v>
       </c>
       <c r="Z430">
+        <v>-1</v>
+      </c>
+      <c r="AA430">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB430">
         <v>0.925</v>
-      </c>
-      <c r="AA430">
-        <v>-1</v>
-      </c>
-      <c r="AB430">
-        <v>0.875</v>
       </c>
       <c r="AC430">
         <v>-1</v>
@@ -38824,7 +38824,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>3958083</v>
+        <v>3925813</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38836,76 +38836,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F431" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G431" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H431">
         <v>3</v>
       </c>
       <c r="I431">
+        <v>4</v>
+      </c>
+      <c r="J431" t="s">
+        <v>54</v>
+      </c>
+      <c r="K431">
+        <v>2.6</v>
+      </c>
+      <c r="L431">
+        <v>3.75</v>
+      </c>
+      <c r="M431">
+        <v>2.3</v>
+      </c>
+      <c r="N431">
+        <v>2.5</v>
+      </c>
+      <c r="O431">
+        <v>3.75</v>
+      </c>
+      <c r="P431">
+        <v>2.375</v>
+      </c>
+      <c r="Q431">
         <v>0</v>
       </c>
-      <c r="J431" t="s">
-        <v>55</v>
-      </c>
-      <c r="K431">
-        <v>1.55</v>
-      </c>
-      <c r="L431">
-        <v>4</v>
-      </c>
-      <c r="M431">
-        <v>5.25</v>
-      </c>
-      <c r="N431">
-        <v>1.222</v>
-      </c>
-      <c r="O431">
-        <v>6</v>
-      </c>
-      <c r="P431">
-        <v>11</v>
-      </c>
-      <c r="Q431">
-        <v>-1.75</v>
-      </c>
       <c r="R431">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S431">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T431">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U431">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V431">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W431">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X431">
         <v>-1</v>
       </c>
       <c r="Y431">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z431">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA431">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB431">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC431">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -38913,7 +38913,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3958082</v>
+        <v>3951663</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38925,58 +38925,58 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F432" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G432" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432" t="s">
         <v>55</v>
       </c>
       <c r="K432">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L432">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M432">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N432">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O432">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P432">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q432">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R432">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S432">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T432">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U432">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V432">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W432">
-        <v>0.333</v>
+        <v>0.909</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -38985,16 +38985,16 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA432">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB432">
+        <v>0.4</v>
+      </c>
+      <c r="AC432">
         <v>-0.5</v>
-      </c>
-      <c r="AC432">
-        <v>0.5</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39002,7 +39002,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>3951663</v>
+        <v>3958082</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39014,76 +39014,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F433" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G433" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J433" t="s">
         <v>55</v>
       </c>
       <c r="K433">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L433">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M433">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N433">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O433">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P433">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q433">
+        <v>-1.5</v>
+      </c>
+      <c r="R433">
+        <v>2.025</v>
+      </c>
+      <c r="S433">
+        <v>1.825</v>
+      </c>
+      <c r="T433">
+        <v>3.25</v>
+      </c>
+      <c r="U433">
+        <v>1.85</v>
+      </c>
+      <c r="V433">
+        <v>2</v>
+      </c>
+      <c r="W433">
+        <v>0.333</v>
+      </c>
+      <c r="X433">
+        <v>-1</v>
+      </c>
+      <c r="Y433">
+        <v>-1</v>
+      </c>
+      <c r="Z433">
+        <v>-1</v>
+      </c>
+      <c r="AA433">
+        <v>0.825</v>
+      </c>
+      <c r="AB433">
         <v>-0.5</v>
       </c>
-      <c r="R433">
-        <v>1.975</v>
-      </c>
-      <c r="S433">
-        <v>1.875</v>
-      </c>
-      <c r="T433">
-        <v>2.75</v>
-      </c>
-      <c r="U433">
-        <v>1.8</v>
-      </c>
-      <c r="V433">
-        <v>2.05</v>
-      </c>
-      <c r="W433">
-        <v>0.909</v>
-      </c>
-      <c r="X433">
-        <v>-1</v>
-      </c>
-      <c r="Y433">
-        <v>-1</v>
-      </c>
-      <c r="Z433">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA433">
-        <v>-1</v>
-      </c>
-      <c r="AB433">
-        <v>0.4</v>
-      </c>
       <c r="AC433">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39091,7 +39091,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>3951660</v>
+        <v>3958083</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39103,76 +39103,76 @@
         <v>44702.52083333334</v>
       </c>
       <c r="F434" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G434" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J434" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K434">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="L434">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M434">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N434">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="O434">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P434">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q434">
+        <v>-1.75</v>
+      </c>
+      <c r="R434">
+        <v>1.8</v>
+      </c>
+      <c r="S434">
+        <v>2.05</v>
+      </c>
+      <c r="T434">
+        <v>3.25</v>
+      </c>
+      <c r="U434">
+        <v>1.95</v>
+      </c>
+      <c r="V434">
+        <v>1.9</v>
+      </c>
+      <c r="W434">
+        <v>0.222</v>
+      </c>
+      <c r="X434">
+        <v>-1</v>
+      </c>
+      <c r="Y434">
+        <v>-1</v>
+      </c>
+      <c r="Z434">
+        <v>0.8</v>
+      </c>
+      <c r="AA434">
+        <v>-1</v>
+      </c>
+      <c r="AB434">
         <v>-0.5</v>
       </c>
-      <c r="R434">
-        <v>2.05</v>
-      </c>
-      <c r="S434">
-        <v>1.8</v>
-      </c>
-      <c r="T434">
-        <v>2.5</v>
-      </c>
-      <c r="U434">
-        <v>1.925</v>
-      </c>
-      <c r="V434">
-        <v>1.925</v>
-      </c>
-      <c r="W434">
-        <v>-1</v>
-      </c>
-      <c r="X434">
-        <v>2.3</v>
-      </c>
-      <c r="Y434">
-        <v>-1</v>
-      </c>
-      <c r="Z434">
-        <v>-1</v>
-      </c>
-      <c r="AA434">
-        <v>0.8</v>
-      </c>
-      <c r="AB434">
-        <v>-1</v>
-      </c>
       <c r="AC434">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -41049,7 +41049,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5144084</v>
+        <v>5144935</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41061,40 +41061,40 @@
         <v>44773.52083333334</v>
       </c>
       <c r="F456" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G456" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I456">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J456" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K456">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="L456">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M456">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="N456">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O456">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P456">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="Q456">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R456">
         <v>1.95</v>
@@ -41106,19 +41106,19 @@
         <v>2.75</v>
       </c>
       <c r="U456">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V456">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
         <v>-1</v>
@@ -41127,7 +41127,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB456">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -41138,7 +41138,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5144935</v>
+        <v>5144084</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41150,40 +41150,40 @@
         <v>44773.52083333334</v>
       </c>
       <c r="F457" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G457" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H457">
+        <v>1</v>
+      </c>
+      <c r="I457">
         <v>3</v>
       </c>
-      <c r="I457">
-        <v>2</v>
-      </c>
       <c r="J457" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K457">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L457">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M457">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N457">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O457">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P457">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="Q457">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R457">
         <v>1.95</v>
@@ -41195,19 +41195,19 @@
         <v>2.75</v>
       </c>
       <c r="U457">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V457">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W457">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X457">
         <v>-1</v>
       </c>
       <c r="Y457">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z457">
         <v>-1</v>
@@ -41216,7 +41216,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB457">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC457">
         <v>-1</v>
@@ -65702,7 +65702,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5456594</v>
+        <v>5461475</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65714,76 +65714,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F733" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G733" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J733" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K733">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L733">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M733">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N733">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O733">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P733">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q733">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R733">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S733">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T733">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U733">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V733">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W733">
         <v>-1</v>
       </c>
       <c r="X733">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y733">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z733">
         <v>-1</v>
       </c>
       <c r="AA733">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB733">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC733">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65791,7 +65791,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5461475</v>
+        <v>5461474</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65803,73 +65803,73 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F734" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G734" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I734">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J734" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K734">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L734">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M734">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N734">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O734">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P734">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q734">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R734">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S734">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T734">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U734">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V734">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W734">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X734">
         <v>-1</v>
       </c>
       <c r="Y734">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z734">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA734">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB734">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC734">
         <v>-1</v>
@@ -65880,7 +65880,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5428774</v>
+        <v>5467427</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65892,13 +65892,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F735" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G735" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H735">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I735">
         <v>0</v>
@@ -65907,43 +65907,43 @@
         <v>55</v>
       </c>
       <c r="K735">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L735">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M735">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N735">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O735">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P735">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q735">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R735">
+        <v>1.925</v>
+      </c>
+      <c r="S735">
+        <v>1.925</v>
+      </c>
+      <c r="T735">
+        <v>2.25</v>
+      </c>
+      <c r="U735">
+        <v>1.975</v>
+      </c>
+      <c r="V735">
         <v>1.875</v>
       </c>
-      <c r="S735">
-        <v>1.975</v>
-      </c>
-      <c r="T735">
-        <v>3</v>
-      </c>
-      <c r="U735">
-        <v>1.875</v>
-      </c>
-      <c r="V735">
-        <v>1.975</v>
-      </c>
       <c r="W735">
-        <v>0.5329999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X735">
         <v>-1</v>
@@ -65952,16 +65952,16 @@
         <v>-1</v>
       </c>
       <c r="Z735">
+        <v>0.925</v>
+      </c>
+      <c r="AA735">
+        <v>-1</v>
+      </c>
+      <c r="AB735">
+        <v>-1</v>
+      </c>
+      <c r="AC735">
         <v>0.875</v>
-      </c>
-      <c r="AA735">
-        <v>-1</v>
-      </c>
-      <c r="AB735">
-        <v>0.875</v>
-      </c>
-      <c r="AC735">
-        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -66058,7 +66058,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>5465446</v>
+        <v>5456603</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -66070,13 +66070,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F737" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G737" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H737">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737">
         <v>0</v>
@@ -66085,43 +66085,43 @@
         <v>55</v>
       </c>
       <c r="K737">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L737">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M737">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N737">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O737">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P737">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q737">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R737">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S737">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T737">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U737">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V737">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W737">
-        <v>1.25</v>
+        <v>0.222</v>
       </c>
       <c r="X737">
         <v>-1</v>
@@ -66130,16 +66130,16 @@
         <v>-1</v>
       </c>
       <c r="Z737">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA737">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB737">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC737">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="738" spans="1:29">
@@ -66147,7 +66147,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>5467427</v>
+        <v>5428774</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66159,13 +66159,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F738" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G738" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I738">
         <v>0</v>
@@ -66174,43 +66174,43 @@
         <v>55</v>
       </c>
       <c r="K738">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L738">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M738">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N738">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O738">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P738">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q738">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R738">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S738">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T738">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U738">
+        <v>1.875</v>
+      </c>
+      <c r="V738">
         <v>1.975</v>
       </c>
-      <c r="V738">
-        <v>1.875</v>
-      </c>
       <c r="W738">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X738">
         <v>-1</v>
@@ -66219,16 +66219,16 @@
         <v>-1</v>
       </c>
       <c r="Z738">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA738">
         <v>-1</v>
       </c>
       <c r="AB738">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC738">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739" spans="1:29">
@@ -66236,7 +66236,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>5461474</v>
+        <v>5465446</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66248,58 +66248,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F739" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G739" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H739">
         <v>3</v>
       </c>
       <c r="I739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J739" t="s">
         <v>55</v>
       </c>
       <c r="K739">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L739">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M739">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N739">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O739">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P739">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q739">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R739">
+        <v>2.05</v>
+      </c>
+      <c r="S739">
+        <v>1.75</v>
+      </c>
+      <c r="T739">
+        <v>2.5</v>
+      </c>
+      <c r="U739">
         <v>1.825</v>
       </c>
-      <c r="S739">
+      <c r="V739">
         <v>2.025</v>
       </c>
-      <c r="T739">
-        <v>2.75</v>
-      </c>
-      <c r="U739">
-        <v>1.9</v>
-      </c>
-      <c r="V739">
-        <v>1.95</v>
-      </c>
       <c r="W739">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X739">
         <v>-1</v>
@@ -66308,13 +66308,13 @@
         <v>-1</v>
       </c>
       <c r="Z739">
+        <v>1.05</v>
+      </c>
+      <c r="AA739">
+        <v>-1</v>
+      </c>
+      <c r="AB739">
         <v>0.825</v>
-      </c>
-      <c r="AA739">
-        <v>-1</v>
-      </c>
-      <c r="AB739">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC739">
         <v>-1</v>
@@ -66325,7 +66325,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>5456603</v>
+        <v>5456594</v>
       </c>
       <c r="C740" t="s">
         <v>28</v>
@@ -66337,76 +66337,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F740" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G740" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J740" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K740">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L740">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M740">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N740">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="O740">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P740">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q740">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R740">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S740">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T740">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U740">
+        <v>1.9</v>
+      </c>
+      <c r="V740">
         <v>1.95</v>
       </c>
-      <c r="V740">
-        <v>1.9</v>
-      </c>
       <c r="W740">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X740">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y740">
         <v>-1</v>
       </c>
       <c r="Z740">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA740">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB740">
         <v>-1</v>
       </c>
       <c r="AC740">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="741" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5461475</v>
+        <v>5460884</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>50</v>
+      </c>
+      <c r="K147">
+        <v>3.6</v>
+      </c>
+      <c r="L147">
+        <v>3.5</v>
+      </c>
+      <c r="M147">
+        <v>1.909</v>
+      </c>
+      <c r="N147">
         <v>3</v>
       </c>
-      <c r="J147" t="s">
-        <v>51</v>
-      </c>
-      <c r="K147">
+      <c r="O147">
+        <v>3.5</v>
+      </c>
+      <c r="P147">
         <v>2.1</v>
       </c>
-      <c r="L147">
-        <v>3.3</v>
-      </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.375</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
-      <c r="P147">
-        <v>2.7</v>
-      </c>
       <c r="Q147">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.5</v>
       </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5461474</v>
+        <v>5456603</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,76 +13637,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>52</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M148">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N148">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q148">
+        <v>-1.75</v>
+      </c>
+      <c r="R148">
+        <v>1.925</v>
+      </c>
+      <c r="S148">
+        <v>1.925</v>
+      </c>
+      <c r="T148">
+        <v>3.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>1.9</v>
+      </c>
+      <c r="W148">
+        <v>0.222</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.4625</v>
+      </c>
+      <c r="AA148">
         <v>-0.5</v>
       </c>
-      <c r="R148">
-        <v>1.825</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
-      <c r="W148">
-        <v>0.833</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.825</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5467427</v>
+        <v>5456594</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K149">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5460884</v>
+        <v>5428774</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N150">
+        <v>1.533</v>
+      </c>
+      <c r="O150">
+        <v>4.333</v>
+      </c>
+      <c r="P150">
+        <v>4.75</v>
+      </c>
+      <c r="Q150">
+        <v>-1</v>
+      </c>
+      <c r="R150">
+        <v>1.875</v>
+      </c>
+      <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>2.1</v>
-      </c>
-      <c r="Q150">
-        <v>0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>1.9</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
       <c r="U150">
+        <v>1.875</v>
+      </c>
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5456603</v>
+        <v>5461475</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151" t="s">
+        <v>51</v>
+      </c>
+      <c r="K151">
+        <v>2.1</v>
+      </c>
+      <c r="L151">
+        <v>3.3</v>
+      </c>
+      <c r="M151">
+        <v>3.2</v>
+      </c>
+      <c r="N151">
+        <v>2.375</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
+        <v>2.7</v>
+      </c>
+      <c r="Q151">
         <v>0</v>
       </c>
-      <c r="J151" t="s">
-        <v>52</v>
-      </c>
-      <c r="K151">
-        <v>1.363</v>
-      </c>
-      <c r="L151">
-        <v>4.75</v>
-      </c>
-      <c r="M151">
-        <v>6.5</v>
-      </c>
-      <c r="N151">
-        <v>1.222</v>
-      </c>
-      <c r="O151">
-        <v>5.5</v>
-      </c>
-      <c r="P151">
-        <v>8</v>
-      </c>
-      <c r="Q151">
-        <v>-1.75</v>
-      </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z151">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5428774</v>
+        <v>5461474</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,58 +13993,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L152">
+        <v>3.8</v>
+      </c>
+      <c r="M152">
         <v>4</v>
       </c>
-      <c r="M152">
-        <v>4.75</v>
-      </c>
       <c r="N152">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O152">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>0.5329999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14053,13 +14053,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5456594</v>
+        <v>5467427</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N154">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O154">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X154">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5465446</v>
+        <v>5467427</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,13 +14082,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14097,43 +14097,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
+        <v>2.6</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
+        <v>2.625</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>1.925</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
         <v>2.25</v>
       </c>
-      <c r="O153">
-        <v>3.6</v>
-      </c>
-      <c r="P153">
-        <v>2.7</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>2.05</v>
-      </c>
-      <c r="S153">
-        <v>1.75</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5467427</v>
+        <v>5465446</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,13 +14171,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14186,43 +14186,43 @@
         <v>52</v>
       </c>
       <c r="K154">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N154">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC322"/>
+  <dimension ref="A1:AC331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5460884</v>
+        <v>5456594</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>50</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N147">
+        <v>1.3</v>
+      </c>
+      <c r="O147">
+        <v>5.25</v>
+      </c>
+      <c r="P147">
+        <v>7</v>
+      </c>
+      <c r="Q147">
+        <v>-1.5</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.1</v>
-      </c>
-      <c r="Q147">
-        <v>0.25</v>
-      </c>
-      <c r="R147">
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.975</v>
-      </c>
-      <c r="V147">
-        <v>1.875</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5456594</v>
+        <v>5460884</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="O149">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
         <v>1.9</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5428774</v>
+        <v>5461474</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,58 +13815,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>52</v>
       </c>
       <c r="K150">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L150">
+        <v>3.8</v>
+      </c>
+      <c r="M150">
         <v>4</v>
       </c>
-      <c r="M150">
-        <v>4.75</v>
-      </c>
       <c r="N150">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.5329999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,13 +13875,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5461474</v>
+        <v>5428774</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,58 +13993,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0.833</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14053,13 +14053,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5467427</v>
+        <v>5465446</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,13 +14082,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14097,43 +14097,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N153">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5465446</v>
+        <v>5467427</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,13 +14171,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14186,43 +14186,43 @@
         <v>52</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N154">
+        <v>2.6</v>
+      </c>
+      <c r="O154">
+        <v>3.1</v>
+      </c>
+      <c r="P154">
+        <v>2.625</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>1.925</v>
+      </c>
+      <c r="S154">
+        <v>1.925</v>
+      </c>
+      <c r="T154">
         <v>2.25</v>
       </c>
-      <c r="O154">
-        <v>3.6</v>
-      </c>
-      <c r="P154">
-        <v>2.7</v>
-      </c>
-      <c r="Q154">
-        <v>-0.25</v>
-      </c>
-      <c r="R154">
-        <v>2.05</v>
-      </c>
-      <c r="S154">
-        <v>1.75</v>
-      </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -29193,6 +29193,672 @@
       </c>
       <c r="AC322">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>6774883</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45331.58333333334</v>
+      </c>
+      <c r="F323" t="s">
+        <v>30</v>
+      </c>
+      <c r="G323" t="s">
+        <v>49</v>
+      </c>
+      <c r="K323">
+        <v>2</v>
+      </c>
+      <c r="L323">
+        <v>3.5</v>
+      </c>
+      <c r="M323">
+        <v>3.6</v>
+      </c>
+      <c r="N323">
+        <v>2.1</v>
+      </c>
+      <c r="O323">
+        <v>3.4</v>
+      </c>
+      <c r="P323">
+        <v>3.3</v>
+      </c>
+      <c r="Q323">
+        <v>-0.25</v>
+      </c>
+      <c r="R323">
+        <v>1.875</v>
+      </c>
+      <c r="S323">
+        <v>1.975</v>
+      </c>
+      <c r="T323">
+        <v>2.5</v>
+      </c>
+      <c r="U323">
+        <v>2.05</v>
+      </c>
+      <c r="V323">
+        <v>1.8</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>6774458</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45331.6875</v>
+      </c>
+      <c r="F324" t="s">
+        <v>47</v>
+      </c>
+      <c r="G324" t="s">
+        <v>35</v>
+      </c>
+      <c r="K324">
+        <v>5</v>
+      </c>
+      <c r="L324">
+        <v>3.75</v>
+      </c>
+      <c r="M324">
+        <v>1.666</v>
+      </c>
+      <c r="N324">
+        <v>5.5</v>
+      </c>
+      <c r="O324">
+        <v>3.8</v>
+      </c>
+      <c r="P324">
+        <v>1.615</v>
+      </c>
+      <c r="Q324">
+        <v>0.75</v>
+      </c>
+      <c r="R324">
+        <v>2.05</v>
+      </c>
+      <c r="S324">
+        <v>1.8</v>
+      </c>
+      <c r="T324">
+        <v>2.5</v>
+      </c>
+      <c r="U324">
+        <v>1.9</v>
+      </c>
+      <c r="V324">
+        <v>1.95</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>6775535</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F325" t="s">
+        <v>37</v>
+      </c>
+      <c r="G325" t="s">
+        <v>41</v>
+      </c>
+      <c r="K325">
+        <v>2.15</v>
+      </c>
+      <c r="L325">
+        <v>3.3</v>
+      </c>
+      <c r="M325">
+        <v>3.4</v>
+      </c>
+      <c r="N325">
+        <v>2.15</v>
+      </c>
+      <c r="O325">
+        <v>3.3</v>
+      </c>
+      <c r="P325">
+        <v>3.4</v>
+      </c>
+      <c r="Q325">
+        <v>-0.25</v>
+      </c>
+      <c r="R325">
+        <v>1.875</v>
+      </c>
+      <c r="S325">
+        <v>1.975</v>
+      </c>
+      <c r="T325">
+        <v>2.25</v>
+      </c>
+      <c r="U325">
+        <v>2</v>
+      </c>
+      <c r="V325">
+        <v>1.85</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>6775537</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45332.5625</v>
+      </c>
+      <c r="F326" t="s">
+        <v>34</v>
+      </c>
+      <c r="G326" t="s">
+        <v>39</v>
+      </c>
+      <c r="K326">
+        <v>1.909</v>
+      </c>
+      <c r="L326">
+        <v>3.3</v>
+      </c>
+      <c r="M326">
+        <v>4.2</v>
+      </c>
+      <c r="N326">
+        <v>1.909</v>
+      </c>
+      <c r="O326">
+        <v>3.3</v>
+      </c>
+      <c r="P326">
+        <v>4.2</v>
+      </c>
+      <c r="Q326">
+        <v>-0.5</v>
+      </c>
+      <c r="R326">
+        <v>1.9</v>
+      </c>
+      <c r="S326">
+        <v>1.95</v>
+      </c>
+      <c r="T326">
+        <v>2.25</v>
+      </c>
+      <c r="U326">
+        <v>2.05</v>
+      </c>
+      <c r="V326">
+        <v>1.8</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>6775536</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45332.66666666666</v>
+      </c>
+      <c r="F327" t="s">
+        <v>42</v>
+      </c>
+      <c r="G327" t="s">
+        <v>40</v>
+      </c>
+      <c r="K327">
+        <v>1.571</v>
+      </c>
+      <c r="L327">
+        <v>4</v>
+      </c>
+      <c r="M327">
+        <v>5.5</v>
+      </c>
+      <c r="N327">
+        <v>1.571</v>
+      </c>
+      <c r="O327">
+        <v>4</v>
+      </c>
+      <c r="P327">
+        <v>5.5</v>
+      </c>
+      <c r="Q327">
+        <v>-1</v>
+      </c>
+      <c r="R327">
+        <v>2.025</v>
+      </c>
+      <c r="S327">
+        <v>1.825</v>
+      </c>
+      <c r="T327">
+        <v>2.5</v>
+      </c>
+      <c r="U327">
+        <v>1.85</v>
+      </c>
+      <c r="V327">
+        <v>2</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>6775539</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45333.35416666666</v>
+      </c>
+      <c r="F328" t="s">
+        <v>31</v>
+      </c>
+      <c r="G328" t="s">
+        <v>38</v>
+      </c>
+      <c r="K328">
+        <v>4.75</v>
+      </c>
+      <c r="L328">
+        <v>3.5</v>
+      </c>
+      <c r="M328">
+        <v>1.75</v>
+      </c>
+      <c r="N328">
+        <v>4.75</v>
+      </c>
+      <c r="O328">
+        <v>3.5</v>
+      </c>
+      <c r="P328">
+        <v>1.75</v>
+      </c>
+      <c r="Q328">
+        <v>0.75</v>
+      </c>
+      <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
+        <v>2.025</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
+        <v>1.925</v>
+      </c>
+      <c r="V328">
+        <v>1.925</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>6775540</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F329" t="s">
+        <v>32</v>
+      </c>
+      <c r="G329" t="s">
+        <v>46</v>
+      </c>
+      <c r="K329">
+        <v>2.6</v>
+      </c>
+      <c r="L329">
+        <v>3.4</v>
+      </c>
+      <c r="M329">
+        <v>2.6</v>
+      </c>
+      <c r="N329">
+        <v>2.7</v>
+      </c>
+      <c r="O329">
+        <v>3.4</v>
+      </c>
+      <c r="P329">
+        <v>2.5</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>2.025</v>
+      </c>
+      <c r="S329">
+        <v>1.825</v>
+      </c>
+      <c r="T329">
+        <v>2.5</v>
+      </c>
+      <c r="U329">
+        <v>1.925</v>
+      </c>
+      <c r="V329">
+        <v>1.925</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>6775538</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45333.5625</v>
+      </c>
+      <c r="F330" t="s">
+        <v>33</v>
+      </c>
+      <c r="G330" t="s">
+        <v>43</v>
+      </c>
+      <c r="K330">
+        <v>3.9</v>
+      </c>
+      <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>1.909</v>
+      </c>
+      <c r="N330">
+        <v>2.75</v>
+      </c>
+      <c r="O330">
+        <v>3.3</v>
+      </c>
+      <c r="P330">
+        <v>2.55</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>2</v>
+      </c>
+      <c r="S330">
+        <v>1.85</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>1.975</v>
+      </c>
+      <c r="V330">
+        <v>1.875</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>6774457</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45334.625</v>
+      </c>
+      <c r="F331" t="s">
+        <v>44</v>
+      </c>
+      <c r="G331" t="s">
+        <v>48</v>
+      </c>
+      <c r="K331">
+        <v>1.95</v>
+      </c>
+      <c r="L331">
+        <v>3.5</v>
+      </c>
+      <c r="M331">
+        <v>3.75</v>
+      </c>
+      <c r="N331">
+        <v>1.75</v>
+      </c>
+      <c r="O331">
+        <v>3.4</v>
+      </c>
+      <c r="P331">
+        <v>5</v>
+      </c>
+      <c r="Q331">
+        <v>-0.75</v>
+      </c>
+      <c r="R331">
+        <v>2.025</v>
+      </c>
+      <c r="S331">
+        <v>1.825</v>
+      </c>
+      <c r="T331">
+        <v>2.5</v>
+      </c>
+      <c r="U331">
+        <v>2.025</v>
+      </c>
+      <c r="V331">
+        <v>1.825</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC331"/>
+  <dimension ref="A1:AC328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5456594</v>
+        <v>5456603</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K147">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M147">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N147">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O147">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>3.25</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X147">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5456603</v>
+        <v>5461475</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,76 +13637,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L148">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M148">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>1.222</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P148">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q148">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z148">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5461475</v>
+        <v>5428774</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,73 +13904,73 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>52</v>
+      </c>
+      <c r="K151">
+        <v>1.571</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>4.75</v>
+      </c>
+      <c r="N151">
+        <v>1.533</v>
+      </c>
+      <c r="O151">
+        <v>4.333</v>
+      </c>
+      <c r="P151">
+        <v>4.75</v>
+      </c>
+      <c r="Q151">
+        <v>-1</v>
+      </c>
+      <c r="R151">
+        <v>1.875</v>
+      </c>
+      <c r="S151">
+        <v>1.975</v>
+      </c>
+      <c r="T151">
         <v>3</v>
       </c>
-      <c r="J151" t="s">
-        <v>51</v>
-      </c>
-      <c r="K151">
-        <v>2.1</v>
-      </c>
-      <c r="L151">
-        <v>3.3</v>
-      </c>
-      <c r="M151">
-        <v>3.2</v>
-      </c>
-      <c r="N151">
-        <v>2.375</v>
-      </c>
-      <c r="O151">
-        <v>3.3</v>
-      </c>
-      <c r="P151">
-        <v>2.7</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>1.8</v>
-      </c>
-      <c r="S151">
-        <v>2.05</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5428774</v>
+        <v>5456594</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M152">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N152">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="O152">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>3</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5465446</v>
+        <v>5467427</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,13 +14082,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14097,43 +14097,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
+        <v>2.6</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
+        <v>2.625</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>1.925</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
         <v>2.25</v>
       </c>
-      <c r="O153">
-        <v>3.6</v>
-      </c>
-      <c r="P153">
-        <v>2.7</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>2.05</v>
-      </c>
-      <c r="S153">
-        <v>1.75</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5467427</v>
+        <v>5465446</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,13 +14171,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -14186,43 +14186,43 @@
         <v>52</v>
       </c>
       <c r="K154">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L154">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N154">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -29217,6 +29217,15 @@
       <c r="G323" t="s">
         <v>49</v>
       </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>52</v>
+      </c>
       <c r="K323">
         <v>2</v>
       </c>
@@ -29227,46 +29236,52 @@
         <v>3.6</v>
       </c>
       <c r="N323">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O323">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P323">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S323">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T323">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U323">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA323">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB323">
+        <v>0.95</v>
+      </c>
+      <c r="AC323">
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29291,6 +29306,15 @@
       <c r="G324" t="s">
         <v>35</v>
       </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324" t="s">
+        <v>51</v>
+      </c>
       <c r="K324">
         <v>5</v>
       </c>
@@ -29301,46 +29325,52 @@
         <v>1.666</v>
       </c>
       <c r="N324">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O324">
         <v>3.8</v>
       </c>
       <c r="P324">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="Q324">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R324">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S324">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
         <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V324">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z324">
         <v>0</v>
       </c>
       <c r="AA324">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB324">
+        <v>-1</v>
+      </c>
+      <c r="AC324">
+        <v>0.825</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29348,7 +29378,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6775535</v>
+        <v>6775539</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29357,49 +29387,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45332.45833333334</v>
+        <v>45333.35416666666</v>
       </c>
       <c r="F325" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G325" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K325">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="L325">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M325">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="N325">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="O325">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P325">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q325">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R325">
+        <v>1.975</v>
+      </c>
+      <c r="S325">
         <v>1.875</v>
-      </c>
-      <c r="S325">
-        <v>1.975</v>
       </c>
       <c r="T325">
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29422,7 +29452,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6775537</v>
+        <v>6775540</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29431,49 +29461,49 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45332.5625</v>
+        <v>45333.45833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G326" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K326">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L326">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M326">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N326">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O326">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R326">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T326">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U326">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V326">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29496,7 +29526,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6775536</v>
+        <v>6775538</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29505,49 +29535,49 @@
         <v>28</v>
       </c>
       <c r="E327" s="2">
-        <v>45332.66666666666</v>
+        <v>45333.5625</v>
       </c>
       <c r="F327" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G327" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K327">
-        <v>1.571</v>
+        <v>3.9</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M327">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N327">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O327">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P327">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q327">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R327">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S327">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T327">
         <v>2.5</v>
       </c>
       <c r="U327">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V327">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
         <v>0</v>
@@ -29570,7 +29600,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6775539</v>
+        <v>6774457</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29579,49 +29609,49 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45333.35416666666</v>
+        <v>45334.625</v>
       </c>
       <c r="F328" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G328" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K328">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="L328">
         <v>3.5</v>
       </c>
       <c r="M328">
+        <v>3.75</v>
+      </c>
+      <c r="N328">
         <v>1.75</v>
       </c>
-      <c r="N328">
-        <v>4.75</v>
-      </c>
       <c r="O328">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P328">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q328">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R328">
+        <v>2.025</v>
+      </c>
+      <c r="S328">
         <v>1.825</v>
       </c>
-      <c r="S328">
+      <c r="T328">
+        <v>2.5</v>
+      </c>
+      <c r="U328">
         <v>2.025</v>
       </c>
-      <c r="T328">
-        <v>2.25</v>
-      </c>
-      <c r="U328">
-        <v>1.925</v>
-      </c>
       <c r="V328">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29636,228 +29666,6 @@
         <v>0</v>
       </c>
       <c r="AA328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:29">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>6775540</v>
-      </c>
-      <c r="C329" t="s">
-        <v>28</v>
-      </c>
-      <c r="D329" t="s">
-        <v>28</v>
-      </c>
-      <c r="E329" s="2">
-        <v>45333.45833333334</v>
-      </c>
-      <c r="F329" t="s">
-        <v>32</v>
-      </c>
-      <c r="G329" t="s">
-        <v>46</v>
-      </c>
-      <c r="K329">
-        <v>2.6</v>
-      </c>
-      <c r="L329">
-        <v>3.4</v>
-      </c>
-      <c r="M329">
-        <v>2.6</v>
-      </c>
-      <c r="N329">
-        <v>2.7</v>
-      </c>
-      <c r="O329">
-        <v>3.4</v>
-      </c>
-      <c r="P329">
-        <v>2.5</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>2.025</v>
-      </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
-      <c r="T329">
-        <v>2.5</v>
-      </c>
-      <c r="U329">
-        <v>1.925</v>
-      </c>
-      <c r="V329">
-        <v>1.925</v>
-      </c>
-      <c r="W329">
-        <v>0</v>
-      </c>
-      <c r="X329">
-        <v>0</v>
-      </c>
-      <c r="Y329">
-        <v>0</v>
-      </c>
-      <c r="Z329">
-        <v>0</v>
-      </c>
-      <c r="AA329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:29">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>6775538</v>
-      </c>
-      <c r="C330" t="s">
-        <v>28</v>
-      </c>
-      <c r="D330" t="s">
-        <v>28</v>
-      </c>
-      <c r="E330" s="2">
-        <v>45333.5625</v>
-      </c>
-      <c r="F330" t="s">
-        <v>33</v>
-      </c>
-      <c r="G330" t="s">
-        <v>43</v>
-      </c>
-      <c r="K330">
-        <v>3.9</v>
-      </c>
-      <c r="L330">
-        <v>3.5</v>
-      </c>
-      <c r="M330">
-        <v>1.909</v>
-      </c>
-      <c r="N330">
-        <v>2.75</v>
-      </c>
-      <c r="O330">
-        <v>3.3</v>
-      </c>
-      <c r="P330">
-        <v>2.55</v>
-      </c>
-      <c r="Q330">
-        <v>0</v>
-      </c>
-      <c r="R330">
-        <v>2</v>
-      </c>
-      <c r="S330">
-        <v>1.85</v>
-      </c>
-      <c r="T330">
-        <v>2.5</v>
-      </c>
-      <c r="U330">
-        <v>1.975</v>
-      </c>
-      <c r="V330">
-        <v>1.875</v>
-      </c>
-      <c r="W330">
-        <v>0</v>
-      </c>
-      <c r="X330">
-        <v>0</v>
-      </c>
-      <c r="Y330">
-        <v>0</v>
-      </c>
-      <c r="Z330">
-        <v>0</v>
-      </c>
-      <c r="AA330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:29">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="B331">
-        <v>6774457</v>
-      </c>
-      <c r="C331" t="s">
-        <v>28</v>
-      </c>
-      <c r="D331" t="s">
-        <v>28</v>
-      </c>
-      <c r="E331" s="2">
-        <v>45334.625</v>
-      </c>
-      <c r="F331" t="s">
-        <v>44</v>
-      </c>
-      <c r="G331" t="s">
-        <v>48</v>
-      </c>
-      <c r="K331">
-        <v>1.95</v>
-      </c>
-      <c r="L331">
-        <v>3.5</v>
-      </c>
-      <c r="M331">
-        <v>3.75</v>
-      </c>
-      <c r="N331">
-        <v>1.75</v>
-      </c>
-      <c r="O331">
-        <v>3.4</v>
-      </c>
-      <c r="P331">
-        <v>5</v>
-      </c>
-      <c r="Q331">
-        <v>-0.75</v>
-      </c>
-      <c r="R331">
-        <v>2.025</v>
-      </c>
-      <c r="S331">
-        <v>1.825</v>
-      </c>
-      <c r="T331">
-        <v>2.5</v>
-      </c>
-      <c r="U331">
-        <v>2.025</v>
-      </c>
-      <c r="V331">
-        <v>1.825</v>
-      </c>
-      <c r="W331">
-        <v>0</v>
-      </c>
-      <c r="X331">
-        <v>0</v>
-      </c>
-      <c r="Y331">
-        <v>0</v>
-      </c>
-      <c r="Z331">
-        <v>0</v>
-      </c>
-      <c r="AA331">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC328"/>
+  <dimension ref="A1:AC340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5456603</v>
+        <v>5467427</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,13 +13548,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13563,25 +13563,25 @@
         <v>52</v>
       </c>
       <c r="K147">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="L147">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N147">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="O147">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R147">
         <v>1.925</v>
@@ -13590,16 +13590,16 @@
         <v>1.925</v>
       </c>
       <c r="T147">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.222</v>
+        <v>1.6</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13608,16 +13608,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5460884</v>
+        <v>5465446</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L149">
         <v>3.5</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5428774</v>
+        <v>5456594</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N151">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="O151">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
         <v>3</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5456594</v>
+        <v>5456603</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K152">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L152">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M152">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N152">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O152">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q152">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R152">
+        <v>1.925</v>
+      </c>
+      <c r="S152">
+        <v>1.925</v>
+      </c>
+      <c r="T152">
+        <v>3.25</v>
+      </c>
+      <c r="U152">
+        <v>1.95</v>
+      </c>
+      <c r="V152">
         <v>1.9</v>
       </c>
-      <c r="S152">
-        <v>1.95</v>
-      </c>
-      <c r="T152">
-        <v>3</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
-      <c r="V152">
-        <v>1.95</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X152">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5467427</v>
+        <v>5428774</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,13 +14082,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14097,43 +14097,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
         <v>1.975</v>
       </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
       <c r="W153">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5465446</v>
+        <v>5460884</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L154">
         <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.875</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
         <v>2.5</v>
       </c>
-      <c r="U154">
-        <v>1.825</v>
-      </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
-      <c r="W154">
-        <v>1.25</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -29378,7 +29378,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6775539</v>
+        <v>6775535</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29387,34 +29387,43 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45333.35416666666</v>
+        <v>45332.45833333334</v>
       </c>
       <c r="F325" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H325">
+        <v>6</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325" t="s">
+        <v>52</v>
       </c>
       <c r="K325">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M325">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N325">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O325">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P325">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q325">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
         <v>1.975</v>
@@ -29426,25 +29435,31 @@
         <v>2.25</v>
       </c>
       <c r="U325">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V325">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W325">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y325">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA325">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB325">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC325">
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29452,7 +29467,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6775540</v>
+        <v>6775537</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29461,64 +29476,79 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45333.45833333334</v>
+        <v>45332.5625</v>
       </c>
       <c r="F326" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G326" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>3</v>
+      </c>
+      <c r="J326" t="s">
+        <v>51</v>
       </c>
       <c r="K326">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L326">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M326">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N326">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O326">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P326">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q326">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S326">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T326">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V326">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB326">
+        <v>1.05</v>
+      </c>
+      <c r="AC326">
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29526,7 +29556,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6775538</v>
+        <v>6775536</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29535,64 +29565,79 @@
         <v>28</v>
       </c>
       <c r="E327" s="2">
-        <v>45333.5625</v>
+        <v>45332.66666666666</v>
       </c>
       <c r="F327" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G327" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327" t="s">
+        <v>52</v>
       </c>
       <c r="K327">
-        <v>3.9</v>
+        <v>1.571</v>
       </c>
       <c r="L327">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M327">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N327">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O327">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P327">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q327">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R327">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S327">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T327">
         <v>2.5</v>
       </c>
       <c r="U327">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V327">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA327">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB327">
+        <v>-1</v>
+      </c>
+      <c r="AC327">
+        <v>0.925</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29600,7 +29645,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6774457</v>
+        <v>6775539</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29609,63 +29654,1011 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45334.625</v>
+        <v>45333.35416666666</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G328" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" t="s">
+        <v>52</v>
       </c>
       <c r="K328">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="L328">
         <v>3.5</v>
       </c>
       <c r="M328">
+        <v>1.75</v>
+      </c>
+      <c r="N328">
+        <v>5.5</v>
+      </c>
+      <c r="O328">
         <v>3.75</v>
       </c>
-      <c r="N328">
+      <c r="P328">
+        <v>1.615</v>
+      </c>
+      <c r="Q328">
+        <v>0.75</v>
+      </c>
+      <c r="R328">
+        <v>2.05</v>
+      </c>
+      <c r="S328">
+        <v>1.8</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
+        <v>1.85</v>
+      </c>
+      <c r="V328">
+        <v>2</v>
+      </c>
+      <c r="W328">
+        <v>4.5</v>
+      </c>
+      <c r="X328">
+        <v>-1</v>
+      </c>
+      <c r="Y328">
+        <v>-1</v>
+      </c>
+      <c r="Z328">
+        <v>1.05</v>
+      </c>
+      <c r="AA328">
+        <v>-1</v>
+      </c>
+      <c r="AB328">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC328">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>6775540</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F329" t="s">
+        <v>32</v>
+      </c>
+      <c r="G329" t="s">
+        <v>46</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>3</v>
+      </c>
+      <c r="J329" t="s">
+        <v>51</v>
+      </c>
+      <c r="K329">
+        <v>2.6</v>
+      </c>
+      <c r="L329">
+        <v>3.4</v>
+      </c>
+      <c r="M329">
+        <v>2.6</v>
+      </c>
+      <c r="N329">
+        <v>2.6</v>
+      </c>
+      <c r="O329">
+        <v>3.4</v>
+      </c>
+      <c r="P329">
+        <v>2.6</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>1.925</v>
+      </c>
+      <c r="S329">
+        <v>1.925</v>
+      </c>
+      <c r="T329">
+        <v>2.5</v>
+      </c>
+      <c r="U329">
+        <v>1.875</v>
+      </c>
+      <c r="V329">
+        <v>1.975</v>
+      </c>
+      <c r="W329">
+        <v>-1</v>
+      </c>
+      <c r="X329">
+        <v>-1</v>
+      </c>
+      <c r="Y329">
+        <v>1.6</v>
+      </c>
+      <c r="Z329">
+        <v>-1</v>
+      </c>
+      <c r="AA329">
+        <v>0.925</v>
+      </c>
+      <c r="AB329">
+        <v>0.875</v>
+      </c>
+      <c r="AC329">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>6775538</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45333.5625</v>
+      </c>
+      <c r="F330" t="s">
+        <v>33</v>
+      </c>
+      <c r="G330" t="s">
+        <v>43</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330" t="s">
+        <v>51</v>
+      </c>
+      <c r="K330">
+        <v>3.9</v>
+      </c>
+      <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>1.909</v>
+      </c>
+      <c r="N330">
+        <v>2.9</v>
+      </c>
+      <c r="O330">
+        <v>3.25</v>
+      </c>
+      <c r="P330">
+        <v>2.4</v>
+      </c>
+      <c r="Q330">
+        <v>0.25</v>
+      </c>
+      <c r="R330">
+        <v>1.775</v>
+      </c>
+      <c r="S330">
+        <v>2.1</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>2.025</v>
+      </c>
+      <c r="V330">
+        <v>1.825</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
+        <v>-1</v>
+      </c>
+      <c r="Y330">
+        <v>1.4</v>
+      </c>
+      <c r="Z330">
+        <v>-1</v>
+      </c>
+      <c r="AA330">
+        <v>1.1</v>
+      </c>
+      <c r="AB330">
+        <v>-1</v>
+      </c>
+      <c r="AC330">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>6774457</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45334.625</v>
+      </c>
+      <c r="F331" t="s">
+        <v>44</v>
+      </c>
+      <c r="G331" t="s">
+        <v>48</v>
+      </c>
+      <c r="H331">
+        <v>2</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331" t="s">
+        <v>52</v>
+      </c>
+      <c r="K331">
+        <v>1.95</v>
+      </c>
+      <c r="L331">
+        <v>3.5</v>
+      </c>
+      <c r="M331">
+        <v>3.75</v>
+      </c>
+      <c r="N331">
         <v>1.75</v>
       </c>
-      <c r="O328">
+      <c r="O331">
         <v>3.4</v>
       </c>
-      <c r="P328">
-        <v>5</v>
-      </c>
-      <c r="Q328">
+      <c r="P331">
+        <v>4.75</v>
+      </c>
+      <c r="Q331">
         <v>-0.75</v>
       </c>
-      <c r="R328">
+      <c r="R331">
+        <v>2</v>
+      </c>
+      <c r="S331">
+        <v>1.85</v>
+      </c>
+      <c r="T331">
+        <v>2.5</v>
+      </c>
+      <c r="U331">
+        <v>1.925</v>
+      </c>
+      <c r="V331">
+        <v>1.925</v>
+      </c>
+      <c r="W331">
+        <v>0.75</v>
+      </c>
+      <c r="X331">
+        <v>-1</v>
+      </c>
+      <c r="Y331">
+        <v>-1</v>
+      </c>
+      <c r="Z331">
+        <v>0.5</v>
+      </c>
+      <c r="AA331">
+        <v>-0.5</v>
+      </c>
+      <c r="AB331">
+        <v>0.925</v>
+      </c>
+      <c r="AC331">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>6775544</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45338.58333333334</v>
+      </c>
+      <c r="F332" t="s">
+        <v>41</v>
+      </c>
+      <c r="G332" t="s">
+        <v>43</v>
+      </c>
+      <c r="K332">
+        <v>3.25</v>
+      </c>
+      <c r="L332">
+        <v>3.25</v>
+      </c>
+      <c r="M332">
+        <v>2.2</v>
+      </c>
+      <c r="N332">
+        <v>3.6</v>
+      </c>
+      <c r="O332">
+        <v>3.3</v>
+      </c>
+      <c r="P332">
+        <v>2.05</v>
+      </c>
+      <c r="Q332">
+        <v>0.25</v>
+      </c>
+      <c r="R332">
+        <v>2.05</v>
+      </c>
+      <c r="S332">
+        <v>1.8</v>
+      </c>
+      <c r="T332">
+        <v>2.5</v>
+      </c>
+      <c r="U332">
+        <v>1.925</v>
+      </c>
+      <c r="V332">
+        <v>1.925</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>6775546</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45338.6875</v>
+      </c>
+      <c r="F333" t="s">
+        <v>33</v>
+      </c>
+      <c r="G333" t="s">
+        <v>30</v>
+      </c>
+      <c r="K333">
+        <v>1.8</v>
+      </c>
+      <c r="L333">
+        <v>3.5</v>
+      </c>
+      <c r="M333">
+        <v>4.5</v>
+      </c>
+      <c r="N333">
+        <v>1.7</v>
+      </c>
+      <c r="O333">
+        <v>3.5</v>
+      </c>
+      <c r="P333">
+        <v>5.25</v>
+      </c>
+      <c r="Q333">
+        <v>-0.75</v>
+      </c>
+      <c r="R333">
+        <v>1.925</v>
+      </c>
+      <c r="S333">
+        <v>1.925</v>
+      </c>
+      <c r="T333">
+        <v>2.25</v>
+      </c>
+      <c r="U333">
+        <v>1.925</v>
+      </c>
+      <c r="V333">
+        <v>1.925</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>6774459</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F334" t="s">
+        <v>47</v>
+      </c>
+      <c r="G334" t="s">
+        <v>31</v>
+      </c>
+      <c r="K334">
+        <v>2.5</v>
+      </c>
+      <c r="L334">
+        <v>2.875</v>
+      </c>
+      <c r="M334">
+        <v>3.2</v>
+      </c>
+      <c r="N334">
+        <v>2.55</v>
+      </c>
+      <c r="O334">
+        <v>2.875</v>
+      </c>
+      <c r="P334">
+        <v>3.2</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>1.75</v>
+      </c>
+      <c r="S334">
+        <v>2.125</v>
+      </c>
+      <c r="T334">
+        <v>2</v>
+      </c>
+      <c r="U334">
+        <v>1.925</v>
+      </c>
+      <c r="V334">
+        <v>1.925</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>6775542</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45339.5625</v>
+      </c>
+      <c r="F335" t="s">
+        <v>46</v>
+      </c>
+      <c r="G335" t="s">
+        <v>42</v>
+      </c>
+      <c r="K335">
+        <v>2.55</v>
+      </c>
+      <c r="L335">
+        <v>3.2</v>
+      </c>
+      <c r="M335">
+        <v>2.75</v>
+      </c>
+      <c r="N335">
+        <v>2.45</v>
+      </c>
+      <c r="O335">
+        <v>3.2</v>
+      </c>
+      <c r="P335">
+        <v>2.9</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>1.775</v>
+      </c>
+      <c r="S335">
+        <v>2.1</v>
+      </c>
+      <c r="T335">
+        <v>2.5</v>
+      </c>
+      <c r="U335">
+        <v>1.875</v>
+      </c>
+      <c r="V335">
+        <v>1.975</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>6775545</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45339.66666666666</v>
+      </c>
+      <c r="F336" t="s">
+        <v>38</v>
+      </c>
+      <c r="G336" t="s">
+        <v>34</v>
+      </c>
+      <c r="K336">
+        <v>1.727</v>
+      </c>
+      <c r="L336">
+        <v>3.6</v>
+      </c>
+      <c r="M336">
+        <v>4.75</v>
+      </c>
+      <c r="N336">
+        <v>1.727</v>
+      </c>
+      <c r="O336">
+        <v>3.6</v>
+      </c>
+      <c r="P336">
+        <v>4.75</v>
+      </c>
+      <c r="Q336">
+        <v>-0.75</v>
+      </c>
+      <c r="R336">
+        <v>1.975</v>
+      </c>
+      <c r="S336">
+        <v>1.875</v>
+      </c>
+      <c r="T336">
+        <v>2.25</v>
+      </c>
+      <c r="U336">
+        <v>1.925</v>
+      </c>
+      <c r="V336">
+        <v>1.925</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>6775543</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45340.35416666666</v>
+      </c>
+      <c r="F337" t="s">
+        <v>40</v>
+      </c>
+      <c r="G337" t="s">
+        <v>37</v>
+      </c>
+      <c r="K337">
+        <v>2.4</v>
+      </c>
+      <c r="L337">
+        <v>3.4</v>
+      </c>
+      <c r="M337">
+        <v>2.8</v>
+      </c>
+      <c r="N337">
+        <v>2.375</v>
+      </c>
+      <c r="O337">
+        <v>3.4</v>
+      </c>
+      <c r="P337">
+        <v>2.9</v>
+      </c>
+      <c r="Q337">
+        <v>-0.25</v>
+      </c>
+      <c r="R337">
+        <v>2.05</v>
+      </c>
+      <c r="S337">
+        <v>1.8</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
         <v>2.025</v>
       </c>
-      <c r="S328">
+      <c r="V337">
         <v>1.825</v>
       </c>
-      <c r="T328">
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>6774882</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F338" t="s">
+        <v>35</v>
+      </c>
+      <c r="G338" t="s">
+        <v>49</v>
+      </c>
+      <c r="K338">
+        <v>1.333</v>
+      </c>
+      <c r="L338">
+        <v>5.5</v>
+      </c>
+      <c r="M338">
+        <v>7.5</v>
+      </c>
+      <c r="N338">
+        <v>1.333</v>
+      </c>
+      <c r="O338">
+        <v>5.5</v>
+      </c>
+      <c r="P338">
+        <v>7.5</v>
+      </c>
+      <c r="Q338">
+        <v>-1.5</v>
+      </c>
+      <c r="R338">
+        <v>2.025</v>
+      </c>
+      <c r="S338">
+        <v>1.825</v>
+      </c>
+      <c r="T338">
+        <v>2.75</v>
+      </c>
+      <c r="U338">
+        <v>1.925</v>
+      </c>
+      <c r="V338">
+        <v>1.925</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>6774460</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45340.5625</v>
+      </c>
+      <c r="F339" t="s">
+        <v>48</v>
+      </c>
+      <c r="G339" t="s">
+        <v>32</v>
+      </c>
+      <c r="K339">
+        <v>2.75</v>
+      </c>
+      <c r="L339">
+        <v>3.1</v>
+      </c>
+      <c r="M339">
+        <v>2.625</v>
+      </c>
+      <c r="N339">
+        <v>3.4</v>
+      </c>
+      <c r="O339">
+        <v>3.2</v>
+      </c>
+      <c r="P339">
+        <v>2.2</v>
+      </c>
+      <c r="Q339">
+        <v>0.25</v>
+      </c>
+      <c r="R339">
+        <v>1.925</v>
+      </c>
+      <c r="S339">
+        <v>1.925</v>
+      </c>
+      <c r="T339">
         <v>2.5</v>
       </c>
-      <c r="U328">
+      <c r="U339">
         <v>2.025</v>
       </c>
-      <c r="V328">
+      <c r="V339">
         <v>1.825</v>
       </c>
-      <c r="W328">
-        <v>0</v>
-      </c>
-      <c r="X328">
-        <v>0</v>
-      </c>
-      <c r="Y328">
-        <v>0</v>
-      </c>
-      <c r="Z328">
-        <v>0</v>
-      </c>
-      <c r="AA328">
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>6775541</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45341.625</v>
+      </c>
+      <c r="F340" t="s">
+        <v>39</v>
+      </c>
+      <c r="G340" t="s">
+        <v>44</v>
+      </c>
+      <c r="K340">
+        <v>2.15</v>
+      </c>
+      <c r="L340">
+        <v>3.2</v>
+      </c>
+      <c r="M340">
+        <v>3.6</v>
+      </c>
+      <c r="N340">
+        <v>2.05</v>
+      </c>
+      <c r="O340">
+        <v>3.25</v>
+      </c>
+      <c r="P340">
+        <v>3.6</v>
+      </c>
+      <c r="Q340">
+        <v>-0.25</v>
+      </c>
+      <c r="R340">
+        <v>1.8</v>
+      </c>
+      <c r="S340">
+        <v>2.05</v>
+      </c>
+      <c r="T340">
+        <v>2.5</v>
+      </c>
+      <c r="U340">
+        <v>2.05</v>
+      </c>
+      <c r="V340">
+        <v>1.8</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5467427</v>
+        <v>5460884</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,49 +13548,49 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K147">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N147">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
         <v>1.975</v>
@@ -13599,19 +13599,19 @@
         <v>1.875</v>
       </c>
       <c r="W147">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5465446</v>
+        <v>5456594</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>50</v>
+      </c>
+      <c r="K149">
+        <v>1.444</v>
+      </c>
+      <c r="L149">
+        <v>4.5</v>
+      </c>
+      <c r="M149">
+        <v>5.75</v>
+      </c>
+      <c r="N149">
+        <v>1.3</v>
+      </c>
+      <c r="O149">
+        <v>5.25</v>
+      </c>
+      <c r="P149">
+        <v>7</v>
+      </c>
+      <c r="Q149">
+        <v>-1.5</v>
+      </c>
+      <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.95</v>
+      </c>
+      <c r="T149">
         <v>3</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" t="s">
-        <v>52</v>
-      </c>
-      <c r="K149">
-        <v>2.15</v>
-      </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>2.875</v>
-      </c>
-      <c r="N149">
-        <v>2.25</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>2.7</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>2.05</v>
-      </c>
-      <c r="S149">
-        <v>1.75</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5461474</v>
+        <v>5456603</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>52</v>
       </c>
       <c r="K150">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N150">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="O150">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q150">
+        <v>-1.75</v>
+      </c>
+      <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
+        <v>1.9</v>
+      </c>
+      <c r="W150">
+        <v>0.222</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.4625</v>
+      </c>
+      <c r="AA150">
         <v>-0.5</v>
       </c>
-      <c r="R150">
-        <v>1.825</v>
-      </c>
-      <c r="S150">
-        <v>2.025</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>1.9</v>
-      </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
-      <c r="W150">
-        <v>0.833</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>0.825</v>
-      </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
       <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5456594</v>
+        <v>5467427</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L151">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N151">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O151">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q151">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X151">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5456603</v>
+        <v>5461474</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,58 +13993,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>52</v>
       </c>
       <c r="K152">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="L152">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N152">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O152">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
         <v>1.95</v>
       </c>
-      <c r="V152">
-        <v>1.9</v>
-      </c>
       <c r="W152">
-        <v>0.222</v>
+        <v>0.833</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14053,16 +14053,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5460884</v>
+        <v>5465446</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L154">
         <v>3.5</v>
       </c>
       <c r="M154">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X154">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -30018,6 +30018,15 @@
       <c r="G332" t="s">
         <v>43</v>
       </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>4</v>
+      </c>
+      <c r="J332" t="s">
+        <v>51</v>
+      </c>
       <c r="K332">
         <v>3.25</v>
       </c>
@@ -30028,22 +30037,22 @@
         <v>2.2</v>
       </c>
       <c r="N332">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O332">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P332">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q332">
         <v>0.25</v>
       </c>
       <c r="R332">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T332">
         <v>2.5</v>
@@ -30055,19 +30064,25 @@
         <v>1.925</v>
       </c>
       <c r="W332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB332">
+        <v>0.925</v>
+      </c>
+      <c r="AC332">
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30092,6 +30107,15 @@
       <c r="G333" t="s">
         <v>30</v>
       </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333" t="s">
+        <v>51</v>
+      </c>
       <c r="K333">
         <v>1.8</v>
       </c>
@@ -30102,22 +30126,22 @@
         <v>4.5</v>
       </c>
       <c r="N333">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O333">
         <v>3.5</v>
       </c>
       <c r="P333">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q333">
         <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T333">
         <v>2.25</v>
@@ -30129,19 +30153,25 @@
         <v>1.925</v>
       </c>
       <c r="W333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB333">
+        <v>-1</v>
+      </c>
+      <c r="AC333">
+        <v>0.925</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30176,22 +30206,22 @@
         <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O334">
         <v>2.875</v>
       </c>
       <c r="P334">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q334">
         <v>0</v>
       </c>
       <c r="R334">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S334">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="T334">
         <v>2</v>
@@ -30262,10 +30292,10 @@
         <v>0</v>
       </c>
       <c r="R335">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S335">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T335">
         <v>2.5</v>
@@ -30345,10 +30375,10 @@
         <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V336">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W336">
         <v>0</v>
@@ -30546,31 +30576,31 @@
         <v>2.625</v>
       </c>
       <c r="N339">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O339">
         <v>3.2</v>
       </c>
       <c r="P339">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q339">
         <v>0.25</v>
       </c>
       <c r="R339">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S339">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T339">
         <v>2.5</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W339">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -30206,31 +30206,31 @@
         <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O334">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P334">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
+        <v>2.1</v>
+      </c>
+      <c r="S334">
         <v>1.775</v>
       </c>
-      <c r="S334">
-        <v>2.1</v>
-      </c>
       <c r="T334">
         <v>2</v>
       </c>
       <c r="U334">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30280,31 +30280,31 @@
         <v>2.75</v>
       </c>
       <c r="N335">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O335">
         <v>3.2</v>
       </c>
       <c r="P335">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R335">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S335">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T335">
         <v>2.5</v>
       </c>
       <c r="U335">
+        <v>1.975</v>
+      </c>
+      <c r="V335">
         <v>1.875</v>
-      </c>
-      <c r="V335">
-        <v>1.975</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30354,31 +30354,31 @@
         <v>4.75</v>
       </c>
       <c r="N336">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O336">
         <v>3.6</v>
       </c>
       <c r="P336">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q336">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S336">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T336">
         <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V336">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W336">
         <v>0</v>
@@ -30440,10 +30440,10 @@
         <v>-0.25</v>
       </c>
       <c r="R337">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S337">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T337">
         <v>2.5</v>
@@ -30514,19 +30514,19 @@
         <v>-1.5</v>
       </c>
       <c r="R338">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S338">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T338">
         <v>2.75</v>
       </c>
       <c r="U338">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V338">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W338">
         <v>0</v>
@@ -30576,22 +30576,22 @@
         <v>2.625</v>
       </c>
       <c r="N339">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O339">
         <v>3.2</v>
       </c>
       <c r="P339">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q339">
         <v>0.25</v>
       </c>
       <c r="R339">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S339">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T339">
         <v>2.5</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC340"/>
+  <dimension ref="A1:AC337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5456594</v>
+        <v>5456603</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K149">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O149">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.925</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.9</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>1.95</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X149">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5456603</v>
+        <v>5428774</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>52</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
         <v>4.75</v>
       </c>
-      <c r="M150">
-        <v>6.5</v>
-      </c>
       <c r="N150">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P150">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q150">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5428774</v>
+        <v>5456594</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N153">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -30179,7 +30179,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6774459</v>
+        <v>6775543</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,49 +30188,49 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.35416666666</v>
       </c>
       <c r="F334" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K334">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L334">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M334">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N334">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O334">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P334">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q334">
         <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S334">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6775542</v>
+        <v>6774882</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30262,49 +30262,49 @@
         <v>28</v>
       </c>
       <c r="E335" s="2">
-        <v>45339.5625</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G335" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="L335">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M335">
+        <v>7.5</v>
+      </c>
+      <c r="N335">
+        <v>1.333</v>
+      </c>
+      <c r="O335">
+        <v>5.5</v>
+      </c>
+      <c r="P335">
+        <v>7.5</v>
+      </c>
+      <c r="Q335">
+        <v>-1.5</v>
+      </c>
+      <c r="R335">
+        <v>2.025</v>
+      </c>
+      <c r="S335">
+        <v>1.825</v>
+      </c>
+      <c r="T335">
         <v>2.75</v>
       </c>
-      <c r="N335">
-        <v>2.375</v>
-      </c>
-      <c r="O335">
-        <v>3.2</v>
-      </c>
-      <c r="P335">
-        <v>3</v>
-      </c>
-      <c r="Q335">
-        <v>-0.25</v>
-      </c>
-      <c r="R335">
-        <v>2.1</v>
-      </c>
-      <c r="S335">
-        <v>1.775</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
       <c r="U335">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V335">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30327,7 +30327,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6775545</v>
+        <v>6774460</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30336,49 +30336,49 @@
         <v>28</v>
       </c>
       <c r="E336" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.5625</v>
       </c>
       <c r="F336" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G336" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K336">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L336">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M336">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N336">
+        <v>3.2</v>
+      </c>
+      <c r="O336">
+        <v>3.2</v>
+      </c>
+      <c r="P336">
+        <v>2.3</v>
+      </c>
+      <c r="Q336">
+        <v>0.25</v>
+      </c>
+      <c r="R336">
+        <v>1.9</v>
+      </c>
+      <c r="S336">
+        <v>1.95</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
+        <v>2.05</v>
+      </c>
+      <c r="V336">
         <v>1.8</v>
-      </c>
-      <c r="O336">
-        <v>3.6</v>
-      </c>
-      <c r="P336">
-        <v>4.5</v>
-      </c>
-      <c r="Q336">
-        <v>-0.5</v>
-      </c>
-      <c r="R336">
-        <v>1.85</v>
-      </c>
-      <c r="S336">
-        <v>2</v>
-      </c>
-      <c r="T336">
-        <v>2.25</v>
-      </c>
-      <c r="U336">
-        <v>1.925</v>
-      </c>
-      <c r="V336">
-        <v>1.925</v>
       </c>
       <c r="W336">
         <v>0</v>
@@ -30401,7 +30401,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6775543</v>
+        <v>6775541</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30410,49 +30410,49 @@
         <v>28</v>
       </c>
       <c r="E337" s="2">
-        <v>45340.35416666666</v>
+        <v>45341.625</v>
       </c>
       <c r="F337" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K337">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M337">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N337">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O337">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P337">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S337">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T337">
         <v>2.5</v>
       </c>
       <c r="U337">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V337">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W337">
         <v>0</v>
@@ -30467,228 +30467,6 @@
         <v>0</v>
       </c>
       <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="B338">
-        <v>6774882</v>
-      </c>
-      <c r="C338" t="s">
-        <v>28</v>
-      </c>
-      <c r="D338" t="s">
-        <v>28</v>
-      </c>
-      <c r="E338" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F338" t="s">
-        <v>35</v>
-      </c>
-      <c r="G338" t="s">
-        <v>49</v>
-      </c>
-      <c r="K338">
-        <v>1.333</v>
-      </c>
-      <c r="L338">
-        <v>5.5</v>
-      </c>
-      <c r="M338">
-        <v>7.5</v>
-      </c>
-      <c r="N338">
-        <v>1.333</v>
-      </c>
-      <c r="O338">
-        <v>5.5</v>
-      </c>
-      <c r="P338">
-        <v>7.5</v>
-      </c>
-      <c r="Q338">
-        <v>-1.5</v>
-      </c>
-      <c r="R338">
-        <v>2</v>
-      </c>
-      <c r="S338">
-        <v>1.85</v>
-      </c>
-      <c r="T338">
-        <v>2.75</v>
-      </c>
-      <c r="U338">
-        <v>1.9</v>
-      </c>
-      <c r="V338">
-        <v>1.95</v>
-      </c>
-      <c r="W338">
-        <v>0</v>
-      </c>
-      <c r="X338">
-        <v>0</v>
-      </c>
-      <c r="Y338">
-        <v>0</v>
-      </c>
-      <c r="Z338">
-        <v>0</v>
-      </c>
-      <c r="AA338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="B339">
-        <v>6774460</v>
-      </c>
-      <c r="C339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D339" t="s">
-        <v>28</v>
-      </c>
-      <c r="E339" s="2">
-        <v>45340.5625</v>
-      </c>
-      <c r="F339" t="s">
-        <v>48</v>
-      </c>
-      <c r="G339" t="s">
-        <v>32</v>
-      </c>
-      <c r="K339">
-        <v>2.75</v>
-      </c>
-      <c r="L339">
-        <v>3.1</v>
-      </c>
-      <c r="M339">
-        <v>2.625</v>
-      </c>
-      <c r="N339">
-        <v>3.2</v>
-      </c>
-      <c r="O339">
-        <v>3.2</v>
-      </c>
-      <c r="P339">
-        <v>2.3</v>
-      </c>
-      <c r="Q339">
-        <v>0.25</v>
-      </c>
-      <c r="R339">
-        <v>1.9</v>
-      </c>
-      <c r="S339">
-        <v>1.95</v>
-      </c>
-      <c r="T339">
-        <v>2.5</v>
-      </c>
-      <c r="U339">
-        <v>2.05</v>
-      </c>
-      <c r="V339">
-        <v>1.8</v>
-      </c>
-      <c r="W339">
-        <v>0</v>
-      </c>
-      <c r="X339">
-        <v>0</v>
-      </c>
-      <c r="Y339">
-        <v>0</v>
-      </c>
-      <c r="Z339">
-        <v>0</v>
-      </c>
-      <c r="AA339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="B340">
-        <v>6775541</v>
-      </c>
-      <c r="C340" t="s">
-        <v>28</v>
-      </c>
-      <c r="D340" t="s">
-        <v>28</v>
-      </c>
-      <c r="E340" s="2">
-        <v>45341.625</v>
-      </c>
-      <c r="F340" t="s">
-        <v>39</v>
-      </c>
-      <c r="G340" t="s">
-        <v>44</v>
-      </c>
-      <c r="K340">
-        <v>2.15</v>
-      </c>
-      <c r="L340">
-        <v>3.2</v>
-      </c>
-      <c r="M340">
-        <v>3.6</v>
-      </c>
-      <c r="N340">
-        <v>2.05</v>
-      </c>
-      <c r="O340">
-        <v>3.25</v>
-      </c>
-      <c r="P340">
-        <v>3.6</v>
-      </c>
-      <c r="Q340">
-        <v>-0.25</v>
-      </c>
-      <c r="R340">
-        <v>1.8</v>
-      </c>
-      <c r="S340">
-        <v>2.05</v>
-      </c>
-      <c r="T340">
-        <v>2.5</v>
-      </c>
-      <c r="U340">
-        <v>2.05</v>
-      </c>
-      <c r="V340">
-        <v>1.8</v>
-      </c>
-      <c r="W340">
-        <v>0</v>
-      </c>
-      <c r="X340">
-        <v>0</v>
-      </c>
-      <c r="Y340">
-        <v>0</v>
-      </c>
-      <c r="Z340">
-        <v>0</v>
-      </c>
-      <c r="AA340">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC337"/>
+  <dimension ref="A1:AC345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5460884</v>
+        <v>5467427</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,49 +13548,49 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
         <v>1.975</v>
@@ -13599,19 +13599,19 @@
         <v>1.875</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X147">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5456603</v>
+        <v>5461474</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,58 +13726,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
         <v>52</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="L149">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N149">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q149">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
       <c r="W149">
-        <v>0.222</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5428774</v>
+        <v>5460884</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N150">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O150">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q150">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.875</v>
       </c>
-      <c r="S150">
-        <v>1.975</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.875</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
+        <v>0.475</v>
+      </c>
+      <c r="AA150">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.875</v>
-      </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
-      <c r="AB150">
-        <v>0.875</v>
-      </c>
-      <c r="AC150">
-        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5467427</v>
+        <v>5428774</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,13 +13904,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13919,43 +13919,43 @@
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M151">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N151">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P151">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U151">
+        <v>1.875</v>
+      </c>
+      <c r="V151">
         <v>1.975</v>
       </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
       <c r="W151">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13964,16 +13964,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5461474</v>
+        <v>5456594</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,49 +13993,49 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K152">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M152">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="N152">
-        <v>1.833</v>
+        <v>1.3</v>
       </c>
       <c r="O152">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14044,25 +14044,25 @@
         <v>1.95</v>
       </c>
       <c r="W152">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5456594</v>
+        <v>5456603</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N153">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="O153">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P153">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R153">
+        <v>1.925</v>
+      </c>
+      <c r="S153">
+        <v>1.925</v>
+      </c>
+      <c r="T153">
+        <v>3.25</v>
+      </c>
+      <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
         <v>1.9</v>
       </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>1.9</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X153">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -30179,7 +30179,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6775543</v>
+        <v>6774459</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,31 +30188,40 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45340.35416666666</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F334" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G334" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334" t="s">
+        <v>50</v>
       </c>
       <c r="K334">
+        <v>2.5</v>
+      </c>
+      <c r="L334">
+        <v>2.875</v>
+      </c>
+      <c r="M334">
+        <v>3.2</v>
+      </c>
+      <c r="N334">
         <v>2.4</v>
       </c>
-      <c r="L334">
+      <c r="O334">
+        <v>2.8</v>
+      </c>
+      <c r="P334">
         <v>3.4</v>
-      </c>
-      <c r="M334">
-        <v>2.8</v>
-      </c>
-      <c r="N334">
-        <v>2.375</v>
-      </c>
-      <c r="O334">
-        <v>3.4</v>
-      </c>
-      <c r="P334">
-        <v>2.9</v>
       </c>
       <c r="Q334">
         <v>-0.25</v>
@@ -30224,28 +30233,34 @@
         <v>1.825</v>
       </c>
       <c r="T334">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V334">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X334">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA334">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB334">
+        <v>-1</v>
+      </c>
+      <c r="AC334">
+        <v>0.925</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30253,7 +30268,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6774882</v>
+        <v>6775542</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30262,64 +30277,79 @@
         <v>28</v>
       </c>
       <c r="E335" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.5625</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G335" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335" t="s">
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="L335">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N335">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O335">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P335">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q335">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R335">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S335">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T335">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
         <v>1.9</v>
       </c>
-      <c r="V335">
-        <v>1.95</v>
-      </c>
       <c r="W335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB335">
+        <v>0.95</v>
+      </c>
+      <c r="AC335">
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30327,7 +30357,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6774460</v>
+        <v>6775545</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30336,43 +30366,52 @@
         <v>28</v>
       </c>
       <c r="E336" s="2">
-        <v>45340.5625</v>
+        <v>45339.66666666666</v>
       </c>
       <c r="F336" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H336">
+        <v>3</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>52</v>
       </c>
       <c r="K336">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L336">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M336">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N336">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O336">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P336">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q336">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
         <v>2.05</v>
@@ -30381,27 +30420,33 @@
         <v>1.8</v>
       </c>
       <c r="W336">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
+        <v>1.05</v>
+      </c>
+      <c r="AC336">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29">
       <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6775541</v>
+        <v>6775543</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30410,63 +30455,700 @@
         <v>28</v>
       </c>
       <c r="E337" s="2">
-        <v>45341.625</v>
+        <v>45340.35416666666</v>
       </c>
       <c r="F337" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G337" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337" t="s">
+        <v>50</v>
       </c>
       <c r="K337">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L337">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M337">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N337">
+        <v>2.375</v>
+      </c>
+      <c r="O337">
+        <v>3.4</v>
+      </c>
+      <c r="P337">
+        <v>2.9</v>
+      </c>
+      <c r="Q337">
+        <v>-0.25</v>
+      </c>
+      <c r="R337">
         <v>2.05</v>
       </c>
-      <c r="O337">
-        <v>3.25</v>
-      </c>
-      <c r="P337">
-        <v>3.75</v>
-      </c>
-      <c r="Q337">
-        <v>-0.5</v>
-      </c>
-      <c r="R337">
-        <v>2.1</v>
-      </c>
       <c r="S337">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T337">
         <v>2.5</v>
       </c>
       <c r="U337">
+        <v>2.025</v>
+      </c>
+      <c r="V337">
+        <v>1.825</v>
+      </c>
+      <c r="W337">
+        <v>-1</v>
+      </c>
+      <c r="X337">
+        <v>2.4</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
+        <v>-0.5</v>
+      </c>
+      <c r="AA337">
+        <v>0.4</v>
+      </c>
+      <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>6774882</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F338" t="s">
+        <v>35</v>
+      </c>
+      <c r="G338" t="s">
+        <v>49</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338" t="s">
+        <v>50</v>
+      </c>
+      <c r="K338">
+        <v>1.333</v>
+      </c>
+      <c r="L338">
+        <v>5.5</v>
+      </c>
+      <c r="M338">
+        <v>7.5</v>
+      </c>
+      <c r="N338">
+        <v>1.333</v>
+      </c>
+      <c r="O338">
+        <v>5.5</v>
+      </c>
+      <c r="P338">
+        <v>7.5</v>
+      </c>
+      <c r="Q338">
+        <v>-1.5</v>
+      </c>
+      <c r="R338">
+        <v>1.975</v>
+      </c>
+      <c r="S338">
+        <v>1.875</v>
+      </c>
+      <c r="T338">
+        <v>2.75</v>
+      </c>
+      <c r="U338">
+        <v>1.925</v>
+      </c>
+      <c r="V338">
+        <v>1.925</v>
+      </c>
+      <c r="W338">
+        <v>-1</v>
+      </c>
+      <c r="X338">
+        <v>4.5</v>
+      </c>
+      <c r="Y338">
+        <v>-1</v>
+      </c>
+      <c r="Z338">
+        <v>-1</v>
+      </c>
+      <c r="AA338">
+        <v>0.875</v>
+      </c>
+      <c r="AB338">
+        <v>-1</v>
+      </c>
+      <c r="AC338">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>6774460</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45340.5625</v>
+      </c>
+      <c r="F339" t="s">
+        <v>48</v>
+      </c>
+      <c r="G339" t="s">
+        <v>32</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>2</v>
+      </c>
+      <c r="J339" t="s">
+        <v>51</v>
+      </c>
+      <c r="K339">
+        <v>2.75</v>
+      </c>
+      <c r="L339">
+        <v>3.1</v>
+      </c>
+      <c r="M339">
+        <v>2.625</v>
+      </c>
+      <c r="N339">
+        <v>3.25</v>
+      </c>
+      <c r="O339">
+        <v>3.2</v>
+      </c>
+      <c r="P339">
+        <v>2.25</v>
+      </c>
+      <c r="Q339">
+        <v>0.25</v>
+      </c>
+      <c r="R339">
+        <v>1.925</v>
+      </c>
+      <c r="S339">
+        <v>1.925</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
+        <v>1.825</v>
+      </c>
+      <c r="W339">
+        <v>-1</v>
+      </c>
+      <c r="X339">
+        <v>-1</v>
+      </c>
+      <c r="Y339">
+        <v>1.25</v>
+      </c>
+      <c r="Z339">
+        <v>-1</v>
+      </c>
+      <c r="AA339">
+        <v>0.925</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+      <c r="AC339">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>6775541</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45341.625</v>
+      </c>
+      <c r="F340" t="s">
+        <v>39</v>
+      </c>
+      <c r="G340" t="s">
+        <v>44</v>
+      </c>
+      <c r="K340">
+        <v>2.15</v>
+      </c>
+      <c r="L340">
+        <v>3.2</v>
+      </c>
+      <c r="M340">
+        <v>3.6</v>
+      </c>
+      <c r="N340">
+        <v>2.1</v>
+      </c>
+      <c r="O340">
+        <v>3.25</v>
+      </c>
+      <c r="P340">
+        <v>3.6</v>
+      </c>
+      <c r="Q340">
+        <v>-0.25</v>
+      </c>
+      <c r="R340">
+        <v>1.8</v>
+      </c>
+      <c r="S340">
         <v>2.05</v>
       </c>
-      <c r="V337">
+      <c r="T340">
+        <v>2.5</v>
+      </c>
+      <c r="U340">
+        <v>2.05</v>
+      </c>
+      <c r="V340">
         <v>1.8</v>
       </c>
-      <c r="W337">
-        <v>0</v>
-      </c>
-      <c r="X337">
-        <v>0</v>
-      </c>
-      <c r="Y337">
-        <v>0</v>
-      </c>
-      <c r="Z337">
-        <v>0</v>
-      </c>
-      <c r="AA337">
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>6775548</v>
+      </c>
+      <c r="C341" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45345.58333333334</v>
+      </c>
+      <c r="F341" t="s">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>37</v>
+      </c>
+      <c r="K341">
+        <v>2</v>
+      </c>
+      <c r="L341">
+        <v>3.1</v>
+      </c>
+      <c r="M341">
+        <v>4</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341">
+        <v>3.1</v>
+      </c>
+      <c r="P341">
+        <v>4</v>
+      </c>
+      <c r="Q341">
+        <v>-0.5</v>
+      </c>
+      <c r="R341">
+        <v>2.05</v>
+      </c>
+      <c r="S341">
+        <v>1.8</v>
+      </c>
+      <c r="T341">
+        <v>2</v>
+      </c>
+      <c r="U341">
+        <v>1.875</v>
+      </c>
+      <c r="V341">
+        <v>1.975</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>6774461</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45345.6875</v>
+      </c>
+      <c r="F342" t="s">
+        <v>43</v>
+      </c>
+      <c r="G342" t="s">
+        <v>48</v>
+      </c>
+      <c r="K342">
+        <v>1.333</v>
+      </c>
+      <c r="L342">
+        <v>5</v>
+      </c>
+      <c r="M342">
+        <v>8</v>
+      </c>
+      <c r="N342">
+        <v>1.333</v>
+      </c>
+      <c r="O342">
+        <v>5</v>
+      </c>
+      <c r="P342">
+        <v>8</v>
+      </c>
+      <c r="Q342">
+        <v>-1.5</v>
+      </c>
+      <c r="R342">
+        <v>2</v>
+      </c>
+      <c r="S342">
+        <v>1.85</v>
+      </c>
+      <c r="T342">
+        <v>3</v>
+      </c>
+      <c r="U342">
+        <v>1.95</v>
+      </c>
+      <c r="V342">
+        <v>1.9</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>6774462</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F343" t="s">
+        <v>46</v>
+      </c>
+      <c r="G343" t="s">
+        <v>47</v>
+      </c>
+      <c r="K343">
+        <v>1.444</v>
+      </c>
+      <c r="L343">
+        <v>4.333</v>
+      </c>
+      <c r="M343">
+        <v>6.5</v>
+      </c>
+      <c r="N343">
+        <v>1.444</v>
+      </c>
+      <c r="O343">
+        <v>4.333</v>
+      </c>
+      <c r="P343">
+        <v>6.5</v>
+      </c>
+      <c r="Q343">
+        <v>-1.25</v>
+      </c>
+      <c r="R343">
+        <v>2</v>
+      </c>
+      <c r="S343">
+        <v>1.85</v>
+      </c>
+      <c r="T343">
+        <v>2.75</v>
+      </c>
+      <c r="U343">
+        <v>1.875</v>
+      </c>
+      <c r="V343">
+        <v>1.975</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>6775547</v>
+      </c>
+      <c r="C344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45346.5625</v>
+      </c>
+      <c r="F344" t="s">
+        <v>42</v>
+      </c>
+      <c r="G344" t="s">
+        <v>33</v>
+      </c>
+      <c r="K344">
+        <v>1.833</v>
+      </c>
+      <c r="L344">
+        <v>3.5</v>
+      </c>
+      <c r="M344">
+        <v>4.2</v>
+      </c>
+      <c r="N344">
+        <v>1.833</v>
+      </c>
+      <c r="O344">
+        <v>3.5</v>
+      </c>
+      <c r="P344">
+        <v>4.2</v>
+      </c>
+      <c r="Q344">
+        <v>-0.5</v>
+      </c>
+      <c r="R344">
+        <v>1.85</v>
+      </c>
+      <c r="S344">
+        <v>2</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
+        <v>1.825</v>
+      </c>
+      <c r="V344">
+        <v>2.025</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>6774881</v>
+      </c>
+      <c r="C345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45347.35416666666</v>
+      </c>
+      <c r="F345" t="s">
+        <v>49</v>
+      </c>
+      <c r="G345" t="s">
+        <v>40</v>
+      </c>
+      <c r="K345">
+        <v>3.3</v>
+      </c>
+      <c r="L345">
+        <v>3.25</v>
+      </c>
+      <c r="M345">
+        <v>2.15</v>
+      </c>
+      <c r="N345">
+        <v>3.3</v>
+      </c>
+      <c r="O345">
+        <v>3.25</v>
+      </c>
+      <c r="P345">
+        <v>2.15</v>
+      </c>
+      <c r="Q345">
+        <v>0.25</v>
+      </c>
+      <c r="R345">
+        <v>1.975</v>
+      </c>
+      <c r="S345">
+        <v>1.875</v>
+      </c>
+      <c r="T345">
+        <v>2.5</v>
+      </c>
+      <c r="U345">
+        <v>1.95</v>
+      </c>
+      <c r="V345">
+        <v>1.9</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC345"/>
+  <dimension ref="A1:AC349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5467427</v>
+        <v>5461474</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,58 +13548,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
         <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>52</v>
       </c>
       <c r="K147">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13608,16 +13608,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5461475</v>
+        <v>5428774</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,73 +13637,73 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>52</v>
+      </c>
+      <c r="K148">
+        <v>1.571</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>4.75</v>
+      </c>
+      <c r="N148">
+        <v>1.533</v>
+      </c>
+      <c r="O148">
+        <v>4.333</v>
+      </c>
+      <c r="P148">
+        <v>4.75</v>
+      </c>
+      <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
         <v>3</v>
       </c>
-      <c r="J148" t="s">
-        <v>51</v>
-      </c>
-      <c r="K148">
-        <v>2.1</v>
-      </c>
-      <c r="L148">
-        <v>3.3</v>
-      </c>
-      <c r="M148">
-        <v>3.2</v>
-      </c>
-      <c r="N148">
-        <v>2.375</v>
-      </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
-      <c r="P148">
-        <v>2.7</v>
-      </c>
-      <c r="Q148">
-        <v>0</v>
-      </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2.05</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA148">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5461474</v>
+        <v>5467427</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,58 +13726,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>52</v>
       </c>
       <c r="K149">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O149">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5460884</v>
+        <v>5465446</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L150">
         <v>3.5</v>
       </c>
       <c r="M150">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5428774</v>
+        <v>5461475</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,73 +13904,73 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K151">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M151">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N151">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O151">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P151">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S151">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB151">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5465446</v>
+        <v>5460884</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K154">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L154">
         <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.875</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
         <v>2.5</v>
       </c>
-      <c r="U154">
-        <v>1.825</v>
-      </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
-      <c r="W154">
-        <v>1.25</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -30730,6 +30730,15 @@
       <c r="G340" t="s">
         <v>44</v>
       </c>
+      <c r="H340">
+        <v>3</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340" t="s">
+        <v>52</v>
+      </c>
       <c r="K340">
         <v>2.15</v>
       </c>
@@ -30740,46 +30749,52 @@
         <v>3.6</v>
       </c>
       <c r="N340">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O340">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P340">
         <v>3.6</v>
       </c>
       <c r="Q340">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S340">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T340">
         <v>2.5</v>
       </c>
       <c r="U340">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V340">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W340">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA340">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB340">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC340">
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30817,7 +30832,7 @@
         <v>2</v>
       </c>
       <c r="O341">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P341">
         <v>4</v>
@@ -30835,10 +30850,10 @@
         <v>2</v>
       </c>
       <c r="U341">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V341">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30909,10 +30924,10 @@
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30974,19 +30989,19 @@
         <v>-1.25</v>
       </c>
       <c r="R343">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S343">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T343">
         <v>2.75</v>
       </c>
       <c r="U343">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V343">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -31048,19 +31063,19 @@
         <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
         <v>2.25</v>
       </c>
       <c r="U344">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V344">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
         <v>0</v>
@@ -31083,7 +31098,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6774881</v>
+        <v>6775549</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31092,63 +31107,359 @@
         <v>28</v>
       </c>
       <c r="E345" s="2">
-        <v>45347.35416666666</v>
+        <v>45346.66666666666</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G345" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K345">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L345">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M345">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N345">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O345">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P345">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q345">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R345">
+        <v>1.875</v>
+      </c>
+      <c r="S345">
         <v>1.975</v>
-      </c>
-      <c r="S345">
-        <v>1.875</v>
       </c>
       <c r="T345">
         <v>2.5</v>
       </c>
       <c r="U345">
+        <v>1.875</v>
+      </c>
+      <c r="V345">
+        <v>1.975</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>6774881</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45347.35416666666</v>
+      </c>
+      <c r="F346" t="s">
+        <v>49</v>
+      </c>
+      <c r="G346" t="s">
+        <v>40</v>
+      </c>
+      <c r="K346">
+        <v>3.3</v>
+      </c>
+      <c r="L346">
+        <v>3.25</v>
+      </c>
+      <c r="M346">
+        <v>2.15</v>
+      </c>
+      <c r="N346">
+        <v>3.2</v>
+      </c>
+      <c r="O346">
+        <v>3.25</v>
+      </c>
+      <c r="P346">
+        <v>2.2</v>
+      </c>
+      <c r="Q346">
+        <v>0.25</v>
+      </c>
+      <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
         <v>1.95</v>
       </c>
-      <c r="V345">
-        <v>1.9</v>
-      </c>
-      <c r="W345">
-        <v>0</v>
-      </c>
-      <c r="X345">
-        <v>0</v>
-      </c>
-      <c r="Y345">
-        <v>0</v>
-      </c>
-      <c r="Z345">
-        <v>0</v>
-      </c>
-      <c r="AA345">
+      <c r="T346">
+        <v>2.5</v>
+      </c>
+      <c r="U346">
+        <v>1.975</v>
+      </c>
+      <c r="V346">
+        <v>1.875</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>6775551</v>
+      </c>
+      <c r="C347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F347" t="s">
+        <v>32</v>
+      </c>
+      <c r="G347" t="s">
+        <v>39</v>
+      </c>
+      <c r="K347">
+        <v>2.55</v>
+      </c>
+      <c r="L347">
+        <v>3.2</v>
+      </c>
+      <c r="M347">
+        <v>2.7</v>
+      </c>
+      <c r="N347">
+        <v>2.3</v>
+      </c>
+      <c r="O347">
+        <v>3.25</v>
+      </c>
+      <c r="P347">
+        <v>3</v>
+      </c>
+      <c r="Q347">
+        <v>-0.25</v>
+      </c>
+      <c r="R347">
+        <v>2.025</v>
+      </c>
+      <c r="S347">
+        <v>1.825</v>
+      </c>
+      <c r="T347">
+        <v>2.5</v>
+      </c>
+      <c r="U347">
+        <v>1.975</v>
+      </c>
+      <c r="V347">
+        <v>1.875</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>6775552</v>
+      </c>
+      <c r="C348" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45347.5625</v>
+      </c>
+      <c r="F348" t="s">
+        <v>44</v>
+      </c>
+      <c r="G348" t="s">
+        <v>35</v>
+      </c>
+      <c r="K348">
+        <v>3.5</v>
+      </c>
+      <c r="L348">
+        <v>3.4</v>
+      </c>
+      <c r="M348">
+        <v>2</v>
+      </c>
+      <c r="N348">
+        <v>3.4</v>
+      </c>
+      <c r="O348">
+        <v>3.4</v>
+      </c>
+      <c r="P348">
+        <v>2.05</v>
+      </c>
+      <c r="Q348">
+        <v>0.25</v>
+      </c>
+      <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2.5</v>
+      </c>
+      <c r="U348">
+        <v>2.025</v>
+      </c>
+      <c r="V348">
+        <v>1.825</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>6775550</v>
+      </c>
+      <c r="C349" t="s">
+        <v>28</v>
+      </c>
+      <c r="D349" t="s">
+        <v>28</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F349" t="s">
+        <v>31</v>
+      </c>
+      <c r="G349" t="s">
+        <v>41</v>
+      </c>
+      <c r="K349">
+        <v>2.5</v>
+      </c>
+      <c r="L349">
+        <v>3.25</v>
+      </c>
+      <c r="M349">
+        <v>2.75</v>
+      </c>
+      <c r="N349">
+        <v>2.45</v>
+      </c>
+      <c r="O349">
+        <v>3.3</v>
+      </c>
+      <c r="P349">
+        <v>2.875</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>1.775</v>
+      </c>
+      <c r="S349">
+        <v>2.1</v>
+      </c>
+      <c r="T349">
+        <v>2.25</v>
+      </c>
+      <c r="U349">
+        <v>1.875</v>
+      </c>
+      <c r="V349">
+        <v>1.975</v>
+      </c>
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <v>0</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5461474</v>
+        <v>5465446</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,58 +13548,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>52</v>
       </c>
       <c r="K147">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>1.75</v>
+      </c>
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
         <v>1.825</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13608,13 +13608,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
+        <v>1.05</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
         <v>0.825</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
-      <c r="AB147">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5428774</v>
+        <v>5467427</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N148">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R148">
+        <v>1.925</v>
+      </c>
+      <c r="S148">
+        <v>1.925</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.975</v>
+      </c>
+      <c r="V148">
         <v>1.875</v>
       </c>
-      <c r="S148">
-        <v>1.975</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.875</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.5329999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
+        <v>0.925</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.875</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.875</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5467427</v>
+        <v>5461474</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,58 +13726,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>52</v>
       </c>
       <c r="K149">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L149">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O149">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5465446</v>
+        <v>5460884</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,76 +13815,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K150">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
         <v>3.5</v>
       </c>
       <c r="M150">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N150">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
+        <v>1.875</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
         <v>2.5</v>
       </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>2.025</v>
-      </c>
-      <c r="W150">
-        <v>1.25</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5461475</v>
+        <v>5456603</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L151">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M151">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N151">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O151">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P151">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R151">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA151">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5456603</v>
+        <v>5428774</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,13 +14082,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14097,43 +14097,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
         <v>4.75</v>
       </c>
-      <c r="M153">
-        <v>6.5</v>
-      </c>
       <c r="N153">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O153">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5460884</v>
+        <v>5461475</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z154">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -30829,7 +30829,7 @@
         <v>4</v>
       </c>
       <c r="N341">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O341">
         <v>3</v>
@@ -30838,13 +30838,13 @@
         <v>4</v>
       </c>
       <c r="Q341">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R341">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S341">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T341">
         <v>2</v>
@@ -30924,10 +30924,10 @@
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V342">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -31063,10 +31063,10 @@
         <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T344">
         <v>2.25</v>
@@ -31125,31 +31125,31 @@
         <v>1.909</v>
       </c>
       <c r="N345">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O345">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P345">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q345">
         <v>0.75</v>
       </c>
       <c r="R345">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T345">
         <v>2.5</v>
       </c>
       <c r="U345">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V345">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W345">
         <v>0</v>
@@ -31294,10 +31294,10 @@
         <v>2.5</v>
       </c>
       <c r="U347">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
         <v>0</v>
@@ -31347,31 +31347,31 @@
         <v>2</v>
       </c>
       <c r="N348">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O348">
         <v>3.4</v>
       </c>
       <c r="P348">
+        <v>2</v>
+      </c>
+      <c r="Q348">
+        <v>0.5</v>
+      </c>
+      <c r="R348">
+        <v>1.8</v>
+      </c>
+      <c r="S348">
         <v>2.05</v>
-      </c>
-      <c r="Q348">
-        <v>0.25</v>
-      </c>
-      <c r="R348">
-        <v>2.05</v>
-      </c>
-      <c r="S348">
-        <v>1.8</v>
       </c>
       <c r="T348">
         <v>2.5</v>
       </c>
       <c r="U348">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V348">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W348">
         <v>0</v>
@@ -31433,19 +31433,19 @@
         <v>0</v>
       </c>
       <c r="R349">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
         <v>2.25</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W349">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5465446</v>
+        <v>5460884</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L147">
         <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N147">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.5</v>
       </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>1.25</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5467427</v>
+        <v>5461474</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,58 +13637,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>52</v>
       </c>
       <c r="K148">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M148">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N148">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O148">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P148">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5461474</v>
+        <v>5461475</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,73 +13726,73 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>3</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
       <c r="J149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K149">
+        <v>2.1</v>
+      </c>
+      <c r="L149">
+        <v>3.3</v>
+      </c>
+      <c r="M149">
+        <v>3.2</v>
+      </c>
+      <c r="N149">
+        <v>2.375</v>
+      </c>
+      <c r="O149">
+        <v>3.3</v>
+      </c>
+      <c r="P149">
+        <v>2.7</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2.05</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
+        <v>2.025</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
         <v>1.7</v>
       </c>
-      <c r="L149">
-        <v>3.8</v>
-      </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-      <c r="N149">
-        <v>1.833</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
-      <c r="P149">
-        <v>3.4</v>
-      </c>
-      <c r="Q149">
-        <v>-0.5</v>
-      </c>
-      <c r="R149">
-        <v>1.825</v>
-      </c>
-      <c r="S149">
-        <v>2.025</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>1.95</v>
-      </c>
-      <c r="W149">
-        <v>0.833</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>1.05</v>
+      </c>
+      <c r="AB149">
         <v>0.825</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5460884</v>
+        <v>5456603</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,67 +13815,67 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q150">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
         <v>1.95</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.9</v>
       </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
-      <c r="V150">
-        <v>1.875</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AA150">
         <v>-0.5</v>
@@ -13884,7 +13884,7 @@
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5456603</v>
+        <v>5465446</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,13 +13904,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13919,43 +13919,43 @@
         <v>52</v>
       </c>
       <c r="K151">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L151">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N151">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O151">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q151">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T151">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13964,16 +13964,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5456594</v>
+        <v>5467427</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,76 +13993,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K152">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N152">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O152">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q152">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X152">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5461475</v>
+        <v>5456594</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>50</v>
+      </c>
+      <c r="K154">
+        <v>1.444</v>
+      </c>
+      <c r="L154">
+        <v>4.5</v>
+      </c>
+      <c r="M154">
+        <v>5.75</v>
+      </c>
+      <c r="N154">
+        <v>1.3</v>
+      </c>
+      <c r="O154">
+        <v>5.25</v>
+      </c>
+      <c r="P154">
+        <v>7</v>
+      </c>
+      <c r="Q154">
+        <v>-1.5</v>
+      </c>
+      <c r="R154">
+        <v>1.9</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
         <v>3</v>
       </c>
-      <c r="J154" t="s">
-        <v>51</v>
-      </c>
-      <c r="K154">
-        <v>2.1</v>
-      </c>
-      <c r="L154">
-        <v>3.3</v>
-      </c>
-      <c r="M154">
-        <v>3.2</v>
-      </c>
-      <c r="N154">
-        <v>2.375</v>
-      </c>
-      <c r="O154">
-        <v>3.3</v>
-      </c>
-      <c r="P154">
-        <v>2.7</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.8</v>
-      </c>
-      <c r="S154">
-        <v>2.05</v>
-      </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y154">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -30838,13 +30838,13 @@
         <v>4</v>
       </c>
       <c r="Q341">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R341">
+        <v>2.1</v>
+      </c>
+      <c r="S341">
         <v>1.775</v>
-      </c>
-      <c r="S341">
-        <v>2.1</v>
       </c>
       <c r="T341">
         <v>2</v>
@@ -30915,19 +30915,19 @@
         <v>-1.5</v>
       </c>
       <c r="R342">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S342">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V342">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -31137,10 +31137,10 @@
         <v>0.75</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S345">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T345">
         <v>2.5</v>
@@ -31433,10 +31433,10 @@
         <v>0</v>
       </c>
       <c r="R349">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S349">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T349">
         <v>2.25</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5461474</v>
+        <v>5465446</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,58 +13637,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>52</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="L148">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N148">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O148">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>1.75</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
         <v>1.825</v>
       </c>
-      <c r="S148">
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,13 +13697,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
+        <v>1.05</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
         <v>0.825</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5456603</v>
+        <v>5461474</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,58 +13815,58 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>52</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="L150">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P150">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
+        <v>1.9</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="V150">
-        <v>1.9</v>
-      </c>
       <c r="W150">
-        <v>0.222</v>
+        <v>0.833</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5465446</v>
+        <v>5467427</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,13 +13904,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13919,43 +13919,43 @@
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N151">
+        <v>2.6</v>
+      </c>
+      <c r="O151">
+        <v>3.1</v>
+      </c>
+      <c r="P151">
+        <v>2.625</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.925</v>
+      </c>
+      <c r="T151">
         <v>2.25</v>
       </c>
-      <c r="O151">
-        <v>3.6</v>
-      </c>
-      <c r="P151">
-        <v>2.7</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>2.05</v>
-      </c>
-      <c r="S151">
-        <v>1.75</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13964,16 +13964,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5467427</v>
+        <v>5456603</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,13 +13993,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14008,25 +14008,25 @@
         <v>52</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M152">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="N152">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="O152">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P152">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R152">
         <v>1.925</v>
@@ -14035,16 +14035,16 @@
         <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.6</v>
+        <v>0.222</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14053,16 +14053,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5428774</v>
+        <v>5456594</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="N153">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P153">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>3</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5456594</v>
+        <v>5428774</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N154">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="O154">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X154">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -30832,28 +30832,28 @@
         <v>2.05</v>
       </c>
       <c r="O341">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P341">
         <v>4</v>
       </c>
       <c r="Q341">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R341">
+        <v>1.775</v>
+      </c>
+      <c r="S341">
         <v>2.1</v>
       </c>
-      <c r="S341">
-        <v>1.775</v>
-      </c>
       <c r="T341">
         <v>2</v>
       </c>
       <c r="U341">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V341">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30903,31 +30903,31 @@
         <v>8</v>
       </c>
       <c r="N342">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O342">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P342">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q342">
         <v>-1.5</v>
       </c>
       <c r="R342">
+        <v>1.875</v>
+      </c>
+      <c r="S342">
         <v>1.975</v>
-      </c>
-      <c r="S342">
-        <v>1.875</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V342">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30998,10 +30998,10 @@
         <v>2.75</v>
       </c>
       <c r="U343">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V343">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -31063,19 +31063,19 @@
         <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
         <v>2.25</v>
       </c>
       <c r="U344">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W344">
         <v>0</v>
@@ -31125,31 +31125,31 @@
         <v>1.909</v>
       </c>
       <c r="N345">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O345">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P345">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q345">
         <v>0.75</v>
       </c>
       <c r="R345">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S345">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T345">
         <v>2.5</v>
       </c>
       <c r="U345">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V345">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W345">
         <v>0</v>
@@ -31211,10 +31211,10 @@
         <v>0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T346">
         <v>2.5</v>
@@ -31433,10 +31433,10 @@
         <v>0</v>
       </c>
       <c r="R349">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S349">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T349">
         <v>2.25</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5460884</v>
+        <v>5456594</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>50</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="N147">
+        <v>1.3</v>
+      </c>
+      <c r="O147">
+        <v>5.25</v>
+      </c>
+      <c r="P147">
+        <v>7</v>
+      </c>
+      <c r="Q147">
+        <v>-1.5</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
         <v>3</v>
       </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.1</v>
-      </c>
-      <c r="Q147">
-        <v>0.25</v>
-      </c>
-      <c r="R147">
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.975</v>
-      </c>
-      <c r="V147">
-        <v>1.875</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5465446</v>
+        <v>5456603</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M148">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N148">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.25</v>
+        <v>0.222</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5461475</v>
+        <v>5460884</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>50</v>
+      </c>
+      <c r="K149">
+        <v>3.6</v>
+      </c>
+      <c r="L149">
+        <v>3.5</v>
+      </c>
+      <c r="M149">
+        <v>1.909</v>
+      </c>
+      <c r="N149">
         <v>3</v>
       </c>
-      <c r="J149" t="s">
-        <v>51</v>
-      </c>
-      <c r="K149">
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
         <v>2.1</v>
       </c>
-      <c r="L149">
-        <v>3.3</v>
-      </c>
-      <c r="M149">
-        <v>3.2</v>
-      </c>
-      <c r="N149">
-        <v>2.375</v>
-      </c>
-      <c r="O149">
-        <v>3.3</v>
-      </c>
-      <c r="P149">
-        <v>2.7</v>
-      </c>
       <c r="Q149">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
+        <v>1.875</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>2.5</v>
       </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>2.025</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
       <c r="Y149">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA149">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5467427</v>
+        <v>5465446</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,13 +13904,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13919,43 +13919,43 @@
         <v>52</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N151">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O151">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13964,16 +13964,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5456603</v>
+        <v>5428774</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,13 +13993,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14008,43 +14008,43 @@
         <v>52</v>
       </c>
       <c r="K152">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
         <v>4.75</v>
       </c>
-      <c r="M152">
-        <v>6.5</v>
-      </c>
       <c r="N152">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O152">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q152">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14053,16 +14053,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5456594</v>
+        <v>5467427</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K153">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M153">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O153">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P153">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X153">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5428774</v>
+        <v>5461475</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,73 +14171,73 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W154">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB154">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -30819,6 +30819,15 @@
       <c r="G341" t="s">
         <v>37</v>
       </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>50</v>
+      </c>
       <c r="K341">
         <v>2</v>
       </c>
@@ -30829,46 +30838,52 @@
         <v>4</v>
       </c>
       <c r="N341">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O341">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P341">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q341">
         <v>-0.25</v>
       </c>
       <c r="R341">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S341">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T341">
         <v>2</v>
       </c>
       <c r="U341">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V341">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X341">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA341">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB341">
+        <v>-1</v>
+      </c>
+      <c r="AC341">
+        <v>0.925</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30893,6 +30908,15 @@
       <c r="G342" t="s">
         <v>48</v>
       </c>
+      <c r="H342">
+        <v>4</v>
+      </c>
+      <c r="I342">
+        <v>2</v>
+      </c>
+      <c r="J342" t="s">
+        <v>52</v>
+      </c>
       <c r="K342">
         <v>1.333</v>
       </c>
@@ -30903,46 +30927,52 @@
         <v>8</v>
       </c>
       <c r="N342">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O342">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P342">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q342">
         <v>-1.5</v>
       </c>
       <c r="R342">
+        <v>1.975</v>
+      </c>
+      <c r="S342">
         <v>1.875</v>
       </c>
-      <c r="S342">
-        <v>1.975</v>
-      </c>
       <c r="T342">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U342">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V342">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W342">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA342">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB342">
+        <v>1.05</v>
+      </c>
+      <c r="AC342">
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -30989,10 +31019,10 @@
         <v>-1.25</v>
       </c>
       <c r="R343">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T343">
         <v>2.75</v>
@@ -31072,10 +31102,10 @@
         <v>2.25</v>
       </c>
       <c r="U344">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V344">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
         <v>0</v>
@@ -31125,22 +31155,22 @@
         <v>1.909</v>
       </c>
       <c r="N345">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O345">
         <v>3.8</v>
       </c>
       <c r="P345">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="Q345">
         <v>0.75</v>
       </c>
       <c r="R345">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S345">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T345">
         <v>2.5</v>
@@ -31220,10 +31250,10 @@
         <v>2.5</v>
       </c>
       <c r="U346">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W346">
         <v>0</v>
@@ -31285,19 +31315,19 @@
         <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T347">
         <v>2.5</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
         <v>0</v>
@@ -31421,13 +31451,13 @@
         <v>2.75</v>
       </c>
       <c r="N349">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O349">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P349">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q349">
         <v>0</v>
@@ -31442,10 +31472,10 @@
         <v>2.25</v>
       </c>
       <c r="U349">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V349">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W349">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC349"/>
+  <dimension ref="A1:AC348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30980,7 +30980,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6774462</v>
+        <v>6775547</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30989,49 +30989,49 @@
         <v>28</v>
       </c>
       <c r="E343" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.5625</v>
       </c>
       <c r="F343" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G343" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K343">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L343">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M343">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N343">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O343">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P343">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q343">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
+        <v>2.05</v>
+      </c>
+      <c r="S343">
+        <v>1.8</v>
+      </c>
+      <c r="T343">
+        <v>2.25</v>
+      </c>
+      <c r="U343">
         <v>1.975</v>
       </c>
-      <c r="S343">
+      <c r="V343">
         <v>1.875</v>
-      </c>
-      <c r="T343">
-        <v>2.75</v>
-      </c>
-      <c r="U343">
-        <v>1.875</v>
-      </c>
-      <c r="V343">
-        <v>1.975</v>
       </c>
       <c r="W343">
         <v>0</v>
@@ -31054,7 +31054,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6775547</v>
+        <v>6775549</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31063,34 +31063,34 @@
         <v>28</v>
       </c>
       <c r="E344" s="2">
-        <v>45346.5625</v>
+        <v>45346.66666666666</v>
       </c>
       <c r="F344" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G344" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K344">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L344">
         <v>3.5</v>
       </c>
       <c r="M344">
+        <v>1.909</v>
+      </c>
+      <c r="N344">
+        <v>7</v>
+      </c>
+      <c r="O344">
         <v>4.2</v>
       </c>
-      <c r="N344">
-        <v>1.833</v>
-      </c>
-      <c r="O344">
-        <v>3.5</v>
-      </c>
       <c r="P344">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="Q344">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R344">
         <v>1.8</v>
@@ -31099,7 +31099,7 @@
         <v>2.05</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
         <v>1.875</v>
@@ -31128,7 +31128,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6775549</v>
+        <v>6774881</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31137,49 +31137,49 @@
         <v>28</v>
       </c>
       <c r="E345" s="2">
-        <v>45346.66666666666</v>
+        <v>45347.35416666666</v>
       </c>
       <c r="F345" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K345">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L345">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M345">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N345">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O345">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P345">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="Q345">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R345">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S345">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T345">
         <v>2.5</v>
       </c>
       <c r="U345">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V345">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W345">
         <v>0</v>
@@ -31202,7 +31202,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6774881</v>
+        <v>6775551</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31211,34 +31211,34 @@
         <v>28</v>
       </c>
       <c r="E346" s="2">
-        <v>45347.35416666666</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K346">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="L346">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M346">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N346">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O346">
         <v>3.25</v>
       </c>
       <c r="P346">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q346">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
         <v>1.925</v>
@@ -31250,10 +31250,10 @@
         <v>2.5</v>
       </c>
       <c r="U346">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V346">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6775551</v>
+        <v>6775552</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31285,49 +31285,49 @@
         <v>28</v>
       </c>
       <c r="E347" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.5625</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G347" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K347">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L347">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M347">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N347">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="O347">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R347">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S347">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T347">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W347">
         <v>0</v>
@@ -31350,7 +31350,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6775552</v>
+        <v>6775550</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31359,49 +31359,49 @@
         <v>28</v>
       </c>
       <c r="E348" s="2">
-        <v>45347.5625</v>
+        <v>45348.625</v>
       </c>
       <c r="F348" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G348" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K348">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L348">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M348">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N348">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O348">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P348">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q348">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R348">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S348">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U348">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V348">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W348">
         <v>0</v>
@@ -31416,80 +31416,6 @@
         <v>0</v>
       </c>
       <c r="AA348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:29">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="B349">
-        <v>6775550</v>
-      </c>
-      <c r="C349" t="s">
-        <v>28</v>
-      </c>
-      <c r="D349" t="s">
-        <v>28</v>
-      </c>
-      <c r="E349" s="2">
-        <v>45348.625</v>
-      </c>
-      <c r="F349" t="s">
-        <v>31</v>
-      </c>
-      <c r="G349" t="s">
-        <v>41</v>
-      </c>
-      <c r="K349">
-        <v>2.5</v>
-      </c>
-      <c r="L349">
-        <v>3.25</v>
-      </c>
-      <c r="M349">
-        <v>2.75</v>
-      </c>
-      <c r="N349">
-        <v>2.5</v>
-      </c>
-      <c r="O349">
-        <v>3.2</v>
-      </c>
-      <c r="P349">
-        <v>2.8</v>
-      </c>
-      <c r="Q349">
-        <v>0</v>
-      </c>
-      <c r="R349">
-        <v>1.8</v>
-      </c>
-      <c r="S349">
-        <v>2.05</v>
-      </c>
-      <c r="T349">
-        <v>2.25</v>
-      </c>
-      <c r="U349">
-        <v>1.975</v>
-      </c>
-      <c r="V349">
-        <v>1.875</v>
-      </c>
-      <c r="W349">
-        <v>0</v>
-      </c>
-      <c r="X349">
-        <v>0</v>
-      </c>
-      <c r="Y349">
-        <v>0</v>
-      </c>
-      <c r="Z349">
-        <v>0</v>
-      </c>
-      <c r="AA349">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC348"/>
+  <dimension ref="A1:AC349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5456594</v>
+        <v>5467427</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K147">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L147">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="N147">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="O147">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q147">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X147">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5456603</v>
+        <v>5465446</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>52</v>
       </c>
       <c r="K148">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L148">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N148">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q148">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5460884</v>
+        <v>5461475</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,76 +13726,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P149">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z149">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5465446</v>
+        <v>5460884</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13904,76 +13904,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K151">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L151">
         <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N151">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>1.975</v>
+      </c>
+      <c r="V151">
+        <v>1.875</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
         <v>2.5</v>
       </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
-      <c r="V151">
-        <v>2.025</v>
-      </c>
-      <c r="W151">
-        <v>1.25</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5428774</v>
+        <v>5456603</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13993,13 +13993,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14008,43 +14008,43 @@
         <v>52</v>
       </c>
       <c r="K152">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M152">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N152">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="O152">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P152">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>0.5329999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14053,16 +14053,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5467427</v>
+        <v>5428774</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,13 +14082,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14097,43 +14097,43 @@
         <v>52</v>
       </c>
       <c r="K153">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S153">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
         <v>1.975</v>
       </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
       <c r="W153">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5461475</v>
+        <v>5456594</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>50</v>
+      </c>
+      <c r="K154">
+        <v>1.444</v>
+      </c>
+      <c r="L154">
+        <v>4.5</v>
+      </c>
+      <c r="M154">
+        <v>5.75</v>
+      </c>
+      <c r="N154">
+        <v>1.3</v>
+      </c>
+      <c r="O154">
+        <v>5.25</v>
+      </c>
+      <c r="P154">
+        <v>7</v>
+      </c>
+      <c r="Q154">
+        <v>-1.5</v>
+      </c>
+      <c r="R154">
+        <v>1.9</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
         <v>3</v>
       </c>
-      <c r="J154" t="s">
-        <v>51</v>
-      </c>
-      <c r="K154">
-        <v>2.1</v>
-      </c>
-      <c r="L154">
-        <v>3.3</v>
-      </c>
-      <c r="M154">
-        <v>3.2</v>
-      </c>
-      <c r="N154">
-        <v>2.375</v>
-      </c>
-      <c r="O154">
-        <v>3.3</v>
-      </c>
-      <c r="P154">
-        <v>2.7</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.8</v>
-      </c>
-      <c r="S154">
-        <v>2.05</v>
-      </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y154">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -30980,7 +30980,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6775547</v>
+        <v>6774462</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30989,43 +30989,52 @@
         <v>28</v>
       </c>
       <c r="E343" s="2">
-        <v>45346.5625</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G343" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343" t="s">
+        <v>50</v>
       </c>
       <c r="K343">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L343">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M343">
+        <v>6.5</v>
+      </c>
+      <c r="N343">
+        <v>1.533</v>
+      </c>
+      <c r="O343">
         <v>4.2</v>
       </c>
-      <c r="N343">
-        <v>2</v>
-      </c>
-      <c r="O343">
-        <v>3.25</v>
-      </c>
       <c r="P343">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q343">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R343">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T343">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U343">
         <v>1.975</v>
@@ -31034,19 +31043,25 @@
         <v>1.875</v>
       </c>
       <c r="W343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
+        <v>0.875</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31054,7 +31069,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6775549</v>
+        <v>6775547</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31063,64 +31078,79 @@
         <v>28</v>
       </c>
       <c r="E344" s="2">
-        <v>45346.66666666666</v>
+        <v>45346.5625</v>
       </c>
       <c r="F344" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344" t="s">
+        <v>50</v>
       </c>
       <c r="K344">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L344">
         <v>3.5</v>
       </c>
       <c r="M344">
+        <v>4.2</v>
+      </c>
+      <c r="N344">
         <v>1.909</v>
       </c>
-      <c r="N344">
-        <v>7</v>
-      </c>
       <c r="O344">
+        <v>3.25</v>
+      </c>
+      <c r="P344">
         <v>4.2</v>
       </c>
-      <c r="P344">
-        <v>1.45</v>
-      </c>
       <c r="Q344">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R344">
+        <v>1.925</v>
+      </c>
+      <c r="S344">
+        <v>1.925</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
+        <v>2.05</v>
+      </c>
+      <c r="V344">
         <v>1.8</v>
       </c>
-      <c r="S344">
-        <v>2.05</v>
-      </c>
-      <c r="T344">
-        <v>2.5</v>
-      </c>
-      <c r="U344">
-        <v>1.875</v>
-      </c>
-      <c r="V344">
-        <v>1.975</v>
-      </c>
       <c r="W344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB344">
+        <v>-1</v>
+      </c>
+      <c r="AC344">
+        <v>0.8</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31128,7 +31158,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6774881</v>
+        <v>6775549</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31137,64 +31167,79 @@
         <v>28</v>
       </c>
       <c r="E345" s="2">
-        <v>45347.35416666666</v>
+        <v>45346.66666666666</v>
       </c>
       <c r="F345" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G345" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345" t="s">
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L345">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M345">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N345">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O345">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P345">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q345">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R345">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S345">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T345">
         <v>2.5</v>
       </c>
       <c r="U345">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V345">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA345">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB345">
+        <v>-1</v>
+      </c>
+      <c r="AC345">
+        <v>0.825</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31202,7 +31247,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6775551</v>
+        <v>6774881</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31211,34 +31256,34 @@
         <v>28</v>
       </c>
       <c r="E346" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.35416666666</v>
       </c>
       <c r="F346" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G346" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K346">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="L346">
+        <v>3.25</v>
+      </c>
+      <c r="M346">
+        <v>2.15</v>
+      </c>
+      <c r="N346">
         <v>3.2</v>
-      </c>
-      <c r="M346">
-        <v>2.7</v>
-      </c>
-      <c r="N346">
-        <v>2.2</v>
       </c>
       <c r="O346">
         <v>3.25</v>
       </c>
       <c r="P346">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R346">
         <v>1.925</v>
@@ -31250,10 +31295,10 @@
         <v>2.5</v>
       </c>
       <c r="U346">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W346">
         <v>0</v>
@@ -31276,7 +31321,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6775552</v>
+        <v>6775551</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31285,49 +31330,49 @@
         <v>28</v>
       </c>
       <c r="E347" s="2">
-        <v>45347.5625</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G347" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K347">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L347">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M347">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N347">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O347">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P347">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q347">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S347">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T347">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U347">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
         <v>0</v>
@@ -31350,72 +31395,146 @@
         <v>346</v>
       </c>
       <c r="B348">
+        <v>6775552</v>
+      </c>
+      <c r="C348" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45347.5625</v>
+      </c>
+      <c r="F348" t="s">
+        <v>44</v>
+      </c>
+      <c r="G348" t="s">
+        <v>35</v>
+      </c>
+      <c r="K348">
+        <v>3.5</v>
+      </c>
+      <c r="L348">
+        <v>3.4</v>
+      </c>
+      <c r="M348">
+        <v>2</v>
+      </c>
+      <c r="N348">
+        <v>3.6</v>
+      </c>
+      <c r="O348">
+        <v>3.4</v>
+      </c>
+      <c r="P348">
+        <v>2</v>
+      </c>
+      <c r="Q348">
+        <v>0.5</v>
+      </c>
+      <c r="R348">
+        <v>1.8</v>
+      </c>
+      <c r="S348">
+        <v>2.05</v>
+      </c>
+      <c r="T348">
+        <v>2.5</v>
+      </c>
+      <c r="U348">
+        <v>2.05</v>
+      </c>
+      <c r="V348">
+        <v>1.8</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
         <v>6775550</v>
       </c>
-      <c r="C348" t="s">
-        <v>28</v>
-      </c>
-      <c r="D348" t="s">
-        <v>28</v>
-      </c>
-      <c r="E348" s="2">
+      <c r="C349" t="s">
+        <v>28</v>
+      </c>
+      <c r="D349" t="s">
+        <v>28</v>
+      </c>
+      <c r="E349" s="2">
         <v>45348.625</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F349" t="s">
         <v>31</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G349" t="s">
         <v>41</v>
       </c>
-      <c r="K348">
+      <c r="K349">
         <v>2.5</v>
       </c>
-      <c r="L348">
+      <c r="L349">
         <v>3.25</v>
       </c>
-      <c r="M348">
+      <c r="M349">
         <v>2.75</v>
       </c>
-      <c r="N348">
-        <v>2.625</v>
-      </c>
-      <c r="O348">
+      <c r="N349">
+        <v>2.45</v>
+      </c>
+      <c r="O349">
         <v>3.2</v>
       </c>
-      <c r="P348">
-        <v>2.7</v>
-      </c>
-      <c r="Q348">
-        <v>0</v>
-      </c>
-      <c r="R348">
-        <v>1.925</v>
-      </c>
-      <c r="S348">
-        <v>1.925</v>
-      </c>
-      <c r="T348">
+      <c r="P349">
+        <v>2.875</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>1.8</v>
+      </c>
+      <c r="S349">
+        <v>2.05</v>
+      </c>
+      <c r="T349">
         <v>2.25</v>
       </c>
-      <c r="U348">
+      <c r="U349">
         <v>1.975</v>
       </c>
-      <c r="V348">
+      <c r="V349">
         <v>1.875</v>
       </c>
-      <c r="W348">
-        <v>0</v>
-      </c>
-      <c r="X348">
-        <v>0</v>
-      </c>
-      <c r="Y348">
-        <v>0</v>
-      </c>
-      <c r="Z348">
-        <v>0</v>
-      </c>
-      <c r="AA348">
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <v>0</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -31369,10 +31369,10 @@
         <v>2.5</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W347">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -17905,6 +17905,15 @@
       <c r="G196" t="s">
         <v>44</v>
       </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>49</v>
+      </c>
       <c r="K196">
         <v>2.5</v>
       </c>
@@ -17915,46 +17924,52 @@
         <v>2.75</v>
       </c>
       <c r="N196">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O196">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P196">
         <v>2.9</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2.05</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
         <v>2.1</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.775</v>
       </c>
-      <c r="T196">
-        <v>2.25</v>
-      </c>
-      <c r="U196">
-        <v>2.025</v>
-      </c>
-      <c r="V196">
-        <v>1.825</v>
-      </c>
       <c r="W196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>0</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>0.7749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17972,6 +17972,761 @@
         <v>0.7749999999999999</v>
       </c>
     </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7863104</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45350.60416666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>31</v>
+      </c>
+      <c r="G197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>48</v>
+      </c>
+      <c r="K197">
+        <v>1.727</v>
+      </c>
+      <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
+        <v>3.75</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>3.5</v>
+      </c>
+      <c r="Q197">
+        <v>-0.5</v>
+      </c>
+      <c r="R197">
+        <v>2.05</v>
+      </c>
+      <c r="S197">
+        <v>1.8</v>
+      </c>
+      <c r="T197">
+        <v>2.25</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>1.925</v>
+      </c>
+      <c r="W197">
+        <v>1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>1.05</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6775554</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45352.58333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>46</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="K198">
+        <v>1.8</v>
+      </c>
+      <c r="L198">
+        <v>3.3</v>
+      </c>
+      <c r="M198">
+        <v>4.333</v>
+      </c>
+      <c r="N198">
+        <v>1.75</v>
+      </c>
+      <c r="O198">
+        <v>3.3</v>
+      </c>
+      <c r="P198">
+        <v>4.5</v>
+      </c>
+      <c r="Q198">
+        <v>-0.75</v>
+      </c>
+      <c r="R198">
+        <v>2.05</v>
+      </c>
+      <c r="S198">
+        <v>1.8</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>2.05</v>
+      </c>
+      <c r="V198">
+        <v>1.8</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6774463</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45352.6875</v>
+      </c>
+      <c r="F199" t="s">
+        <v>38</v>
+      </c>
+      <c r="G199" t="s">
+        <v>33</v>
+      </c>
+      <c r="K199">
+        <v>3.6</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>2.05</v>
+      </c>
+      <c r="N199">
+        <v>3.6</v>
+      </c>
+      <c r="O199">
+        <v>3</v>
+      </c>
+      <c r="P199">
+        <v>2.05</v>
+      </c>
+      <c r="Q199">
+        <v>0.25</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>1.85</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6775555</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>34</v>
+      </c>
+      <c r="G200" t="s">
+        <v>39</v>
+      </c>
+      <c r="K200">
+        <v>2.55</v>
+      </c>
+      <c r="L200">
+        <v>3.3</v>
+      </c>
+      <c r="M200">
+        <v>2.45</v>
+      </c>
+      <c r="N200">
+        <v>2.4</v>
+      </c>
+      <c r="O200">
+        <v>3.3</v>
+      </c>
+      <c r="P200">
+        <v>2.625</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>1.85</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>2.025</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6775560</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45353.5625</v>
+      </c>
+      <c r="F201" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" t="s">
+        <v>36</v>
+      </c>
+      <c r="K201">
+        <v>2.1</v>
+      </c>
+      <c r="L201">
+        <v>3.2</v>
+      </c>
+      <c r="M201">
+        <v>3.25</v>
+      </c>
+      <c r="N201">
+        <v>2.05</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>3.4</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.8</v>
+      </c>
+      <c r="S201">
+        <v>2.05</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
+        <v>1.925</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6775557</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>3.5</v>
+      </c>
+      <c r="M202">
+        <v>3.3</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
+        <v>3.5</v>
+      </c>
+      <c r="P202">
+        <v>3.3</v>
+      </c>
+      <c r="Q202">
+        <v>-0.5</v>
+      </c>
+      <c r="R202">
+        <v>2.05</v>
+      </c>
+      <c r="S202">
+        <v>1.8</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.85</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6774880</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45354.35416666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" t="s">
+        <v>45</v>
+      </c>
+      <c r="K203">
+        <v>2.45</v>
+      </c>
+      <c r="L203">
+        <v>3.3</v>
+      </c>
+      <c r="M203">
+        <v>2.55</v>
+      </c>
+      <c r="N203">
+        <v>2.375</v>
+      </c>
+      <c r="O203">
+        <v>3.3</v>
+      </c>
+      <c r="P203">
+        <v>2.625</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>1.775</v>
+      </c>
+      <c r="S203">
+        <v>2.1</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
+        <v>1.875</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6775556</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>35</v>
+      </c>
+      <c r="G204" t="s">
+        <v>37</v>
+      </c>
+      <c r="K204">
+        <v>2.05</v>
+      </c>
+      <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
+        <v>3.2</v>
+      </c>
+      <c r="N204">
+        <v>2.05</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>3.2</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
+        <v>2</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>2.05</v>
+      </c>
+      <c r="V204">
+        <v>1.8</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6775559</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45354.5625</v>
+      </c>
+      <c r="F205" t="s">
+        <v>32</v>
+      </c>
+      <c r="G205" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205">
+        <v>1.95</v>
+      </c>
+      <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
+        <v>3.8</v>
+      </c>
+      <c r="N205">
+        <v>1.95</v>
+      </c>
+      <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
+        <v>3.8</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.85</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.9</v>
+      </c>
+      <c r="V205">
+        <v>1.95</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6775558</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45355.625</v>
+      </c>
+      <c r="F206" t="s">
+        <v>44</v>
+      </c>
+      <c r="G206" t="s">
+        <v>31</v>
+      </c>
+      <c r="K206">
+        <v>2.05</v>
+      </c>
+      <c r="L206">
+        <v>3.2</v>
+      </c>
+      <c r="M206">
+        <v>3.5</v>
+      </c>
+      <c r="N206">
+        <v>1.85</v>
+      </c>
+      <c r="O206">
+        <v>3.3</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>1.9</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.9</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -18083,6 +18083,15 @@
       <c r="G198" t="s">
         <v>29</v>
       </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>47</v>
+      </c>
       <c r="K198">
         <v>1.8</v>
       </c>
@@ -18093,46 +18102,52 @@
         <v>4.333</v>
       </c>
       <c r="N198">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P198">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q198">
         <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18157,6 +18172,15 @@
       <c r="G199" t="s">
         <v>33</v>
       </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
+      </c>
       <c r="K199">
         <v>3.6</v>
       </c>
@@ -18167,46 +18191,52 @@
         <v>2.05</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O199">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P199">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q199">
         <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.85</v>
       </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
       <c r="W199">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>1</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,31 +18271,31 @@
         <v>2.45</v>
       </c>
       <c r="N200">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O200">
         <v>3.3</v>
       </c>
       <c r="P200">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18318,28 +18348,28 @@
         <v>2.05</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18389,31 +18419,31 @@
         <v>3.3</v>
       </c>
       <c r="N202">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q202">
         <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18463,22 +18493,22 @@
         <v>2.55</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O203">
         <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
+        <v>2.1</v>
+      </c>
+      <c r="S203">
         <v>1.775</v>
-      </c>
-      <c r="S203">
-        <v>2.1</v>
       </c>
       <c r="T203">
         <v>2.5</v>
@@ -18537,22 +18567,22 @@
         <v>3.2</v>
       </c>
       <c r="N204">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O204">
         <v>3.2</v>
       </c>
       <c r="P204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18623,10 +18653,10 @@
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
         <v>2.25</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -18261,6 +18261,15 @@
       <c r="G200" t="s">
         <v>39</v>
       </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>48</v>
+      </c>
       <c r="K200">
         <v>2.55</v>
       </c>
@@ -18271,46 +18280,52 @@
         <v>2.45</v>
       </c>
       <c r="N200">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O200">
         <v>3.3</v>
       </c>
       <c r="P200">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T200">
         <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>0.5</v>
+      </c>
+      <c r="AC200">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18335,6 +18350,15 @@
       <c r="G201" t="s">
         <v>36</v>
       </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>48</v>
+      </c>
       <c r="K201">
         <v>2.1</v>
       </c>
@@ -18351,40 +18375,46 @@
         <v>3</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18409,6 +18439,15 @@
       <c r="G202" t="s">
         <v>42</v>
       </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>49</v>
+      </c>
       <c r="K202">
         <v>2</v>
       </c>
@@ -18425,40 +18464,46 @@
         <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
         <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T202">
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>1.05</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18493,31 +18538,31 @@
         <v>2.55</v>
       </c>
       <c r="N203">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O203">
         <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18588,10 +18633,10 @@
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18653,10 +18698,10 @@
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>2.25</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18528,6 +18528,15 @@
       <c r="G203" t="s">
         <v>45</v>
       </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>48</v>
+      </c>
       <c r="K203">
         <v>2.45</v>
       </c>
@@ -18538,46 +18547,52 @@
         <v>2.55</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O203">
         <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
+        <v>2.025</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
         <v>1.8</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>2.05</v>
       </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>2</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
       <c r="W203">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.8</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18602,6 +18617,15 @@
       <c r="G204" t="s">
         <v>37</v>
       </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
       <c r="K204">
         <v>2.05</v>
       </c>
@@ -18612,46 +18636,52 @@
         <v>3.2</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O204">
         <v>3.2</v>
       </c>
       <c r="P204">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
         <v>1.8</v>
-      </c>
-      <c r="S204">
-        <v>2.05</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.8</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18676,6 +18706,15 @@
       <c r="G205" t="s">
         <v>41</v>
       </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
+      </c>
       <c r="K205">
         <v>1.95</v>
       </c>
@@ -18692,40 +18731,46 @@
         <v>3.25</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q205">
         <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18750,6 +18795,15 @@
       <c r="G206" t="s">
         <v>31</v>
       </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>48</v>
+      </c>
       <c r="K206">
         <v>2.05</v>
       </c>
@@ -18760,45 +18814,717 @@
         <v>3.5</v>
       </c>
       <c r="N206">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P206">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q206">
         <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.25</v>
       </c>
       <c r="U206">
+        <v>2.05</v>
+      </c>
+      <c r="V206">
+        <v>1.8</v>
+      </c>
+      <c r="W206">
+        <v>0.833</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6775564</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
+        <v>44</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>3.25</v>
+      </c>
+      <c r="M207">
+        <v>4</v>
+      </c>
+      <c r="N207">
+        <v>1.95</v>
+      </c>
+      <c r="O207">
+        <v>3.2</v>
+      </c>
+      <c r="P207">
+        <v>4.333</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
         <v>1.9</v>
       </c>
-      <c r="V206">
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
+        <v>1.9</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6775562</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45359.6875</v>
+      </c>
+      <c r="F208" t="s">
+        <v>39</v>
+      </c>
+      <c r="G208" t="s">
+        <v>40</v>
+      </c>
+      <c r="K208">
+        <v>1.952</v>
+      </c>
+      <c r="L208">
+        <v>3.5</v>
+      </c>
+      <c r="M208">
+        <v>3.8</v>
+      </c>
+      <c r="N208">
+        <v>1.909</v>
+      </c>
+      <c r="O208">
+        <v>3.5</v>
+      </c>
+      <c r="P208">
+        <v>3.8</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6775563</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209">
+        <v>2.625</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>2.7</v>
+      </c>
+      <c r="N209">
+        <v>2.4</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>2.9</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>1.775</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
+        <v>1.925</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6774879</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F210" t="s">
+        <v>45</v>
+      </c>
+      <c r="G210" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210">
+        <v>4.75</v>
+      </c>
+      <c r="L210">
+        <v>3.8</v>
+      </c>
+      <c r="M210">
+        <v>1.7</v>
+      </c>
+      <c r="N210">
+        <v>5.25</v>
+      </c>
+      <c r="O210">
+        <v>4</v>
+      </c>
+      <c r="P210">
+        <v>1.615</v>
+      </c>
+      <c r="Q210">
+        <v>1</v>
+      </c>
+      <c r="R210">
+        <v>1.8</v>
+      </c>
+      <c r="S210">
+        <v>2.05</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>2</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6775561</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" t="s">
+        <v>41</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>2.3</v>
+      </c>
+      <c r="N211">
+        <v>2.9</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>2.375</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>2.05</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.875</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6774464</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45361.35416666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" t="s">
+        <v>38</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>3.4</v>
+      </c>
+      <c r="M212">
+        <v>3.75</v>
+      </c>
+      <c r="N212">
+        <v>2.55</v>
+      </c>
+      <c r="O212">
+        <v>3.1</v>
+      </c>
+      <c r="P212">
+        <v>2.8</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6775565</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>42</v>
+      </c>
+      <c r="G213" t="s">
+        <v>35</v>
+      </c>
+      <c r="K213">
+        <v>1.666</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>4.75</v>
+      </c>
+      <c r="N213">
+        <v>1.727</v>
+      </c>
+      <c r="O213">
+        <v>3.8</v>
+      </c>
+      <c r="P213">
+        <v>4.5</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
+        <v>1.9</v>
+      </c>
+      <c r="V213">
+        <v>1.95</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6775566</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F214" t="s">
+        <v>36</v>
+      </c>
+      <c r="G214" t="s">
+        <v>30</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.05</v>
+      </c>
+      <c r="N214">
+        <v>3.8</v>
+      </c>
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>1.95</v>
+      </c>
+      <c r="Q214">
+        <v>0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.925</v>
+      </c>
+      <c r="V214">
+        <v>1.925</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6774465</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F215" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" t="s">
+        <v>43</v>
+      </c>
+      <c r="K215">
+        <v>1.95</v>
+      </c>
+      <c r="L215">
+        <v>3.3</v>
+      </c>
+      <c r="M215">
+        <v>4</v>
+      </c>
+      <c r="N215">
+        <v>1.95</v>
+      </c>
+      <c r="O215">
+        <v>3.3</v>
+      </c>
+      <c r="P215">
+        <v>4</v>
+      </c>
+      <c r="Q215">
+        <v>-0.5</v>
+      </c>
+      <c r="R215">
+        <v>1.975</v>
+      </c>
+      <c r="S215">
+        <v>1.875</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
+        <v>1.85</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18884,6 +18884,15 @@
       <c r="G207" t="s">
         <v>44</v>
       </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207" t="s">
+        <v>47</v>
+      </c>
       <c r="K207">
         <v>2</v>
       </c>
@@ -18894,10 +18903,10 @@
         <v>4</v>
       </c>
       <c r="N207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P207">
         <v>4.333</v>
@@ -18906,34 +18915,40 @@
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB207">
+        <v>1.05</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18958,6 +18973,15 @@
       <c r="G208" t="s">
         <v>40</v>
       </c>
+      <c r="H208">
+        <v>3</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>48</v>
+      </c>
       <c r="K208">
         <v>1.952</v>
       </c>
@@ -18968,10 +18992,10 @@
         <v>3.8</v>
       </c>
       <c r="N208">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
         <v>3.8</v>
@@ -18980,34 +19004,40 @@
         <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA208">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>1</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -19015,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6775563</v>
+        <v>6774879</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19024,49 +19054,49 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45360.45833333334</v>
+        <v>45360.5625</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K209">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M209">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N209">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19089,7 +19119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6774879</v>
+        <v>6775561</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19098,49 +19128,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45360.5625</v>
+        <v>45360.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K210">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L210">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="N210">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
+        <v>1.775</v>
+      </c>
+      <c r="S210">
+        <v>2.1</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
         <v>1.8</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>2.05</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.85</v>
-      </c>
-      <c r="V210">
-        <v>2</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19163,7 +19193,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6775561</v>
+        <v>6774464</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19172,43 +19202,43 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45360.66666666666</v>
+        <v>45361.35416666666</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L211">
         <v>3.4</v>
       </c>
       <c r="M211">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P211">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
         <v>1.975</v>
@@ -19237,7 +19267,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6774464</v>
+        <v>6775565</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19246,49 +19276,49 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45361.35416666666</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N212">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P212">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
+        <v>1.875</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.875</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19311,7 +19341,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6775565</v>
+        <v>6775566</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19320,49 +19350,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.5625</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N213">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
         <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.95</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19385,7 +19415,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6775566</v>
+        <v>6774465</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19394,49 +19424,49 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45361.5625</v>
+        <v>45362.625</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
+        <v>4</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
         <v>1.95</v>
       </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
+      <c r="S214">
+        <v>1.9</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>2</v>
+      </c>
+      <c r="V214">
         <v>1.85</v>
-      </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.925</v>
-      </c>
-      <c r="V214">
-        <v>1.925</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19451,80 +19481,6 @@
         <v>0</v>
       </c>
       <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>6774465</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45362.625</v>
-      </c>
-      <c r="F215" t="s">
-        <v>29</v>
-      </c>
-      <c r="G215" t="s">
-        <v>43</v>
-      </c>
-      <c r="K215">
-        <v>1.95</v>
-      </c>
-      <c r="L215">
-        <v>3.3</v>
-      </c>
-      <c r="M215">
-        <v>4</v>
-      </c>
-      <c r="N215">
-        <v>1.95</v>
-      </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>4</v>
-      </c>
-      <c r="Q215">
-        <v>-0.5</v>
-      </c>
-      <c r="R215">
-        <v>1.975</v>
-      </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>2</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19040,12 +19040,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6774879</v>
+        <v>6775563</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19054,72 +19054,87 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45360.5625</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L209">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N209">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="Q209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
         <v>0</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB209">
+        <v>-0.5</v>
+      </c>
+      <c r="AC209">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6775561</v>
+        <v>6774879</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,72 +19143,87 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45360.66666666666</v>
+        <v>45360.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>49</v>
       </c>
       <c r="K210">
+        <v>4.75</v>
+      </c>
+      <c r="L210">
+        <v>3.8</v>
+      </c>
+      <c r="M210">
+        <v>1.7</v>
+      </c>
+      <c r="N210">
+        <v>5.75</v>
+      </c>
+      <c r="O210">
+        <v>4</v>
+      </c>
+      <c r="P210">
+        <v>1.571</v>
+      </c>
+      <c r="Q210">
+        <v>1</v>
+      </c>
+      <c r="R210">
+        <v>1.85</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>1.9</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
         <v>3</v>
       </c>
-      <c r="L210">
-        <v>3.4</v>
-      </c>
-      <c r="M210">
-        <v>2.3</v>
-      </c>
-      <c r="N210">
-        <v>3</v>
-      </c>
-      <c r="O210">
-        <v>3.3</v>
-      </c>
-      <c r="P210">
-        <v>2.375</v>
-      </c>
-      <c r="Q210">
-        <v>0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.775</v>
-      </c>
-      <c r="S210">
-        <v>2.1</v>
-      </c>
-      <c r="T210">
-        <v>2.25</v>
-      </c>
-      <c r="U210">
-        <v>1.8</v>
-      </c>
-      <c r="V210">
-        <v>2.05</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6774464</v>
+        <v>6775561</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19202,72 +19232,87 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45361.35416666666</v>
+        <v>45360.66666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>49</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L211">
         <v>3.4</v>
       </c>
       <c r="M211">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N211">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O211">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P211">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q211">
         <v>0</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
         <v>0</v>
       </c>
       <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6775565</v>
+        <v>6774464</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19276,72 +19321,87 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.35416666666</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H212">
+        <v>3</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>48</v>
       </c>
       <c r="K212">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N212">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P212">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>1</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6775566</v>
+        <v>6775565</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19350,137 +19410,774 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45361.5625</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>47</v>
       </c>
       <c r="K213">
+        <v>1.666</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>4.75</v>
+      </c>
+      <c r="N213">
+        <v>1.666</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>4.5</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.875</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>3</v>
+      </c>
+      <c r="U213">
+        <v>2.025</v>
+      </c>
+      <c r="V213">
+        <v>1.825</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
         <v>3.5</v>
       </c>
-      <c r="L213">
-        <v>3.5</v>
-      </c>
-      <c r="M213">
-        <v>2.05</v>
-      </c>
-      <c r="N213">
-        <v>3.8</v>
-      </c>
-      <c r="O213">
-        <v>3.5</v>
-      </c>
-      <c r="P213">
-        <v>1.95</v>
-      </c>
-      <c r="Q213">
-        <v>0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.85</v>
-      </c>
-      <c r="S213">
-        <v>2</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
+        <v>6775566</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F214" t="s">
+        <v>36</v>
+      </c>
+      <c r="G214" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>48</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.05</v>
+      </c>
+      <c r="N214">
+        <v>3.8</v>
+      </c>
+      <c r="O214">
+        <v>3.5</v>
+      </c>
+      <c r="P214">
+        <v>1.95</v>
+      </c>
+      <c r="Q214">
+        <v>0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.925</v>
+      </c>
+      <c r="V214">
+        <v>1.925</v>
+      </c>
+      <c r="W214">
+        <v>2.8</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
         <v>6774465</v>
       </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
         <v>45362.625</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>29</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G215" t="s">
         <v>43</v>
       </c>
-      <c r="K214">
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>47</v>
+      </c>
+      <c r="K215">
         <v>1.95</v>
       </c>
-      <c r="L214">
+      <c r="L215">
         <v>3.3</v>
       </c>
-      <c r="M214">
+      <c r="M215">
         <v>4</v>
       </c>
-      <c r="N214">
+      <c r="N215">
         <v>1.95</v>
       </c>
-      <c r="O214">
+      <c r="O215">
+        <v>3.2</v>
+      </c>
+      <c r="P215">
+        <v>4.333</v>
+      </c>
+      <c r="Q215">
+        <v>-0.5</v>
+      </c>
+      <c r="R215">
+        <v>1.95</v>
+      </c>
+      <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
+        <v>2.05</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>3.333</v>
+      </c>
+      <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7917193</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45364.60416666666</v>
+      </c>
+      <c r="F216" t="s">
+        <v>37</v>
+      </c>
+      <c r="G216" t="s">
+        <v>32</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+      <c r="L216">
+        <v>3.4</v>
+      </c>
+      <c r="M216">
+        <v>1.909</v>
+      </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>1.909</v>
+      </c>
+      <c r="Q216">
+        <v>0.5</v>
+      </c>
+      <c r="R216">
+        <v>1.925</v>
+      </c>
+      <c r="S216">
+        <v>1.925</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.825</v>
+      </c>
+      <c r="V216">
+        <v>2.025</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6775568</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45366.58333333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>35</v>
+      </c>
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+      <c r="K217">
+        <v>1.727</v>
+      </c>
+      <c r="L217">
+        <v>3.6</v>
+      </c>
+      <c r="M217">
+        <v>4.75</v>
+      </c>
+      <c r="N217">
+        <v>1.727</v>
+      </c>
+      <c r="O217">
+        <v>3.6</v>
+      </c>
+      <c r="P217">
+        <v>4.75</v>
+      </c>
+      <c r="Q217">
+        <v>-0.75</v>
+      </c>
+      <c r="R217">
+        <v>1.975</v>
+      </c>
+      <c r="S217">
+        <v>1.875</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>1.85</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6775570</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45366.6875</v>
+      </c>
+      <c r="F218" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" t="s">
+        <v>29</v>
+      </c>
+      <c r="K218">
+        <v>1.533</v>
+      </c>
+      <c r="L218">
+        <v>4.2</v>
+      </c>
+      <c r="M218">
+        <v>5.75</v>
+      </c>
+      <c r="N218">
+        <v>1.55</v>
+      </c>
+      <c r="O218">
+        <v>4.2</v>
+      </c>
+      <c r="P218">
+        <v>5.75</v>
+      </c>
+      <c r="Q218">
+        <v>-1</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>1.85</v>
+      </c>
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
+        <v>2</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6775572</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>44</v>
+      </c>
+      <c r="G219" t="s">
+        <v>39</v>
+      </c>
+      <c r="K219">
+        <v>2.625</v>
+      </c>
+      <c r="L219">
         <v>3.3</v>
       </c>
-      <c r="P214">
-        <v>4</v>
-      </c>
-      <c r="Q214">
-        <v>-0.5</v>
-      </c>
-      <c r="R214">
+      <c r="M219">
+        <v>2.625</v>
+      </c>
+      <c r="N219">
+        <v>2.625</v>
+      </c>
+      <c r="O219">
+        <v>3.3</v>
+      </c>
+      <c r="P219">
+        <v>2.625</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
+        <v>1.925</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.875</v>
+      </c>
+      <c r="V219">
+        <v>1.975</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6774466</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45367.5625</v>
+      </c>
+      <c r="F220" t="s">
+        <v>38</v>
+      </c>
+      <c r="G220" t="s">
+        <v>34</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+      <c r="L220">
+        <v>3.25</v>
+      </c>
+      <c r="M220">
+        <v>2.375</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220">
+        <v>3.25</v>
+      </c>
+      <c r="P220">
+        <v>2.375</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>2.025</v>
+      </c>
+      <c r="V220">
+        <v>1.825</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6774878</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G221" t="s">
+        <v>45</v>
+      </c>
+      <c r="K221">
+        <v>1.666</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>1.666</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>5</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.9</v>
+      </c>
+      <c r="S221">
         <v>1.95</v>
       </c>
-      <c r="S214">
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
+        <v>2</v>
+      </c>
+      <c r="V221">
+        <v>1.85</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6775571</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F222" t="s">
+        <v>30</v>
+      </c>
+      <c r="G222" t="s">
+        <v>33</v>
+      </c>
+      <c r="K222">
+        <v>1.75</v>
+      </c>
+      <c r="L222">
+        <v>3.5</v>
+      </c>
+      <c r="M222">
+        <v>4.75</v>
+      </c>
+      <c r="N222">
+        <v>1.75</v>
+      </c>
+      <c r="O222">
+        <v>3.5</v>
+      </c>
+      <c r="P222">
+        <v>4.75</v>
+      </c>
+      <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>2.025</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
         <v>1.9</v>
       </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>2</v>
-      </c>
-      <c r="V214">
-        <v>1.85</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Cracovia Krakow</t>
+  </si>
+  <si>
+    <t>Puszcza Niepolomice</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC222"/>
+  <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>3.1</v>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>1.333</v>
@@ -824,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>2.7</v>
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>1.3</v>
@@ -1002,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>2.7</v>
@@ -1091,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>1.909</v>
@@ -1180,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8">
         <v>1.75</v>
@@ -1269,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>1.55</v>
@@ -1358,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>2.2</v>
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1536,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>2.75</v>
@@ -1625,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>1.95</v>
@@ -1714,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>2.5</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>3.6</v>
@@ -1892,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>1.75</v>
@@ -1981,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>1.571</v>
@@ -2070,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>2.3</v>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.55</v>
@@ -2248,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>1.363</v>
@@ -2337,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>3.25</v>
@@ -2426,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>2.05</v>
@@ -2515,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>3.2</v>
@@ -2604,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>1.4</v>
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
         <v>2.75</v>
@@ -2782,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.3</v>
@@ -2871,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>3.5</v>
@@ -2960,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2.45</v>
@@ -3049,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.3</v>
@@ -3138,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>1.909</v>
@@ -3227,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>1.727</v>
@@ -3316,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3405,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3494,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>1.6</v>
@@ -3583,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>2.25</v>
@@ -3672,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>1.285</v>
@@ -3850,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3939,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>3.5</v>
@@ -4028,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>4.2</v>
@@ -4117,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>1.4</v>
@@ -4206,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
         <v>2.375</v>
@@ -4295,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>3.25</v>
@@ -4384,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4473,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>2.5</v>
@@ -4562,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>2.6</v>
@@ -4651,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47">
         <v>1.666</v>
@@ -4740,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>2.75</v>
@@ -4829,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>2.25</v>
@@ -4918,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.666</v>
@@ -5007,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>2.55</v>
@@ -5096,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>2.625</v>
@@ -5274,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54">
         <v>1.85</v>
@@ -5363,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>1.5</v>
@@ -5452,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>2.375</v>
@@ -5541,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>2.625</v>
@@ -5630,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>1.533</v>
@@ -5719,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>1.285</v>
@@ -5808,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5897,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5986,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>1.615</v>
@@ -6075,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
         <v>1.333</v>
@@ -6164,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>2.6</v>
@@ -6253,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2.55</v>
@@ -6342,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>2.375</v>
@@ -6431,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6520,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6609,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>2.375</v>
@@ -6698,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>2.625</v>
@@ -6787,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71">
         <v>1.7</v>
@@ -6876,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6965,7 +6968,7 @@
         <v>5</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>2.55</v>
@@ -7054,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>1.333</v>
@@ -7143,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>2.3</v>
@@ -7232,7 +7235,7 @@
         <v>5</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -7321,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>1.45</v>
@@ -7410,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.55</v>
@@ -7499,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>2.3</v>
@@ -7588,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.45</v>
@@ -7677,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>1.666</v>
@@ -7766,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>3.1</v>
@@ -7855,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7944,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>2.375</v>
@@ -8033,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>2.7</v>
@@ -8211,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>3.1</v>
@@ -8300,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>2.55</v>
@@ -8389,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.625</v>
@@ -8478,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>1.25</v>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.75</v>
@@ -8656,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>2.1</v>
@@ -8745,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.7</v>
@@ -8834,7 +8837,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8923,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>2.15</v>
@@ -9012,7 +9015,7 @@
         <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>2.25</v>
@@ -9101,7 +9104,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2.2</v>
@@ -9190,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>2.2</v>
@@ -9279,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>2.3</v>
@@ -9368,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>3.2</v>
@@ -9457,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>3.3</v>
@@ -9546,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>1.3</v>
@@ -9635,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>1.95</v>
@@ -9724,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>3.8</v>
@@ -9813,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>2.5</v>
@@ -9902,7 +9905,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.533</v>
@@ -9991,7 +9994,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.85</v>
@@ -10080,7 +10083,7 @@
         <v>5</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>2.625</v>
@@ -10169,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>3.4</v>
@@ -10258,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>1.833</v>
@@ -10347,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>3.5</v>
@@ -10436,7 +10439,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>2.7</v>
@@ -10525,7 +10528,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10614,7 +10617,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10703,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115">
         <v>1.363</v>
@@ -10792,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116">
         <v>1.727</v>
@@ -10881,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>1.533</v>
@@ -10970,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>4</v>
@@ -11059,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>2.3</v>
@@ -11148,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>1.363</v>
@@ -11237,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
         <v>1.727</v>
@@ -11326,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11415,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
         <v>3.2</v>
@@ -11504,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>2.6</v>
@@ -11593,7 +11596,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>1.833</v>
@@ -11682,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>2.4</v>
@@ -11771,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K127">
         <v>4.2</v>
@@ -11860,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>1.95</v>
@@ -11949,7 +11952,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K129">
         <v>2.75</v>
@@ -12038,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>2.65</v>
@@ -12127,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>2.625</v>
@@ -12216,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>2.25</v>
@@ -12305,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>3.2</v>
@@ -12394,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12483,7 +12486,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>3.25</v>
@@ -12572,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>2.875</v>
@@ -12661,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>1.5</v>
@@ -12750,7 +12753,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>1.4</v>
@@ -12839,7 +12842,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K139">
         <v>1.533</v>
@@ -12928,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>3.1</v>
@@ -13017,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
         <v>2.625</v>
@@ -13106,7 +13109,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>1.533</v>
@@ -13195,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>2.3</v>
@@ -13284,7 +13287,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>2.8</v>
@@ -13373,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>3.6</v>
@@ -13462,7 +13465,7 @@
         <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>2.375</v>
@@ -13551,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>3.8</v>
@@ -13640,7 +13643,7 @@
         <v>4</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13729,7 +13732,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3.25</v>
@@ -13818,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>3.4</v>
@@ -13907,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K151">
         <v>2.7</v>
@@ -13996,7 +13999,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>1.45</v>
@@ -14085,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>2.05</v>
@@ -14174,7 +14177,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K154">
         <v>1.833</v>
@@ -14263,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>2.15</v>
@@ -14352,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -14441,7 +14444,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K157">
         <v>5</v>
@@ -14530,7 +14533,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K158">
         <v>2.7</v>
@@ -14619,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>2.7</v>
@@ -14708,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>2.15</v>
@@ -14797,7 +14800,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14886,7 +14889,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K162">
         <v>4.333</v>
@@ -14975,7 +14978,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>3.2</v>
@@ -15064,7 +15067,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>3.3</v>
@@ -15153,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>2.25</v>
@@ -15242,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>1.5</v>
@@ -15331,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.615</v>
@@ -15420,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15509,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>3.4</v>
@@ -15598,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15687,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>5</v>
@@ -15776,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
         <v>2.15</v>
@@ -15865,7 +15868,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>1.909</v>
@@ -15954,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>1.571</v>
@@ -16043,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>4.75</v>
@@ -16132,7 +16135,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>2.6</v>
@@ -16221,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>3.9</v>
@@ -16310,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>1.95</v>
@@ -16399,7 +16402,7 @@
         <v>4</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>3.25</v>
@@ -16488,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16577,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.5</v>
@@ -16666,7 +16669,7 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2.55</v>
@@ -16755,7 +16758,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>1.727</v>
@@ -16844,7 +16847,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>2.4</v>
@@ -16933,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>1.333</v>
@@ -17022,7 +17025,7 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K186">
         <v>2.75</v>
@@ -17111,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>2.15</v>
@@ -17200,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K188">
         <v>2</v>
@@ -17289,7 +17292,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>1.333</v>
@@ -17378,7 +17381,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K190">
         <v>1.444</v>
@@ -17467,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K191">
         <v>1.833</v>
@@ -17556,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K192">
         <v>3.75</v>
@@ -17645,7 +17648,7 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K193">
         <v>3.3</v>
@@ -17734,7 +17737,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>2.55</v>
@@ -17823,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K195">
         <v>3.5</v>
@@ -17912,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>2.5</v>
@@ -18001,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
         <v>1.727</v>
@@ -18090,7 +18093,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K198">
         <v>1.8</v>
@@ -18179,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>3.6</v>
@@ -18268,7 +18271,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>2.55</v>
@@ -18357,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
         <v>2.1</v>
@@ -18446,7 +18449,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K202">
         <v>2</v>
@@ -18535,7 +18538,7 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2.45</v>
@@ -18624,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>2.05</v>
@@ -18713,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K205">
         <v>1.95</v>
@@ -18802,7 +18805,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>2.05</v>
@@ -18891,7 +18894,7 @@
         <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -18980,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K208">
         <v>1.952</v>
@@ -19069,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
         <v>2.625</v>
@@ -19158,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K210">
         <v>4.75</v>
@@ -19247,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K211">
         <v>3</v>
@@ -19336,7 +19339,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19425,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>1.666</v>
@@ -19514,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K214">
         <v>3.5</v>
@@ -19603,7 +19606,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>1.95</v>
@@ -19685,6 +19688,15 @@
       <c r="G216" t="s">
         <v>32</v>
       </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="s">
+        <v>48</v>
+      </c>
       <c r="K216">
         <v>4</v>
       </c>
@@ -19695,46 +19707,52 @@
         <v>1.909</v>
       </c>
       <c r="N216">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P216">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q216">
         <v>0.5</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB216">
+        <v>-0.5</v>
+      </c>
+      <c r="AC216">
+        <v>0.425</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19759,6 +19777,15 @@
       <c r="G217" t="s">
         <v>31</v>
       </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>50</v>
+      </c>
       <c r="K217">
         <v>1.727</v>
       </c>
@@ -19769,46 +19796,52 @@
         <v>4.75</v>
       </c>
       <c r="N217">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O217">
         <v>3.6</v>
       </c>
       <c r="P217">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q217">
         <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>1.025</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19833,6 +19866,15 @@
       <c r="G218" t="s">
         <v>29</v>
       </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>49</v>
+      </c>
       <c r="K218">
         <v>1.533</v>
       </c>
@@ -19843,46 +19885,52 @@
         <v>5.75</v>
       </c>
       <c r="N218">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O218">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
         <v>5.75</v>
       </c>
       <c r="Q218">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
+        <v>0.615</v>
+      </c>
+      <c r="X218">
+        <v>-1</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
         <v>0</v>
       </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
-        <v>0</v>
+      <c r="AC218">
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19890,7 +19938,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6775572</v>
+        <v>6775567</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19899,34 +19947,43 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45367.45833333334</v>
+        <v>45367.35416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219" t="s">
+        <v>50</v>
       </c>
       <c r="K219">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L219">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N219">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
         <v>3.3</v>
       </c>
       <c r="P219">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
         <v>1.925</v>
@@ -19938,25 +19995,31 @@
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB219">
+        <v>1</v>
+      </c>
+      <c r="AC219">
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -19964,7 +20027,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6774466</v>
+        <v>6775572</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19973,28 +20036,37 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45367.5625</v>
+        <v>45367.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>48</v>
       </c>
       <c r="K220">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M220">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N220">
         <v>3</v>
       </c>
       <c r="O220">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P220">
         <v>2.375</v>
@@ -20003,34 +20075,40 @@
         <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB220">
+        <v>-0.5</v>
+      </c>
+      <c r="AC220">
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20038,7 +20116,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6774878</v>
+        <v>6774466</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20047,64 +20125,79 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45367.66666666666</v>
+        <v>45367.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221" t="s">
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="N221">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB221">
+        <v>0.8</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20112,7 +20205,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6775571</v>
+        <v>6774878</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20121,28 +20214,37 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45368.5625</v>
+        <v>45367.66666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>50</v>
       </c>
       <c r="K222">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N222">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
         <v>4.75</v>
@@ -20160,24 +20262,178 @@
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>2.6</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.825</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6774467</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>43</v>
+      </c>
+      <c r="G223" t="s">
+        <v>32</v>
+      </c>
+      <c r="K223">
+        <v>5.5</v>
+      </c>
+      <c r="L223">
+        <v>4.333</v>
+      </c>
+      <c r="M223">
+        <v>1.533</v>
+      </c>
+      <c r="N223">
+        <v>6.5</v>
+      </c>
+      <c r="O223">
+        <v>4.75</v>
+      </c>
+      <c r="P223">
+        <v>1.444</v>
+      </c>
+      <c r="Q223">
+        <v>1.25</v>
+      </c>
+      <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.825</v>
+      </c>
+      <c r="V223">
+        <v>2.025</v>
+      </c>
+      <c r="W223">
         <v>0</v>
       </c>
-      <c r="X222">
+      <c r="X223">
         <v>0</v>
       </c>
-      <c r="Y222">
+      <c r="Y223">
         <v>0</v>
       </c>
-      <c r="Z222">
+      <c r="Z223">
         <v>0</v>
       </c>
-      <c r="AA222">
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6775571</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F224" t="s">
+        <v>30</v>
+      </c>
+      <c r="G224" t="s">
+        <v>33</v>
+      </c>
+      <c r="K224">
+        <v>1.75</v>
+      </c>
+      <c r="L224">
+        <v>3.5</v>
+      </c>
+      <c r="M224">
+        <v>4.75</v>
+      </c>
+      <c r="N224">
+        <v>1.666</v>
+      </c>
+      <c r="O224">
+        <v>3.6</v>
+      </c>
+      <c r="P224">
+        <v>5.25</v>
+      </c>
+      <c r="Q224">
+        <v>-0.75</v>
+      </c>
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>2</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>2.05</v>
+      </c>
+      <c r="V224">
+        <v>1.8</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20294,7 +20294,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6774467</v>
+        <v>6775569</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,64 +20303,79 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.35416666666</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>50</v>
       </c>
       <c r="K223">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L223">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="N223">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="O223">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P223">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="Q223">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB223">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20368,7 +20383,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6775571</v>
+        <v>6774467</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20377,34 +20392,43 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45368.5625</v>
+        <v>45368.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>50</v>
       </c>
       <c r="K224">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M224">
+        <v>1.533</v>
+      </c>
+      <c r="N224">
+        <v>6.5</v>
+      </c>
+      <c r="O224">
         <v>4.75</v>
       </c>
-      <c r="N224">
-        <v>1.666</v>
-      </c>
-      <c r="O224">
-        <v>3.6</v>
-      </c>
       <c r="P224">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="Q224">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R224">
         <v>1.85</v>
@@ -20413,27 +20437,788 @@
         <v>2</v>
       </c>
       <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.825</v>
+      </c>
+      <c r="V224">
+        <v>2.025</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>3.75</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA224">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6775571</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F225" t="s">
+        <v>30</v>
+      </c>
+      <c r="G225" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>49</v>
+      </c>
+      <c r="K225">
+        <v>1.75</v>
+      </c>
+      <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>4.75</v>
+      </c>
+      <c r="N225">
+        <v>1.571</v>
+      </c>
+      <c r="O225">
+        <v>3.75</v>
+      </c>
+      <c r="P225">
+        <v>6</v>
+      </c>
+      <c r="Q225">
+        <v>-0.75</v>
+      </c>
+      <c r="R225">
+        <v>1.75</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
         <v>2.25</v>
       </c>
-      <c r="U224">
+      <c r="U225">
         <v>2.05</v>
       </c>
-      <c r="V224">
+      <c r="V225">
         <v>1.8</v>
       </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
-      </c>
-      <c r="AA224">
+      <c r="W225">
+        <v>0.571</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>0.75</v>
+      </c>
+      <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>1.05</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6774469</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45381.35416666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>32</v>
+      </c>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="K226">
+        <v>1.4</v>
+      </c>
+      <c r="L226">
+        <v>4.75</v>
+      </c>
+      <c r="M226">
+        <v>7.5</v>
+      </c>
+      <c r="N226">
+        <v>1.4</v>
+      </c>
+      <c r="O226">
+        <v>4.75</v>
+      </c>
+      <c r="P226">
+        <v>7.5</v>
+      </c>
+      <c r="Q226">
+        <v>-1.25</v>
+      </c>
+      <c r="R226">
+        <v>1.925</v>
+      </c>
+      <c r="S226">
+        <v>1.925</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>2.025</v>
+      </c>
+      <c r="V226">
+        <v>1.825</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6774468</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" t="s">
+        <v>43</v>
+      </c>
+      <c r="K227">
+        <v>1.4</v>
+      </c>
+      <c r="L227">
+        <v>5</v>
+      </c>
+      <c r="M227">
+        <v>7</v>
+      </c>
+      <c r="N227">
+        <v>1.4</v>
+      </c>
+      <c r="O227">
+        <v>5</v>
+      </c>
+      <c r="P227">
+        <v>7</v>
+      </c>
+      <c r="Q227">
+        <v>-1.25</v>
+      </c>
+      <c r="R227">
+        <v>1.875</v>
+      </c>
+      <c r="S227">
+        <v>1.975</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
+        <v>1.8</v>
+      </c>
+      <c r="V227">
+        <v>2.05</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6775574</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F228" t="s">
+        <v>33</v>
+      </c>
+      <c r="G228" t="s">
+        <v>40</v>
+      </c>
+      <c r="K228">
+        <v>2.1</v>
+      </c>
+      <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>4</v>
+      </c>
+      <c r="N228">
+        <v>2.1</v>
+      </c>
+      <c r="O228">
+        <v>3.1</v>
+      </c>
+      <c r="P228">
+        <v>4</v>
+      </c>
+      <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
+        <v>2.05</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.975</v>
+      </c>
+      <c r="V228">
+        <v>1.875</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6775575</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F229" t="s">
+        <v>42</v>
+      </c>
+      <c r="G229" t="s">
+        <v>46</v>
+      </c>
+      <c r="K229">
+        <v>1.909</v>
+      </c>
+      <c r="L229">
+        <v>3.6</v>
+      </c>
+      <c r="M229">
+        <v>4</v>
+      </c>
+      <c r="N229">
+        <v>1.909</v>
+      </c>
+      <c r="O229">
+        <v>3.6</v>
+      </c>
+      <c r="P229">
+        <v>4</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.925</v>
+      </c>
+      <c r="S229">
+        <v>1.925</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.8</v>
+      </c>
+      <c r="V229">
+        <v>2.05</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6774877</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45383.3125</v>
+      </c>
+      <c r="F230" t="s">
+        <v>47</v>
+      </c>
+      <c r="G230" t="s">
+        <v>44</v>
+      </c>
+      <c r="K230">
+        <v>2.625</v>
+      </c>
+      <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>2.6</v>
+      </c>
+      <c r="N230">
+        <v>2.625</v>
+      </c>
+      <c r="O230">
+        <v>3.4</v>
+      </c>
+      <c r="P230">
+        <v>2.6</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1.975</v>
+      </c>
+      <c r="S230">
+        <v>1.875</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
+        <v>2</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6775576</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F231" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" t="s">
+        <v>41</v>
+      </c>
+      <c r="K231">
+        <v>4.333</v>
+      </c>
+      <c r="L231">
+        <v>3.4</v>
+      </c>
+      <c r="M231">
+        <v>1.85</v>
+      </c>
+      <c r="N231">
+        <v>4.333</v>
+      </c>
+      <c r="O231">
+        <v>3.4</v>
+      </c>
+      <c r="P231">
+        <v>1.85</v>
+      </c>
+      <c r="Q231">
+        <v>0.5</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.85</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.925</v>
+      </c>
+      <c r="V231">
+        <v>1.925</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6775578</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45383.52083333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" t="s">
+        <v>37</v>
+      </c>
+      <c r="K232">
+        <v>2.25</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>3.4</v>
+      </c>
+      <c r="N232">
+        <v>2.25</v>
+      </c>
+      <c r="O232">
+        <v>3.2</v>
+      </c>
+      <c r="P232">
+        <v>3.4</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.925</v>
+      </c>
+      <c r="S232">
+        <v>1.925</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2.025</v>
+      </c>
+      <c r="V232">
+        <v>1.825</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6775573</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45383.625</v>
+      </c>
+      <c r="F233" t="s">
+        <v>34</v>
+      </c>
+      <c r="G233" t="s">
+        <v>30</v>
+      </c>
+      <c r="K233">
+        <v>3.6</v>
+      </c>
+      <c r="L233">
+        <v>3.5</v>
+      </c>
+      <c r="M233">
+        <v>2.05</v>
+      </c>
+      <c r="N233">
+        <v>3.8</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
+        <v>1.95</v>
+      </c>
+      <c r="Q233">
+        <v>0.5</v>
+      </c>
+      <c r="R233">
+        <v>1.875</v>
+      </c>
+      <c r="S233">
+        <v>1.975</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.9</v>
+      </c>
+      <c r="V233">
+        <v>1.95</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6775577</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45384.58333333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" t="s">
+        <v>35</v>
+      </c>
+      <c r="K234">
+        <v>2.9</v>
+      </c>
+      <c r="L234">
+        <v>3.1</v>
+      </c>
+      <c r="M234">
+        <v>2.55</v>
+      </c>
+      <c r="N234">
+        <v>2.9</v>
+      </c>
+      <c r="O234">
+        <v>3.1</v>
+      </c>
+      <c r="P234">
+        <v>2.55</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>2.05</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -20600,10 +20600,10 @@
         <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
         <v>2.75</v>
@@ -20674,19 +20674,19 @@
         <v>-1.25</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U227">
+        <v>2.05</v>
+      </c>
+      <c r="V227">
         <v>1.8</v>
-      </c>
-      <c r="V227">
-        <v>2.05</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20822,19 +20822,19 @@
         <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20970,10 +20970,10 @@
         <v>0.5</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
         <v>2.25</v>
@@ -21032,10 +21032,10 @@
         <v>3.4</v>
       </c>
       <c r="N232">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O232">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
         <v>3.4</v>
@@ -21044,10 +21044,10 @@
         <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T232">
         <v>2.5</v>
@@ -21118,19 +21118,19 @@
         <v>0.5</v>
       </c>
       <c r="R233">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W233">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -20600,19 +20600,19 @@
         <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20748,10 +20748,10 @@
         <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6774469</v>
+        <v>6774877</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,49 +20570,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45381.35416666666</v>
+        <v>45383.3125</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K226">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="L226">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N226">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O226">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P226">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20635,7 +20635,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6774468</v>
+        <v>6775576</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20644,49 +20644,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45381.45833333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="L227">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="O227">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20709,7 +20709,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6775574</v>
+        <v>6775578</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20718,49 +20718,49 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45381.5625</v>
+        <v>45383.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L228">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N228">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O228">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q228">
         <v>-0.25</v>
       </c>
       <c r="R228">
+        <v>1.85</v>
+      </c>
+      <c r="S228">
+        <v>2</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>2.025</v>
+      </c>
+      <c r="V228">
         <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
-      </c>
-      <c r="T228">
-        <v>2</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.875</v>
       </c>
       <c r="W228">
         <v>0</v>
@@ -20783,7 +20783,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6775575</v>
+        <v>6775573</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20792,49 +20792,49 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45381.66666666666</v>
+        <v>45383.625</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K229">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="N229">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O229">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20857,7 +20857,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6774877</v>
+        <v>6775577</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20866,49 +20866,49 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45383.3125</v>
+        <v>45384.58333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K230">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M230">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N230">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P230">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q230">
         <v>0</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20923,302 +20923,6 @@
         <v>0</v>
       </c>
       <c r="AA230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>6775576</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45383.41666666666</v>
-      </c>
-      <c r="F231" t="s">
-        <v>31</v>
-      </c>
-      <c r="G231" t="s">
-        <v>41</v>
-      </c>
-      <c r="K231">
-        <v>4.333</v>
-      </c>
-      <c r="L231">
-        <v>3.4</v>
-      </c>
-      <c r="M231">
-        <v>1.85</v>
-      </c>
-      <c r="N231">
-        <v>4.333</v>
-      </c>
-      <c r="O231">
-        <v>3.4</v>
-      </c>
-      <c r="P231">
-        <v>1.85</v>
-      </c>
-      <c r="Q231">
-        <v>0.5</v>
-      </c>
-      <c r="R231">
-        <v>1.975</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.925</v>
-      </c>
-      <c r="V231">
-        <v>1.925</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232">
-        <v>6775578</v>
-      </c>
-      <c r="C232" t="s">
-        <v>28</v>
-      </c>
-      <c r="D232" t="s">
-        <v>28</v>
-      </c>
-      <c r="E232" s="2">
-        <v>45383.52083333334</v>
-      </c>
-      <c r="F232" t="s">
-        <v>36</v>
-      </c>
-      <c r="G232" t="s">
-        <v>37</v>
-      </c>
-      <c r="K232">
-        <v>2.25</v>
-      </c>
-      <c r="L232">
-        <v>3.2</v>
-      </c>
-      <c r="M232">
-        <v>3.4</v>
-      </c>
-      <c r="N232">
-        <v>2.2</v>
-      </c>
-      <c r="O232">
-        <v>3.25</v>
-      </c>
-      <c r="P232">
-        <v>3.4</v>
-      </c>
-      <c r="Q232">
-        <v>-0.25</v>
-      </c>
-      <c r="R232">
-        <v>1.875</v>
-      </c>
-      <c r="S232">
-        <v>1.975</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>2.025</v>
-      </c>
-      <c r="V232">
-        <v>1.825</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>6775573</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" t="s">
-        <v>28</v>
-      </c>
-      <c r="E233" s="2">
-        <v>45383.625</v>
-      </c>
-      <c r="F233" t="s">
-        <v>34</v>
-      </c>
-      <c r="G233" t="s">
-        <v>30</v>
-      </c>
-      <c r="K233">
-        <v>3.6</v>
-      </c>
-      <c r="L233">
-        <v>3.5</v>
-      </c>
-      <c r="M233">
-        <v>2.05</v>
-      </c>
-      <c r="N233">
-        <v>3.8</v>
-      </c>
-      <c r="O233">
-        <v>3.5</v>
-      </c>
-      <c r="P233">
-        <v>1.95</v>
-      </c>
-      <c r="Q233">
-        <v>0.5</v>
-      </c>
-      <c r="R233">
-        <v>1.85</v>
-      </c>
-      <c r="S233">
-        <v>2</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.925</v>
-      </c>
-      <c r="V233">
-        <v>1.925</v>
-      </c>
-      <c r="W233">
-        <v>0</v>
-      </c>
-      <c r="X233">
-        <v>0</v>
-      </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="Z233">
-        <v>0</v>
-      </c>
-      <c r="AA233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>6775577</v>
-      </c>
-      <c r="C234" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" t="s">
-        <v>28</v>
-      </c>
-      <c r="E234" s="2">
-        <v>45384.58333333334</v>
-      </c>
-      <c r="F234" t="s">
-        <v>29</v>
-      </c>
-      <c r="G234" t="s">
-        <v>35</v>
-      </c>
-      <c r="K234">
-        <v>2.9</v>
-      </c>
-      <c r="L234">
-        <v>3.1</v>
-      </c>
-      <c r="M234">
-        <v>2.55</v>
-      </c>
-      <c r="N234">
-        <v>2.9</v>
-      </c>
-      <c r="O234">
-        <v>3.1</v>
-      </c>
-      <c r="P234">
-        <v>2.55</v>
-      </c>
-      <c r="Q234">
-        <v>0</v>
-      </c>
-      <c r="R234">
-        <v>2.05</v>
-      </c>
-      <c r="S234">
-        <v>1.8</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>2.05</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20561,7 +20561,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6774877</v>
+        <v>6774469</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20570,34 +20570,43 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45383.3125</v>
+        <v>45381.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="L226">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M226">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N226">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P226">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
         <v>1.975</v>
@@ -20606,28 +20615,34 @@
         <v>1.875</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20635,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6775576</v>
+        <v>6774468</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20644,64 +20659,79 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45383.41666666666</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="H227">
+        <v>6</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M227">
+        <v>7</v>
+      </c>
+      <c r="N227">
+        <v>1.333</v>
+      </c>
+      <c r="O227">
+        <v>5.75</v>
+      </c>
+      <c r="P227">
+        <v>8</v>
+      </c>
+      <c r="Q227">
+        <v>-1.5</v>
+      </c>
+      <c r="R227">
         <v>1.85</v>
       </c>
-      <c r="N227">
-        <v>4.333</v>
-      </c>
-      <c r="O227">
-        <v>3.4</v>
-      </c>
-      <c r="P227">
-        <v>1.85</v>
-      </c>
-      <c r="Q227">
-        <v>0.5</v>
-      </c>
-      <c r="R227">
-        <v>1.975</v>
-      </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB227">
+        <v>1.025</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20709,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6775578</v>
+        <v>6775574</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20718,64 +20748,79 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45383.52083333334</v>
+        <v>45381.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>50</v>
       </c>
       <c r="K228">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L228">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N228">
         <v>2.2</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P228">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q228">
         <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U228">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB228">
+        <v>0.875</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20783,7 +20828,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6775573</v>
+        <v>6775575</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20792,64 +20837,79 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45383.625</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>49</v>
       </c>
       <c r="K229">
+        <v>1.909</v>
+      </c>
+      <c r="L229">
         <v>3.6</v>
       </c>
-      <c r="L229">
-        <v>3.5</v>
-      </c>
       <c r="M229">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
+        <v>5</v>
+      </c>
+      <c r="Q229">
+        <v>-0.75</v>
+      </c>
+      <c r="R229">
         <v>1.95</v>
       </c>
-      <c r="Q229">
-        <v>0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.825</v>
-      </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
         <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.875</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20857,7 +20917,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6775577</v>
+        <v>6774877</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20866,49 +20926,49 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45384.58333333334</v>
+        <v>45383.3125</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K230">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="L230">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N230">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O230">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q230">
         <v>0</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20923,6 +20983,302 @@
         <v>0</v>
       </c>
       <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6775576</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F231" t="s">
+        <v>31</v>
+      </c>
+      <c r="G231" t="s">
+        <v>41</v>
+      </c>
+      <c r="K231">
+        <v>4.333</v>
+      </c>
+      <c r="L231">
+        <v>3.4</v>
+      </c>
+      <c r="M231">
+        <v>1.85</v>
+      </c>
+      <c r="N231">
+        <v>4.333</v>
+      </c>
+      <c r="O231">
+        <v>3.4</v>
+      </c>
+      <c r="P231">
+        <v>1.85</v>
+      </c>
+      <c r="Q231">
+        <v>0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.95</v>
+      </c>
+      <c r="S231">
+        <v>1.9</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.925</v>
+      </c>
+      <c r="V231">
+        <v>1.925</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6775578</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45383.52083333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" t="s">
+        <v>37</v>
+      </c>
+      <c r="K232">
+        <v>2.25</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>3.4</v>
+      </c>
+      <c r="N232">
+        <v>2.2</v>
+      </c>
+      <c r="O232">
+        <v>3.25</v>
+      </c>
+      <c r="P232">
+        <v>3.4</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.85</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2.025</v>
+      </c>
+      <c r="V232">
+        <v>1.825</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6775573</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45383.625</v>
+      </c>
+      <c r="F233" t="s">
+        <v>34</v>
+      </c>
+      <c r="G233" t="s">
+        <v>30</v>
+      </c>
+      <c r="K233">
+        <v>3.6</v>
+      </c>
+      <c r="L233">
+        <v>3.5</v>
+      </c>
+      <c r="M233">
+        <v>2.05</v>
+      </c>
+      <c r="N233">
+        <v>3.8</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
+        <v>1.95</v>
+      </c>
+      <c r="Q233">
+        <v>0.5</v>
+      </c>
+      <c r="R233">
+        <v>1.825</v>
+      </c>
+      <c r="S233">
+        <v>2.025</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.925</v>
+      </c>
+      <c r="V233">
+        <v>1.925</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6775577</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45384.58333333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>29</v>
+      </c>
+      <c r="G234" t="s">
+        <v>35</v>
+      </c>
+      <c r="K234">
+        <v>2.9</v>
+      </c>
+      <c r="L234">
+        <v>3.1</v>
+      </c>
+      <c r="M234">
+        <v>2.55</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234">
+        <v>3.1</v>
+      </c>
+      <c r="P234">
+        <v>2.55</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>2.05</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>2.025</v>
+      </c>
+      <c r="V234">
+        <v>1.825</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20934,6 +20934,15 @@
       <c r="G230" t="s">
         <v>44</v>
       </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>50</v>
+      </c>
       <c r="K230">
         <v>2.625</v>
       </c>
@@ -20944,46 +20953,52 @@
         <v>2.6</v>
       </c>
       <c r="N230">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O230">
         <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB230">
+        <v>-0.5</v>
+      </c>
+      <c r="AC230">
+        <v>0.475</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21008,6 +21023,15 @@
       <c r="G231" t="s">
         <v>41</v>
       </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>50</v>
+      </c>
       <c r="K231">
         <v>4.333</v>
       </c>
@@ -21018,46 +21042,52 @@
         <v>1.85</v>
       </c>
       <c r="N231">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q231">
         <v>0.5</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21082,6 +21112,15 @@
       <c r="G232" t="s">
         <v>37</v>
       </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>49</v>
+      </c>
       <c r="K232">
         <v>2.25</v>
       </c>
@@ -21092,22 +21131,22 @@
         <v>3.4</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O232">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q232">
         <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T232">
         <v>2.5</v>
@@ -21119,19 +21158,25 @@
         <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>1.025</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21156,6 +21201,15 @@
       <c r="G233" t="s">
         <v>30</v>
       </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>3</v>
+      </c>
+      <c r="J233" t="s">
+        <v>48</v>
+      </c>
       <c r="K233">
         <v>3.6</v>
       </c>
@@ -21166,46 +21220,52 @@
         <v>2.05</v>
       </c>
       <c r="N233">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="Q233">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V233">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB233">
+        <v>1.05</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21240,13 +21300,13 @@
         <v>2.55</v>
       </c>
       <c r="N234">
+        <v>2.9</v>
+      </c>
+      <c r="O234">
         <v>3</v>
       </c>
-      <c r="O234">
-        <v>3.1</v>
-      </c>
       <c r="P234">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -21258,13 +21318,13 @@
         <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U234">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21279,6 +21339,80 @@
         <v>0</v>
       </c>
       <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6774470</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45387.54166666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>46</v>
+      </c>
+      <c r="G235" t="s">
+        <v>43</v>
+      </c>
+      <c r="K235">
+        <v>1.5</v>
+      </c>
+      <c r="L235">
+        <v>4.333</v>
+      </c>
+      <c r="M235">
+        <v>6.5</v>
+      </c>
+      <c r="N235">
+        <v>1.5</v>
+      </c>
+      <c r="O235">
+        <v>4.333</v>
+      </c>
+      <c r="P235">
+        <v>6.5</v>
+      </c>
+      <c r="Q235">
+        <v>-1</v>
+      </c>
+      <c r="R235">
+        <v>1.8</v>
+      </c>
+      <c r="S235">
+        <v>2.05</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>2.025</v>
+      </c>
+      <c r="V235">
+        <v>1.825</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21290,6 +21290,15 @@
       <c r="G234" t="s">
         <v>35</v>
       </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>50</v>
+      </c>
       <c r="K234">
         <v>2.9</v>
       </c>
@@ -21300,46 +21309,52 @@
         <v>2.55</v>
       </c>
       <c r="N234">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O234">
         <v>3</v>
       </c>
       <c r="P234">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q234">
         <v>0</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
         <v>0</v>
       </c>
       <c r="AA234">
+        <v>-0</v>
+      </c>
+      <c r="AB234">
         <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>-0</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21413,6 +21428,376 @@
         <v>0</v>
       </c>
       <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6775585</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45387.64583333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" t="s">
+        <v>32</v>
+      </c>
+      <c r="K236">
+        <v>4</v>
+      </c>
+      <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>1.909</v>
+      </c>
+      <c r="N236">
+        <v>4.2</v>
+      </c>
+      <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
+        <v>1.85</v>
+      </c>
+      <c r="Q236">
+        <v>0.5</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.85</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
+        <v>2</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6775582</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>37</v>
+      </c>
+      <c r="G237" t="s">
+        <v>31</v>
+      </c>
+      <c r="K237">
+        <v>1.8</v>
+      </c>
+      <c r="L237">
+        <v>3.5</v>
+      </c>
+      <c r="M237">
+        <v>4.5</v>
+      </c>
+      <c r="N237">
+        <v>1.75</v>
+      </c>
+      <c r="O237">
+        <v>3.5</v>
+      </c>
+      <c r="P237">
+        <v>4.75</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>2.025</v>
+      </c>
+      <c r="S237">
+        <v>1.825</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
+        <v>1.975</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6774876</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>38</v>
+      </c>
+      <c r="G238" t="s">
+        <v>47</v>
+      </c>
+      <c r="K238">
+        <v>1.85</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>4.2</v>
+      </c>
+      <c r="N238">
+        <v>1.8</v>
+      </c>
+      <c r="O238">
+        <v>3.6</v>
+      </c>
+      <c r="P238">
+        <v>4.5</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>2.05</v>
+      </c>
+      <c r="S238">
+        <v>1.8</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>1.8</v>
+      </c>
+      <c r="V238">
+        <v>2.05</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6775586</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45389.3125</v>
+      </c>
+      <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
+        <v>33</v>
+      </c>
+      <c r="K239">
+        <v>2.5</v>
+      </c>
+      <c r="L239">
+        <v>3.25</v>
+      </c>
+      <c r="M239">
+        <v>2.8</v>
+      </c>
+      <c r="N239">
+        <v>2.625</v>
+      </c>
+      <c r="O239">
+        <v>3.25</v>
+      </c>
+      <c r="P239">
+        <v>2.7</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>1.925</v>
+      </c>
+      <c r="S239">
+        <v>1.925</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>2.05</v>
+      </c>
+      <c r="V239">
+        <v>1.8</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6775583</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F240" t="s">
+        <v>41</v>
+      </c>
+      <c r="G240" t="s">
+        <v>42</v>
+      </c>
+      <c r="K240">
+        <v>2.5</v>
+      </c>
+      <c r="L240">
+        <v>3.4</v>
+      </c>
+      <c r="M240">
+        <v>2.7</v>
+      </c>
+      <c r="N240">
+        <v>2.45</v>
+      </c>
+      <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
+        <v>2.7</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.825</v>
+      </c>
+      <c r="V240">
+        <v>2.025</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21401,19 +21401,19 @@
         <v>-1</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21537,31 +21537,31 @@
         <v>4.5</v>
       </c>
       <c r="N237">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
         <v>3.5</v>
       </c>
       <c r="P237">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
         <v>2.025</v>
-      </c>
-      <c r="S237">
-        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21614,28 +21614,28 @@
         <v>1.8</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
         <v>4.5</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21658,7 +21658,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6775586</v>
+        <v>6775587</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21667,49 +21667,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45389.3125</v>
+        <v>45388.625</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K239">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M239">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O239">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>2</v>
+      </c>
+      <c r="U239">
         <v>1.925</v>
       </c>
-      <c r="S239">
+      <c r="V239">
         <v>1.925</v>
-      </c>
-      <c r="T239">
-        <v>2.25</v>
-      </c>
-      <c r="U239">
-        <v>2.05</v>
-      </c>
-      <c r="V239">
-        <v>1.8</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21732,7 +21732,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6775583</v>
+        <v>6775586</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21741,28 +21741,28 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45389.41666666666</v>
+        <v>45389.3125</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K240">
         <v>2.5</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M240">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N240">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P240">
         <v>2.7</v>
@@ -21771,33 +21771,255 @@
         <v>0</v>
       </c>
       <c r="R240">
+        <v>1.875</v>
+      </c>
+      <c r="S240">
+        <v>1.975</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>2.05</v>
+      </c>
+      <c r="V240">
+        <v>1.8</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6775583</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F241" t="s">
+        <v>41</v>
+      </c>
+      <c r="G241" t="s">
+        <v>42</v>
+      </c>
+      <c r="K241">
+        <v>2.5</v>
+      </c>
+      <c r="L241">
+        <v>3.4</v>
+      </c>
+      <c r="M241">
+        <v>2.7</v>
+      </c>
+      <c r="N241">
+        <v>2.45</v>
+      </c>
+      <c r="O241">
+        <v>3.4</v>
+      </c>
+      <c r="P241">
+        <v>2.7</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
         <v>1.825</v>
       </c>
-      <c r="S240">
+      <c r="S241">
         <v>2.025</v>
       </c>
-      <c r="T240">
+      <c r="T241">
         <v>2.5</v>
       </c>
-      <c r="U240">
+      <c r="U241">
         <v>1.825</v>
       </c>
-      <c r="V240">
+      <c r="V241">
         <v>2.025</v>
       </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6775584</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45389.52083333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>39</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>3.5</v>
+      </c>
+      <c r="M242">
+        <v>3.6</v>
+      </c>
+      <c r="N242">
+        <v>1.85</v>
+      </c>
+      <c r="O242">
+        <v>3.6</v>
+      </c>
+      <c r="P242">
+        <v>4</v>
+      </c>
+      <c r="Q242">
+        <v>-0.5</v>
+      </c>
+      <c r="R242">
+        <v>1.9</v>
+      </c>
+      <c r="S242">
+        <v>1.95</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.925</v>
+      </c>
+      <c r="V242">
+        <v>1.925</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6775579</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>35</v>
+      </c>
+      <c r="G243" t="s">
+        <v>34</v>
+      </c>
+      <c r="K243">
+        <v>2.2</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3.2</v>
+      </c>
+      <c r="N243">
+        <v>2.2</v>
+      </c>
+      <c r="O243">
+        <v>3.4</v>
+      </c>
+      <c r="P243">
+        <v>3.2</v>
+      </c>
+      <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>1.9</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -21401,19 +21401,19 @@
         <v>-1</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21475,10 +21475,10 @@
         <v>0.5</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
         <v>2.25</v>
@@ -21623,19 +21623,19 @@
         <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21685,13 +21685,13 @@
         <v>4.5</v>
       </c>
       <c r="N239">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O239">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q239">
         <v>-0.5</v>
@@ -21706,10 +21706,10 @@
         <v>2</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21833,22 +21833,22 @@
         <v>2.7</v>
       </c>
       <c r="N241">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
         <v>3.4</v>
       </c>
       <c r="P241">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T241">
         <v>2.5</v>
@@ -21919,10 +21919,10 @@
         <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
         <v>2.75</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -21379,6 +21379,15 @@
       <c r="G235" t="s">
         <v>43</v>
       </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>50</v>
+      </c>
       <c r="K235">
         <v>1.5</v>
       </c>
@@ -21389,46 +21398,52 @@
         <v>6.5</v>
       </c>
       <c r="N235">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O235">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P235">
         <v>6.5</v>
       </c>
       <c r="Q235">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R235">
+        <v>1.975</v>
+      </c>
+      <c r="S235">
+        <v>1.875</v>
+      </c>
+      <c r="T235">
+        <v>3</v>
+      </c>
+      <c r="U235">
+        <v>2.05</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="S235">
-        <v>2.05</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>2</v>
-      </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB235">
+        <v>1.05</v>
+      </c>
+      <c r="AC235">
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21453,6 +21468,15 @@
       <c r="G236" t="s">
         <v>32</v>
       </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>49</v>
+      </c>
       <c r="K236">
         <v>4</v>
       </c>
@@ -21463,46 +21487,52 @@
         <v>1.909</v>
       </c>
       <c r="N236">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="Q236">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA236">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>0.925</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21549,10 +21579,10 @@
         <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.25</v>
@@ -21697,19 +21727,19 @@
         <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
         <v>2</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21771,10 +21801,10 @@
         <v>0</v>
       </c>
       <c r="R240">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>2.25</v>
@@ -21833,22 +21863,22 @@
         <v>2.7</v>
       </c>
       <c r="N241">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O241">
         <v>3.4</v>
       </c>
       <c r="P241">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q241">
         <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
         <v>2.5</v>
@@ -21993,10 +22023,10 @@
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
         <v>2.5</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6775582</v>
+        <v>6775587</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,49 +21549,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M237">
         <v>4.5</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P237">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q237">
         <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21614,7 +21614,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6774876</v>
+        <v>6775586</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,49 +21623,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45388.52083333334</v>
+        <v>45389.3125</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K238">
+        <v>2.5</v>
+      </c>
+      <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>2.8</v>
+      </c>
+      <c r="N238">
+        <v>2.5</v>
+      </c>
+      <c r="O238">
+        <v>3.25</v>
+      </c>
+      <c r="P238">
+        <v>2.75</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
       </c>
-      <c r="L238">
-        <v>3.5</v>
-      </c>
-      <c r="M238">
-        <v>4.2</v>
-      </c>
-      <c r="N238">
-        <v>1.8</v>
-      </c>
-      <c r="O238">
-        <v>3.5</v>
-      </c>
-      <c r="P238">
-        <v>4.5</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.825</v>
-      </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21688,7 +21688,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6775587</v>
+        <v>6775583</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21697,34 +21697,34 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45388.625</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K239">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L239">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N239">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P239">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
         <v>2</v>
@@ -21733,13 +21733,13 @@
         <v>1.85</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21762,7 +21762,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6775586</v>
+        <v>6775584</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21771,49 +21771,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45389.3125</v>
+        <v>45389.52083333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K240">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L240">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N240">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O240">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21836,7 +21836,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6775583</v>
+        <v>6775579</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21845,49 +21845,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45389.41666666666</v>
+        <v>45390.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K241">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
         <v>3.4</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O241">
         <v>3.4</v>
       </c>
       <c r="P241">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q241">
         <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21902,154 +21902,6 @@
         <v>0</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>6775584</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45389.52083333334</v>
-      </c>
-      <c r="F242" t="s">
-        <v>30</v>
-      </c>
-      <c r="G242" t="s">
-        <v>39</v>
-      </c>
-      <c r="K242">
-        <v>2</v>
-      </c>
-      <c r="L242">
-        <v>3.5</v>
-      </c>
-      <c r="M242">
-        <v>3.6</v>
-      </c>
-      <c r="N242">
-        <v>1.85</v>
-      </c>
-      <c r="O242">
-        <v>3.6</v>
-      </c>
-      <c r="P242">
-        <v>4</v>
-      </c>
-      <c r="Q242">
-        <v>-0.5</v>
-      </c>
-      <c r="R242">
-        <v>1.925</v>
-      </c>
-      <c r="S242">
-        <v>1.925</v>
-      </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>1.925</v>
-      </c>
-      <c r="V242">
-        <v>1.925</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>6775579</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45390.58333333334</v>
-      </c>
-      <c r="F243" t="s">
-        <v>35</v>
-      </c>
-      <c r="G243" t="s">
-        <v>34</v>
-      </c>
-      <c r="K243">
-        <v>2.2</v>
-      </c>
-      <c r="L243">
-        <v>3.4</v>
-      </c>
-      <c r="M243">
-        <v>3.2</v>
-      </c>
-      <c r="N243">
-        <v>2.2</v>
-      </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
-      <c r="P243">
-        <v>3.2</v>
-      </c>
-      <c r="Q243">
-        <v>-0.25</v>
-      </c>
-      <c r="R243">
-        <v>1.9</v>
-      </c>
-      <c r="S243">
-        <v>1.95</v>
-      </c>
-      <c r="T243">
-        <v>2.5</v>
-      </c>
-      <c r="U243">
-        <v>1.95</v>
-      </c>
-      <c r="V243">
-        <v>1.9</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21540,7 +21540,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6775587</v>
+        <v>6775582</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,64 +21549,79 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45388.625</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>49</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
         <v>4.5</v>
       </c>
       <c r="N237">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O237">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q237">
         <v>-0.5</v>
       </c>
       <c r="R237">
+        <v>1.875</v>
+      </c>
+      <c r="S237">
         <v>1.975</v>
       </c>
-      <c r="S237">
-        <v>1.875</v>
-      </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21614,7 +21629,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6775586</v>
+        <v>6774876</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,34 +21638,43 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45389.3125</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>50</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N238">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
         <v>1.85</v>
@@ -21659,28 +21683,34 @@
         <v>2</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21688,7 +21718,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6775583</v>
+        <v>6775587</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21697,64 +21727,79 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45389.41666666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>49</v>
       </c>
       <c r="K239">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M239">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N239">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O239">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>1.05</v>
+      </c>
+      <c r="AC239">
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21762,7 +21807,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6775584</v>
+        <v>6775586</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21771,72 +21816,87 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45389.52083333334</v>
+        <v>45389.3125</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>49</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M240">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N240">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6775579</v>
+        <v>6775583</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21845,63 +21905,241 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45390.58333333334</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241" t="s">
+        <v>49</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L241">
         <v>3.4</v>
       </c>
       <c r="M241">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
         <v>2.2</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P241">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
         <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
+        <v>1.85</v>
+      </c>
+      <c r="W241">
+        <v>1.2</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>0.95</v>
+      </c>
+      <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6775584</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45389.52083333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>39</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>50</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>3.5</v>
+      </c>
+      <c r="M242">
+        <v>3.6</v>
+      </c>
+      <c r="N242">
+        <v>1.909</v>
+      </c>
+      <c r="O242">
+        <v>3.5</v>
+      </c>
+      <c r="P242">
+        <v>3.8</v>
+      </c>
+      <c r="Q242">
+        <v>-0.5</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.85</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.95</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
         <v>2.5</v>
       </c>
-      <c r="U241">
-        <v>1.95</v>
-      </c>
-      <c r="V241">
-        <v>1.9</v>
-      </c>
-      <c r="W241">
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6775579</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>35</v>
+      </c>
+      <c r="G243" t="s">
+        <v>34</v>
+      </c>
+      <c r="K243">
+        <v>2.2</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>3.2</v>
+      </c>
+      <c r="N243">
+        <v>2.3</v>
+      </c>
+      <c r="O243">
+        <v>3.3</v>
+      </c>
+      <c r="P243">
+        <v>3.1</v>
+      </c>
+      <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>2.025</v>
+      </c>
+      <c r="S243">
+        <v>1.825</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.975</v>
+      </c>
+      <c r="V243">
+        <v>1.875</v>
+      </c>
+      <c r="W243">
         <v>0</v>
       </c>
-      <c r="X241">
+      <c r="X243">
         <v>0</v>
       </c>
-      <c r="Y241">
+      <c r="Y243">
         <v>0</v>
       </c>
-      <c r="Z241">
+      <c r="Z243">
         <v>0</v>
       </c>
-      <c r="AA241">
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22091,6 +22091,15 @@
       <c r="G243" t="s">
         <v>34</v>
       </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>48</v>
+      </c>
       <c r="K243">
         <v>2.2</v>
       </c>
@@ -22101,16 +22110,16 @@
         <v>3.2</v>
       </c>
       <c r="N243">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O243">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P243">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
         <v>2.025</v>
@@ -22122,24 +22131,548 @@
         <v>2.5</v>
       </c>
       <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>1.9</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>2.6</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
+        <v>0.825</v>
+      </c>
+      <c r="AB243">
+        <v>0.95</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6775592</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45394.54166666666</v>
+      </c>
+      <c r="F244" t="s">
+        <v>29</v>
+      </c>
+      <c r="G244" t="s">
+        <v>37</v>
+      </c>
+      <c r="K244">
+        <v>2.45</v>
+      </c>
+      <c r="L244">
+        <v>3.1</v>
+      </c>
+      <c r="M244">
+        <v>2.75</v>
+      </c>
+      <c r="N244">
+        <v>2.45</v>
+      </c>
+      <c r="O244">
+        <v>3.1</v>
+      </c>
+      <c r="P244">
+        <v>2.75</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
+        <v>2.05</v>
+      </c>
+      <c r="T244">
+        <v>2</v>
+      </c>
+      <c r="U244">
+        <v>1.9</v>
+      </c>
+      <c r="V244">
+        <v>1.95</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>6774471</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45394.64583333334</v>
+      </c>
+      <c r="F245" t="s">
+        <v>42</v>
+      </c>
+      <c r="G245" t="s">
+        <v>38</v>
+      </c>
+      <c r="K245">
+        <v>1.5</v>
+      </c>
+      <c r="L245">
+        <v>4.2</v>
+      </c>
+      <c r="M245">
+        <v>5.5</v>
+      </c>
+      <c r="N245">
+        <v>1.533</v>
+      </c>
+      <c r="O245">
+        <v>4</v>
+      </c>
+      <c r="P245">
+        <v>5.25</v>
+      </c>
+      <c r="Q245">
+        <v>-1</v>
+      </c>
+      <c r="R245">
+        <v>1.9</v>
+      </c>
+      <c r="S245">
+        <v>1.95</v>
+      </c>
+      <c r="T245">
+        <v>3</v>
+      </c>
+      <c r="U245">
+        <v>2.025</v>
+      </c>
+      <c r="V245">
+        <v>1.825</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>6850053</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F246" t="s">
+        <v>31</v>
+      </c>
+      <c r="G246" t="s">
+        <v>36</v>
+      </c>
+      <c r="K246">
+        <v>2.8</v>
+      </c>
+      <c r="L246">
+        <v>3.3</v>
+      </c>
+      <c r="M246">
+        <v>2.3</v>
+      </c>
+      <c r="N246">
+        <v>2.8</v>
+      </c>
+      <c r="O246">
+        <v>3.3</v>
+      </c>
+      <c r="P246">
+        <v>2.3</v>
+      </c>
+      <c r="Q246">
+        <v>0.25</v>
+      </c>
+      <c r="R246">
+        <v>1.775</v>
+      </c>
+      <c r="S246">
+        <v>2.1</v>
+      </c>
+      <c r="T246">
+        <v>2.5</v>
+      </c>
+      <c r="U246">
+        <v>2.05</v>
+      </c>
+      <c r="V246">
+        <v>1.8</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>6774875</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45395.52083333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>47</v>
+      </c>
+      <c r="G247" t="s">
+        <v>41</v>
+      </c>
+      <c r="K247">
+        <v>4.333</v>
+      </c>
+      <c r="L247">
+        <v>3.5</v>
+      </c>
+      <c r="M247">
+        <v>1.727</v>
+      </c>
+      <c r="N247">
+        <v>4.5</v>
+      </c>
+      <c r="O247">
+        <v>3.5</v>
+      </c>
+      <c r="P247">
+        <v>1.7</v>
+      </c>
+      <c r="Q247">
+        <v>0.75</v>
+      </c>
+      <c r="R247">
+        <v>1.825</v>
+      </c>
+      <c r="S247">
+        <v>2.025</v>
+      </c>
+      <c r="T247">
+        <v>2.5</v>
+      </c>
+      <c r="U247">
+        <v>2.025</v>
+      </c>
+      <c r="V247">
+        <v>1.825</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>6775591</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F248" t="s">
+        <v>32</v>
+      </c>
+      <c r="G248" t="s">
+        <v>30</v>
+      </c>
+      <c r="K248">
+        <v>2.25</v>
+      </c>
+      <c r="L248">
+        <v>3.3</v>
+      </c>
+      <c r="M248">
+        <v>3.2</v>
+      </c>
+      <c r="N248">
+        <v>2.2</v>
+      </c>
+      <c r="O248">
+        <v>3.3</v>
+      </c>
+      <c r="P248">
+        <v>3.25</v>
+      </c>
+      <c r="Q248">
+        <v>-0.25</v>
+      </c>
+      <c r="R248">
+        <v>1.875</v>
+      </c>
+      <c r="S248">
         <v>1.975</v>
       </c>
-      <c r="V243">
-        <v>1.875</v>
-      </c>
-      <c r="W243">
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>2.025</v>
+      </c>
+      <c r="V248">
+        <v>1.825</v>
+      </c>
+      <c r="W248">
         <v>0</v>
       </c>
-      <c r="X243">
+      <c r="X248">
         <v>0</v>
       </c>
-      <c r="Y243">
+      <c r="Y248">
         <v>0</v>
       </c>
-      <c r="Z243">
+      <c r="Z248">
         <v>0</v>
       </c>
-      <c r="AA243">
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6775593</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45396.3125</v>
+      </c>
+      <c r="F249" t="s">
+        <v>43</v>
+      </c>
+      <c r="G249" t="s">
+        <v>44</v>
+      </c>
+      <c r="K249">
+        <v>3.5</v>
+      </c>
+      <c r="L249">
+        <v>3.4</v>
+      </c>
+      <c r="M249">
+        <v>2.05</v>
+      </c>
+      <c r="N249">
+        <v>3.5</v>
+      </c>
+      <c r="O249">
+        <v>3.4</v>
+      </c>
+      <c r="P249">
+        <v>2.05</v>
+      </c>
+      <c r="Q249">
+        <v>0.25</v>
+      </c>
+      <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
+        <v>1.8</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>2</v>
+      </c>
+      <c r="V249">
+        <v>1.85</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6775589</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F250" t="s">
+        <v>39</v>
+      </c>
+      <c r="G250" t="s">
+        <v>46</v>
+      </c>
+      <c r="K250">
+        <v>1.833</v>
+      </c>
+      <c r="L250">
+        <v>3.5</v>
+      </c>
+      <c r="M250">
+        <v>3.8</v>
+      </c>
+      <c r="N250">
+        <v>1.75</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
+        <v>4</v>
+      </c>
+      <c r="Q250">
+        <v>-0.75</v>
+      </c>
+      <c r="R250">
+        <v>2.05</v>
+      </c>
+      <c r="S250">
+        <v>1.8</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>1.825</v>
+      </c>
+      <c r="V250">
+        <v>2.025</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22202,10 +22202,10 @@
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S244">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
         <v>2</v>
@@ -22276,10 +22276,10 @@
         <v>-1</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
         <v>3</v>
@@ -22338,22 +22338,22 @@
         <v>2.3</v>
       </c>
       <c r="N246">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O246">
         <v>3.3</v>
       </c>
       <c r="P246">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q246">
         <v>0.25</v>
       </c>
       <c r="R246">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S246">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T246">
         <v>2.5</v>
@@ -22560,22 +22560,22 @@
         <v>2.05</v>
       </c>
       <c r="N249">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O249">
         <v>3.4</v>
       </c>
       <c r="P249">
+        <v>2</v>
+      </c>
+      <c r="Q249">
+        <v>0.5</v>
+      </c>
+      <c r="R249">
+        <v>1.8</v>
+      </c>
+      <c r="S249">
         <v>2.05</v>
-      </c>
-      <c r="Q249">
-        <v>0.25</v>
-      </c>
-      <c r="R249">
-        <v>2.05</v>
-      </c>
-      <c r="S249">
-        <v>1.8</v>
       </c>
       <c r="T249">
         <v>2.5</v>
@@ -22643,13 +22643,13 @@
         <v>4</v>
       </c>
       <c r="Q250">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
+        <v>1.8</v>
+      </c>
+      <c r="S250">
         <v>2.05</v>
-      </c>
-      <c r="S250">
-        <v>1.8</v>
       </c>
       <c r="T250">
         <v>2.5</v>
@@ -22673,6 +22673,80 @@
         <v>0</v>
       </c>
       <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6775590</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>33</v>
+      </c>
+      <c r="G251" t="s">
+        <v>35</v>
+      </c>
+      <c r="K251">
+        <v>2.15</v>
+      </c>
+      <c r="L251">
+        <v>3.2</v>
+      </c>
+      <c r="M251">
+        <v>3.4</v>
+      </c>
+      <c r="N251">
+        <v>2.15</v>
+      </c>
+      <c r="O251">
+        <v>3.2</v>
+      </c>
+      <c r="P251">
+        <v>3.4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
+        <v>1.85</v>
+      </c>
+      <c r="S251">
+        <v>2</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
+        <v>2.05</v>
+      </c>
+      <c r="V251">
+        <v>1.8</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22202,19 +22202,19 @@
         <v>0</v>
       </c>
       <c r="R244">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T244">
         <v>2</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22264,31 +22264,31 @@
         <v>5.5</v>
       </c>
       <c r="N245">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P245">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q245">
         <v>-1</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
         <v>3</v>
       </c>
       <c r="U245">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22424,10 +22424,10 @@
         <v>0.75</v>
       </c>
       <c r="R247">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T247">
         <v>2.5</v>
@@ -22681,7 +22681,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6775590</v>
+        <v>6775588</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22690,49 +22690,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45397.58333333334</v>
+        <v>45396.52083333334</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K251">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L251">
         <v>3.2</v>
       </c>
       <c r="M251">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N251">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O251">
         <v>3.2</v>
       </c>
       <c r="P251">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q251">
         <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22747,6 +22747,80 @@
         <v>0</v>
       </c>
       <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6775590</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" t="s">
+        <v>35</v>
+      </c>
+      <c r="K252">
+        <v>2.15</v>
+      </c>
+      <c r="L252">
+        <v>3.2</v>
+      </c>
+      <c r="M252">
+        <v>3.4</v>
+      </c>
+      <c r="N252">
+        <v>2.15</v>
+      </c>
+      <c r="O252">
+        <v>3.2</v>
+      </c>
+      <c r="P252">
+        <v>3.4</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
+        <v>1.85</v>
+      </c>
+      <c r="S252">
+        <v>2</v>
+      </c>
+      <c r="T252">
+        <v>2.25</v>
+      </c>
+      <c r="U252">
+        <v>2.1</v>
+      </c>
+      <c r="V252">
+        <v>1.775</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -22190,13 +22190,13 @@
         <v>2.75</v>
       </c>
       <c r="N244">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q244">
         <v>0</v>
@@ -22211,10 +22211,10 @@
         <v>2</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22264,22 +22264,22 @@
         <v>5.5</v>
       </c>
       <c r="N245">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O245">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P245">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q245">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S245">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T245">
         <v>3</v>
@@ -22424,10 +22424,10 @@
         <v>0.75</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T247">
         <v>2.5</v>
@@ -22486,22 +22486,22 @@
         <v>3.2</v>
       </c>
       <c r="N248">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O248">
         <v>3.3</v>
       </c>
       <c r="P248">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T248">
         <v>2.5</v>
@@ -22640,16 +22640,16 @@
         <v>3.6</v>
       </c>
       <c r="P250">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>2.5</v>
@@ -22788,7 +22788,7 @@
         <v>3.2</v>
       </c>
       <c r="P252">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q252">
         <v>-0.25</v>
@@ -22800,13 +22800,13 @@
         <v>2</v>
       </c>
       <c r="T252">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U252">
+        <v>1.775</v>
+      </c>
+      <c r="V252">
         <v>2.1</v>
-      </c>
-      <c r="V252">
-        <v>1.775</v>
       </c>
       <c r="W252">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC252"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22163,7 +22163,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6775592</v>
+        <v>6850053</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,49 +22172,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45394.54166666666</v>
+        <v>45395.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K244">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L244">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M244">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N244">
+        <v>2.875</v>
+      </c>
+      <c r="O244">
+        <v>3.3</v>
+      </c>
+      <c r="P244">
+        <v>2.25</v>
+      </c>
+      <c r="Q244">
+        <v>0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
+        <v>2.05</v>
+      </c>
+      <c r="T244">
         <v>2.5</v>
       </c>
-      <c r="O244">
-        <v>2.9</v>
-      </c>
-      <c r="P244">
-        <v>2.875</v>
-      </c>
-      <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244">
-        <v>1.775</v>
-      </c>
-      <c r="S244">
-        <v>2.1</v>
-      </c>
-      <c r="T244">
-        <v>2</v>
-      </c>
       <c r="U244">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V244">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22237,7 +22237,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6774471</v>
+        <v>6774875</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,49 +22246,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45394.64583333334</v>
+        <v>45395.52083333334</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G245" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K245">
-        <v>1.5</v>
+        <v>4.333</v>
       </c>
       <c r="L245">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="N245">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="O245">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q245">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R245">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22311,7 +22311,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6850053</v>
+        <v>6775591</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22320,49 +22320,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45395.41666666666</v>
+        <v>45395.625</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K246">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L246">
         <v>3.3</v>
       </c>
       <c r="M246">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N246">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O246">
         <v>3.3</v>
       </c>
       <c r="P246">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q246">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22385,7 +22385,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6774875</v>
+        <v>6775593</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22394,34 +22394,34 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45395.52083333334</v>
+        <v>45396.3125</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K247">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L247">
+        <v>3.4</v>
+      </c>
+      <c r="M247">
+        <v>2.05</v>
+      </c>
+      <c r="N247">
         <v>3.5</v>
       </c>
-      <c r="M247">
-        <v>1.727</v>
-      </c>
-      <c r="N247">
-        <v>4.5</v>
-      </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q247">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R247">
         <v>1.825</v>
@@ -22433,10 +22433,10 @@
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22459,7 +22459,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6775591</v>
+        <v>6775589</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22468,43 +22468,43 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45395.625</v>
+        <v>45396.41666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K248">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N248">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O248">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R248">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S248">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>2.025</v>
@@ -22533,7 +22533,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6775593</v>
+        <v>6775588</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22542,49 +22542,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45396.3125</v>
+        <v>45396.52083333334</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K249">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L249">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M249">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N249">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="O249">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q249">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S249">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U249">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6775589</v>
+        <v>6775590</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22616,49 +22616,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45396.41666666666</v>
+        <v>45397.58333333334</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K250">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L250">
+        <v>3.2</v>
+      </c>
+      <c r="M250">
+        <v>3.4</v>
+      </c>
+      <c r="N250">
+        <v>2.15</v>
+      </c>
+      <c r="O250">
+        <v>3.2</v>
+      </c>
+      <c r="P250">
         <v>3.5</v>
       </c>
-      <c r="M250">
-        <v>3.8</v>
-      </c>
-      <c r="N250">
-        <v>1.75</v>
-      </c>
-      <c r="O250">
-        <v>3.6</v>
-      </c>
-      <c r="P250">
-        <v>4.2</v>
-      </c>
       <c r="Q250">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U250">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V250">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22673,154 +22673,6 @@
         <v>0</v>
       </c>
       <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>6775588</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45396.52083333334</v>
-      </c>
-      <c r="F251" t="s">
-        <v>34</v>
-      </c>
-      <c r="G251" t="s">
-        <v>40</v>
-      </c>
-      <c r="K251">
-        <v>2.25</v>
-      </c>
-      <c r="L251">
-        <v>3.2</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2.25</v>
-      </c>
-      <c r="O251">
-        <v>3.2</v>
-      </c>
-      <c r="P251">
-        <v>3</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.025</v>
-      </c>
-      <c r="S251">
-        <v>1.825</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.875</v>
-      </c>
-      <c r="V251">
-        <v>1.975</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>6775590</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45397.58333333334</v>
-      </c>
-      <c r="F252" t="s">
-        <v>33</v>
-      </c>
-      <c r="G252" t="s">
-        <v>35</v>
-      </c>
-      <c r="K252">
-        <v>2.15</v>
-      </c>
-      <c r="L252">
-        <v>3.2</v>
-      </c>
-      <c r="M252">
-        <v>3.4</v>
-      </c>
-      <c r="N252">
-        <v>2.15</v>
-      </c>
-      <c r="O252">
-        <v>3.2</v>
-      </c>
-      <c r="P252">
-        <v>3.5</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>1.85</v>
-      </c>
-      <c r="S252">
-        <v>2</v>
-      </c>
-      <c r="T252">
-        <v>2</v>
-      </c>
-      <c r="U252">
-        <v>1.775</v>
-      </c>
-      <c r="V252">
-        <v>2.1</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22163,7 +22163,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6850053</v>
+        <v>6775592</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,64 +22172,79 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45395.41666666666</v>
+        <v>45394.54166666666</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L244">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N244">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="O244">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P244">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S244">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U244">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W244">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>-1</v>
+      </c>
+      <c r="AC244">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22237,7 +22252,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6774875</v>
+        <v>6774471</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,34 +22261,43 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45395.52083333334</v>
+        <v>45394.64583333334</v>
       </c>
       <c r="F245" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H245">
+        <v>5</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>49</v>
       </c>
       <c r="K245">
+        <v>1.5</v>
+      </c>
+      <c r="L245">
+        <v>4.2</v>
+      </c>
+      <c r="M245">
+        <v>5.5</v>
+      </c>
+      <c r="N245">
+        <v>1.5</v>
+      </c>
+      <c r="O245">
         <v>4.333</v>
       </c>
-      <c r="L245">
-        <v>3.5</v>
-      </c>
-      <c r="M245">
-        <v>1.727</v>
-      </c>
-      <c r="N245">
-        <v>4.5</v>
-      </c>
-      <c r="O245">
-        <v>3.5</v>
-      </c>
       <c r="P245">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q245">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R245">
         <v>1.825</v>
@@ -22282,28 +22306,34 @@
         <v>2.025</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U245">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>0.95</v>
+      </c>
+      <c r="AC245">
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22311,7 +22341,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6775591</v>
+        <v>6775593</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22320,34 +22350,34 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45395.625</v>
+        <v>45396.3125</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K246">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M246">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N246">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O246">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R246">
         <v>1.825</v>
@@ -22359,10 +22389,10 @@
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22385,7 +22415,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6775593</v>
+        <v>6775589</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22394,49 +22424,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45396.3125</v>
+        <v>45396.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K247">
+        <v>1.833</v>
+      </c>
+      <c r="L247">
         <v>3.5</v>
       </c>
-      <c r="L247">
-        <v>3.4</v>
-      </c>
       <c r="M247">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="N247">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="O247">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P247">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
+        <v>1.875</v>
+      </c>
+      <c r="S247">
+        <v>1.975</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>2.025</v>
+      </c>
+      <c r="V247">
         <v>1.825</v>
-      </c>
-      <c r="S247">
-        <v>2.025</v>
-      </c>
-      <c r="T247">
-        <v>2.5</v>
-      </c>
-      <c r="U247">
-        <v>2</v>
-      </c>
-      <c r="V247">
-        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22459,7 +22489,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6775589</v>
+        <v>6775588</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22468,49 +22498,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45396.41666666666</v>
+        <v>45396.52083333334</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K248">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22533,7 +22563,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6775588</v>
+        <v>6775590</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22542,49 +22572,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45396.52083333334</v>
+        <v>45397.58333333334</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K249">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L249">
         <v>3.2</v>
       </c>
       <c r="M249">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N249">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O249">
         <v>3.2</v>
       </c>
       <c r="P249">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q249">
         <v>-0.25</v>
       </c>
       <c r="R249">
+        <v>1.825</v>
+      </c>
+      <c r="S249">
         <v>2.025</v>
       </c>
-      <c r="S249">
-        <v>1.825</v>
-      </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U249">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22599,80 +22629,6 @@
         <v>0</v>
       </c>
       <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6775590</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45397.58333333334</v>
-      </c>
-      <c r="F250" t="s">
-        <v>33</v>
-      </c>
-      <c r="G250" t="s">
-        <v>35</v>
-      </c>
-      <c r="K250">
-        <v>2.15</v>
-      </c>
-      <c r="L250">
-        <v>3.2</v>
-      </c>
-      <c r="M250">
-        <v>3.4</v>
-      </c>
-      <c r="N250">
-        <v>2.15</v>
-      </c>
-      <c r="O250">
-        <v>3.2</v>
-      </c>
-      <c r="P250">
-        <v>3.5</v>
-      </c>
-      <c r="Q250">
-        <v>-0.25</v>
-      </c>
-      <c r="R250">
-        <v>1.85</v>
-      </c>
-      <c r="S250">
-        <v>2</v>
-      </c>
-      <c r="T250">
-        <v>2</v>
-      </c>
-      <c r="U250">
-        <v>1.775</v>
-      </c>
-      <c r="V250">
-        <v>2.1</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AC248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22341,7 +22341,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6775593</v>
+        <v>6850053</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,34 +22350,43 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45396.3125</v>
+        <v>45395.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>50</v>
       </c>
       <c r="K246">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L246">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N246">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P246">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
         <v>1.825</v>
@@ -22389,25 +22398,31 @@
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA246">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
+        <v>0.8</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22415,7 +22430,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6775589</v>
+        <v>6774875</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22424,64 +22439,79 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45396.41666666666</v>
+        <v>45395.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="s">
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="L247">
         <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="N247">
-        <v>1.65</v>
+        <v>5</v>
       </c>
       <c r="O247">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB247">
+        <v>1</v>
+      </c>
+      <c r="AC247">
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22489,7 +22519,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6775588</v>
+        <v>6775590</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22498,49 +22528,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45396.52083333334</v>
+        <v>45397.58333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G248" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K248">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L248">
         <v>3.2</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N248">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O248">
         <v>3.2</v>
       </c>
       <c r="P248">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q248">
         <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22555,80 +22585,6 @@
         <v>0</v>
       </c>
       <c r="AA248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>6775590</v>
-      </c>
-      <c r="C249" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45397.58333333334</v>
-      </c>
-      <c r="F249" t="s">
-        <v>33</v>
-      </c>
-      <c r="G249" t="s">
-        <v>35</v>
-      </c>
-      <c r="K249">
-        <v>2.15</v>
-      </c>
-      <c r="L249">
-        <v>3.2</v>
-      </c>
-      <c r="M249">
-        <v>3.4</v>
-      </c>
-      <c r="N249">
-        <v>2.15</v>
-      </c>
-      <c r="O249">
-        <v>3.2</v>
-      </c>
-      <c r="P249">
-        <v>3.5</v>
-      </c>
-      <c r="Q249">
-        <v>-0.25</v>
-      </c>
-      <c r="R249">
-        <v>1.825</v>
-      </c>
-      <c r="S249">
-        <v>2.025</v>
-      </c>
-      <c r="T249">
-        <v>2</v>
-      </c>
-      <c r="U249">
-        <v>1.8</v>
-      </c>
-      <c r="V249">
-        <v>2.05</v>
-      </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-      <c r="X249">
-        <v>0</v>
-      </c>
-      <c r="Y249">
-        <v>0</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
-      <c r="AA249">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC248"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22519,7 +22519,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6775590</v>
+        <v>6775591</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,64 +22528,346 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45397.58333333334</v>
+        <v>45395.625</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G248" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>50</v>
       </c>
       <c r="K248">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L248">
+        <v>3.3</v>
+      </c>
+      <c r="M248">
         <v>3.2</v>
       </c>
-      <c r="M248">
+      <c r="N248">
+        <v>2.05</v>
+      </c>
+      <c r="O248">
         <v>3.4</v>
       </c>
-      <c r="N248">
-        <v>2.15</v>
-      </c>
-      <c r="O248">
+      <c r="P248">
+        <v>3.6</v>
+      </c>
+      <c r="Q248">
+        <v>-0.5</v>
+      </c>
+      <c r="R248">
+        <v>2.025</v>
+      </c>
+      <c r="S248">
+        <v>1.825</v>
+      </c>
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>2.025</v>
+      </c>
+      <c r="V248">
+        <v>1.825</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
+        <v>2.4</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
+        <v>-1</v>
+      </c>
+      <c r="AA248">
+        <v>0.825</v>
+      </c>
+      <c r="AB248">
+        <v>-1</v>
+      </c>
+      <c r="AC248">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6775593</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45396.3125</v>
+      </c>
+      <c r="F249" t="s">
+        <v>43</v>
+      </c>
+      <c r="G249" t="s">
+        <v>44</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
+      </c>
+      <c r="K249">
+        <v>3.5</v>
+      </c>
+      <c r="L249">
+        <v>3.4</v>
+      </c>
+      <c r="M249">
+        <v>2.05</v>
+      </c>
+      <c r="N249">
+        <v>3.75</v>
+      </c>
+      <c r="O249">
+        <v>3.5</v>
+      </c>
+      <c r="P249">
+        <v>1.95</v>
+      </c>
+      <c r="Q249">
+        <v>0.5</v>
+      </c>
+      <c r="R249">
+        <v>1.825</v>
+      </c>
+      <c r="S249">
+        <v>2.025</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
+        <v>1.9</v>
+      </c>
+      <c r="W249">
+        <v>2.75</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>0.825</v>
+      </c>
+      <c r="AA249">
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>0.95</v>
+      </c>
+      <c r="AC249">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6775589</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F250" t="s">
+        <v>39</v>
+      </c>
+      <c r="G250" t="s">
+        <v>46</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>3</v>
+      </c>
+      <c r="J250" t="s">
+        <v>48</v>
+      </c>
+      <c r="K250">
+        <v>1.833</v>
+      </c>
+      <c r="L250">
+        <v>3.5</v>
+      </c>
+      <c r="M250">
+        <v>3.8</v>
+      </c>
+      <c r="N250">
+        <v>1.75</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
+        <v>4</v>
+      </c>
+      <c r="Q250">
+        <v>-0.5</v>
+      </c>
+      <c r="R250">
+        <v>1.8</v>
+      </c>
+      <c r="S250">
+        <v>2.05</v>
+      </c>
+      <c r="T250">
+        <v>2.75</v>
+      </c>
+      <c r="U250">
+        <v>1.975</v>
+      </c>
+      <c r="V250">
+        <v>1.875</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>3</v>
+      </c>
+      <c r="Z250">
+        <v>-1</v>
+      </c>
+      <c r="AA250">
+        <v>1.05</v>
+      </c>
+      <c r="AB250">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC250">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6775588</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45396.52083333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>34</v>
+      </c>
+      <c r="G251" t="s">
+        <v>40</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>2.25</v>
+      </c>
+      <c r="L251">
         <v>3.2</v>
       </c>
-      <c r="P248">
-        <v>3.5</v>
-      </c>
-      <c r="Q248">
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.3</v>
+      </c>
+      <c r="O251">
+        <v>3.1</v>
+      </c>
+      <c r="P251">
+        <v>3</v>
+      </c>
+      <c r="Q251">
         <v>-0.25</v>
       </c>
-      <c r="R248">
-        <v>1.875</v>
-      </c>
-      <c r="S248">
-        <v>1.975</v>
-      </c>
-      <c r="T248">
-        <v>2</v>
-      </c>
-      <c r="U248">
+      <c r="R251">
+        <v>2.05</v>
+      </c>
+      <c r="S251">
         <v>1.8</v>
       </c>
-      <c r="V248">
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
         <v>2.05</v>
       </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
-        <v>0</v>
+      <c r="V251">
+        <v>1.8</v>
+      </c>
+      <c r="W251">
+        <v>1.3</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
+        <v>1.05</v>
+      </c>
+      <c r="AA251">
+        <v>-1</v>
+      </c>
+      <c r="AB251">
+        <v>-0.5</v>
+      </c>
+      <c r="AC251">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22870,6 +22870,761 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6775590</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" t="s">
+        <v>35</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.15</v>
+      </c>
+      <c r="L252">
+        <v>3.2</v>
+      </c>
+      <c r="M252">
+        <v>3.4</v>
+      </c>
+      <c r="N252">
+        <v>2.2</v>
+      </c>
+      <c r="O252">
+        <v>2.9</v>
+      </c>
+      <c r="P252">
+        <v>3.6</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
+        <v>1.925</v>
+      </c>
+      <c r="S252">
+        <v>1.925</v>
+      </c>
+      <c r="T252">
+        <v>2</v>
+      </c>
+      <c r="U252">
+        <v>1.9</v>
+      </c>
+      <c r="V252">
+        <v>1.95</v>
+      </c>
+      <c r="W252">
+        <v>1.2</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
+        <v>0.925</v>
+      </c>
+      <c r="AA252">
+        <v>-1</v>
+      </c>
+      <c r="AB252">
+        <v>0</v>
+      </c>
+      <c r="AC252">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6775595</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45401.54166666666</v>
+      </c>
+      <c r="F253" t="s">
+        <v>37</v>
+      </c>
+      <c r="G253" t="s">
+        <v>44</v>
+      </c>
+      <c r="K253">
+        <v>2.375</v>
+      </c>
+      <c r="L253">
+        <v>3.2</v>
+      </c>
+      <c r="M253">
+        <v>3.1</v>
+      </c>
+      <c r="N253">
+        <v>2.375</v>
+      </c>
+      <c r="O253">
+        <v>3.2</v>
+      </c>
+      <c r="P253">
+        <v>3.1</v>
+      </c>
+      <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>1.85</v>
+      </c>
+      <c r="T253">
+        <v>2.25</v>
+      </c>
+      <c r="U253">
+        <v>2.025</v>
+      </c>
+      <c r="V253">
+        <v>1.825</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>6775598</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45401.64583333334</v>
+      </c>
+      <c r="F254" t="s">
+        <v>32</v>
+      </c>
+      <c r="G254" t="s">
+        <v>34</v>
+      </c>
+      <c r="K254">
+        <v>1.571</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>5.75</v>
+      </c>
+      <c r="N254">
+        <v>1.571</v>
+      </c>
+      <c r="O254">
+        <v>4</v>
+      </c>
+      <c r="P254">
+        <v>5.75</v>
+      </c>
+      <c r="Q254">
+        <v>-1</v>
+      </c>
+      <c r="R254">
+        <v>2.025</v>
+      </c>
+      <c r="S254">
+        <v>1.825</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
+        <v>1.925</v>
+      </c>
+      <c r="V254">
+        <v>1.925</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>6775597</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F255" t="s">
+        <v>42</v>
+      </c>
+      <c r="G255" t="s">
+        <v>33</v>
+      </c>
+      <c r="K255">
+        <v>1.85</v>
+      </c>
+      <c r="L255">
+        <v>3.5</v>
+      </c>
+      <c r="M255">
+        <v>4.2</v>
+      </c>
+      <c r="N255">
+        <v>1.85</v>
+      </c>
+      <c r="O255">
+        <v>3.5</v>
+      </c>
+      <c r="P255">
+        <v>4.2</v>
+      </c>
+      <c r="Q255">
+        <v>-0.5</v>
+      </c>
+      <c r="R255">
+        <v>1.875</v>
+      </c>
+      <c r="S255">
+        <v>1.975</v>
+      </c>
+      <c r="T255">
+        <v>2.25</v>
+      </c>
+      <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
+        <v>2.025</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>6774472</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45402.52083333334</v>
+      </c>
+      <c r="F256" t="s">
+        <v>38</v>
+      </c>
+      <c r="G256" t="s">
+        <v>36</v>
+      </c>
+      <c r="K256">
+        <v>2.55</v>
+      </c>
+      <c r="L256">
+        <v>3.3</v>
+      </c>
+      <c r="M256">
+        <v>2.7</v>
+      </c>
+      <c r="N256">
+        <v>2.55</v>
+      </c>
+      <c r="O256">
+        <v>3.3</v>
+      </c>
+      <c r="P256">
+        <v>2.7</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>1.85</v>
+      </c>
+      <c r="S256">
+        <v>2</v>
+      </c>
+      <c r="T256">
+        <v>2.5</v>
+      </c>
+      <c r="U256">
+        <v>2</v>
+      </c>
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>6775594</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F257" t="s">
+        <v>35</v>
+      </c>
+      <c r="G257" t="s">
+        <v>39</v>
+      </c>
+      <c r="K257">
+        <v>2.875</v>
+      </c>
+      <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.375</v>
+      </c>
+      <c r="N257">
+        <v>2.875</v>
+      </c>
+      <c r="O257">
+        <v>3.4</v>
+      </c>
+      <c r="P257">
+        <v>2.375</v>
+      </c>
+      <c r="Q257">
+        <v>0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.775</v>
+      </c>
+      <c r="S257">
+        <v>2.1</v>
+      </c>
+      <c r="T257">
+        <v>2.75</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>6850054</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45403.3125</v>
+      </c>
+      <c r="F258" t="s">
+        <v>46</v>
+      </c>
+      <c r="G258" t="s">
+        <v>47</v>
+      </c>
+      <c r="K258">
+        <v>1.7</v>
+      </c>
+      <c r="L258">
+        <v>3.8</v>
+      </c>
+      <c r="M258">
+        <v>4.75</v>
+      </c>
+      <c r="N258">
+        <v>1.7</v>
+      </c>
+      <c r="O258">
+        <v>3.8</v>
+      </c>
+      <c r="P258">
+        <v>4.75</v>
+      </c>
+      <c r="Q258">
+        <v>-0.75</v>
+      </c>
+      <c r="R258">
+        <v>1.925</v>
+      </c>
+      <c r="S258">
+        <v>1.925</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>1.975</v>
+      </c>
+      <c r="V258">
+        <v>1.875</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>6830603</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45403.41666666666</v>
+      </c>
+      <c r="F259" t="s">
+        <v>43</v>
+      </c>
+      <c r="G259" t="s">
+        <v>41</v>
+      </c>
+      <c r="K259">
+        <v>4.75</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+      <c r="M259">
+        <v>1.65</v>
+      </c>
+      <c r="N259">
+        <v>4.75</v>
+      </c>
+      <c r="O259">
+        <v>4</v>
+      </c>
+      <c r="P259">
+        <v>1.65</v>
+      </c>
+      <c r="Q259">
+        <v>0.75</v>
+      </c>
+      <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
+        <v>1.85</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.975</v>
+      </c>
+      <c r="V259">
+        <v>1.875</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>6775596</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45403.52083333334</v>
+      </c>
+      <c r="F260" t="s">
+        <v>30</v>
+      </c>
+      <c r="G260" t="s">
+        <v>40</v>
+      </c>
+      <c r="K260">
+        <v>1.7</v>
+      </c>
+      <c r="L260">
+        <v>3.6</v>
+      </c>
+      <c r="M260">
+        <v>5</v>
+      </c>
+      <c r="N260">
+        <v>1.7</v>
+      </c>
+      <c r="O260">
+        <v>3.6</v>
+      </c>
+      <c r="P260">
+        <v>5</v>
+      </c>
+      <c r="Q260">
+        <v>-0.75</v>
+      </c>
+      <c r="R260">
+        <v>1.925</v>
+      </c>
+      <c r="S260">
+        <v>1.925</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>2.05</v>
+      </c>
+      <c r="V260">
+        <v>1.8</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>6885526</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45404.58333333334</v>
+      </c>
+      <c r="F261" t="s">
+        <v>29</v>
+      </c>
+      <c r="G261" t="s">
+        <v>31</v>
+      </c>
+      <c r="K261">
+        <v>2.1</v>
+      </c>
+      <c r="L261">
+        <v>3.1</v>
+      </c>
+      <c r="M261">
+        <v>3.8</v>
+      </c>
+      <c r="N261">
+        <v>2.1</v>
+      </c>
+      <c r="O261">
+        <v>3.1</v>
+      </c>
+      <c r="P261">
+        <v>3.8</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>1.8</v>
+      </c>
+      <c r="S261">
+        <v>2.05</v>
+      </c>
+      <c r="T261">
+        <v>2</v>
+      </c>
+      <c r="U261">
+        <v>2.025</v>
+      </c>
+      <c r="V261">
+        <v>1.825</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -23003,10 +23003,10 @@
         <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
         <v>2.25</v>
@@ -23065,22 +23065,22 @@
         <v>5.75</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O254">
         <v>4</v>
       </c>
       <c r="P254">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q254">
         <v>-1</v>
       </c>
       <c r="R254">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T254">
         <v>2.5</v>
@@ -23151,10 +23151,10 @@
         <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S255">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T255">
         <v>2.25</v>
@@ -23225,10 +23225,10 @@
         <v>0</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T256">
         <v>2.5</v>
@@ -23308,10 +23308,10 @@
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23361,31 +23361,31 @@
         <v>4.75</v>
       </c>
       <c r="N258">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O258">
         <v>3.8</v>
       </c>
       <c r="P258">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q258">
         <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S258">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T258">
         <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23435,22 +23435,22 @@
         <v>1.65</v>
       </c>
       <c r="N259">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O259">
         <v>4</v>
       </c>
       <c r="P259">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="Q259">
         <v>0.75</v>
       </c>
       <c r="R259">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S259">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
         <v>2.75</v>
@@ -23521,10 +23521,10 @@
         <v>-0.75</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T260">
         <v>2.5</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC261"/>
+  <dimension ref="A1:AC259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22964,7 +22964,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6775595</v>
+        <v>6775597</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,49 +22973,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45401.54166666666</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K253">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L253">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N253">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P253">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T253">
         <v>2.25</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6775598</v>
+        <v>6774472</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23047,49 +23047,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45401.64583333334</v>
+        <v>45402.52083333334</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K254">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N254">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O254">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V254">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23112,7 +23112,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6775597</v>
+        <v>6775594</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23121,49 +23121,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45402.41666666666</v>
+        <v>45402.625</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K255">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L255">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N255">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="O255">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
+        <v>2.025</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
-      </c>
-      <c r="V255">
-        <v>2.025</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23186,7 +23186,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6774472</v>
+        <v>6850054</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23195,49 +23195,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45402.52083333334</v>
+        <v>45403.3125</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G256" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K256">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M256">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N256">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O256">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P256">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T256">
         <v>2.5</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6775594</v>
+        <v>6830603</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23269,49 +23269,49 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45402.625</v>
+        <v>45403.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K257">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M257">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N257">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="O257">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P257">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="Q257">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R257">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V257">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6850054</v>
+        <v>6775596</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23343,28 +23343,28 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45403.3125</v>
+        <v>45403.52083333334</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K258">
         <v>1.7</v>
       </c>
       <c r="L258">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O258">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P258">
         <v>5</v>
@@ -23373,19 +23373,19 @@
         <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T258">
         <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23408,7 +23408,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6830603</v>
+        <v>6885526</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23417,49 +23417,49 @@
         <v>28</v>
       </c>
       <c r="E259" s="2">
-        <v>45403.41666666666</v>
+        <v>45404.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G259" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K259">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M259">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="N259">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="O259">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P259">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q259">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
+        <v>1.8</v>
+      </c>
+      <c r="S259">
         <v>2.05</v>
       </c>
-      <c r="S259">
-        <v>1.8</v>
-      </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V259">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W259">
         <v>0</v>
@@ -23474,154 +23474,6 @@
         <v>0</v>
       </c>
       <c r="AA259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>6775596</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="2">
-        <v>45403.52083333334</v>
-      </c>
-      <c r="F260" t="s">
-        <v>30</v>
-      </c>
-      <c r="G260" t="s">
-        <v>40</v>
-      </c>
-      <c r="K260">
-        <v>1.7</v>
-      </c>
-      <c r="L260">
-        <v>3.6</v>
-      </c>
-      <c r="M260">
-        <v>5</v>
-      </c>
-      <c r="N260">
-        <v>1.7</v>
-      </c>
-      <c r="O260">
-        <v>3.6</v>
-      </c>
-      <c r="P260">
-        <v>5</v>
-      </c>
-      <c r="Q260">
-        <v>-0.75</v>
-      </c>
-      <c r="R260">
-        <v>1.95</v>
-      </c>
-      <c r="S260">
-        <v>1.9</v>
-      </c>
-      <c r="T260">
-        <v>2.5</v>
-      </c>
-      <c r="U260">
-        <v>2.05</v>
-      </c>
-      <c r="V260">
-        <v>1.8</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>6885526</v>
-      </c>
-      <c r="C261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" t="s">
-        <v>28</v>
-      </c>
-      <c r="E261" s="2">
-        <v>45404.58333333334</v>
-      </c>
-      <c r="F261" t="s">
-        <v>29</v>
-      </c>
-      <c r="G261" t="s">
-        <v>31</v>
-      </c>
-      <c r="K261">
-        <v>2.1</v>
-      </c>
-      <c r="L261">
-        <v>3.1</v>
-      </c>
-      <c r="M261">
-        <v>3.8</v>
-      </c>
-      <c r="N261">
-        <v>2.1</v>
-      </c>
-      <c r="O261">
-        <v>3.1</v>
-      </c>
-      <c r="P261">
-        <v>3.8</v>
-      </c>
-      <c r="Q261">
-        <v>-0.25</v>
-      </c>
-      <c r="R261">
-        <v>1.8</v>
-      </c>
-      <c r="S261">
-        <v>2.05</v>
-      </c>
-      <c r="T261">
-        <v>2</v>
-      </c>
-      <c r="U261">
-        <v>2.025</v>
-      </c>
-      <c r="V261">
-        <v>1.825</v>
-      </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-      <c r="X261">
-        <v>0</v>
-      </c>
-      <c r="Y261">
-        <v>0</v>
-      </c>
-      <c r="Z261">
-        <v>0</v>
-      </c>
-      <c r="AA261">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC259"/>
+  <dimension ref="A1:AC260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22964,7 +22964,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6775597</v>
+        <v>6775595</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,64 +22973,79 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45402.41666666666</v>
+        <v>45401.54166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H253">
+        <v>4</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>49</v>
       </c>
       <c r="K253">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L253">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M253">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O253">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S253">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
         <v>2.25</v>
       </c>
       <c r="U253">
+        <v>2.05</v>
+      </c>
+      <c r="V253">
         <v>1.8</v>
       </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA253">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>1.05</v>
+      </c>
+      <c r="AC253">
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23038,7 +23053,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6774472</v>
+        <v>6775598</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23047,64 +23062,79 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45402.52083333334</v>
+        <v>45401.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G254" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>48</v>
       </c>
       <c r="K254">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="L254">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N254">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P254">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.975</v>
+      </c>
+      <c r="S254">
         <v>1.875</v>
-      </c>
-      <c r="S254">
-        <v>1.975</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23112,7 +23142,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6775594</v>
+        <v>6775597</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23121,49 +23151,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45402.625</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K255">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M255">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N255">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O255">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P255">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
+        <v>1.85</v>
+      </c>
+      <c r="S255">
+        <v>2</v>
+      </c>
+      <c r="T255">
+        <v>2.25</v>
+      </c>
+      <c r="U255">
         <v>1.8</v>
       </c>
-      <c r="S255">
+      <c r="V255">
         <v>2.05</v>
-      </c>
-      <c r="T255">
-        <v>2.75</v>
-      </c>
-      <c r="U255">
-        <v>2.025</v>
-      </c>
-      <c r="V255">
-        <v>1.825</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23186,7 +23216,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6850054</v>
+        <v>6774472</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23195,40 +23225,40 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45403.3125</v>
+        <v>45402.52083333334</v>
       </c>
       <c r="F256" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K256">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L256">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M256">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N256">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O256">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P256">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T256">
         <v>2.5</v>
@@ -23260,7 +23290,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6830603</v>
+        <v>6850054</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23269,43 +23299,43 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45403.41666666666</v>
+        <v>45403.3125</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K257">
+        <v>1.7</v>
+      </c>
+      <c r="L257">
+        <v>3.8</v>
+      </c>
+      <c r="M257">
         <v>4.75</v>
       </c>
-      <c r="L257">
-        <v>4</v>
-      </c>
-      <c r="M257">
-        <v>1.65</v>
-      </c>
       <c r="N257">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O257">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P257">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q257">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T257">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
         <v>1.975</v>
@@ -23334,7 +23364,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6775596</v>
+        <v>6830603</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23343,49 +23373,49 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45403.52083333334</v>
+        <v>45403.41666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G258" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K258">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L258">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M258">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="N258">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O258">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P258">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q258">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S258">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23408,7 +23438,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6885526</v>
+        <v>6775596</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23417,49 +23447,49 @@
         <v>28</v>
       </c>
       <c r="E259" s="2">
-        <v>45404.58333333334</v>
+        <v>45403.52083333334</v>
       </c>
       <c r="F259" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G259" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K259">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L259">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M259">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N259">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O259">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P259">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R259">
+        <v>1.925</v>
+      </c>
+      <c r="S259">
+        <v>1.925</v>
+      </c>
+      <c r="T259">
+        <v>2.5</v>
+      </c>
+      <c r="U259">
+        <v>2.05</v>
+      </c>
+      <c r="V259">
         <v>1.8</v>
-      </c>
-      <c r="S259">
-        <v>2.05</v>
-      </c>
-      <c r="T259">
-        <v>2</v>
-      </c>
-      <c r="U259">
-        <v>2.025</v>
-      </c>
-      <c r="V259">
-        <v>1.825</v>
       </c>
       <c r="W259">
         <v>0</v>
@@ -23474,6 +23504,80 @@
         <v>0</v>
       </c>
       <c r="AA259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>6885526</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45404.58333333334</v>
+      </c>
+      <c r="F260" t="s">
+        <v>29</v>
+      </c>
+      <c r="G260" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260">
+        <v>2.1</v>
+      </c>
+      <c r="L260">
+        <v>3.1</v>
+      </c>
+      <c r="M260">
+        <v>3.8</v>
+      </c>
+      <c r="N260">
+        <v>2.1</v>
+      </c>
+      <c r="O260">
+        <v>3.1</v>
+      </c>
+      <c r="P260">
+        <v>3.8</v>
+      </c>
+      <c r="Q260">
+        <v>-0.25</v>
+      </c>
+      <c r="R260">
+        <v>1.8</v>
+      </c>
+      <c r="S260">
+        <v>2.05</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>2.025</v>
+      </c>
+      <c r="V260">
+        <v>1.825</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC260"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23142,7 +23142,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6775597</v>
+        <v>6775596</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,49 +23151,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45402.41666666666</v>
+        <v>45403.52083333334</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G255" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K255">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L255">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O255">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V255">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23216,7 +23216,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6774472</v>
+        <v>6885526</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23225,49 +23225,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45402.52083333334</v>
+        <v>45404.58333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G256" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K256">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M256">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N256">
         <v>2.1</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P256">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q256">
         <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S256">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23282,302 +23282,6 @@
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>6850054</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45403.3125</v>
-      </c>
-      <c r="F257" t="s">
-        <v>46</v>
-      </c>
-      <c r="G257" t="s">
-        <v>47</v>
-      </c>
-      <c r="K257">
-        <v>1.7</v>
-      </c>
-      <c r="L257">
-        <v>3.8</v>
-      </c>
-      <c r="M257">
-        <v>4.75</v>
-      </c>
-      <c r="N257">
-        <v>1.7</v>
-      </c>
-      <c r="O257">
-        <v>3.8</v>
-      </c>
-      <c r="P257">
-        <v>4.75</v>
-      </c>
-      <c r="Q257">
-        <v>-0.75</v>
-      </c>
-      <c r="R257">
-        <v>1.9</v>
-      </c>
-      <c r="S257">
-        <v>1.95</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.975</v>
-      </c>
-      <c r="V257">
-        <v>1.875</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>6830603</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" t="s">
-        <v>28</v>
-      </c>
-      <c r="E258" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="F258" t="s">
-        <v>43</v>
-      </c>
-      <c r="G258" t="s">
-        <v>41</v>
-      </c>
-      <c r="K258">
-        <v>4.75</v>
-      </c>
-      <c r="L258">
-        <v>4</v>
-      </c>
-      <c r="M258">
-        <v>1.65</v>
-      </c>
-      <c r="N258">
-        <v>5.25</v>
-      </c>
-      <c r="O258">
-        <v>4</v>
-      </c>
-      <c r="P258">
-        <v>1.6</v>
-      </c>
-      <c r="Q258">
-        <v>1</v>
-      </c>
-      <c r="R258">
-        <v>1.825</v>
-      </c>
-      <c r="S258">
-        <v>2.025</v>
-      </c>
-      <c r="T258">
-        <v>2.75</v>
-      </c>
-      <c r="U258">
-        <v>1.975</v>
-      </c>
-      <c r="V258">
-        <v>1.875</v>
-      </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-      <c r="X258">
-        <v>0</v>
-      </c>
-      <c r="Y258">
-        <v>0</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-      <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>6775596</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45403.52083333334</v>
-      </c>
-      <c r="F259" t="s">
-        <v>30</v>
-      </c>
-      <c r="G259" t="s">
-        <v>40</v>
-      </c>
-      <c r="K259">
-        <v>1.7</v>
-      </c>
-      <c r="L259">
-        <v>3.6</v>
-      </c>
-      <c r="M259">
-        <v>5</v>
-      </c>
-      <c r="N259">
-        <v>1.7</v>
-      </c>
-      <c r="O259">
-        <v>3.6</v>
-      </c>
-      <c r="P259">
-        <v>5</v>
-      </c>
-      <c r="Q259">
-        <v>-0.75</v>
-      </c>
-      <c r="R259">
-        <v>1.925</v>
-      </c>
-      <c r="S259">
-        <v>1.925</v>
-      </c>
-      <c r="T259">
-        <v>2.5</v>
-      </c>
-      <c r="U259">
-        <v>2.05</v>
-      </c>
-      <c r="V259">
-        <v>1.8</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>6885526</v>
-      </c>
-      <c r="C260" t="s">
-        <v>28</v>
-      </c>
-      <c r="D260" t="s">
-        <v>28</v>
-      </c>
-      <c r="E260" s="2">
-        <v>45404.58333333334</v>
-      </c>
-      <c r="F260" t="s">
-        <v>29</v>
-      </c>
-      <c r="G260" t="s">
-        <v>31</v>
-      </c>
-      <c r="K260">
-        <v>2.1</v>
-      </c>
-      <c r="L260">
-        <v>3.1</v>
-      </c>
-      <c r="M260">
-        <v>3.8</v>
-      </c>
-      <c r="N260">
-        <v>2.1</v>
-      </c>
-      <c r="O260">
-        <v>3.1</v>
-      </c>
-      <c r="P260">
-        <v>3.8</v>
-      </c>
-      <c r="Q260">
-        <v>-0.25</v>
-      </c>
-      <c r="R260">
-        <v>1.8</v>
-      </c>
-      <c r="S260">
-        <v>2.05</v>
-      </c>
-      <c r="T260">
-        <v>2</v>
-      </c>
-      <c r="U260">
-        <v>2.025</v>
-      </c>
-      <c r="V260">
-        <v>1.825</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23142,7 +23142,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6775596</v>
+        <v>6775597</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23151,64 +23151,79 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45403.52083333334</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>48</v>
       </c>
       <c r="K255">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M255">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N255">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
+        <v>2.025</v>
+      </c>
+      <c r="S255">
         <v>1.825</v>
-      </c>
-      <c r="S255">
-        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB255">
+        <v>-0.5</v>
+      </c>
+      <c r="AC255">
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23216,7 +23231,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6885526</v>
+        <v>6774472</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23225,43 +23240,52 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45404.58333333334</v>
+        <v>45402.52083333334</v>
       </c>
       <c r="F256" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G256" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H256">
+        <v>2</v>
+      </c>
+      <c r="I256">
+        <v>3</v>
+      </c>
+      <c r="J256" t="s">
+        <v>48</v>
       </c>
       <c r="K256">
+        <v>2.55</v>
+      </c>
+      <c r="L256">
+        <v>3.3</v>
+      </c>
+      <c r="M256">
+        <v>2.7</v>
+      </c>
+      <c r="N256">
+        <v>2.45</v>
+      </c>
+      <c r="O256">
+        <v>3.3</v>
+      </c>
+      <c r="P256">
+        <v>2.875</v>
+      </c>
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>1.775</v>
+      </c>
+      <c r="S256">
         <v>2.1</v>
       </c>
-      <c r="L256">
-        <v>3.1</v>
-      </c>
-      <c r="M256">
-        <v>3.8</v>
-      </c>
-      <c r="N256">
-        <v>2.1</v>
-      </c>
-      <c r="O256">
-        <v>3.1</v>
-      </c>
-      <c r="P256">
-        <v>3.8</v>
-      </c>
-      <c r="Q256">
-        <v>-0.25</v>
-      </c>
-      <c r="R256">
-        <v>1.8</v>
-      </c>
-      <c r="S256">
-        <v>2.05</v>
-      </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
         <v>2.025</v>
@@ -23270,18 +23294,350 @@
         <v>1.825</v>
       </c>
       <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>1.875</v>
+      </c>
+      <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
+        <v>1.1</v>
+      </c>
+      <c r="AB256">
+        <v>1.025</v>
+      </c>
+      <c r="AC256">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>6775594</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45402.625</v>
+      </c>
+      <c r="F257" t="s">
+        <v>35</v>
+      </c>
+      <c r="G257" t="s">
+        <v>39</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>48</v>
+      </c>
+      <c r="K257">
+        <v>2.875</v>
+      </c>
+      <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.375</v>
+      </c>
+      <c r="N257">
+        <v>2.9</v>
+      </c>
+      <c r="O257">
+        <v>3.4</v>
+      </c>
+      <c r="P257">
+        <v>2.3</v>
+      </c>
+      <c r="Q257">
         <v>0</v>
       </c>
-      <c r="X256">
+      <c r="R257">
+        <v>2.05</v>
+      </c>
+      <c r="S257">
+        <v>1.8</v>
+      </c>
+      <c r="T257">
+        <v>2.75</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
+        <v>1.3</v>
+      </c>
+      <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.8</v>
+      </c>
+      <c r="AB257">
+        <v>0.5</v>
+      </c>
+      <c r="AC257">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>6850054</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45403.3125</v>
+      </c>
+      <c r="F258" t="s">
+        <v>46</v>
+      </c>
+      <c r="G258" t="s">
+        <v>47</v>
+      </c>
+      <c r="H258">
         <v>0</v>
       </c>
-      <c r="Y256">
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>48</v>
+      </c>
+      <c r="K258">
+        <v>1.7</v>
+      </c>
+      <c r="L258">
+        <v>3.8</v>
+      </c>
+      <c r="M258">
+        <v>4.75</v>
+      </c>
+      <c r="N258">
+        <v>1.727</v>
+      </c>
+      <c r="O258">
+        <v>3.75</v>
+      </c>
+      <c r="P258">
+        <v>4.75</v>
+      </c>
+      <c r="Q258">
+        <v>-0.75</v>
+      </c>
+      <c r="R258">
+        <v>1.975</v>
+      </c>
+      <c r="S258">
+        <v>1.875</v>
+      </c>
+      <c r="T258">
+        <v>2.25</v>
+      </c>
+      <c r="U258">
+        <v>1.8</v>
+      </c>
+      <c r="V258">
+        <v>2.05</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>3.75</v>
+      </c>
+      <c r="Z258">
+        <v>-1</v>
+      </c>
+      <c r="AA258">
+        <v>0.875</v>
+      </c>
+      <c r="AB258">
+        <v>-1</v>
+      </c>
+      <c r="AC258">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>6775596</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45403.52083333334</v>
+      </c>
+      <c r="F259" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" t="s">
+        <v>40</v>
+      </c>
+      <c r="K259">
+        <v>1.7</v>
+      </c>
+      <c r="L259">
+        <v>3.6</v>
+      </c>
+      <c r="M259">
+        <v>5</v>
+      </c>
+      <c r="N259">
+        <v>1.65</v>
+      </c>
+      <c r="O259">
+        <v>3.6</v>
+      </c>
+      <c r="P259">
+        <v>5.75</v>
+      </c>
+      <c r="Q259">
+        <v>-0.75</v>
+      </c>
+      <c r="R259">
+        <v>1.825</v>
+      </c>
+      <c r="S259">
+        <v>2.025</v>
+      </c>
+      <c r="T259">
+        <v>2.25</v>
+      </c>
+      <c r="U259">
+        <v>1.95</v>
+      </c>
+      <c r="V259">
+        <v>1.9</v>
+      </c>
+      <c r="W259">
         <v>0</v>
       </c>
-      <c r="Z256">
+      <c r="X259">
         <v>0</v>
       </c>
-      <c r="AA256">
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>6885526</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45404.58333333334</v>
+      </c>
+      <c r="F260" t="s">
+        <v>29</v>
+      </c>
+      <c r="G260" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260">
+        <v>2.1</v>
+      </c>
+      <c r="L260">
+        <v>3.1</v>
+      </c>
+      <c r="M260">
+        <v>3.8</v>
+      </c>
+      <c r="N260">
+        <v>2.1</v>
+      </c>
+      <c r="O260">
+        <v>3.1</v>
+      </c>
+      <c r="P260">
+        <v>3.8</v>
+      </c>
+      <c r="Q260">
+        <v>-0.25</v>
+      </c>
+      <c r="R260">
+        <v>1.8</v>
+      </c>
+      <c r="S260">
+        <v>2.05</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>2.025</v>
+      </c>
+      <c r="V260">
+        <v>1.825</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -23042,19 +23042,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q262">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T262">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U262">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V262">
         <v>0</v>
@@ -23095,31 +23095,31 @@
         <v>3.1</v>
       </c>
       <c r="M263">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N263">
         <v>3.75</v>
       </c>
       <c r="O263">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P263">
         <v>-0.25</v>
       </c>
       <c r="Q263">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R263">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S263">
         <v>3</v>
       </c>
       <c r="T263">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V263">
         <v>0</v>
@@ -23181,10 +23181,10 @@
         <v>2.75</v>
       </c>
       <c r="T264">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V264">
         <v>0</v>
@@ -23225,22 +23225,22 @@
         <v>3.75</v>
       </c>
       <c r="M265">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N265">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P265">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q265">
+        <v>1.8</v>
+      </c>
+      <c r="R265">
         <v>2.05</v>
-      </c>
-      <c r="R265">
-        <v>1.8</v>
       </c>
       <c r="S265">
         <v>2.25</v>
@@ -23311,10 +23311,10 @@
         <v>2.5</v>
       </c>
       <c r="T266">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U266">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V266">
         <v>0</v>
@@ -23367,10 +23367,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q267">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R267">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
         <v>2.5</v>
@@ -23485,22 +23485,22 @@
         <v>4.2</v>
       </c>
       <c r="M269">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="N269">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O269">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P269">
         <v>-0.5</v>
       </c>
       <c r="Q269">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R269">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S269">
         <v>2.25</v>
@@ -23550,22 +23550,22 @@
         <v>2.55</v>
       </c>
       <c r="M270">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N270">
         <v>3.2</v>
       </c>
       <c r="O270">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q270">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R270">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S270">
         <v>2.25</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6876422</t>
-  </si>
-  <si>
-    <t>6921816</t>
   </si>
   <si>
     <t>6775599</t>
@@ -552,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB270"/>
+  <dimension ref="A1:AB268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,16 +643,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -667,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -735,16 +729,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -753,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -821,16 +815,16 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -839,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -907,16 +901,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -925,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -993,16 +987,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1011,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1079,16 +1073,16 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1097,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1165,16 +1159,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1183,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1251,16 +1245,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1269,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1337,16 +1331,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1355,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1423,16 +1417,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1441,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1509,16 +1503,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1527,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1595,16 +1589,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1613,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1681,16 +1675,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1699,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1767,17 +1761,17 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -1785,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1853,16 +1847,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1871,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1939,16 +1933,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1957,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2025,16 +2019,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2043,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2111,16 +2105,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2129,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2197,16 +2191,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2215,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2283,16 +2277,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2301,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2369,16 +2363,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2387,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2455,16 +2449,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2473,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2541,16 +2535,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2559,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2627,16 +2621,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2645,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2713,16 +2707,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2731,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2799,16 +2793,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2817,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2885,16 +2879,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2903,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2971,16 +2965,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2989,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3057,16 +3051,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3075,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3143,17 +3137,17 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -3161,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3229,16 +3223,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3247,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3315,16 +3309,16 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3333,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3401,16 +3395,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3419,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3487,16 +3481,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
         <v>42</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3505,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3573,16 +3567,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3591,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3659,16 +3653,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3677,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3745,16 +3739,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3763,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3831,16 +3825,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3849,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3917,16 +3911,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3935,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -4003,16 +3997,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4021,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4089,16 +4083,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4107,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4175,16 +4169,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4193,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4261,16 +4255,16 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4279,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4347,16 +4341,16 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4365,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4433,16 +4427,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4451,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4519,16 +4513,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4537,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4605,16 +4599,16 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4623,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4691,16 +4685,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4709,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4777,16 +4771,16 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4795,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4863,16 +4857,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4881,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4949,16 +4943,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4967,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5035,16 +5029,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5053,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5121,16 +5115,16 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5139,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5207,16 +5201,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5225,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5293,16 +5287,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5311,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5379,16 +5373,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5397,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5465,16 +5459,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5483,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5551,16 +5545,16 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5569,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5637,16 +5631,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5655,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5723,16 +5717,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5741,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5809,16 +5803,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5827,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5895,16 +5889,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5913,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5981,16 +5975,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5999,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6067,16 +6061,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6085,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6153,16 +6147,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6171,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6239,16 +6233,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6257,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6325,16 +6319,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6343,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6411,16 +6405,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6429,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6497,16 +6491,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6515,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6583,16 +6577,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6601,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6669,16 +6663,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6687,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6755,16 +6749,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6773,7 +6767,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6841,16 +6835,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6859,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6927,16 +6921,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6945,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -7013,16 +7007,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7031,7 +7025,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7099,16 +7093,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7117,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7185,16 +7179,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7203,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7271,16 +7265,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7289,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7357,16 +7351,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7375,7 +7369,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7443,16 +7437,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7461,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7529,25 +7523,25 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
         <v>54</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>56</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7615,16 +7609,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7633,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7701,16 +7695,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7719,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7787,16 +7781,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7805,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7873,16 +7867,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7891,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7959,16 +7953,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7977,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8045,16 +8039,16 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8063,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8131,16 +8125,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8149,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8217,16 +8211,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8235,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8303,16 +8297,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8321,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8389,16 +8383,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8407,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8475,16 +8469,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8493,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8561,16 +8555,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8579,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8647,16 +8641,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8665,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8733,16 +8727,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8751,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8819,16 +8813,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
         <v>38</v>
-      </c>
-      <c r="F97" t="s">
-        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8837,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8905,16 +8899,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8923,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8991,16 +8985,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9009,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9077,16 +9071,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9095,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9163,16 +9157,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9181,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9249,16 +9243,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
         <v>49</v>
-      </c>
-      <c r="F102" t="s">
-        <v>51</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9267,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9335,16 +9329,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9353,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9421,16 +9415,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9439,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9507,16 +9501,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9525,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9593,16 +9587,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9611,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9679,16 +9673,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9697,7 +9691,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9765,16 +9759,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9783,7 +9777,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9851,16 +9845,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9869,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9937,16 +9931,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9955,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -10023,16 +10017,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10041,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10109,17 +10103,17 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
         <v>46</v>
       </c>
-      <c r="F112" t="s">
-        <v>48</v>
-      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -10127,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10195,16 +10189,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10213,7 +10207,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10281,16 +10275,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10299,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10367,16 +10361,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10385,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10453,16 +10447,16 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10471,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10539,16 +10533,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10557,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10625,16 +10619,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10643,7 +10637,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10711,16 +10705,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10729,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10797,16 +10791,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10815,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10883,16 +10877,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10901,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10969,16 +10963,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10987,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11055,16 +11049,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11073,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11141,16 +11135,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11159,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11227,16 +11221,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11245,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11313,16 +11307,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11331,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11399,16 +11393,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11417,7 +11411,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11485,16 +11479,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11503,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11571,17 +11565,17 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
         <v>45</v>
       </c>
-      <c r="F129" t="s">
-        <v>47</v>
-      </c>
       <c r="G129">
         <v>2</v>
       </c>
@@ -11589,7 +11583,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11657,16 +11651,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11675,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11743,16 +11737,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11761,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11829,16 +11823,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11847,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11915,16 +11909,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11933,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -12001,16 +11995,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s">
         <v>44</v>
-      </c>
-      <c r="F134" t="s">
-        <v>46</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12019,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12087,16 +12081,16 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12105,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12173,16 +12167,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12191,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12259,16 +12253,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12277,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12345,16 +12339,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12363,7 +12357,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12431,16 +12425,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12449,7 +12443,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12517,16 +12511,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12535,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12603,16 +12597,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12621,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12689,16 +12683,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12707,7 +12701,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12775,16 +12769,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12793,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12861,16 +12855,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12879,7 +12873,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12947,16 +12941,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12965,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13033,16 +13027,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13051,7 +13045,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13119,16 +13113,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13137,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13205,16 +13199,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13223,7 +13217,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13291,16 +13285,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13309,7 +13303,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13377,16 +13371,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13395,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13463,16 +13457,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13481,7 +13475,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13549,16 +13543,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13567,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13635,16 +13629,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13653,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13721,16 +13715,16 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13739,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13807,16 +13801,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13825,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13893,16 +13887,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13911,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13979,16 +13973,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13997,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14065,16 +14059,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14083,7 +14077,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14151,16 +14145,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14169,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14237,16 +14231,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14255,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14323,16 +14317,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14341,7 +14335,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14409,16 +14403,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14427,7 +14421,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14495,16 +14489,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14513,7 +14507,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14581,16 +14575,16 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14599,7 +14593,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14667,16 +14661,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14685,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14753,16 +14747,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14771,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14839,16 +14833,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14857,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14925,16 +14919,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14943,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -15011,16 +15005,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15029,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15097,16 +15091,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15115,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15183,16 +15177,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15201,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15269,16 +15263,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15287,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15355,16 +15349,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15373,7 +15367,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15441,16 +15435,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15459,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15527,16 +15521,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15545,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15613,16 +15607,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15631,7 +15625,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15699,16 +15693,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
+        <v>46</v>
+      </c>
+      <c r="F177" t="s">
         <v>48</v>
-      </c>
-      <c r="F177" t="s">
-        <v>50</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15717,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15785,16 +15779,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15803,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15871,16 +15865,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15889,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15957,16 +15951,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15975,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16043,16 +16037,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16061,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16129,16 +16123,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" t="s">
         <v>47</v>
-      </c>
-      <c r="F182" t="s">
-        <v>49</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16147,7 +16141,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16215,16 +16209,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16233,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16301,16 +16295,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16319,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16387,16 +16381,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16405,7 +16399,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16473,16 +16467,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16491,7 +16485,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16559,16 +16553,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16577,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16645,16 +16639,16 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16663,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16731,16 +16725,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16749,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16817,16 +16811,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16835,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16903,16 +16897,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16921,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16989,16 +16983,16 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17007,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17075,16 +17069,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17093,7 +17087,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17161,16 +17155,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17179,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17247,16 +17241,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17265,7 +17259,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17333,16 +17327,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17351,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17419,16 +17413,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17437,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17505,16 +17499,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17523,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17591,16 +17585,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17609,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17677,16 +17671,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17695,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17763,16 +17757,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17781,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17849,16 +17843,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17867,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17935,16 +17929,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45354.35416666666</v>
       </c>
       <c r="E203" t="s">
+        <v>49</v>
+      </c>
+      <c r="F203" t="s">
         <v>51</v>
-      </c>
-      <c r="F203" t="s">
-        <v>53</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17953,7 +17947,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J203">
         <v>2.45</v>
@@ -18021,16 +18015,16 @@
         <v>6775556</v>
       </c>
       <c r="C204" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="s">
         <v>43</v>
-      </c>
-      <c r="F204" t="s">
-        <v>45</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18039,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J204">
         <v>2.05</v>
@@ -18107,16 +18101,16 @@
         <v>6775559</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18125,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J205">
         <v>1.95</v>
@@ -18193,16 +18187,16 @@
         <v>6775558</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45355.625</v>
       </c>
       <c r="E206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18211,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J206">
         <v>2.05</v>
@@ -18279,16 +18273,16 @@
         <v>6775564</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45359.58333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18297,7 +18291,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18365,16 +18359,16 @@
         <v>6775562</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45359.6875</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18383,7 +18377,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>1.952</v>
@@ -18451,16 +18445,16 @@
         <v>6775563</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18469,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J209">
         <v>2.625</v>
@@ -18537,16 +18531,16 @@
         <v>6774879</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18555,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J210">
         <v>4.75</v>
@@ -18623,16 +18617,16 @@
         <v>6775561</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18641,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J211">
         <v>3</v>
@@ -18709,16 +18703,16 @@
         <v>6774464</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -18727,7 +18721,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18795,16 +18789,16 @@
         <v>6775565</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18813,7 +18807,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18881,16 +18875,16 @@
         <v>6775566</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18899,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J214">
         <v>3.5</v>
@@ -18967,16 +18961,16 @@
         <v>6774465</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45362.625</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18985,7 +18979,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19053,16 +19047,16 @@
         <v>7917193</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45364.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19071,7 +19065,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J216">
         <v>4</v>
@@ -19139,16 +19133,16 @@
         <v>6775568</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45366.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19157,7 +19151,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19225,16 +19219,16 @@
         <v>6775570</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45366.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19243,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19311,16 +19305,16 @@
         <v>6775567</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45367.35416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19329,7 +19323,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J219">
         <v>1.95</v>
@@ -19397,16 +19391,16 @@
         <v>6775572</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19415,7 +19409,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J220">
         <v>2.625</v>
@@ -19483,16 +19477,16 @@
         <v>6774466</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45367.5625</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19501,7 +19495,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19569,16 +19563,16 @@
         <v>6774878</v>
       </c>
       <c r="C222" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19587,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J222">
         <v>1.666</v>
@@ -19655,16 +19649,16 @@
         <v>6775569</v>
       </c>
       <c r="C223" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F223" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19673,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J223">
         <v>3.4</v>
@@ -19741,16 +19735,16 @@
         <v>6774467</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19759,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J224">
         <v>5.5</v>
@@ -19827,16 +19821,16 @@
         <v>6775571</v>
       </c>
       <c r="C225" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19845,7 +19839,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J225">
         <v>1.75</v>
@@ -19913,16 +19907,16 @@
         <v>6774469</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19931,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J226">
         <v>1.4</v>
@@ -19999,16 +19993,16 @@
         <v>6774468</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G227">
         <v>6</v>
@@ -20017,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20085,16 +20079,16 @@
         <v>6775574</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20103,7 +20097,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J228">
         <v>2.1</v>
@@ -20171,16 +20165,16 @@
         <v>6775575</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20189,7 +20183,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20257,16 +20251,16 @@
         <v>6774877</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45383.3125</v>
       </c>
       <c r="E230" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20275,7 +20269,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J230">
         <v>2.625</v>
@@ -20343,16 +20337,16 @@
         <v>6775576</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20361,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20429,16 +20423,16 @@
         <v>6775578</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45383.52083333334</v>
       </c>
       <c r="E232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20447,7 +20441,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20515,16 +20509,16 @@
         <v>6775573</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45383.625</v>
       </c>
       <c r="E233" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20533,7 +20527,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J233">
         <v>3.6</v>
@@ -20601,16 +20595,16 @@
         <v>6775577</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20619,7 +20613,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J234">
         <v>2.9</v>
@@ -20687,16 +20681,16 @@
         <v>6774470</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E235" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20705,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J235">
         <v>1.5</v>
@@ -20773,16 +20767,16 @@
         <v>6775585</v>
       </c>
       <c r="C236" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20791,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -20859,16 +20853,16 @@
         <v>6775582</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20877,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J237">
         <v>1.8</v>
@@ -20945,16 +20939,16 @@
         <v>6774876</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E238" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20963,7 +20957,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J238">
         <v>1.85</v>
@@ -21031,16 +21025,16 @@
         <v>6775587</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
         <v>45388.625</v>
       </c>
       <c r="E239" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21049,7 +21043,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21117,16 +21111,16 @@
         <v>6775586</v>
       </c>
       <c r="C240" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21135,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J240">
         <v>2.5</v>
@@ -21203,16 +21197,16 @@
         <v>6775583</v>
       </c>
       <c r="C241" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21221,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J241">
         <v>2.5</v>
@@ -21289,16 +21283,16 @@
         <v>6775584</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D242" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21307,7 +21301,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21375,16 +21369,16 @@
         <v>6775579</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D243" s="2">
         <v>45390.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21393,7 +21387,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J243">
         <v>2.2</v>
@@ -21461,16 +21455,16 @@
         <v>6775592</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>45394.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21479,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21547,16 +21541,16 @@
         <v>6774471</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21565,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J245">
         <v>1.5</v>
@@ -21633,16 +21627,16 @@
         <v>6850053</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21651,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J246">
         <v>2.8</v>
@@ -21719,16 +21713,16 @@
         <v>6774875</v>
       </c>
       <c r="C247" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D247" s="2">
         <v>45395.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21737,7 +21731,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J247">
         <v>4.333</v>
@@ -21805,16 +21799,16 @@
         <v>6775591</v>
       </c>
       <c r="C248" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2">
         <v>45395.625</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21823,7 +21817,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J248">
         <v>2.25</v>
@@ -21891,16 +21885,16 @@
         <v>6775593</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D249" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E249" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21909,7 +21903,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J249">
         <v>3.5</v>
@@ -21977,16 +21971,16 @@
         <v>6775589</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D250" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21995,7 +21989,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -22063,16 +22057,16 @@
         <v>6775588</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D251" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22081,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J251">
         <v>2.25</v>
@@ -22149,17 +22143,17 @@
         <v>6775590</v>
       </c>
       <c r="C252" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E252" t="s">
+        <v>39</v>
+      </c>
+      <c r="F252" t="s">
         <v>41</v>
       </c>
-      <c r="F252" t="s">
-        <v>43</v>
-      </c>
       <c r="G252">
         <v>2</v>
       </c>
@@ -22167,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22235,16 +22229,16 @@
         <v>6775595</v>
       </c>
       <c r="C253" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D253" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22253,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22321,16 +22315,16 @@
         <v>6775598</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D254" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" t="s">
         <v>40</v>
-      </c>
-      <c r="F254" t="s">
-        <v>42</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22339,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J254">
         <v>1.571</v>
@@ -22407,16 +22401,16 @@
         <v>6775597</v>
       </c>
       <c r="C255" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22425,7 +22419,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J255">
         <v>1.85</v>
@@ -22493,16 +22487,16 @@
         <v>6774472</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D256" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22511,7 +22505,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J256">
         <v>2.55</v>
@@ -22579,16 +22573,16 @@
         <v>6775594</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D257" s="2">
         <v>45402.625</v>
       </c>
       <c r="E257" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22597,7 +22591,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J257">
         <v>2.875</v>
@@ -22665,16 +22659,16 @@
         <v>6850054</v>
       </c>
       <c r="C258" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D258" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F258" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22683,7 +22677,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J258">
         <v>1.7</v>
@@ -22751,16 +22745,16 @@
         <v>6830603</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F259" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22769,7 +22763,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J259">
         <v>4.75</v>
@@ -22837,16 +22831,16 @@
         <v>6775596</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D260" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22855,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J260">
         <v>1.7</v>
@@ -22923,16 +22917,16 @@
         <v>6885526</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D261" s="2">
         <v>45404.58333333334</v>
       </c>
       <c r="E261" t="s">
+        <v>35</v>
+      </c>
+      <c r="F261" t="s">
         <v>37</v>
-      </c>
-      <c r="F261" t="s">
-        <v>39</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -22941,7 +22935,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J261">
         <v>2.1</v>
@@ -23009,52 +23003,52 @@
         <v>27</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D262" s="2">
-        <v>45408.54166666666</v>
+        <v>45409.41666666666</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J262">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="K262">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L262">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M262">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="N262">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O262">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P262">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q262">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T262">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="U262">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
         <v>0</v>
@@ -23074,52 +23068,52 @@
         <v>28</v>
       </c>
       <c r="C263" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D263" s="2">
-        <v>45408.64583333334</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F263" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J263">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K263">
+        <v>3.3</v>
+      </c>
+      <c r="L263">
         <v>3.75</v>
       </c>
-      <c r="L263">
-        <v>3.1</v>
-      </c>
       <c r="M263">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N263">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O263">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P263">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q263">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R263">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T263">
+        <v>1.95</v>
+      </c>
+      <c r="U263">
         <v>1.9</v>
-      </c>
-      <c r="U263">
-        <v>1.95</v>
       </c>
       <c r="V263">
         <v>0</v>
@@ -23139,52 +23133,52 @@
         <v>29</v>
       </c>
       <c r="C264" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D264" s="2">
-        <v>45409.41666666666</v>
+        <v>45409.625</v>
       </c>
       <c r="E264" t="s">
         <v>42</v>
       </c>
       <c r="F264" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J264">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K264">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L264">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M264">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="N264">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O264">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="P264">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R264">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T264">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U264">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
         <v>0</v>
@@ -23204,52 +23198,52 @@
         <v>30</v>
       </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D265" s="2">
-        <v>45409.52083333334</v>
+        <v>45410.3125</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J265">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K265">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L265">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M265">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N265">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P265">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q265">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R265">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S265">
         <v>2.25</v>
       </c>
       <c r="T265">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V265">
         <v>0</v>
@@ -23269,52 +23263,52 @@
         <v>31</v>
       </c>
       <c r="C266" t="s">
+        <v>34</v>
+      </c>
+      <c r="D266" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="E266" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" t="s">
         <v>36</v>
       </c>
-      <c r="D266" s="2">
-        <v>45409.625</v>
-      </c>
-      <c r="E266" t="s">
-        <v>44</v>
-      </c>
-      <c r="F266" t="s">
-        <v>40</v>
-      </c>
       <c r="J266">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K266">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L266">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="M266">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N266">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O266">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P266">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q266">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R266">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
         <v>2.5</v>
       </c>
       <c r="T266">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V266">
         <v>0</v>
@@ -23334,52 +23328,52 @@
         <v>32</v>
       </c>
       <c r="C267" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2">
-        <v>45410.3125</v>
+        <v>45410.52083333334</v>
       </c>
       <c r="E267" t="s">
+        <v>47</v>
+      </c>
+      <c r="F267" t="s">
         <v>52</v>
       </c>
-      <c r="F267" t="s">
-        <v>43</v>
-      </c>
       <c r="J267">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="K267">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L267">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M267">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N267">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P267">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q267">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
         <v>2.5</v>
       </c>
       <c r="T267">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U267">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
         <v>0</v>
@@ -23399,53 +23393,53 @@
         <v>33</v>
       </c>
       <c r="C268" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D268" s="2">
-        <v>45410.41666666666</v>
+        <v>45411.58333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J268">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="K268">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L268">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="M268">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N268">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O268">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="P268">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q268">
+        <v>2.05</v>
+      </c>
+      <c r="R268">
+        <v>1.8</v>
+      </c>
+      <c r="S268">
+        <v>2.25</v>
+      </c>
+      <c r="T268">
         <v>1.925</v>
       </c>
-      <c r="R268">
+      <c r="U268">
         <v>1.925</v>
       </c>
-      <c r="S268">
-        <v>2.5</v>
-      </c>
-      <c r="T268">
-        <v>1.975</v>
-      </c>
-      <c r="U268">
-        <v>1.875</v>
-      </c>
       <c r="V268">
         <v>0</v>
       </c>
@@ -23453,136 +23447,6 @@
         <v>0</v>
       </c>
       <c r="X268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:28">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>34</v>
-      </c>
-      <c r="C269" t="s">
-        <v>36</v>
-      </c>
-      <c r="D269" s="2">
-        <v>45410.52083333334</v>
-      </c>
-      <c r="E269" t="s">
-        <v>49</v>
-      </c>
-      <c r="F269" t="s">
-        <v>54</v>
-      </c>
-      <c r="J269">
-        <v>1.833</v>
-      </c>
-      <c r="K269">
-        <v>3.6</v>
-      </c>
-      <c r="L269">
-        <v>4.2</v>
-      </c>
-      <c r="M269">
-        <v>1.95</v>
-      </c>
-      <c r="N269">
-        <v>3.5</v>
-      </c>
-      <c r="O269">
-        <v>3.8</v>
-      </c>
-      <c r="P269">
-        <v>-0.5</v>
-      </c>
-      <c r="Q269">
-        <v>1.95</v>
-      </c>
-      <c r="R269">
-        <v>1.9</v>
-      </c>
-      <c r="S269">
-        <v>2.25</v>
-      </c>
-      <c r="T269">
-        <v>1.825</v>
-      </c>
-      <c r="U269">
-        <v>2.025</v>
-      </c>
-      <c r="V269">
-        <v>0</v>
-      </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-      <c r="X269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:28">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>35</v>
-      </c>
-      <c r="C270" t="s">
-        <v>36</v>
-      </c>
-      <c r="D270" s="2">
-        <v>45411.58333333334</v>
-      </c>
-      <c r="E270" t="s">
-        <v>55</v>
-      </c>
-      <c r="F270" t="s">
-        <v>45</v>
-      </c>
-      <c r="J270">
-        <v>2.8</v>
-      </c>
-      <c r="K270">
-        <v>3.2</v>
-      </c>
-      <c r="L270">
-        <v>2.55</v>
-      </c>
-      <c r="M270">
-        <v>2.875</v>
-      </c>
-      <c r="N270">
-        <v>3.2</v>
-      </c>
-      <c r="O270">
-        <v>2.5</v>
-      </c>
-      <c r="P270">
-        <v>0</v>
-      </c>
-      <c r="Q270">
-        <v>2.05</v>
-      </c>
-      <c r="R270">
-        <v>1.8</v>
-      </c>
-      <c r="S270">
-        <v>2.25</v>
-      </c>
-      <c r="T270">
-        <v>1.925</v>
-      </c>
-      <c r="U270">
-        <v>1.925</v>
-      </c>
-      <c r="V270">
-        <v>0</v>
-      </c>
-      <c r="W270">
-        <v>0</v>
-      </c>
-      <c r="X270">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB268"/>
+  <dimension ref="A1:AB270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22999,130 +22999,172 @@
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="s">
-        <v>27</v>
+      <c r="B262">
+        <v>6876422</v>
       </c>
       <c r="C262" t="s">
         <v>34</v>
       </c>
       <c r="D262" s="2">
-        <v>45409.41666666666</v>
+        <v>45408.54166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262" t="s">
+        <v>55</v>
       </c>
       <c r="J262">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K262">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L262">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M262">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O262">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P262">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q262">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R262">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="T262">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U262">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V262">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="W262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y262">
+        <v>0.875</v>
+      </c>
+      <c r="Z262">
+        <v>-1</v>
+      </c>
+      <c r="AA262">
+        <v>0.4</v>
+      </c>
+      <c r="AB262">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:28">
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
-        <v>28</v>
+      <c r="B263">
+        <v>6921816</v>
       </c>
       <c r="C263" t="s">
         <v>34</v>
       </c>
       <c r="D263" s="2">
-        <v>45409.52083333334</v>
+        <v>45408.64583333334</v>
       </c>
       <c r="E263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="G263">
+        <v>2</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+      <c r="I263" t="s">
+        <v>56</v>
       </c>
       <c r="J263">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K263">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L263">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M263">
         <v>1.909</v>
       </c>
       <c r="N263">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O263">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
         <v>-0.5</v>
       </c>
       <c r="Q263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S263">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
+        <v>0.925</v>
+      </c>
+      <c r="AA263">
+        <v>0.925</v>
+      </c>
+      <c r="AB263">
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23130,55 +23172,55 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C264" t="s">
         <v>34</v>
       </c>
       <c r="D264" s="2">
-        <v>45409.625</v>
+        <v>45409.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F264" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J264">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K264">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L264">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M264">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="N264">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O264">
+        <v>5.5</v>
+      </c>
+      <c r="P264">
+        <v>-1</v>
+      </c>
+      <c r="Q264">
+        <v>1.9</v>
+      </c>
+      <c r="R264">
         <v>1.95</v>
       </c>
-      <c r="P264">
-        <v>0.5</v>
-      </c>
-      <c r="Q264">
+      <c r="S264">
+        <v>3</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
         <v>1.85</v>
-      </c>
-      <c r="R264">
-        <v>2</v>
-      </c>
-      <c r="S264">
-        <v>2.5</v>
-      </c>
-      <c r="T264">
-        <v>1.95</v>
-      </c>
-      <c r="U264">
-        <v>1.9</v>
       </c>
       <c r="V264">
         <v>0</v>
@@ -23195,55 +23237,55 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C265" t="s">
         <v>34</v>
       </c>
       <c r="D265" s="2">
-        <v>45410.3125</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="E265" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J265">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K265">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L265">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M265">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="N265">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O265">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P265">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q265">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R265">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
         <v>2.25</v>
       </c>
       <c r="T265">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U265">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
         <v>0</v>
@@ -23260,55 +23302,55 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C266" t="s">
         <v>34</v>
       </c>
       <c r="D266" s="2">
-        <v>45410.41666666666</v>
+        <v>45409.625</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J266">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="K266">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L266">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="M266">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N266">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O266">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P266">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q266">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S266">
         <v>2.5</v>
       </c>
       <c r="T266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U266">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
         <v>0</v>
@@ -23325,55 +23367,55 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C267" t="s">
         <v>34</v>
       </c>
       <c r="D267" s="2">
-        <v>45410.52083333334</v>
+        <v>45410.3125</v>
       </c>
       <c r="E267" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F267" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J267">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="K267">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L267">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M267">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N267">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O267">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P267">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q267">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R267">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T267">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U267">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V267">
         <v>0</v>
@@ -23390,63 +23432,193 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
+        <v>31</v>
+      </c>
+      <c r="C268" t="s">
+        <v>34</v>
+      </c>
+      <c r="D268" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="E268" t="s">
+        <v>37</v>
+      </c>
+      <c r="F268" t="s">
+        <v>36</v>
+      </c>
+      <c r="J268">
+        <v>4.75</v>
+      </c>
+      <c r="K268">
+        <v>3.75</v>
+      </c>
+      <c r="L268">
+        <v>1.7</v>
+      </c>
+      <c r="M268">
+        <v>4.75</v>
+      </c>
+      <c r="N268">
+        <v>3.75</v>
+      </c>
+      <c r="O268">
+        <v>1.7</v>
+      </c>
+      <c r="P268">
+        <v>0.75</v>
+      </c>
+      <c r="Q268">
+        <v>1.925</v>
+      </c>
+      <c r="R268">
+        <v>1.925</v>
+      </c>
+      <c r="S268">
+        <v>2.5</v>
+      </c>
+      <c r="T268">
+        <v>1.975</v>
+      </c>
+      <c r="U268">
+        <v>1.875</v>
+      </c>
+      <c r="V268">
+        <v>0</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269" t="s">
+        <v>34</v>
+      </c>
+      <c r="D269" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="E269" t="s">
+        <v>47</v>
+      </c>
+      <c r="F269" t="s">
+        <v>52</v>
+      </c>
+      <c r="J269">
+        <v>1.833</v>
+      </c>
+      <c r="K269">
+        <v>3.6</v>
+      </c>
+      <c r="L269">
+        <v>4.2</v>
+      </c>
+      <c r="M269">
+        <v>1.909</v>
+      </c>
+      <c r="N269">
+        <v>3.6</v>
+      </c>
+      <c r="O269">
+        <v>4</v>
+      </c>
+      <c r="P269">
+        <v>-0.5</v>
+      </c>
+      <c r="Q269">
+        <v>1.925</v>
+      </c>
+      <c r="R269">
+        <v>1.925</v>
+      </c>
+      <c r="S269">
+        <v>2.5</v>
+      </c>
+      <c r="T269">
+        <v>2.05</v>
+      </c>
+      <c r="U269">
+        <v>1.8</v>
+      </c>
+      <c r="V269">
+        <v>0</v>
+      </c>
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
         <v>33</v>
       </c>
-      <c r="C268" t="s">
-        <v>34</v>
-      </c>
-      <c r="D268" s="2">
+      <c r="C270" t="s">
+        <v>34</v>
+      </c>
+      <c r="D270" s="2">
         <v>45411.58333333334</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E270" t="s">
         <v>53</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F270" t="s">
         <v>43</v>
       </c>
-      <c r="J268">
+      <c r="J270">
         <v>2.8</v>
       </c>
-      <c r="K268">
+      <c r="K270">
         <v>3.2</v>
       </c>
-      <c r="L268">
+      <c r="L270">
         <v>2.55</v>
       </c>
-      <c r="M268">
+      <c r="M270">
         <v>2.875</v>
       </c>
-      <c r="N268">
+      <c r="N270">
         <v>3.2</v>
       </c>
-      <c r="O268">
+      <c r="O270">
         <v>2.5</v>
       </c>
-      <c r="P268">
-        <v>0</v>
-      </c>
-      <c r="Q268">
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
         <v>2.05</v>
       </c>
-      <c r="R268">
+      <c r="R270">
         <v>1.8</v>
       </c>
-      <c r="S268">
+      <c r="S270">
         <v>2.25</v>
       </c>
-      <c r="T268">
+      <c r="T270">
         <v>1.925</v>
       </c>
-      <c r="U268">
+      <c r="U270">
         <v>1.925</v>
       </c>
-      <c r="V268">
-        <v>0</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
+      <c r="V270">
+        <v>0</v>
+      </c>
+      <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6775599</t>
   </si>
   <si>
     <t>6774473</t>
@@ -546,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB270"/>
+  <dimension ref="A1:AB269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,16 +640,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -661,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -729,16 +726,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -815,16 +812,16 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -833,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -901,16 +898,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -987,16 +984,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1073,16 +1070,16 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1091,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1159,16 +1156,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1177,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1245,16 +1242,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1263,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1331,16 +1328,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1349,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1417,16 +1414,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1435,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1503,16 +1500,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1521,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1589,16 +1586,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1607,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1675,16 +1672,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1693,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1761,16 +1758,16 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1779,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1847,16 +1844,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1933,16 +1930,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1951,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2019,16 +2016,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2037,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2105,16 +2102,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2123,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2191,16 +2188,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2209,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2277,16 +2274,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2295,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2363,16 +2360,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2381,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2449,16 +2446,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2467,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2535,16 +2532,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2553,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2621,16 +2618,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2639,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2707,16 +2704,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2725,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2793,16 +2790,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2811,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2879,16 +2876,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2897,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2965,16 +2962,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2983,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3051,16 +3048,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3069,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3137,16 +3134,16 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3155,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3223,16 +3220,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3241,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3309,16 +3306,16 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3327,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3395,16 +3392,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3413,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3481,16 +3478,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3499,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3567,16 +3564,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3585,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3653,16 +3650,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3671,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3739,16 +3736,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
         <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3757,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3825,16 +3822,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3843,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3911,16 +3908,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
         <v>46</v>
-      </c>
-      <c r="F40" t="s">
-        <v>47</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3929,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -3997,16 +3994,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4015,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4083,16 +4080,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4101,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4169,16 +4166,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4187,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4255,16 +4252,16 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4273,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4341,16 +4338,16 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4359,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4427,16 +4424,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4445,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4513,16 +4510,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4531,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4599,16 +4596,16 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4617,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4685,16 +4682,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4703,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4771,16 +4768,16 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4789,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4857,16 +4854,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4875,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4943,16 +4940,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4961,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5029,16 +5026,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5047,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5115,16 +5112,16 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5133,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5201,16 +5198,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5219,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5287,16 +5284,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5305,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5373,16 +5370,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5391,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5459,16 +5456,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5477,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5545,16 +5542,16 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5563,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5631,16 +5628,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5649,7 +5646,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5717,16 +5714,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5735,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5803,16 +5800,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5821,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5889,16 +5886,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5907,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5975,16 +5972,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5993,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6061,16 +6058,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6079,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6147,16 +6144,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6165,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6233,16 +6230,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6251,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6319,16 +6316,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6337,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6405,16 +6402,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6423,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6491,16 +6488,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6509,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6577,16 +6574,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
         <v>50</v>
-      </c>
-      <c r="F71" t="s">
-        <v>51</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6595,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6663,16 +6660,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6681,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6749,16 +6746,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6767,7 +6764,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6835,16 +6832,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6853,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6921,16 +6918,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6939,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -7007,16 +7004,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7025,7 +7022,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7093,16 +7090,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7111,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7179,16 +7176,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7197,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7265,16 +7262,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7283,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7351,16 +7348,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7369,7 +7366,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7437,16 +7434,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7455,7 +7452,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7523,16 +7520,16 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7541,7 +7538,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7609,16 +7606,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7627,7 +7624,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7695,16 +7692,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7713,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7781,16 +7778,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7799,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7867,16 +7864,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7885,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7953,16 +7950,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7971,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8039,17 +8036,17 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s">
         <v>40</v>
       </c>
-      <c r="F88" t="s">
-        <v>41</v>
-      </c>
       <c r="G88">
         <v>0</v>
       </c>
@@ -8057,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8125,16 +8122,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8143,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8211,16 +8208,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8229,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8297,16 +8294,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8315,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8383,16 +8380,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8401,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8469,16 +8466,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8487,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8555,16 +8552,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8573,7 +8570,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8641,16 +8638,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8659,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8727,16 +8724,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8745,7 +8742,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8813,16 +8810,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8831,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8899,16 +8896,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8917,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8985,16 +8982,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9003,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9071,16 +9068,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F100" t="s">
         <v>51</v>
-      </c>
-      <c r="F100" t="s">
-        <v>52</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9089,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9157,16 +9154,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9175,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9243,16 +9240,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9261,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9329,16 +9326,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9347,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9415,16 +9412,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9433,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9501,16 +9498,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9519,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9587,16 +9584,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9605,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9673,16 +9670,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9691,7 +9688,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9759,16 +9756,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9777,7 +9774,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9845,16 +9842,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9863,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9931,16 +9928,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9949,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -10017,16 +10014,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10035,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10103,16 +10100,16 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10121,7 +10118,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10189,16 +10186,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10207,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10275,16 +10272,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>36</v>
-      </c>
-      <c r="F114" t="s">
-        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10293,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10361,16 +10358,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10379,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10447,16 +10444,16 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10465,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10533,16 +10530,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10551,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10619,16 +10616,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10637,7 +10634,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10705,16 +10702,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10723,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10791,16 +10788,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10809,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10877,16 +10874,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10895,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10963,16 +10960,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10981,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11049,16 +11046,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11067,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11135,16 +11132,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11153,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11221,16 +11218,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11239,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11307,16 +11304,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11325,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11393,16 +11390,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11411,7 +11408,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11479,16 +11476,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" t="s">
         <v>41</v>
-      </c>
-      <c r="F128" t="s">
-        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11497,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11565,16 +11562,16 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11583,7 +11580,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11651,16 +11648,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11669,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11737,16 +11734,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11755,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11823,16 +11820,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11841,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11909,16 +11906,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11927,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11995,16 +11992,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12013,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12081,16 +12078,16 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12099,7 +12096,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12167,16 +12164,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12185,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12253,16 +12250,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12271,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12339,16 +12336,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12357,7 +12354,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12425,16 +12422,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12443,7 +12440,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12511,16 +12508,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12529,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12597,16 +12594,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12615,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12683,16 +12680,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12701,7 +12698,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12769,16 +12766,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12787,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12855,16 +12852,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12873,7 +12870,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12941,16 +12938,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12959,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13027,16 +13024,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13045,7 +13042,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13113,16 +13110,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13131,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13199,16 +13196,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13217,7 +13214,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13285,16 +13282,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13303,7 +13300,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13371,16 +13368,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13389,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13457,16 +13454,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13475,7 +13472,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13543,16 +13540,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13561,7 +13558,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13629,16 +13626,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13647,7 +13644,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13715,16 +13712,16 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13733,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13801,16 +13798,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13819,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13887,16 +13884,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13905,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13973,16 +13970,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13991,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14059,16 +14056,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14077,7 +14074,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14145,16 +14142,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14163,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14231,16 +14228,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14249,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14317,16 +14314,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14335,7 +14332,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14403,16 +14400,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14421,7 +14418,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14489,16 +14486,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14507,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14575,16 +14572,16 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14593,7 +14590,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14661,16 +14658,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14679,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14747,16 +14744,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14765,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14833,16 +14830,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14851,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14919,16 +14916,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14937,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -15005,16 +15002,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15023,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15091,16 +15088,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15109,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15177,16 +15174,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15195,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15263,16 +15260,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15281,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15349,16 +15346,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
         <v>39</v>
-      </c>
-      <c r="F173" t="s">
-        <v>40</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15367,7 +15364,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15435,16 +15432,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15453,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15521,16 +15518,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15539,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15607,16 +15604,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15625,7 +15622,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15693,16 +15690,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15711,7 +15708,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15779,16 +15776,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15797,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15865,16 +15862,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15883,7 +15880,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15951,16 +15948,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15969,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16037,16 +16034,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16055,7 +16052,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16123,16 +16120,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16141,7 +16138,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16209,16 +16206,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
+        <v>37</v>
+      </c>
+      <c r="F183" t="s">
         <v>38</v>
-      </c>
-      <c r="F183" t="s">
-        <v>39</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16227,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16295,16 +16292,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16313,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16381,16 +16378,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16399,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16467,16 +16464,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16485,7 +16482,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16553,16 +16550,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16571,7 +16568,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16639,16 +16636,16 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16657,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16725,16 +16722,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
+        <v>47</v>
+      </c>
+      <c r="F189" t="s">
         <v>48</v>
-      </c>
-      <c r="F189" t="s">
-        <v>49</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16743,7 +16740,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16811,16 +16808,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16829,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16897,16 +16894,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16915,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16983,17 +16980,17 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192" t="s">
         <v>37</v>
       </c>
-      <c r="F192" t="s">
-        <v>38</v>
-      </c>
       <c r="G192">
         <v>0</v>
       </c>
@@ -17001,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17069,16 +17066,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17087,7 +17084,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17155,16 +17152,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17173,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17241,16 +17238,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17259,7 +17256,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17327,16 +17324,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17345,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17413,16 +17410,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17431,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17499,16 +17496,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17517,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17585,16 +17582,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17603,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17671,16 +17668,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17689,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17757,16 +17754,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17775,7 +17772,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17843,16 +17840,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17861,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17929,16 +17926,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2">
         <v>45354.35416666666</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17947,7 +17944,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J203">
         <v>2.45</v>
@@ -18015,16 +18012,16 @@
         <v>6775556</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18033,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J204">
         <v>2.05</v>
@@ -18101,16 +18098,16 @@
         <v>6775559</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D205" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18119,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>1.95</v>
@@ -18187,16 +18184,16 @@
         <v>6775558</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2">
         <v>45355.625</v>
       </c>
       <c r="E206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18205,7 +18202,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>2.05</v>
@@ -18273,16 +18270,16 @@
         <v>6775564</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D207" s="2">
         <v>45359.58333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18291,7 +18288,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18359,16 +18356,16 @@
         <v>6775562</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D208" s="2">
         <v>45359.6875</v>
       </c>
       <c r="E208" t="s">
+        <v>44</v>
+      </c>
+      <c r="F208" t="s">
         <v>45</v>
-      </c>
-      <c r="F208" t="s">
-        <v>46</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18377,7 +18374,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J208">
         <v>1.952</v>
@@ -18445,16 +18442,16 @@
         <v>6775563</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18463,7 +18460,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J209">
         <v>2.625</v>
@@ -18531,16 +18528,16 @@
         <v>6774879</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18549,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J210">
         <v>4.75</v>
@@ -18617,16 +18614,16 @@
         <v>6775561</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18635,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J211">
         <v>3</v>
@@ -18703,16 +18700,16 @@
         <v>6774464</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D212" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -18721,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18789,16 +18786,16 @@
         <v>6775565</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18807,7 +18804,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18875,16 +18872,16 @@
         <v>6775566</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18893,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J214">
         <v>3.5</v>
@@ -18961,16 +18958,16 @@
         <v>6774465</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2">
         <v>45362.625</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18979,7 +18976,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19047,16 +19044,16 @@
         <v>7917193</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D216" s="2">
         <v>45364.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19065,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J216">
         <v>4</v>
@@ -19133,16 +19130,16 @@
         <v>6775568</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>45366.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19151,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19219,16 +19216,16 @@
         <v>6775570</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D218" s="2">
         <v>45366.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19237,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19305,16 +19302,16 @@
         <v>6775567</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D219" s="2">
         <v>45367.35416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19323,7 +19320,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J219">
         <v>1.95</v>
@@ -19391,16 +19388,16 @@
         <v>6775572</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D220" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19409,7 +19406,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J220">
         <v>2.625</v>
@@ -19477,16 +19474,16 @@
         <v>6774466</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D221" s="2">
         <v>45367.5625</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19495,7 +19492,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19563,16 +19560,16 @@
         <v>6774878</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D222" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19581,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J222">
         <v>1.666</v>
@@ -19649,16 +19646,16 @@
         <v>6775569</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D223" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19667,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J223">
         <v>3.4</v>
@@ -19735,16 +19732,16 @@
         <v>6774467</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D224" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19753,7 +19750,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J224">
         <v>5.5</v>
@@ -19821,16 +19818,16 @@
         <v>6775571</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D225" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19839,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J225">
         <v>1.75</v>
@@ -19907,16 +19904,16 @@
         <v>6774469</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D226" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19925,7 +19922,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J226">
         <v>1.4</v>
@@ -19993,16 +19990,16 @@
         <v>6774468</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D227" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G227">
         <v>6</v>
@@ -20011,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20079,16 +20076,16 @@
         <v>6775574</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D228" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20097,7 +20094,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J228">
         <v>2.1</v>
@@ -20165,16 +20162,16 @@
         <v>6775575</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D229" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20183,7 +20180,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20251,16 +20248,16 @@
         <v>6774877</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D230" s="2">
         <v>45383.3125</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20269,7 +20266,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J230">
         <v>2.625</v>
@@ -20337,16 +20334,16 @@
         <v>6775576</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D231" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20355,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20423,16 +20420,16 @@
         <v>6775578</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D232" s="2">
         <v>45383.52083333334</v>
       </c>
       <c r="E232" t="s">
+        <v>41</v>
+      </c>
+      <c r="F232" t="s">
         <v>42</v>
-      </c>
-      <c r="F232" t="s">
-        <v>43</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20441,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20509,16 +20506,16 @@
         <v>6775573</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D233" s="2">
         <v>45383.625</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20527,7 +20524,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J233">
         <v>3.6</v>
@@ -20595,16 +20592,16 @@
         <v>6775577</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D234" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20613,7 +20610,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J234">
         <v>2.9</v>
@@ -20681,16 +20678,16 @@
         <v>6774470</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20699,7 +20696,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J235">
         <v>1.5</v>
@@ -20767,16 +20764,16 @@
         <v>6775585</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D236" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20785,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -20853,16 +20850,16 @@
         <v>6775582</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D237" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20871,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J237">
         <v>1.8</v>
@@ -20939,16 +20936,16 @@
         <v>6774876</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D238" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E238" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20957,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J238">
         <v>1.85</v>
@@ -21025,16 +21022,16 @@
         <v>6775587</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D239" s="2">
         <v>45388.625</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21043,7 +21040,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21111,16 +21108,16 @@
         <v>6775586</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D240" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21129,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J240">
         <v>2.5</v>
@@ -21197,16 +21194,16 @@
         <v>6775583</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D241" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E241" t="s">
+        <v>46</v>
+      </c>
+      <c r="F241" t="s">
         <v>47</v>
-      </c>
-      <c r="F241" t="s">
-        <v>48</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21215,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J241">
         <v>2.5</v>
@@ -21283,16 +21280,16 @@
         <v>6775584</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D242" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21301,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21369,16 +21366,16 @@
         <v>6775579</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D243" s="2">
         <v>45390.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21387,7 +21384,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J243">
         <v>2.2</v>
@@ -21455,16 +21452,16 @@
         <v>6775592</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D244" s="2">
         <v>45394.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21473,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21541,16 +21538,16 @@
         <v>6774471</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21559,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J245">
         <v>1.5</v>
@@ -21627,16 +21624,16 @@
         <v>6850053</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D246" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21645,7 +21642,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J246">
         <v>2.8</v>
@@ -21713,16 +21710,16 @@
         <v>6774875</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D247" s="2">
         <v>45395.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21731,7 +21728,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J247">
         <v>4.333</v>
@@ -21799,16 +21796,16 @@
         <v>6775591</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2">
         <v>45395.625</v>
       </c>
       <c r="E248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21817,7 +21814,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J248">
         <v>2.25</v>
@@ -21885,16 +21882,16 @@
         <v>6775593</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D249" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E249" t="s">
+        <v>48</v>
+      </c>
+      <c r="F249" t="s">
         <v>49</v>
-      </c>
-      <c r="F249" t="s">
-        <v>50</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21903,7 +21900,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J249">
         <v>3.5</v>
@@ -21971,16 +21968,16 @@
         <v>6775589</v>
       </c>
       <c r="C250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D250" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21989,7 +21986,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -22057,16 +22054,16 @@
         <v>6775588</v>
       </c>
       <c r="C251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22075,7 +22072,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J251">
         <v>2.25</v>
@@ -22143,16 +22140,16 @@
         <v>6775590</v>
       </c>
       <c r="C252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D252" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22161,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22229,16 +22226,16 @@
         <v>6775595</v>
       </c>
       <c r="C253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D253" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E253" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22247,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22315,16 +22312,16 @@
         <v>6775598</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D254" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22333,7 +22330,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J254">
         <v>1.571</v>
@@ -22401,16 +22398,16 @@
         <v>6775597</v>
       </c>
       <c r="C255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D255" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22419,7 +22416,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J255">
         <v>1.85</v>
@@ -22487,16 +22484,16 @@
         <v>6774472</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D256" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22505,7 +22502,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J256">
         <v>2.55</v>
@@ -22573,16 +22570,16 @@
         <v>6775594</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D257" s="2">
         <v>45402.625</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22591,7 +22588,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J257">
         <v>2.875</v>
@@ -22659,16 +22656,16 @@
         <v>6850054</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D258" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E258" t="s">
+        <v>51</v>
+      </c>
+      <c r="F258" t="s">
         <v>52</v>
-      </c>
-      <c r="F258" t="s">
-        <v>53</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22677,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J258">
         <v>1.7</v>
@@ -22745,16 +22742,16 @@
         <v>6830603</v>
       </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D259" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F259" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22763,7 +22760,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J259">
         <v>4.75</v>
@@ -22831,16 +22828,16 @@
         <v>6775596</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D260" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22849,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J260">
         <v>1.7</v>
@@ -22917,16 +22914,16 @@
         <v>6885526</v>
       </c>
       <c r="C261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D261" s="2">
         <v>45404.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -22935,7 +22932,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J261">
         <v>2.1</v>
@@ -23003,16 +23000,16 @@
         <v>6876422</v>
       </c>
       <c r="C262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D262" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23021,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J262">
         <v>1.909</v>
@@ -23089,16 +23086,16 @@
         <v>6921816</v>
       </c>
       <c r="C263" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D263" s="2">
         <v>45408.64583333334</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23107,7 +23104,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J263">
         <v>2.1</v>
@@ -23175,52 +23172,52 @@
         <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D264" s="2">
-        <v>45409.41666666666</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="E264" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F264" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J264">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K264">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L264">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="N264">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O264">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q264">
+        <v>1.975</v>
+      </c>
+      <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
+        <v>2.25</v>
+      </c>
+      <c r="T264">
+        <v>1.95</v>
+      </c>
+      <c r="U264">
         <v>1.9</v>
-      </c>
-      <c r="R264">
-        <v>1.95</v>
-      </c>
-      <c r="S264">
-        <v>3</v>
-      </c>
-      <c r="T264">
-        <v>2</v>
-      </c>
-      <c r="U264">
-        <v>1.85</v>
       </c>
       <c r="V264">
         <v>0</v>
@@ -23240,46 +23237,46 @@
         <v>28</v>
       </c>
       <c r="C265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D265" s="2">
-        <v>45409.52083333334</v>
+        <v>45409.625</v>
       </c>
       <c r="E265" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J265">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K265">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L265">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M265">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="N265">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O265">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P265">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q265">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R265">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S265">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T265">
         <v>1.95</v>
@@ -23305,52 +23302,52 @@
         <v>29</v>
       </c>
       <c r="C266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D266" s="2">
-        <v>45409.625</v>
+        <v>45410.3125</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F266" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J266">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K266">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L266">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M266">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N266">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O266">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="P266">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q266">
+        <v>1.8</v>
+      </c>
+      <c r="R266">
+        <v>2.05</v>
+      </c>
+      <c r="S266">
+        <v>2.25</v>
+      </c>
+      <c r="T266">
         <v>1.825</v>
       </c>
-      <c r="R266">
+      <c r="U266">
         <v>2.025</v>
-      </c>
-      <c r="S266">
-        <v>2.5</v>
-      </c>
-      <c r="T266">
-        <v>1.95</v>
-      </c>
-      <c r="U266">
-        <v>1.9</v>
       </c>
       <c r="V266">
         <v>0</v>
@@ -23370,52 +23367,52 @@
         <v>30</v>
       </c>
       <c r="C267" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D267" s="2">
-        <v>45410.3125</v>
+        <v>45410.41666666666</v>
       </c>
       <c r="E267" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J267">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="K267">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L267">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="M267">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N267">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O267">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="P267">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q267">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T267">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
         <v>0</v>
@@ -23435,37 +23432,37 @@
         <v>31</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D268" s="2">
-        <v>45410.41666666666</v>
+        <v>45410.52083333334</v>
       </c>
       <c r="E268" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J268">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="K268">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L268">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="M268">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N268">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O268">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="P268">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q268">
         <v>1.925</v>
@@ -23477,10 +23474,10 @@
         <v>2.5</v>
       </c>
       <c r="T268">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V268">
         <v>0</v>
@@ -23500,53 +23497,53 @@
         <v>32</v>
       </c>
       <c r="C269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D269" s="2">
-        <v>45410.52083333334</v>
+        <v>45411.58333333334</v>
       </c>
       <c r="E269" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F269" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J269">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="K269">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L269">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="M269">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N269">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O269">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="P269">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q269">
+        <v>2.05</v>
+      </c>
+      <c r="R269">
+        <v>1.8</v>
+      </c>
+      <c r="S269">
+        <v>2.25</v>
+      </c>
+      <c r="T269">
         <v>1.925</v>
       </c>
-      <c r="R269">
+      <c r="U269">
         <v>1.925</v>
       </c>
-      <c r="S269">
-        <v>2.5</v>
-      </c>
-      <c r="T269">
-        <v>2.05</v>
-      </c>
-      <c r="U269">
-        <v>1.8</v>
-      </c>
       <c r="V269">
         <v>0</v>
       </c>
@@ -23554,71 +23551,6 @@
         <v>0</v>
       </c>
       <c r="X269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:28">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="B270" t="s">
-        <v>33</v>
-      </c>
-      <c r="C270" t="s">
-        <v>34</v>
-      </c>
-      <c r="D270" s="2">
-        <v>45411.58333333334</v>
-      </c>
-      <c r="E270" t="s">
-        <v>53</v>
-      </c>
-      <c r="F270" t="s">
-        <v>43</v>
-      </c>
-      <c r="J270">
-        <v>2.8</v>
-      </c>
-      <c r="K270">
-        <v>3.2</v>
-      </c>
-      <c r="L270">
-        <v>2.55</v>
-      </c>
-      <c r="M270">
-        <v>2.875</v>
-      </c>
-      <c r="N270">
-        <v>3.2</v>
-      </c>
-      <c r="O270">
-        <v>2.5</v>
-      </c>
-      <c r="P270">
-        <v>0</v>
-      </c>
-      <c r="Q270">
-        <v>2.05</v>
-      </c>
-      <c r="R270">
-        <v>1.8</v>
-      </c>
-      <c r="S270">
-        <v>2.25</v>
-      </c>
-      <c r="T270">
-        <v>1.925</v>
-      </c>
-      <c r="U270">
-        <v>1.925</v>
-      </c>
-      <c r="V270">
-        <v>0</v>
-      </c>
-      <c r="W270">
-        <v>0</v>
-      </c>
-      <c r="X270">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -95,18 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6774473</t>
-  </si>
-  <si>
-    <t>6910897</t>
-  </si>
-  <si>
-    <t>6817569</t>
-  </si>
-  <si>
-    <t>6921817</t>
   </si>
   <si>
     <t>6916500</t>
@@ -543,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB269"/>
+  <dimension ref="A1:AB265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,16 +628,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -658,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -726,16 +714,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -744,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -812,25 +800,25 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>51</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -898,16 +886,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -916,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -984,16 +972,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1002,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1070,25 +1058,25 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1156,16 +1144,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1174,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1242,16 +1230,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1260,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1328,16 +1316,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1346,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1414,16 +1402,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1432,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1500,16 +1488,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1518,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1586,16 +1574,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1604,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1672,16 +1660,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1690,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1758,16 +1746,16 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1776,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1844,16 +1832,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1862,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1930,16 +1918,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1948,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2016,16 +2004,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2034,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2102,16 +2090,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2120,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2188,16 +2176,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2206,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2274,16 +2262,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2292,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2360,16 +2348,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2378,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2446,16 +2434,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2464,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2532,16 +2520,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2550,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2618,16 +2606,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2636,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2704,16 +2692,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2722,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2790,16 +2778,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2808,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2876,16 +2864,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2894,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2962,16 +2950,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2980,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3048,16 +3036,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3066,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3134,25 +3122,25 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
         <v>49</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>53</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3220,16 +3208,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3238,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3306,16 +3294,16 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3324,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3392,16 +3380,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3410,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3478,16 +3466,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3496,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3564,16 +3552,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3582,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3650,16 +3638,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3668,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3736,16 +3724,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3754,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3822,16 +3810,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3840,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3908,16 +3896,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3926,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -3994,16 +3982,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4012,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4080,16 +4068,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4098,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4166,16 +4154,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4184,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4252,17 +4240,17 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -4270,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4338,25 +4326,25 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
         <v>51</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>55</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4424,16 +4412,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4442,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4510,16 +4498,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4528,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4596,16 +4584,16 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4614,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4682,16 +4670,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4700,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4768,16 +4756,16 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4786,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4854,16 +4842,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4872,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4940,16 +4928,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4958,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5026,16 +5014,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5044,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5112,25 +5100,25 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
         <v>51</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>55</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5198,16 +5186,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5216,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5284,16 +5272,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5302,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5370,16 +5358,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5388,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5456,16 +5444,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5474,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5542,25 +5530,25 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
         <v>50</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>54</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5628,16 +5616,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5646,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5714,16 +5702,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
         <v>39</v>
-      </c>
-      <c r="F61" t="s">
-        <v>43</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5732,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5800,16 +5788,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5818,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5886,16 +5874,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5904,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5972,16 +5960,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5990,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6058,16 +6046,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6076,7 +6064,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6144,16 +6132,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6162,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6230,16 +6218,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6248,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6316,16 +6304,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>40</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6334,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6402,16 +6390,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6420,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6488,16 +6476,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6506,7 +6494,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6574,16 +6562,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6592,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6660,16 +6648,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6678,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6746,16 +6734,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6764,7 +6752,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6832,16 +6820,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6850,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6918,16 +6906,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6936,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -7004,16 +6992,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7022,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7090,16 +7078,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" t="s">
         <v>35</v>
-      </c>
-      <c r="F77" t="s">
-        <v>39</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7108,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7176,16 +7164,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7194,7 +7182,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7262,16 +7250,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7280,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7348,16 +7336,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7366,7 +7354,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7434,16 +7422,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7452,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7520,16 +7508,16 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7538,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7606,16 +7594,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7624,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7692,16 +7680,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7710,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7778,16 +7766,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7796,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7864,16 +7852,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7882,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7950,16 +7938,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7968,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8036,16 +8024,16 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8054,7 +8042,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8122,16 +8110,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8140,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8208,16 +8196,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s">
         <v>46</v>
-      </c>
-      <c r="F90" t="s">
-        <v>50</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8226,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8294,16 +8282,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8312,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8380,16 +8368,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8398,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8466,16 +8454,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8484,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8552,16 +8540,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
         <v>43</v>
-      </c>
-      <c r="F94" t="s">
-        <v>47</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8570,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8638,16 +8626,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8656,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8724,16 +8712,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8742,7 +8730,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8810,16 +8798,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8828,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8896,16 +8884,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8914,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8982,16 +8970,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9000,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9068,16 +9056,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9086,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9154,16 +9142,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9172,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9240,16 +9228,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9258,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9326,16 +9314,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9344,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9412,16 +9400,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9430,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9498,16 +9486,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9516,7 +9504,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9584,16 +9572,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9602,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9670,16 +9658,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9688,7 +9676,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9756,16 +9744,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9774,7 +9762,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9842,16 +9830,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
         <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9860,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9928,16 +9916,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9946,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -10014,16 +10002,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10032,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10100,16 +10088,16 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10118,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10186,16 +10174,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10204,7 +10192,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10272,16 +10260,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10290,7 +10278,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10358,16 +10346,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
         <v>37</v>
-      </c>
-      <c r="F115" t="s">
-        <v>41</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10376,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10444,17 +10432,17 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" t="s">
         <v>38</v>
       </c>
-      <c r="F116" t="s">
-        <v>42</v>
-      </c>
       <c r="G116">
         <v>0</v>
       </c>
@@ -10462,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10530,16 +10518,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10548,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10616,16 +10604,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10634,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10702,16 +10690,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10720,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10788,16 +10776,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10806,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10874,16 +10862,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10892,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10960,16 +10948,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10978,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11046,16 +11034,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11064,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11132,16 +11120,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11150,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11218,16 +11206,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11236,7 +11224,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11304,16 +11292,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11322,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11390,16 +11378,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11408,7 +11396,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11476,16 +11464,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11494,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11562,16 +11550,16 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11580,7 +11568,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11648,16 +11636,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11666,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11734,16 +11722,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11752,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11820,16 +11808,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11838,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11906,16 +11894,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11924,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11992,16 +11980,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12010,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12078,16 +12066,16 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12096,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12164,16 +12152,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12182,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12250,16 +12238,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12268,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12336,16 +12324,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12354,7 +12342,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12422,16 +12410,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12440,7 +12428,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12508,16 +12496,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12526,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12594,16 +12582,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12612,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12680,16 +12668,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12698,7 +12686,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12766,16 +12754,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12784,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12852,16 +12840,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12870,7 +12858,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12938,16 +12926,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12956,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13024,16 +13012,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13042,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13110,16 +13098,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
         <v>42</v>
-      </c>
-      <c r="F147" t="s">
-        <v>46</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13128,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13196,16 +13184,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13214,7 +13202,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13282,16 +13270,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13300,7 +13288,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13368,16 +13356,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13386,7 +13374,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13454,16 +13442,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13472,7 +13460,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13540,16 +13528,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13558,7 +13546,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13626,16 +13614,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13644,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13712,25 +13700,25 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154" t="s">
         <v>51</v>
-      </c>
-      <c r="F154" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154">
-        <v>2</v>
-      </c>
-      <c r="H154">
-        <v>2</v>
-      </c>
-      <c r="I154" t="s">
-        <v>55</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13798,16 +13786,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13816,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13884,16 +13872,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13902,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13970,16 +13958,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13988,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14056,16 +14044,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14074,7 +14062,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14142,16 +14130,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14160,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14228,16 +14216,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14246,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14314,16 +14302,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14332,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14400,16 +14388,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14418,7 +14406,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14486,16 +14474,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14504,7 +14492,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14572,16 +14560,16 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14590,7 +14578,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14658,16 +14646,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14676,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14744,16 +14732,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14762,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14830,16 +14818,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14848,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14916,16 +14904,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14934,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -15002,16 +14990,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15020,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15088,16 +15076,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15106,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15174,16 +15162,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15192,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15260,16 +15248,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15278,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15346,16 +15334,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15364,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15432,16 +15420,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15450,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15518,16 +15506,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15536,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15604,16 +15592,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15622,7 +15610,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15690,16 +15678,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15708,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15776,16 +15764,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15794,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15862,16 +15850,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15880,7 +15868,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15948,16 +15936,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15966,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16034,16 +16022,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16052,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16120,16 +16108,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16138,7 +16126,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16206,16 +16194,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16224,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16292,16 +16280,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16310,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16378,16 +16366,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16396,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16464,16 +16452,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16482,7 +16470,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16550,16 +16538,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16568,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16636,25 +16624,25 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
+        <v>47</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
         <v>51</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188" t="s">
-        <v>55</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16722,16 +16710,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16740,7 +16728,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16808,16 +16796,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16826,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16894,16 +16882,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16912,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16980,16 +16968,16 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -16998,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17066,16 +17054,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17084,7 +17072,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17152,16 +17140,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17170,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17238,16 +17226,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17256,7 +17244,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17324,16 +17312,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17342,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17410,16 +17398,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17428,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17496,16 +17484,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17514,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17582,16 +17570,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17600,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17668,16 +17656,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17686,7 +17674,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17754,16 +17742,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17772,7 +17760,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17840,16 +17828,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17858,7 +17846,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17926,16 +17914,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45354.35416666666</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17944,7 +17932,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J203">
         <v>2.45</v>
@@ -18012,16 +18000,16 @@
         <v>6775556</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18030,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J204">
         <v>2.05</v>
@@ -18098,16 +18086,16 @@
         <v>6775559</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18116,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>1.95</v>
@@ -18184,16 +18172,16 @@
         <v>6775558</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45355.625</v>
       </c>
       <c r="E206" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18202,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J206">
         <v>2.05</v>
@@ -18270,16 +18258,16 @@
         <v>6775564</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45359.58333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18288,7 +18276,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18356,16 +18344,16 @@
         <v>6775562</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45359.6875</v>
       </c>
       <c r="E208" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18374,7 +18362,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J208">
         <v>1.952</v>
@@ -18442,16 +18430,16 @@
         <v>6775563</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18460,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J209">
         <v>2.625</v>
@@ -18528,16 +18516,16 @@
         <v>6774879</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D210" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18546,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J210">
         <v>4.75</v>
@@ -18614,16 +18602,16 @@
         <v>6775561</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D211" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18632,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J211">
         <v>3</v>
@@ -18700,16 +18688,16 @@
         <v>6774464</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -18718,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18786,16 +18774,16 @@
         <v>6775565</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D213" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18804,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18872,16 +18860,16 @@
         <v>6775566</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D214" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18890,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>3.5</v>
@@ -18958,16 +18946,16 @@
         <v>6774465</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D215" s="2">
         <v>45362.625</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18976,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19044,16 +19032,16 @@
         <v>7917193</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D216" s="2">
         <v>45364.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19062,7 +19050,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>4</v>
@@ -19130,16 +19118,16 @@
         <v>6775568</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2">
         <v>45366.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19148,7 +19136,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19216,16 +19204,16 @@
         <v>6775570</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D218" s="2">
         <v>45366.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19234,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19302,25 +19290,25 @@
         <v>6775567</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D219" s="2">
         <v>45367.35416666666</v>
       </c>
       <c r="E219" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" t="s">
+        <v>37</v>
+      </c>
+      <c r="G219">
+        <v>2</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219" t="s">
         <v>51</v>
-      </c>
-      <c r="F219" t="s">
-        <v>41</v>
-      </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-      <c r="H219">
-        <v>2</v>
-      </c>
-      <c r="I219" t="s">
-        <v>55</v>
       </c>
       <c r="J219">
         <v>1.95</v>
@@ -19388,25 +19376,25 @@
         <v>6775572</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D220" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E220" t="s">
+        <v>45</v>
+      </c>
+      <c r="F220" t="s">
+        <v>40</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220" t="s">
         <v>49</v>
-      </c>
-      <c r="F220" t="s">
-        <v>44</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>2</v>
-      </c>
-      <c r="I220" t="s">
-        <v>53</v>
       </c>
       <c r="J220">
         <v>2.625</v>
@@ -19474,16 +19462,16 @@
         <v>6774466</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D221" s="2">
         <v>45367.5625</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19492,7 +19480,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19560,16 +19548,16 @@
         <v>6774878</v>
       </c>
       <c r="C222" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19578,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>1.666</v>
@@ -19646,16 +19634,16 @@
         <v>6775569</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19664,7 +19652,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J223">
         <v>3.4</v>
@@ -19732,16 +19720,16 @@
         <v>6774467</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D224" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19750,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J224">
         <v>5.5</v>
@@ -19818,16 +19806,16 @@
         <v>6775571</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D225" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19836,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J225">
         <v>1.75</v>
@@ -19904,16 +19892,16 @@
         <v>6774469</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D226" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19922,7 +19910,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J226">
         <v>1.4</v>
@@ -19990,16 +19978,16 @@
         <v>6774468</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D227" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E227" t="s">
+        <v>40</v>
+      </c>
+      <c r="F227" t="s">
         <v>44</v>
-      </c>
-      <c r="F227" t="s">
-        <v>48</v>
       </c>
       <c r="G227">
         <v>6</v>
@@ -20008,7 +19996,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20076,16 +20064,16 @@
         <v>6775574</v>
       </c>
       <c r="C228" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D228" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20094,7 +20082,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J228">
         <v>2.1</v>
@@ -20162,16 +20150,16 @@
         <v>6775575</v>
       </c>
       <c r="C229" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D229" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E229" t="s">
+        <v>43</v>
+      </c>
+      <c r="F229" t="s">
         <v>47</v>
-      </c>
-      <c r="F229" t="s">
-        <v>51</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20180,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20248,16 +20236,16 @@
         <v>6774877</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D230" s="2">
         <v>45383.3125</v>
       </c>
       <c r="E230" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20266,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J230">
         <v>2.625</v>
@@ -20334,16 +20322,16 @@
         <v>6775576</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D231" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F231" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20352,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20420,16 +20408,16 @@
         <v>6775578</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D232" s="2">
         <v>45383.52083333334</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20438,7 +20426,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20506,16 +20494,16 @@
         <v>6775573</v>
       </c>
       <c r="C233" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D233" s="2">
         <v>45383.625</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20524,7 +20512,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J233">
         <v>3.6</v>
@@ -20592,16 +20580,16 @@
         <v>6775577</v>
       </c>
       <c r="C234" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D234" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20610,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J234">
         <v>2.9</v>
@@ -20678,25 +20666,25 @@
         <v>6774470</v>
       </c>
       <c r="C235" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D235" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E235" t="s">
+        <v>47</v>
+      </c>
+      <c r="F235" t="s">
+        <v>44</v>
+      </c>
+      <c r="G235">
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235" t="s">
         <v>51</v>
-      </c>
-      <c r="F235" t="s">
-        <v>48</v>
-      </c>
-      <c r="G235">
-        <v>2</v>
-      </c>
-      <c r="H235">
-        <v>2</v>
-      </c>
-      <c r="I235" t="s">
-        <v>55</v>
       </c>
       <c r="J235">
         <v>1.5</v>
@@ -20764,16 +20752,16 @@
         <v>6775585</v>
       </c>
       <c r="C236" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D236" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20782,7 +20770,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -20850,16 +20838,16 @@
         <v>6775582</v>
       </c>
       <c r="C237" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D237" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20868,7 +20856,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J237">
         <v>1.8</v>
@@ -20936,16 +20924,16 @@
         <v>6774876</v>
       </c>
       <c r="C238" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D238" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F238" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20954,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J238">
         <v>1.85</v>
@@ -21022,16 +21010,16 @@
         <v>6775587</v>
       </c>
       <c r="C239" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D239" s="2">
         <v>45388.625</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21040,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21108,16 +21096,16 @@
         <v>6775586</v>
       </c>
       <c r="C240" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D240" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E240" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21126,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J240">
         <v>2.5</v>
@@ -21194,16 +21182,16 @@
         <v>6775583</v>
       </c>
       <c r="C241" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D241" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21212,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J241">
         <v>2.5</v>
@@ -21280,16 +21268,16 @@
         <v>6775584</v>
       </c>
       <c r="C242" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D242" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E242" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F242" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21298,7 +21286,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21366,16 +21354,16 @@
         <v>6775579</v>
       </c>
       <c r="C243" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D243" s="2">
         <v>45390.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21384,7 +21372,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J243">
         <v>2.2</v>
@@ -21452,16 +21440,16 @@
         <v>6775592</v>
       </c>
       <c r="C244" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D244" s="2">
         <v>45394.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21470,7 +21458,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21538,16 +21526,16 @@
         <v>6774471</v>
       </c>
       <c r="C245" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D245" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21556,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J245">
         <v>1.5</v>
@@ -21624,16 +21612,16 @@
         <v>6850053</v>
       </c>
       <c r="C246" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D246" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21642,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J246">
         <v>2.8</v>
@@ -21710,16 +21698,16 @@
         <v>6774875</v>
       </c>
       <c r="C247" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D247" s="2">
         <v>45395.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21728,7 +21716,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J247">
         <v>4.333</v>
@@ -21796,16 +21784,16 @@
         <v>6775591</v>
       </c>
       <c r="C248" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D248" s="2">
         <v>45395.625</v>
       </c>
       <c r="E248" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F248" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21814,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J248">
         <v>2.25</v>
@@ -21882,16 +21870,16 @@
         <v>6775593</v>
       </c>
       <c r="C249" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D249" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E249" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F249" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21900,7 +21888,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J249">
         <v>3.5</v>
@@ -21968,16 +21956,16 @@
         <v>6775589</v>
       </c>
       <c r="C250" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D250" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21986,7 +21974,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -22054,16 +22042,16 @@
         <v>6775588</v>
       </c>
       <c r="C251" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D251" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22072,7 +22060,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J251">
         <v>2.25</v>
@@ -22140,16 +22128,16 @@
         <v>6775590</v>
       </c>
       <c r="C252" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D252" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F252" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22158,7 +22146,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22226,16 +22214,16 @@
         <v>6775595</v>
       </c>
       <c r="C253" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D253" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E253" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22244,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22312,16 +22300,16 @@
         <v>6775598</v>
       </c>
       <c r="C254" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D254" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22330,7 +22318,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J254">
         <v>1.571</v>
@@ -22398,16 +22386,16 @@
         <v>6775597</v>
       </c>
       <c r="C255" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D255" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22416,7 +22404,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J255">
         <v>1.85</v>
@@ -22484,16 +22472,16 @@
         <v>6774472</v>
       </c>
       <c r="C256" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D256" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E256" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22502,7 +22490,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J256">
         <v>2.55</v>
@@ -22570,16 +22558,16 @@
         <v>6775594</v>
       </c>
       <c r="C257" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D257" s="2">
         <v>45402.625</v>
       </c>
       <c r="E257" t="s">
+        <v>36</v>
+      </c>
+      <c r="F257" t="s">
         <v>40</v>
-      </c>
-      <c r="F257" t="s">
-        <v>44</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22588,7 +22576,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J257">
         <v>2.875</v>
@@ -22656,16 +22644,16 @@
         <v>6850054</v>
       </c>
       <c r="C258" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D258" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F258" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22674,7 +22662,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J258">
         <v>1.7</v>
@@ -22742,16 +22730,16 @@
         <v>6830603</v>
       </c>
       <c r="C259" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D259" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22760,7 +22748,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J259">
         <v>4.75</v>
@@ -22828,16 +22816,16 @@
         <v>6775596</v>
       </c>
       <c r="C260" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D260" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E260" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F260" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22846,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J260">
         <v>1.7</v>
@@ -22914,16 +22902,16 @@
         <v>6885526</v>
       </c>
       <c r="C261" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D261" s="2">
         <v>45404.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -22932,7 +22920,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J261">
         <v>2.1</v>
@@ -23000,16 +22988,16 @@
         <v>6876422</v>
       </c>
       <c r="C262" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D262" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23018,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J262">
         <v>1.909</v>
@@ -23086,16 +23074,16 @@
         <v>6921816</v>
       </c>
       <c r="C263" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D263" s="2">
         <v>45408.64583333334</v>
       </c>
       <c r="E263" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F263" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23104,7 +23092,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J263">
         <v>2.1</v>
@@ -23172,52 +23160,52 @@
         <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D264" s="2">
-        <v>45409.52083333334</v>
+        <v>45410.52083333334</v>
       </c>
       <c r="E264" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J264">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K264">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L264">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M264">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N264">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O264">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
         <v>-0.5</v>
       </c>
       <c r="Q264">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R264">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S264">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T264">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
         <v>0</v>
@@ -23237,52 +23225,52 @@
         <v>28</v>
       </c>
       <c r="C265" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D265" s="2">
-        <v>45409.625</v>
+        <v>45411.58333333334</v>
       </c>
       <c r="E265" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J265">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="K265">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L265">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="M265">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N265">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O265">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="P265">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q265">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S265">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T265">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U265">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
         <v>0</v>
@@ -23291,266 +23279,6 @@
         <v>0</v>
       </c>
       <c r="X265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:28">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>29</v>
-      </c>
-      <c r="C266" t="s">
-        <v>33</v>
-      </c>
-      <c r="D266" s="2">
-        <v>45410.3125</v>
-      </c>
-      <c r="E266" t="s">
-        <v>49</v>
-      </c>
-      <c r="F266" t="s">
-        <v>40</v>
-      </c>
-      <c r="J266">
-        <v>2.3</v>
-      </c>
-      <c r="K266">
-        <v>3.25</v>
-      </c>
-      <c r="L266">
-        <v>3.1</v>
-      </c>
-      <c r="M266">
-        <v>2.55</v>
-      </c>
-      <c r="N266">
-        <v>3</v>
-      </c>
-      <c r="O266">
-        <v>2.9</v>
-      </c>
-      <c r="P266">
-        <v>0</v>
-      </c>
-      <c r="Q266">
-        <v>1.8</v>
-      </c>
-      <c r="R266">
-        <v>2.05</v>
-      </c>
-      <c r="S266">
-        <v>2.25</v>
-      </c>
-      <c r="T266">
-        <v>1.825</v>
-      </c>
-      <c r="U266">
-        <v>2.025</v>
-      </c>
-      <c r="V266">
-        <v>0</v>
-      </c>
-      <c r="W266">
-        <v>0</v>
-      </c>
-      <c r="X266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:28">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>30</v>
-      </c>
-      <c r="C267" t="s">
-        <v>33</v>
-      </c>
-      <c r="D267" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E267" t="s">
-        <v>36</v>
-      </c>
-      <c r="F267" t="s">
-        <v>35</v>
-      </c>
-      <c r="J267">
-        <v>4.75</v>
-      </c>
-      <c r="K267">
-        <v>3.75</v>
-      </c>
-      <c r="L267">
-        <v>1.7</v>
-      </c>
-      <c r="M267">
-        <v>4.75</v>
-      </c>
-      <c r="N267">
-        <v>3.75</v>
-      </c>
-      <c r="O267">
-        <v>1.7</v>
-      </c>
-      <c r="P267">
-        <v>0.75</v>
-      </c>
-      <c r="Q267">
-        <v>1.925</v>
-      </c>
-      <c r="R267">
-        <v>1.925</v>
-      </c>
-      <c r="S267">
-        <v>2.5</v>
-      </c>
-      <c r="T267">
-        <v>1.975</v>
-      </c>
-      <c r="U267">
-        <v>1.875</v>
-      </c>
-      <c r="V267">
-        <v>0</v>
-      </c>
-      <c r="W267">
-        <v>0</v>
-      </c>
-      <c r="X267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:28">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>31</v>
-      </c>
-      <c r="C268" t="s">
-        <v>33</v>
-      </c>
-      <c r="D268" s="2">
-        <v>45410.52083333334</v>
-      </c>
-      <c r="E268" t="s">
-        <v>46</v>
-      </c>
-      <c r="F268" t="s">
-        <v>51</v>
-      </c>
-      <c r="J268">
-        <v>1.833</v>
-      </c>
-      <c r="K268">
-        <v>3.6</v>
-      </c>
-      <c r="L268">
-        <v>4.2</v>
-      </c>
-      <c r="M268">
-        <v>1.909</v>
-      </c>
-      <c r="N268">
-        <v>3.6</v>
-      </c>
-      <c r="O268">
-        <v>4</v>
-      </c>
-      <c r="P268">
-        <v>-0.5</v>
-      </c>
-      <c r="Q268">
-        <v>1.925</v>
-      </c>
-      <c r="R268">
-        <v>1.925</v>
-      </c>
-      <c r="S268">
-        <v>2.5</v>
-      </c>
-      <c r="T268">
-        <v>2.05</v>
-      </c>
-      <c r="U268">
-        <v>1.8</v>
-      </c>
-      <c r="V268">
-        <v>0</v>
-      </c>
-      <c r="W268">
-        <v>0</v>
-      </c>
-      <c r="X268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:28">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>32</v>
-      </c>
-      <c r="C269" t="s">
-        <v>33</v>
-      </c>
-      <c r="D269" s="2">
-        <v>45411.58333333334</v>
-      </c>
-      <c r="E269" t="s">
-        <v>52</v>
-      </c>
-      <c r="F269" t="s">
-        <v>42</v>
-      </c>
-      <c r="J269">
-        <v>2.8</v>
-      </c>
-      <c r="K269">
-        <v>3.2</v>
-      </c>
-      <c r="L269">
-        <v>2.55</v>
-      </c>
-      <c r="M269">
-        <v>2.875</v>
-      </c>
-      <c r="N269">
-        <v>3.2</v>
-      </c>
-      <c r="O269">
-        <v>2.5</v>
-      </c>
-      <c r="P269">
-        <v>0</v>
-      </c>
-      <c r="Q269">
-        <v>2.05</v>
-      </c>
-      <c r="R269">
-        <v>1.8</v>
-      </c>
-      <c r="S269">
-        <v>2.25</v>
-      </c>
-      <c r="T269">
-        <v>1.925</v>
-      </c>
-      <c r="U269">
-        <v>1.925</v>
-      </c>
-      <c r="V269">
-        <v>0</v>
-      </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-      <c r="X269">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -23804,31 +23804,31 @@
         <v>3</v>
       </c>
       <c r="M271">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="N271">
         <v>3.5</v>
       </c>
       <c r="O271">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P271">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q271">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R271">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S271">
         <v>2.5</v>
       </c>
       <c r="T271">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U271">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V271">
         <v>0</v>
@@ -23869,13 +23869,13 @@
         <v>2</v>
       </c>
       <c r="M272">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N272">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O272">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P272">
         <v>0.5</v>
@@ -23887,13 +23887,13 @@
         <v>2.05</v>
       </c>
       <c r="S272">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T272">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U272">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V272">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>2.5</v>
       </c>
       <c r="T273">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U273">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V273">
         <v>0</v>
@@ -24011,10 +24011,10 @@
         <v>0.25</v>
       </c>
       <c r="Q274">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R274">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S274">
         <v>2.5</v>
@@ -24076,19 +24076,19 @@
         <v>0.75</v>
       </c>
       <c r="Q275">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R275">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S275">
         <v>2.75</v>
       </c>
       <c r="T275">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V275">
         <v>0</v>
@@ -24271,19 +24271,19 @@
         <v>-1</v>
       </c>
       <c r="Q278">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R278">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S278">
         <v>2.75</v>
       </c>
       <c r="T278">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U278">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
         <v>0</v>
@@ -24324,31 +24324,31 @@
         <v>6.5</v>
       </c>
       <c r="M279">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N279">
         <v>4.5</v>
       </c>
       <c r="O279">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P279">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q279">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R279">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S279">
         <v>3</v>
       </c>
       <c r="T279">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U279">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V279">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6956648</t>
-  </si>
-  <si>
-    <t>6961903</t>
   </si>
   <si>
     <t>6953956</t>
@@ -552,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB279"/>
+  <dimension ref="A1:AB277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,16 +643,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -667,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -735,16 +729,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -753,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -821,16 +815,16 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -839,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -907,16 +901,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -925,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -993,16 +987,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1011,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1079,16 +1073,16 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1097,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1165,16 +1159,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1183,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1251,16 +1245,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1269,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1337,16 +1331,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1355,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1423,16 +1417,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1441,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1509,16 +1503,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1527,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1595,16 +1589,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1613,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1681,16 +1675,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1699,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1767,17 +1761,17 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -1785,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1853,16 +1847,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1871,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1939,16 +1933,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1957,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2025,16 +2019,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2043,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2111,16 +2105,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2129,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2197,16 +2191,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2215,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2283,16 +2277,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2301,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2369,16 +2363,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2387,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2455,16 +2449,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2473,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2541,16 +2535,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2559,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2627,16 +2621,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2645,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2713,16 +2707,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2731,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2799,16 +2793,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2817,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2885,16 +2879,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2903,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2971,16 +2965,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2989,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3057,16 +3051,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3075,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3143,17 +3137,17 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>52</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -3161,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3229,16 +3223,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3247,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3315,16 +3309,16 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3333,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3401,16 +3395,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3419,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3487,16 +3481,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
         <v>42</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3505,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3573,16 +3567,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3591,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3659,16 +3653,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3677,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3745,16 +3739,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3763,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3831,16 +3825,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3849,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3917,16 +3911,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3935,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -4003,16 +3997,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4021,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4089,16 +4083,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4107,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4175,16 +4169,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4193,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4261,16 +4255,16 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4279,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4347,16 +4341,16 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4365,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4433,16 +4427,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4451,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4519,16 +4513,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4537,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4605,16 +4599,16 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4623,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4691,16 +4685,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4709,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4777,16 +4771,16 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4795,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4863,16 +4857,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4881,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4949,16 +4943,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4967,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5035,16 +5029,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5053,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5121,16 +5115,16 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5139,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5207,16 +5201,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5225,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5293,16 +5287,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5311,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5379,16 +5373,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5397,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5465,16 +5459,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5483,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5551,16 +5545,16 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5569,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5637,16 +5631,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5655,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5723,16 +5717,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5741,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5809,16 +5803,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5827,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5895,16 +5889,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5913,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5981,16 +5975,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5999,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6067,16 +6061,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6085,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6153,16 +6147,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6171,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6239,16 +6233,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6257,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6325,16 +6319,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6343,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6411,16 +6405,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6429,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6497,16 +6491,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6515,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6583,16 +6577,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6601,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6669,16 +6663,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6687,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6755,16 +6749,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6773,7 +6767,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6841,16 +6835,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6859,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6927,16 +6921,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6945,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -7013,16 +7007,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7031,7 +7025,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7099,16 +7093,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7117,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7185,16 +7179,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7203,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7271,16 +7265,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7289,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7357,16 +7351,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7375,7 +7369,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7443,16 +7437,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7461,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7529,25 +7523,25 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
         <v>54</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>56</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7615,16 +7609,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7633,7 +7627,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7701,16 +7695,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7719,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7787,16 +7781,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7805,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7873,16 +7867,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7891,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7959,16 +7953,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7977,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8045,16 +8039,16 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8063,7 +8057,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8131,16 +8125,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8149,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8217,16 +8211,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8235,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8303,16 +8297,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8321,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8389,16 +8383,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8407,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8475,16 +8469,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8493,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8561,16 +8555,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8579,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8647,16 +8641,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8665,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8733,16 +8727,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8751,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8819,16 +8813,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
         <v>38</v>
-      </c>
-      <c r="F97" t="s">
-        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8837,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8905,16 +8899,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8923,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8991,16 +8985,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9009,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9077,16 +9071,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9095,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9163,16 +9157,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9181,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9249,16 +9243,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
         <v>49</v>
-      </c>
-      <c r="F102" t="s">
-        <v>51</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9267,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9335,16 +9329,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9353,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9421,16 +9415,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9439,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9507,16 +9501,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9525,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9593,16 +9587,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9611,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9679,16 +9673,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9697,7 +9691,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9765,16 +9759,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9783,7 +9777,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9851,16 +9845,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9869,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9937,16 +9931,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9955,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -10023,16 +10017,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10041,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10109,17 +10103,17 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
         <v>46</v>
       </c>
-      <c r="F112" t="s">
-        <v>48</v>
-      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -10127,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10195,16 +10189,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10213,7 +10207,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10281,16 +10275,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10299,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10367,16 +10361,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10385,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10453,16 +10447,16 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10471,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10539,16 +10533,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10557,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10625,16 +10619,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10643,7 +10637,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10711,16 +10705,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10729,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10797,16 +10791,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10815,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10883,16 +10877,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10901,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10969,16 +10963,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10987,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11055,16 +11049,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11073,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11141,16 +11135,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11159,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11227,16 +11221,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11245,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11313,16 +11307,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11331,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11399,16 +11393,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11417,7 +11411,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11485,16 +11479,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11503,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11571,17 +11565,17 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
         <v>45</v>
       </c>
-      <c r="F129" t="s">
-        <v>47</v>
-      </c>
       <c r="G129">
         <v>2</v>
       </c>
@@ -11589,7 +11583,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11657,16 +11651,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11675,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11743,16 +11737,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11761,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11829,16 +11823,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11847,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11915,16 +11909,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11933,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -12001,16 +11995,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s">
         <v>44</v>
-      </c>
-      <c r="F134" t="s">
-        <v>46</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12019,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12087,16 +12081,16 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12105,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12173,16 +12167,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12191,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12259,16 +12253,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12277,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12345,16 +12339,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12363,7 +12357,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12431,16 +12425,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12449,7 +12443,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12517,16 +12511,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12535,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12603,16 +12597,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12621,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12689,16 +12683,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12707,7 +12701,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12775,16 +12769,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12793,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12861,16 +12855,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12879,7 +12873,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12947,16 +12941,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12965,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13033,16 +13027,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13051,7 +13045,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13119,16 +13113,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13137,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13205,16 +13199,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13223,7 +13217,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13291,16 +13285,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13309,7 +13303,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13377,16 +13371,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13395,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13463,16 +13457,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13481,7 +13475,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13549,16 +13543,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13567,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13635,16 +13629,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13653,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13721,16 +13715,16 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13739,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13807,16 +13801,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13825,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13893,16 +13887,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13911,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13979,16 +13973,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13997,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14065,16 +14059,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14083,7 +14077,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14151,16 +14145,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14169,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14237,16 +14231,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14255,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14323,16 +14317,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14341,7 +14335,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14409,16 +14403,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14427,7 +14421,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14495,16 +14489,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14513,7 +14507,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14581,16 +14575,16 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14599,7 +14593,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14667,16 +14661,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14685,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14753,16 +14747,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14771,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14839,16 +14833,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14857,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14925,16 +14919,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14943,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -15011,16 +15005,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15029,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15097,16 +15091,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15115,7 +15109,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15183,16 +15177,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15201,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15269,16 +15263,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15287,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15355,16 +15349,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15373,7 +15367,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15441,16 +15435,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15459,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15527,16 +15521,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15545,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15613,16 +15607,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15631,7 +15625,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15699,16 +15693,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
+        <v>46</v>
+      </c>
+      <c r="F177" t="s">
         <v>48</v>
-      </c>
-      <c r="F177" t="s">
-        <v>50</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15717,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15785,16 +15779,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15803,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15871,16 +15865,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15889,7 +15883,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15957,16 +15951,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15975,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16043,16 +16037,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16061,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16129,16 +16123,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" t="s">
         <v>47</v>
-      </c>
-      <c r="F182" t="s">
-        <v>49</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16147,7 +16141,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16215,16 +16209,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16233,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16301,16 +16295,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16319,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16387,16 +16381,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16405,7 +16399,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16473,16 +16467,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16491,7 +16485,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16559,16 +16553,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16577,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16645,16 +16639,16 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16663,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16731,16 +16725,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16749,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16817,16 +16811,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16835,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16903,16 +16897,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16921,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16989,16 +16983,16 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17007,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17075,16 +17069,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17093,7 +17087,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17161,16 +17155,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17179,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17247,16 +17241,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17265,7 +17259,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17333,16 +17327,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17351,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17419,16 +17413,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17437,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17505,16 +17499,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17523,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17591,16 +17585,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17609,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17677,16 +17671,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17695,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17763,16 +17757,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17781,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17849,16 +17843,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17867,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17935,16 +17929,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45354.35416666666</v>
       </c>
       <c r="E203" t="s">
+        <v>49</v>
+      </c>
+      <c r="F203" t="s">
         <v>51</v>
-      </c>
-      <c r="F203" t="s">
-        <v>53</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17953,7 +17947,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J203">
         <v>2.45</v>
@@ -18021,16 +18015,16 @@
         <v>6775556</v>
       </c>
       <c r="C204" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="s">
         <v>43</v>
-      </c>
-      <c r="F204" t="s">
-        <v>45</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18039,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J204">
         <v>2.05</v>
@@ -18107,16 +18101,16 @@
         <v>6775559</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18125,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J205">
         <v>1.95</v>
@@ -18193,16 +18187,16 @@
         <v>6775558</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45355.625</v>
       </c>
       <c r="E206" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18211,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J206">
         <v>2.05</v>
@@ -18279,16 +18273,16 @@
         <v>6775564</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45359.58333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18297,7 +18291,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18365,16 +18359,16 @@
         <v>6775562</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45359.6875</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18383,7 +18377,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>1.952</v>
@@ -18451,16 +18445,16 @@
         <v>6775563</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18469,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J209">
         <v>2.625</v>
@@ -18537,16 +18531,16 @@
         <v>6774879</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18555,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J210">
         <v>4.75</v>
@@ -18623,16 +18617,16 @@
         <v>6775561</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18641,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J211">
         <v>3</v>
@@ -18709,16 +18703,16 @@
         <v>6774464</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -18727,7 +18721,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18795,16 +18789,16 @@
         <v>6775565</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18813,7 +18807,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18881,16 +18875,16 @@
         <v>6775566</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18899,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J214">
         <v>3.5</v>
@@ -18967,16 +18961,16 @@
         <v>6774465</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45362.625</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18985,7 +18979,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19053,16 +19047,16 @@
         <v>7917193</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45364.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19071,7 +19065,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J216">
         <v>4</v>
@@ -19139,16 +19133,16 @@
         <v>6775568</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45366.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19157,7 +19151,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19225,16 +19219,16 @@
         <v>6775570</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45366.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19243,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19311,16 +19305,16 @@
         <v>6775567</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45367.35416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19329,7 +19323,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J219">
         <v>1.95</v>
@@ -19397,16 +19391,16 @@
         <v>6775572</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19415,7 +19409,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J220">
         <v>2.625</v>
@@ -19483,16 +19477,16 @@
         <v>6774466</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45367.5625</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19501,7 +19495,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19569,16 +19563,16 @@
         <v>6774878</v>
       </c>
       <c r="C222" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19587,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J222">
         <v>1.666</v>
@@ -19655,16 +19649,16 @@
         <v>6775569</v>
       </c>
       <c r="C223" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F223" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19673,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J223">
         <v>3.4</v>
@@ -19741,16 +19735,16 @@
         <v>6774467</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19759,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J224">
         <v>5.5</v>
@@ -19827,16 +19821,16 @@
         <v>6775571</v>
       </c>
       <c r="C225" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19845,7 +19839,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J225">
         <v>1.75</v>
@@ -19913,16 +19907,16 @@
         <v>6774469</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19931,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J226">
         <v>1.4</v>
@@ -19999,16 +19993,16 @@
         <v>6774468</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G227">
         <v>6</v>
@@ -20017,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20085,16 +20079,16 @@
         <v>6775574</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20103,7 +20097,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J228">
         <v>2.1</v>
@@ -20171,16 +20165,16 @@
         <v>6775575</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20189,7 +20183,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20257,16 +20251,16 @@
         <v>6774877</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45383.3125</v>
       </c>
       <c r="E230" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20275,7 +20269,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J230">
         <v>2.625</v>
@@ -20343,16 +20337,16 @@
         <v>6775576</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20361,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20429,16 +20423,16 @@
         <v>6775578</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45383.52083333334</v>
       </c>
       <c r="E232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20447,7 +20441,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20515,16 +20509,16 @@
         <v>6775573</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45383.625</v>
       </c>
       <c r="E233" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20533,7 +20527,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J233">
         <v>3.6</v>
@@ -20601,16 +20595,16 @@
         <v>6775577</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20619,7 +20613,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J234">
         <v>2.9</v>
@@ -20687,16 +20681,16 @@
         <v>6774470</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E235" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20705,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J235">
         <v>1.5</v>
@@ -20773,16 +20767,16 @@
         <v>6775585</v>
       </c>
       <c r="C236" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20791,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -20859,16 +20853,16 @@
         <v>6775582</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20877,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J237">
         <v>1.8</v>
@@ -20945,16 +20939,16 @@
         <v>6774876</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E238" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20963,7 +20957,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J238">
         <v>1.85</v>
@@ -21031,16 +21025,16 @@
         <v>6775587</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
         <v>45388.625</v>
       </c>
       <c r="E239" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21049,7 +21043,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21117,16 +21111,16 @@
         <v>6775586</v>
       </c>
       <c r="C240" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21135,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J240">
         <v>2.5</v>
@@ -21203,16 +21197,16 @@
         <v>6775583</v>
       </c>
       <c r="C241" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21221,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J241">
         <v>2.5</v>
@@ -21289,16 +21283,16 @@
         <v>6775584</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D242" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21307,7 +21301,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21375,16 +21369,16 @@
         <v>6775579</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D243" s="2">
         <v>45390.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21393,7 +21387,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J243">
         <v>2.2</v>
@@ -21461,16 +21455,16 @@
         <v>6775592</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>45394.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21479,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21547,16 +21541,16 @@
         <v>6774471</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21565,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J245">
         <v>1.5</v>
@@ -21633,16 +21627,16 @@
         <v>6850053</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21651,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J246">
         <v>2.8</v>
@@ -21719,16 +21713,16 @@
         <v>6774875</v>
       </c>
       <c r="C247" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D247" s="2">
         <v>45395.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21737,7 +21731,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J247">
         <v>4.333</v>
@@ -21805,16 +21799,16 @@
         <v>6775591</v>
       </c>
       <c r="C248" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2">
         <v>45395.625</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21823,7 +21817,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J248">
         <v>2.25</v>
@@ -21891,16 +21885,16 @@
         <v>6775593</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D249" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E249" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21909,7 +21903,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J249">
         <v>3.5</v>
@@ -21977,16 +21971,16 @@
         <v>6775589</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D250" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21995,7 +21989,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -22063,16 +22057,16 @@
         <v>6775588</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D251" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22081,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J251">
         <v>2.25</v>
@@ -22149,17 +22143,17 @@
         <v>6775590</v>
       </c>
       <c r="C252" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E252" t="s">
+        <v>39</v>
+      </c>
+      <c r="F252" t="s">
         <v>41</v>
       </c>
-      <c r="F252" t="s">
-        <v>43</v>
-      </c>
       <c r="G252">
         <v>2</v>
       </c>
@@ -22167,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22235,16 +22229,16 @@
         <v>6775595</v>
       </c>
       <c r="C253" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D253" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22253,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22321,16 +22315,16 @@
         <v>6775598</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D254" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" t="s">
         <v>40</v>
-      </c>
-      <c r="F254" t="s">
-        <v>42</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22339,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J254">
         <v>1.571</v>
@@ -22407,16 +22401,16 @@
         <v>6775597</v>
       </c>
       <c r="C255" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22425,7 +22419,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J255">
         <v>1.85</v>
@@ -22493,16 +22487,16 @@
         <v>6774472</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D256" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22511,7 +22505,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J256">
         <v>2.55</v>
@@ -22579,16 +22573,16 @@
         <v>6775594</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D257" s="2">
         <v>45402.625</v>
       </c>
       <c r="E257" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22597,7 +22591,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J257">
         <v>2.875</v>
@@ -22665,16 +22659,16 @@
         <v>6850054</v>
       </c>
       <c r="C258" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D258" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F258" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22683,7 +22677,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J258">
         <v>1.7</v>
@@ -22751,16 +22745,16 @@
         <v>6830603</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F259" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22769,7 +22763,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J259">
         <v>4.75</v>
@@ -22837,16 +22831,16 @@
         <v>6775596</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D260" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22855,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J260">
         <v>1.7</v>
@@ -22923,16 +22917,16 @@
         <v>6885526</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D261" s="2">
         <v>45404.58333333334</v>
       </c>
       <c r="E261" t="s">
+        <v>35</v>
+      </c>
+      <c r="F261" t="s">
         <v>37</v>
-      </c>
-      <c r="F261" t="s">
-        <v>39</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -22941,7 +22935,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J261">
         <v>2.1</v>
@@ -23009,16 +23003,16 @@
         <v>6876422</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D262" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23027,7 +23021,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J262">
         <v>1.909</v>
@@ -23095,16 +23089,16 @@
         <v>6921816</v>
       </c>
       <c r="C263" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D263" s="2">
         <v>45408.64583333334</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F263" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23113,7 +23107,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J263">
         <v>2.1</v>
@@ -23181,16 +23175,16 @@
         <v>6775599</v>
       </c>
       <c r="C264" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D264" s="2">
         <v>45409.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F264" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G264">
         <v>4</v>
@@ -23199,7 +23193,7 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J264">
         <v>1.615</v>
@@ -23267,16 +23261,16 @@
         <v>6774473</v>
       </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D265" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -23285,7 +23279,7 @@
         <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J265">
         <v>2</v>
@@ -23353,16 +23347,16 @@
         <v>6910897</v>
       </c>
       <c r="C266" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D266" s="2">
         <v>45409.625</v>
       </c>
       <c r="E266" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23371,7 +23365,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J266">
         <v>3.6</v>
@@ -23439,16 +23433,16 @@
         <v>6817569</v>
       </c>
       <c r="C267" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E267" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -23457,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23525,16 +23519,16 @@
         <v>6921817</v>
       </c>
       <c r="C268" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D268" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E268" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23543,7 +23537,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J268">
         <v>4.75</v>
@@ -23611,16 +23605,16 @@
         <v>6916500</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E269" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F269" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23629,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J269">
         <v>1.833</v>
@@ -23697,16 +23691,16 @@
         <v>6850052</v>
       </c>
       <c r="C270" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D270" s="2">
         <v>45411.58333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23715,7 +23709,7 @@
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J270">
         <v>2.8</v>
@@ -23783,43 +23777,43 @@
         <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D271" s="2">
-        <v>45415.54166666666</v>
+        <v>45416.41666666666</v>
       </c>
       <c r="E271" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F271" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J271">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="K271">
         <v>3.5</v>
       </c>
       <c r="L271">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="M271">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N271">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O271">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="P271">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q271">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R271">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S271">
         <v>2.5</v>
@@ -23848,52 +23842,52 @@
         <v>28</v>
       </c>
       <c r="C272" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D272" s="2">
-        <v>45415.64583333334</v>
+        <v>45416.52083333334</v>
       </c>
       <c r="E272" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J272">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K272">
         <v>3.5</v>
       </c>
       <c r="L272">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M272">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N272">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O272">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P272">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q272">
+        <v>2.05</v>
+      </c>
+      <c r="R272">
         <v>1.8</v>
       </c>
-      <c r="R272">
-        <v>2.05</v>
-      </c>
       <c r="S272">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T272">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U272">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V272">
         <v>0</v>
@@ -23913,52 +23907,52 @@
         <v>29</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D273" s="2">
-        <v>45416.41666666666</v>
+        <v>45416.625</v>
       </c>
       <c r="E273" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J273">
+        <v>4.333</v>
+      </c>
+      <c r="K273">
+        <v>3.6</v>
+      </c>
+      <c r="L273">
+        <v>1.8</v>
+      </c>
+      <c r="M273">
+        <v>4.75</v>
+      </c>
+      <c r="N273">
         <v>3.8</v>
       </c>
-      <c r="K273">
-        <v>3.5</v>
-      </c>
-      <c r="L273">
+      <c r="O273">
+        <v>1.7</v>
+      </c>
+      <c r="P273">
+        <v>0.75</v>
+      </c>
+      <c r="Q273">
         <v>1.95</v>
       </c>
-      <c r="M273">
-        <v>4</v>
-      </c>
-      <c r="N273">
-        <v>3.6</v>
-      </c>
-      <c r="O273">
-        <v>1.833</v>
-      </c>
-      <c r="P273">
-        <v>0.5</v>
-      </c>
-      <c r="Q273">
-        <v>2</v>
-      </c>
       <c r="R273">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S273">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T273">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U273">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V273">
         <v>0</v>
@@ -23978,52 +23972,52 @@
         <v>30</v>
       </c>
       <c r="C274" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D274" s="2">
-        <v>45416.52083333334</v>
+        <v>45417.3125</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J274">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="K274">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L274">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="M274">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N274">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O274">
+        <v>2.875</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
+        <v>1.8</v>
+      </c>
+      <c r="R274">
         <v>2.05</v>
       </c>
-      <c r="P274">
-        <v>0.25</v>
-      </c>
-      <c r="Q274">
-        <v>2.025</v>
-      </c>
-      <c r="R274">
-        <v>1.825</v>
-      </c>
       <c r="S274">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T274">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U274">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
         <v>0</v>
@@ -24043,52 +24037,52 @@
         <v>31</v>
       </c>
       <c r="C275" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D275" s="2">
-        <v>45416.625</v>
+        <v>45417.41666666666</v>
       </c>
       <c r="E275" t="s">
+        <v>43</v>
+      </c>
+      <c r="F275" t="s">
         <v>39</v>
       </c>
-      <c r="F275" t="s">
-        <v>47</v>
-      </c>
       <c r="J275">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="K275">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L275">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="M275">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N275">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O275">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="P275">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q275">
+        <v>1.975</v>
+      </c>
+      <c r="R275">
         <v>1.875</v>
       </c>
-      <c r="R275">
-        <v>1.975</v>
-      </c>
       <c r="S275">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U275">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V275">
         <v>0</v>
@@ -24108,37 +24102,37 @@
         <v>32</v>
       </c>
       <c r="C276" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="E276" t="s">
         <v>36</v>
       </c>
-      <c r="D276" s="2">
-        <v>45417.3125</v>
-      </c>
-      <c r="E276" t="s">
-        <v>37</v>
-      </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J276">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="K276">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="L276">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="M276">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="N276">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O276">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="P276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q276">
         <v>1.8</v>
@@ -24147,13 +24141,13 @@
         <v>2.05</v>
       </c>
       <c r="S276">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T276">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U276">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V276">
         <v>0</v>
@@ -24173,53 +24167,53 @@
         <v>33</v>
       </c>
       <c r="C277" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D277" s="2">
-        <v>45417.41666666666</v>
+        <v>45418.58333333334</v>
       </c>
       <c r="E277" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J277">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="K277">
+        <v>4.5</v>
+      </c>
+      <c r="L277">
+        <v>6.5</v>
+      </c>
+      <c r="M277">
+        <v>1.533</v>
+      </c>
+      <c r="N277">
+        <v>4.5</v>
+      </c>
+      <c r="O277">
+        <v>5.5</v>
+      </c>
+      <c r="P277">
+        <v>-1</v>
+      </c>
+      <c r="Q277">
+        <v>1.8</v>
+      </c>
+      <c r="R277">
+        <v>2.05</v>
+      </c>
+      <c r="S277">
         <v>3</v>
       </c>
-      <c r="L277">
-        <v>2.7</v>
-      </c>
-      <c r="M277">
-        <v>2.75</v>
-      </c>
-      <c r="N277">
-        <v>3</v>
-      </c>
-      <c r="O277">
-        <v>2.7</v>
-      </c>
-      <c r="P277">
-        <v>0</v>
-      </c>
-      <c r="Q277">
+      <c r="T277">
         <v>1.95</v>
       </c>
-      <c r="R277">
+      <c r="U277">
         <v>1.9</v>
       </c>
-      <c r="S277">
-        <v>2</v>
-      </c>
-      <c r="T277">
-        <v>1.85</v>
-      </c>
-      <c r="U277">
-        <v>2</v>
-      </c>
       <c r="V277">
         <v>0</v>
       </c>
@@ -24227,136 +24221,6 @@
         <v>0</v>
       </c>
       <c r="X277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:24">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="B278" t="s">
-        <v>34</v>
-      </c>
-      <c r="C278" t="s">
-        <v>36</v>
-      </c>
-      <c r="D278" s="2">
-        <v>45417.52083333334</v>
-      </c>
-      <c r="E278" t="s">
-        <v>38</v>
-      </c>
-      <c r="F278" t="s">
-        <v>52</v>
-      </c>
-      <c r="J278">
-        <v>1.5</v>
-      </c>
-      <c r="K278">
-        <v>4.333</v>
-      </c>
-      <c r="L278">
-        <v>5.75</v>
-      </c>
-      <c r="M278">
-        <v>1.5</v>
-      </c>
-      <c r="N278">
-        <v>4.333</v>
-      </c>
-      <c r="O278">
-        <v>5.75</v>
-      </c>
-      <c r="P278">
-        <v>-1</v>
-      </c>
-      <c r="Q278">
-        <v>1.85</v>
-      </c>
-      <c r="R278">
-        <v>2</v>
-      </c>
-      <c r="S278">
-        <v>2.75</v>
-      </c>
-      <c r="T278">
-        <v>1.95</v>
-      </c>
-      <c r="U278">
-        <v>1.9</v>
-      </c>
-      <c r="V278">
-        <v>0</v>
-      </c>
-      <c r="W278">
-        <v>0</v>
-      </c>
-      <c r="X278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279" t="s">
-        <v>35</v>
-      </c>
-      <c r="C279" t="s">
-        <v>36</v>
-      </c>
-      <c r="D279" s="2">
-        <v>45418.58333333334</v>
-      </c>
-      <c r="E279" t="s">
-        <v>50</v>
-      </c>
-      <c r="F279" t="s">
-        <v>55</v>
-      </c>
-      <c r="J279">
-        <v>1.45</v>
-      </c>
-      <c r="K279">
-        <v>4.5</v>
-      </c>
-      <c r="L279">
-        <v>6.5</v>
-      </c>
-      <c r="M279">
-        <v>1.5</v>
-      </c>
-      <c r="N279">
-        <v>4.5</v>
-      </c>
-      <c r="O279">
-        <v>6</v>
-      </c>
-      <c r="P279">
-        <v>-1</v>
-      </c>
-      <c r="Q279">
-        <v>1.8</v>
-      </c>
-      <c r="R279">
-        <v>2.05</v>
-      </c>
-      <c r="S279">
-        <v>3</v>
-      </c>
-      <c r="T279">
-        <v>1.975</v>
-      </c>
-      <c r="U279">
-        <v>1.875</v>
-      </c>
-      <c r="V279">
-        <v>0</v>
-      </c>
-      <c r="W279">
-        <v>0</v>
-      </c>
-      <c r="X279">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -97,25 +97,31 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>6953956</t>
+    <t>6990213</t>
   </si>
   <si>
-    <t>6961900</t>
+    <t>6984789</t>
   </si>
   <si>
-    <t>6956649</t>
+    <t>6994656</t>
   </si>
   <si>
-    <t>6953955</t>
+    <t>6965970</t>
   </si>
   <si>
-    <t>6946786</t>
+    <t>7012293</t>
   </si>
   <si>
-    <t>6961901</t>
+    <t>6993990</t>
   </si>
   <si>
-    <t>6961902</t>
+    <t>6994657</t>
+  </si>
+  <si>
+    <t>7016255</t>
+  </si>
+  <si>
+    <t>6990214</t>
   </si>
   <si>
     <t>Poland Ekstraklasa</t>
@@ -546,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB277"/>
+  <dimension ref="A1:AB288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,16 +649,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -661,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -729,16 +735,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -815,16 +821,16 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -833,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -901,16 +907,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -987,16 +993,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1005,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1073,16 +1079,16 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1091,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1159,16 +1165,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1177,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1245,16 +1251,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1263,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1331,16 +1337,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1349,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1417,16 +1423,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1503,16 +1509,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1589,16 +1595,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1607,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1675,16 +1681,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1693,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1761,16 +1767,16 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1779,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1847,16 +1853,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1865,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1933,16 +1939,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1951,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2019,16 +2025,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2037,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2105,16 +2111,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2123,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2191,16 +2197,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2209,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2277,16 +2283,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2295,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2363,16 +2369,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2381,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2449,16 +2455,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2467,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2535,16 +2541,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2553,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2621,16 +2627,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2707,16 +2713,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2725,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2793,16 +2799,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2811,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2879,16 +2885,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2897,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2965,16 +2971,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2983,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3051,16 +3057,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3069,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3137,16 +3143,16 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3155,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3223,16 +3229,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3241,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3309,16 +3315,16 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3327,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3395,16 +3401,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3481,16 +3487,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3499,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3567,16 +3573,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3585,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3653,16 +3659,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3671,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3739,16 +3745,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3757,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3825,16 +3831,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3843,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3911,16 +3917,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3929,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -3997,16 +4003,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4083,16 +4089,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4101,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4169,16 +4175,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4187,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4255,16 +4261,16 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4273,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4341,16 +4347,16 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4359,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4427,16 +4433,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
         <v>51</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4445,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4513,16 +4519,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4531,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4599,17 +4605,17 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
         <v>43</v>
       </c>
-      <c r="F48" t="s">
-        <v>41</v>
-      </c>
       <c r="G48">
         <v>2</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4685,16 +4691,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4703,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4771,17 +4777,17 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
         <v>48</v>
       </c>
-      <c r="F50" t="s">
-        <v>46</v>
-      </c>
       <c r="G50">
         <v>0</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4857,16 +4863,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4875,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4943,16 +4949,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4961,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5029,16 +5035,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5047,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5115,16 +5121,16 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5133,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5201,16 +5207,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5219,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5287,16 +5293,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5305,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5373,16 +5379,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5391,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5459,16 +5465,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5477,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5545,16 +5551,16 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5563,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5631,16 +5637,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5649,7 +5655,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5717,16 +5723,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5735,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5803,16 +5809,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5821,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5889,16 +5895,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5907,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5975,16 +5981,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5993,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6061,16 +6067,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6079,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6147,16 +6153,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6165,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6233,16 +6239,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6251,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6319,16 +6325,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6337,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6405,16 +6411,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6423,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6491,16 +6497,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6509,7 +6515,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6577,16 +6583,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6595,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6663,16 +6669,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6681,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6749,16 +6755,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6767,7 +6773,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6835,16 +6841,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6853,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6921,16 +6927,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6939,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -7007,16 +7013,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7025,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7093,16 +7099,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7111,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7179,16 +7185,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7197,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7265,16 +7271,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7283,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7351,16 +7357,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7369,7 +7375,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7437,16 +7443,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7455,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7523,16 +7529,16 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7541,7 +7547,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7609,16 +7615,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7627,7 +7633,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7695,16 +7701,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7713,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7781,16 +7787,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7799,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7867,16 +7873,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7885,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7953,16 +7959,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7971,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8039,16 +8045,16 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8057,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8125,16 +8131,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8143,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8211,16 +8217,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8229,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8297,16 +8303,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8315,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8383,16 +8389,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8401,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8469,16 +8475,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
         <v>41</v>
-      </c>
-      <c r="F93" t="s">
-        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8487,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8555,16 +8561,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8573,7 +8579,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8641,16 +8647,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8659,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8727,16 +8733,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8745,7 +8751,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8813,16 +8819,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8831,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8899,16 +8905,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8917,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8985,16 +8991,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9003,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9071,16 +9077,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9089,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9157,16 +9163,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9175,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9243,16 +9249,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9261,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9329,16 +9335,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9347,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9415,16 +9421,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s">
         <v>40</v>
-      </c>
-      <c r="F104" t="s">
-        <v>38</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9433,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9501,16 +9507,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s">
         <v>37</v>
-      </c>
-      <c r="F105" t="s">
-        <v>35</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9519,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9587,16 +9593,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" t="s">
         <v>47</v>
-      </c>
-      <c r="F106" t="s">
-        <v>45</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9605,7 +9611,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9673,16 +9679,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9691,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9759,16 +9765,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9777,7 +9783,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9845,16 +9851,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9863,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9931,16 +9937,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9949,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -10017,16 +10023,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10035,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10103,16 +10109,16 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10121,7 +10127,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10189,16 +10195,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10207,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10275,16 +10281,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10293,7 +10299,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10361,16 +10367,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10379,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10447,16 +10453,16 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10465,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10533,16 +10539,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10551,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10619,16 +10625,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10637,7 +10643,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10705,16 +10711,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10723,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10791,16 +10797,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10809,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10877,16 +10883,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10895,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10963,16 +10969,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10981,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11049,16 +11055,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11067,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11135,16 +11141,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11153,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11221,16 +11227,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11239,7 +11245,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11307,16 +11313,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11325,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11393,16 +11399,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11411,7 +11417,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11479,16 +11485,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11497,7 +11503,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11565,16 +11571,16 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11583,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11651,16 +11657,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11669,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11737,16 +11743,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11755,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11823,16 +11829,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11841,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11909,16 +11915,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11927,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11995,16 +12001,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12013,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12081,16 +12087,16 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12099,7 +12105,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12167,16 +12173,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12185,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12253,16 +12259,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12271,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12339,16 +12345,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12357,7 +12363,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12425,16 +12431,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12443,7 +12449,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12511,16 +12517,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12529,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12597,16 +12603,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12615,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12683,16 +12689,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12701,7 +12707,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12769,16 +12775,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12787,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12855,16 +12861,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12873,7 +12879,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12941,16 +12947,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12959,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13027,16 +13033,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13045,7 +13051,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13113,16 +13119,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13131,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13199,16 +13205,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13217,7 +13223,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13285,16 +13291,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13303,7 +13309,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13371,16 +13377,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13389,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13457,16 +13463,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13475,7 +13481,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13543,16 +13549,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13561,7 +13567,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13629,16 +13635,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13647,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13715,16 +13721,16 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13733,7 +13739,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13801,16 +13807,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13819,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13887,16 +13893,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13905,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13973,16 +13979,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13991,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14059,16 +14065,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14077,7 +14083,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14145,16 +14151,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14163,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14231,16 +14237,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14249,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14317,16 +14323,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14335,7 +14341,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14403,16 +14409,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14421,7 +14427,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14489,16 +14495,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14507,7 +14513,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14575,16 +14581,16 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14593,7 +14599,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14661,16 +14667,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14679,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14747,16 +14753,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14765,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14833,16 +14839,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14851,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14919,16 +14925,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s">
         <v>39</v>
-      </c>
-      <c r="F168" t="s">
-        <v>37</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14937,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -15005,16 +15011,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15023,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15091,16 +15097,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15109,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15177,16 +15183,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15195,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15263,16 +15269,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
+        <v>54</v>
+      </c>
+      <c r="F172" t="s">
         <v>52</v>
-      </c>
-      <c r="F172" t="s">
-        <v>50</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15281,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15349,16 +15355,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15367,7 +15373,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15435,16 +15441,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15453,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15521,16 +15527,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15539,7 +15545,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15607,16 +15613,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15625,7 +15631,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15693,16 +15699,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15711,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15779,16 +15785,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15797,7 +15803,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15865,16 +15871,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
+        <v>52</v>
+      </c>
+      <c r="F179" t="s">
         <v>50</v>
-      </c>
-      <c r="F179" t="s">
-        <v>48</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15883,7 +15889,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15951,16 +15957,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15969,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16037,16 +16043,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16055,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16123,16 +16129,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16141,7 +16147,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16209,16 +16215,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16227,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16295,16 +16301,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16313,7 +16319,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16381,16 +16387,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16399,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16467,16 +16473,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16485,7 +16491,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16553,16 +16559,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16571,7 +16577,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16639,16 +16645,16 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16657,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16725,16 +16731,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16743,7 +16749,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16811,16 +16817,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16829,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16897,16 +16903,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16915,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16983,16 +16989,16 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17001,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17069,16 +17075,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17087,7 +17093,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17155,16 +17161,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
+        <v>44</v>
+      </c>
+      <c r="F194" t="s">
         <v>42</v>
-      </c>
-      <c r="F194" t="s">
-        <v>40</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17173,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17241,16 +17247,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17259,7 +17265,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17327,16 +17333,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17345,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17413,16 +17419,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17431,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17499,16 +17505,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17517,7 +17523,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17585,16 +17591,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17603,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17671,16 +17677,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17689,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17757,16 +17763,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17775,7 +17781,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17843,16 +17849,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17861,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17929,16 +17935,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D203" s="2">
         <v>45354.35416666666</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17947,7 +17953,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J203">
         <v>2.45</v>
@@ -18015,16 +18021,16 @@
         <v>6775556</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D204" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18033,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J204">
         <v>2.05</v>
@@ -18101,16 +18107,16 @@
         <v>6775559</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D205" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18119,7 +18125,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J205">
         <v>1.95</v>
@@ -18187,16 +18193,16 @@
         <v>6775558</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D206" s="2">
         <v>45355.625</v>
       </c>
       <c r="E206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18205,7 +18211,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J206">
         <v>2.05</v>
@@ -18273,16 +18279,16 @@
         <v>6775564</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D207" s="2">
         <v>45359.58333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18291,7 +18297,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18359,16 +18365,16 @@
         <v>6775562</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D208" s="2">
         <v>45359.6875</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18377,7 +18383,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J208">
         <v>1.952</v>
@@ -18445,16 +18451,16 @@
         <v>6775563</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D209" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18463,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J209">
         <v>2.625</v>
@@ -18531,16 +18537,16 @@
         <v>6774879</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D210" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18549,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J210">
         <v>4.75</v>
@@ -18617,16 +18623,16 @@
         <v>6775561</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D211" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18635,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J211">
         <v>3</v>
@@ -18703,16 +18709,16 @@
         <v>6774464</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D212" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -18721,7 +18727,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18789,16 +18795,16 @@
         <v>6775565</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D213" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18807,7 +18813,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18875,16 +18881,16 @@
         <v>6775566</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D214" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18893,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J214">
         <v>3.5</v>
@@ -18961,16 +18967,16 @@
         <v>6774465</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D215" s="2">
         <v>45362.625</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18979,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19047,16 +19053,16 @@
         <v>7917193</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D216" s="2">
         <v>45364.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19065,7 +19071,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J216">
         <v>4</v>
@@ -19133,16 +19139,16 @@
         <v>6775568</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D217" s="2">
         <v>45366.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19151,7 +19157,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19219,16 +19225,16 @@
         <v>6775570</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D218" s="2">
         <v>45366.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19237,7 +19243,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19305,16 +19311,16 @@
         <v>6775567</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D219" s="2">
         <v>45367.35416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19323,7 +19329,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J219">
         <v>1.95</v>
@@ -19391,16 +19397,16 @@
         <v>6775572</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D220" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19409,7 +19415,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J220">
         <v>2.625</v>
@@ -19477,16 +19483,16 @@
         <v>6774466</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D221" s="2">
         <v>45367.5625</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19495,7 +19501,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19563,16 +19569,16 @@
         <v>6774878</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D222" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F222" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19581,7 +19587,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J222">
         <v>1.666</v>
@@ -19649,16 +19655,16 @@
         <v>6775569</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D223" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F223" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19667,7 +19673,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J223">
         <v>3.4</v>
@@ -19735,16 +19741,16 @@
         <v>6774467</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D224" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19753,7 +19759,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J224">
         <v>5.5</v>
@@ -19821,16 +19827,16 @@
         <v>6775571</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D225" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19839,7 +19845,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J225">
         <v>1.75</v>
@@ -19907,16 +19913,16 @@
         <v>6774469</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D226" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19925,7 +19931,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J226">
         <v>1.4</v>
@@ -19993,16 +19999,16 @@
         <v>6774468</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D227" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F227" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G227">
         <v>6</v>
@@ -20011,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20079,16 +20085,16 @@
         <v>6775574</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D228" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20097,7 +20103,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J228">
         <v>2.1</v>
@@ -20165,16 +20171,16 @@
         <v>6775575</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D229" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20183,7 +20189,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20251,16 +20257,16 @@
         <v>6774877</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D230" s="2">
         <v>45383.3125</v>
       </c>
       <c r="E230" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F230" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20269,7 +20275,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J230">
         <v>2.625</v>
@@ -20337,16 +20343,16 @@
         <v>6775576</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D231" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20355,7 +20361,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20423,16 +20429,16 @@
         <v>6775578</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D232" s="2">
         <v>45383.52083333334</v>
       </c>
       <c r="E232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F232" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20441,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20509,16 +20515,16 @@
         <v>6775573</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D233" s="2">
         <v>45383.625</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20527,7 +20533,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J233">
         <v>3.6</v>
@@ -20595,16 +20601,16 @@
         <v>6775577</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D234" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20613,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J234">
         <v>2.9</v>
@@ -20681,16 +20687,16 @@
         <v>6774470</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D235" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20699,7 +20705,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J235">
         <v>1.5</v>
@@ -20767,16 +20773,16 @@
         <v>6775585</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D236" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20785,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -20853,16 +20859,16 @@
         <v>6775582</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D237" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20871,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J237">
         <v>1.8</v>
@@ -20939,16 +20945,16 @@
         <v>6774876</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D238" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E238" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F238" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20957,7 +20963,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J238">
         <v>1.85</v>
@@ -21025,16 +21031,16 @@
         <v>6775587</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D239" s="2">
         <v>45388.625</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21043,7 +21049,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21111,16 +21117,16 @@
         <v>6775586</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D240" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21129,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J240">
         <v>2.5</v>
@@ -21197,16 +21203,16 @@
         <v>6775583</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D241" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21215,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J241">
         <v>2.5</v>
@@ -21283,16 +21289,16 @@
         <v>6775584</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D242" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E242" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21301,7 +21307,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21369,16 +21375,16 @@
         <v>6775579</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D243" s="2">
         <v>45390.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21387,7 +21393,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J243">
         <v>2.2</v>
@@ -21455,16 +21461,16 @@
         <v>6775592</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D244" s="2">
         <v>45394.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21473,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21541,16 +21547,16 @@
         <v>6774471</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D245" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21559,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J245">
         <v>1.5</v>
@@ -21627,16 +21633,16 @@
         <v>6850053</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D246" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21645,7 +21651,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J246">
         <v>2.8</v>
@@ -21713,16 +21719,16 @@
         <v>6774875</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D247" s="2">
         <v>45395.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21731,7 +21737,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J247">
         <v>4.333</v>
@@ -21799,16 +21805,16 @@
         <v>6775591</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D248" s="2">
         <v>45395.625</v>
       </c>
       <c r="E248" t="s">
+        <v>40</v>
+      </c>
+      <c r="F248" t="s">
         <v>38</v>
-      </c>
-      <c r="F248" t="s">
-        <v>36</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21817,7 +21823,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J248">
         <v>2.25</v>
@@ -21885,16 +21891,16 @@
         <v>6775593</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D249" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E249" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F249" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21903,7 +21909,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J249">
         <v>3.5</v>
@@ -21971,16 +21977,16 @@
         <v>6775589</v>
       </c>
       <c r="C250" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D250" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F250" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21989,7 +21995,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -22057,16 +22063,16 @@
         <v>6775588</v>
       </c>
       <c r="C251" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D251" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22075,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J251">
         <v>2.25</v>
@@ -22143,16 +22149,16 @@
         <v>6775590</v>
       </c>
       <c r="C252" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D252" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22161,7 +22167,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22229,16 +22235,16 @@
         <v>6775595</v>
       </c>
       <c r="C253" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D253" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E253" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22247,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22315,16 +22321,16 @@
         <v>6775598</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D254" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22333,7 +22339,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J254">
         <v>1.571</v>
@@ -22401,16 +22407,16 @@
         <v>6775597</v>
       </c>
       <c r="C255" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D255" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22419,7 +22425,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J255">
         <v>1.85</v>
@@ -22487,16 +22493,16 @@
         <v>6774472</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D256" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E256" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" t="s">
         <v>44</v>
-      </c>
-      <c r="F256" t="s">
-        <v>42</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22505,7 +22511,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J256">
         <v>2.55</v>
@@ -22573,16 +22579,16 @@
         <v>6775594</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D257" s="2">
         <v>45402.625</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22591,7 +22597,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J257">
         <v>2.875</v>
@@ -22659,16 +22665,16 @@
         <v>6850054</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D258" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F258" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22677,7 +22683,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J258">
         <v>1.7</v>
@@ -22745,16 +22751,16 @@
         <v>6830603</v>
       </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D259" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E259" t="s">
+        <v>51</v>
+      </c>
+      <c r="F259" t="s">
         <v>49</v>
-      </c>
-      <c r="F259" t="s">
-        <v>47</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22763,7 +22769,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J259">
         <v>4.75</v>
@@ -22831,16 +22837,16 @@
         <v>6775596</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D260" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22849,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J260">
         <v>1.7</v>
@@ -22917,16 +22923,16 @@
         <v>6885526</v>
       </c>
       <c r="C261" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D261" s="2">
         <v>45404.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -22935,7 +22941,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J261">
         <v>2.1</v>
@@ -23003,16 +23009,16 @@
         <v>6876422</v>
       </c>
       <c r="C262" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D262" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23021,7 +23027,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J262">
         <v>1.909</v>
@@ -23089,16 +23095,16 @@
         <v>6921816</v>
       </c>
       <c r="C263" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D263" s="2">
         <v>45408.64583333334</v>
       </c>
       <c r="E263" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23107,7 +23113,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J263">
         <v>2.1</v>
@@ -23175,16 +23181,16 @@
         <v>6775599</v>
       </c>
       <c r="C264" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D264" s="2">
         <v>45409.41666666666</v>
       </c>
       <c r="E264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G264">
         <v>4</v>
@@ -23193,7 +23199,7 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J264">
         <v>1.615</v>
@@ -23261,16 +23267,16 @@
         <v>6774473</v>
       </c>
       <c r="C265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D265" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E265" t="s">
+        <v>48</v>
+      </c>
+      <c r="F265" t="s">
         <v>46</v>
-      </c>
-      <c r="F265" t="s">
-        <v>44</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -23279,7 +23285,7 @@
         <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J265">
         <v>2</v>
@@ -23347,16 +23353,16 @@
         <v>6910897</v>
       </c>
       <c r="C266" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D266" s="2">
         <v>45409.625</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F266" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23365,7 +23371,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J266">
         <v>3.6</v>
@@ -23433,16 +23439,16 @@
         <v>6817569</v>
       </c>
       <c r="C267" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D267" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E267" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -23451,7 +23457,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23519,16 +23525,16 @@
         <v>6921817</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D268" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E268" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23537,7 +23543,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J268">
         <v>4.75</v>
@@ -23605,16 +23611,16 @@
         <v>6916500</v>
       </c>
       <c r="C269" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D269" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E269" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F269" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23623,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J269">
         <v>1.833</v>
@@ -23691,16 +23697,16 @@
         <v>6850052</v>
       </c>
       <c r="C270" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D270" s="2">
         <v>45411.58333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23709,7 +23715,7 @@
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J270">
         <v>2.8</v>
@@ -23773,454 +23779,1358 @@
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="s">
-        <v>27</v>
+      <c r="B271">
+        <v>6956648</v>
       </c>
       <c r="C271" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D271" s="2">
-        <v>45416.41666666666</v>
+        <v>45415.54166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F271" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="G271">
+        <v>5</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271" t="s">
+        <v>57</v>
       </c>
       <c r="J271">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="K271">
         <v>3.5</v>
       </c>
       <c r="L271">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="M271">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N271">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O271">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="P271">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q271">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R271">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S271">
         <v>2.5</v>
       </c>
       <c r="T271">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U271">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V271">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X271">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y271">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z271">
+        <v>-1</v>
+      </c>
+      <c r="AA271">
+        <v>0.875</v>
+      </c>
+      <c r="AB271">
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:28">
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="s">
-        <v>28</v>
+      <c r="B272">
+        <v>6961903</v>
       </c>
       <c r="C272" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D272" s="2">
-        <v>45416.52083333334</v>
+        <v>45415.64583333334</v>
       </c>
       <c r="E272" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F272" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="G272">
+        <v>2</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272" t="s">
+        <v>57</v>
       </c>
       <c r="J272">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K272">
         <v>3.5</v>
       </c>
       <c r="L272">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M272">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N272">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O272">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P272">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q272">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R272">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S272">
+        <v>2.75</v>
+      </c>
+      <c r="T272">
+        <v>1.975</v>
+      </c>
+      <c r="U272">
+        <v>1.875</v>
+      </c>
+      <c r="V272">
         <v>2.5</v>
       </c>
-      <c r="T272">
-        <v>1.875</v>
-      </c>
-      <c r="U272">
-        <v>1.975</v>
-      </c>
-      <c r="V272">
-        <v>0</v>
-      </c>
       <c r="W272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y272">
+        <v>0.825</v>
+      </c>
+      <c r="Z272">
+        <v>-1</v>
+      </c>
+      <c r="AA272">
+        <v>0.4875</v>
+      </c>
+      <c r="AB272">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28">
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
-        <v>29</v>
+      <c r="B273">
+        <v>6953956</v>
       </c>
       <c r="C273" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D273" s="2">
-        <v>45416.625</v>
+        <v>45416.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F273" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>2</v>
+      </c>
+      <c r="I273" t="s">
+        <v>56</v>
       </c>
       <c r="J273">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="K273">
+        <v>3.5</v>
+      </c>
+      <c r="L273">
+        <v>1.95</v>
+      </c>
+      <c r="M273">
+        <v>3.4</v>
+      </c>
+      <c r="N273">
         <v>3.6</v>
       </c>
-      <c r="L273">
+      <c r="O273">
+        <v>2.05</v>
+      </c>
+      <c r="P273">
+        <v>0.5</v>
+      </c>
+      <c r="Q273">
         <v>1.8</v>
       </c>
-      <c r="M273">
-        <v>4.75</v>
-      </c>
-      <c r="N273">
-        <v>3.8</v>
-      </c>
-      <c r="O273">
-        <v>1.7</v>
-      </c>
-      <c r="P273">
-        <v>0.75</v>
-      </c>
-      <c r="Q273">
-        <v>1.95</v>
-      </c>
       <c r="R273">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S273">
         <v>2.75</v>
       </c>
       <c r="T273">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U273">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24">
+        <v>1.05</v>
+      </c>
+      <c r="Y273">
+        <v>-1</v>
+      </c>
+      <c r="Z273">
+        <v>1.05</v>
+      </c>
+      <c r="AA273">
+        <v>0.5125</v>
+      </c>
+      <c r="AB273">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28">
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="s">
-        <v>30</v>
+      <c r="B274">
+        <v>6961900</v>
       </c>
       <c r="C274" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D274" s="2">
-        <v>45417.3125</v>
+        <v>45416.52083333334</v>
       </c>
       <c r="E274" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F274" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G274">
+        <v>2</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274" t="s">
+        <v>57</v>
       </c>
       <c r="J274">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="K274">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L274">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="M274">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N274">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O274">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="P274">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q274">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R274">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T274">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U274">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V274">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>0.825</v>
+      </c>
+      <c r="Z274">
+        <v>-1</v>
+      </c>
+      <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28">
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="s">
-        <v>31</v>
+      <c r="B275">
+        <v>6956649</v>
       </c>
       <c r="C275" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D275" s="2">
-        <v>45417.41666666666</v>
+        <v>45416.625</v>
       </c>
       <c r="E275" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+      <c r="I275" t="s">
+        <v>57</v>
       </c>
       <c r="J275">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="K275">
+        <v>3.6</v>
+      </c>
+      <c r="L275">
+        <v>1.8</v>
+      </c>
+      <c r="M275">
+        <v>5</v>
+      </c>
+      <c r="N275">
+        <v>4.2</v>
+      </c>
+      <c r="O275">
+        <v>1.6</v>
+      </c>
+      <c r="P275">
+        <v>1</v>
+      </c>
+      <c r="Q275">
+        <v>1.85</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
         <v>3</v>
       </c>
-      <c r="L275">
-        <v>2.7</v>
-      </c>
-      <c r="M275">
-        <v>2.75</v>
-      </c>
-      <c r="N275">
-        <v>3</v>
-      </c>
-      <c r="O275">
-        <v>2.7</v>
-      </c>
-      <c r="P275">
-        <v>0</v>
-      </c>
-      <c r="Q275">
-        <v>1.975</v>
-      </c>
-      <c r="R275">
-        <v>1.875</v>
-      </c>
-      <c r="S275">
-        <v>2</v>
-      </c>
       <c r="T275">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U275">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V275">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z275">
+        <v>-1</v>
+      </c>
+      <c r="AA275">
+        <v>0.8</v>
+      </c>
+      <c r="AB275">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28">
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="s">
-        <v>32</v>
+      <c r="B276">
+        <v>6953955</v>
       </c>
       <c r="C276" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D276" s="2">
-        <v>45417.52083333334</v>
+        <v>45417.3125</v>
       </c>
       <c r="E276" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="G276">
+        <v>2</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276" t="s">
+        <v>57</v>
       </c>
       <c r="J276">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="K276">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="L276">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
       <c r="M276">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N276">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O276">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P276">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q276">
+        <v>2.05</v>
+      </c>
+      <c r="R276">
         <v>1.8</v>
       </c>
-      <c r="R276">
-        <v>2.05</v>
-      </c>
       <c r="S276">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T276">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>1.05</v>
+      </c>
+      <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
+        <v>1.025</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28">
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277">
+        <v>6946786</v>
+      </c>
+      <c r="C277" t="s">
+        <v>36</v>
+      </c>
+      <c r="D277" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="E277" t="s">
+        <v>45</v>
+      </c>
+      <c r="F277" t="s">
+        <v>41</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277" t="s">
+        <v>58</v>
+      </c>
+      <c r="J277">
+        <v>2.75</v>
+      </c>
+      <c r="K277">
+        <v>3</v>
+      </c>
+      <c r="L277">
+        <v>2.7</v>
+      </c>
+      <c r="M277">
+        <v>2.75</v>
+      </c>
+      <c r="N277">
+        <v>3</v>
+      </c>
+      <c r="O277">
+        <v>2.7</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>1.95</v>
+      </c>
+      <c r="R277">
+        <v>1.9</v>
+      </c>
+      <c r="S277">
+        <v>2</v>
+      </c>
+      <c r="T277">
+        <v>1.875</v>
+      </c>
+      <c r="U277">
+        <v>1.975</v>
+      </c>
+      <c r="V277">
+        <v>-1</v>
+      </c>
+      <c r="W277">
+        <v>2</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
+        <v>0</v>
+      </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
+      <c r="AA277">
+        <v>0</v>
+      </c>
+      <c r="AB277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>6961901</v>
+      </c>
+      <c r="C278" t="s">
+        <v>36</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="E278" t="s">
+        <v>38</v>
+      </c>
+      <c r="F278" t="s">
+        <v>52</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>3</v>
+      </c>
+      <c r="I278" t="s">
+        <v>56</v>
+      </c>
+      <c r="J278">
+        <v>1.5</v>
+      </c>
+      <c r="K278">
+        <v>4.333</v>
+      </c>
+      <c r="L278">
+        <v>5.75</v>
+      </c>
+      <c r="M278">
+        <v>1.5</v>
+      </c>
+      <c r="N278">
+        <v>4.5</v>
+      </c>
+      <c r="O278">
+        <v>5.75</v>
+      </c>
+      <c r="P278">
+        <v>-1</v>
+      </c>
+      <c r="Q278">
+        <v>1.8</v>
+      </c>
+      <c r="R278">
+        <v>2.05</v>
+      </c>
+      <c r="S278">
+        <v>2.75</v>
+      </c>
+      <c r="T278">
+        <v>1.85</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
+        <v>-1</v>
+      </c>
+      <c r="W278">
+        <v>-1</v>
+      </c>
+      <c r="X278">
+        <v>4.75</v>
+      </c>
+      <c r="Y278">
+        <v>-1</v>
+      </c>
+      <c r="Z278">
+        <v>1.05</v>
+      </c>
+      <c r="AA278">
+        <v>0.425</v>
+      </c>
+      <c r="AB278">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>6961902</v>
+      </c>
+      <c r="C279" t="s">
+        <v>36</v>
+      </c>
+      <c r="D279" s="2">
+        <v>45418.58333333334</v>
+      </c>
+      <c r="E279" t="s">
+        <v>50</v>
+      </c>
+      <c r="F279" t="s">
+        <v>55</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279" t="s">
+        <v>57</v>
+      </c>
+      <c r="J279">
+        <v>1.45</v>
+      </c>
+      <c r="K279">
+        <v>4.5</v>
+      </c>
+      <c r="L279">
+        <v>6.5</v>
+      </c>
+      <c r="M279">
+        <v>1.4</v>
+      </c>
+      <c r="N279">
+        <v>5.25</v>
+      </c>
+      <c r="O279">
+        <v>7</v>
+      </c>
+      <c r="P279">
+        <v>-1.5</v>
+      </c>
+      <c r="Q279">
+        <v>2</v>
+      </c>
+      <c r="R279">
+        <v>1.85</v>
+      </c>
+      <c r="S279">
+        <v>3.25</v>
+      </c>
+      <c r="T279">
+        <v>1.85</v>
+      </c>
+      <c r="U279">
+        <v>2</v>
+      </c>
+      <c r="V279">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W279">
+        <v>-1</v>
+      </c>
+      <c r="X279">
+        <v>-1</v>
+      </c>
+      <c r="Y279">
+        <v>-1</v>
+      </c>
+      <c r="Z279">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA279">
+        <v>-1</v>
+      </c>
+      <c r="AB279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45422.54166666666</v>
+      </c>
+      <c r="E280" t="s">
+        <v>41</v>
+      </c>
+      <c r="F280" t="s">
+        <v>51</v>
+      </c>
+      <c r="J280">
+        <v>1.5</v>
+      </c>
+      <c r="K280">
+        <v>4.333</v>
+      </c>
+      <c r="L280">
+        <v>6</v>
+      </c>
+      <c r="M280">
+        <v>1.5</v>
+      </c>
+      <c r="N280">
+        <v>4.333</v>
+      </c>
+      <c r="O280">
+        <v>6</v>
+      </c>
+      <c r="P280">
+        <v>-1</v>
+      </c>
+      <c r="Q280">
+        <v>1.825</v>
+      </c>
+      <c r="R280">
+        <v>2.025</v>
+      </c>
+      <c r="S280">
+        <v>2.75</v>
+      </c>
+      <c r="T280">
+        <v>2.025</v>
+      </c>
+      <c r="U280">
+        <v>1.825</v>
+      </c>
+      <c r="V280">
+        <v>0</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>28</v>
+      </c>
+      <c r="C281" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" s="2">
+        <v>45422.64583333334</v>
+      </c>
+      <c r="E281" t="s">
+        <v>48</v>
+      </c>
+      <c r="F281" t="s">
+        <v>54</v>
+      </c>
+      <c r="J281">
+        <v>2.3</v>
+      </c>
+      <c r="K281">
+        <v>3.2</v>
+      </c>
+      <c r="L281">
+        <v>3.1</v>
+      </c>
+      <c r="M281">
+        <v>2.3</v>
+      </c>
+      <c r="N281">
+        <v>3.2</v>
+      </c>
+      <c r="O281">
+        <v>3.1</v>
+      </c>
+      <c r="P281">
+        <v>-0.25</v>
+      </c>
+      <c r="Q281">
+        <v>2.025</v>
+      </c>
+      <c r="R281">
+        <v>1.825</v>
+      </c>
+      <c r="S281">
+        <v>2.25</v>
+      </c>
+      <c r="T281">
+        <v>1.9</v>
+      </c>
+      <c r="U281">
+        <v>1.95</v>
+      </c>
+      <c r="V281">
+        <v>0</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
+        <v>36</v>
+      </c>
+      <c r="D282" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="E282" t="s">
+        <v>42</v>
+      </c>
+      <c r="F282" t="s">
+        <v>39</v>
+      </c>
+      <c r="J282">
+        <v>1.6</v>
+      </c>
+      <c r="K282">
+        <v>4</v>
+      </c>
+      <c r="L282">
+        <v>5.25</v>
+      </c>
+      <c r="M282">
+        <v>1.6</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282">
+        <v>5.25</v>
+      </c>
+      <c r="P282">
+        <v>-1</v>
+      </c>
+      <c r="Q282">
+        <v>2.05</v>
+      </c>
+      <c r="R282">
+        <v>1.8</v>
+      </c>
+      <c r="S282">
+        <v>2.75</v>
+      </c>
+      <c r="T282">
+        <v>2.025</v>
+      </c>
+      <c r="U282">
+        <v>1.825</v>
+      </c>
+      <c r="V282">
+        <v>0</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>30</v>
+      </c>
+      <c r="C283" t="s">
+        <v>36</v>
+      </c>
+      <c r="D283" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="E283" t="s">
+        <v>47</v>
+      </c>
+      <c r="F283" t="s">
+        <v>45</v>
+      </c>
+      <c r="J283">
+        <v>1.6</v>
+      </c>
+      <c r="K283">
+        <v>4</v>
+      </c>
+      <c r="L283">
+        <v>5.25</v>
+      </c>
+      <c r="M283">
+        <v>1.6</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283">
+        <v>5.25</v>
+      </c>
+      <c r="P283">
+        <v>-1</v>
+      </c>
+      <c r="Q283">
+        <v>2.05</v>
+      </c>
+      <c r="R283">
+        <v>1.8</v>
+      </c>
+      <c r="S283">
+        <v>3</v>
+      </c>
+      <c r="T283">
+        <v>2.05</v>
+      </c>
+      <c r="U283">
+        <v>1.8</v>
+      </c>
+      <c r="V283">
+        <v>0</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284" t="s">
+        <v>36</v>
+      </c>
+      <c r="D284" s="2">
+        <v>45423.625</v>
+      </c>
+      <c r="E284" t="s">
+        <v>40</v>
+      </c>
+      <c r="F284" t="s">
+        <v>50</v>
+      </c>
+      <c r="J284">
+        <v>1.833</v>
+      </c>
+      <c r="K284">
+        <v>3.75</v>
+      </c>
+      <c r="L284">
+        <v>4</v>
+      </c>
+      <c r="M284">
+        <v>1.85</v>
+      </c>
+      <c r="N284">
+        <v>3.6</v>
+      </c>
+      <c r="O284">
+        <v>4</v>
+      </c>
+      <c r="P284">
+        <v>-0.5</v>
+      </c>
+      <c r="Q284">
+        <v>1.875</v>
+      </c>
+      <c r="R284">
+        <v>1.975</v>
+      </c>
+      <c r="S284">
+        <v>2.75</v>
+      </c>
+      <c r="T284">
+        <v>1.875</v>
+      </c>
+      <c r="U284">
+        <v>1.975</v>
+      </c>
+      <c r="V284">
+        <v>0</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285" t="s">
+        <v>36</v>
+      </c>
+      <c r="D285" s="2">
+        <v>45424.3125</v>
+      </c>
+      <c r="E285" t="s">
+        <v>55</v>
+      </c>
+      <c r="F285" t="s">
+        <v>37</v>
+      </c>
+      <c r="J285">
+        <v>2.75</v>
+      </c>
+      <c r="K285">
+        <v>3</v>
+      </c>
+      <c r="L285">
+        <v>2.75</v>
+      </c>
+      <c r="M285">
+        <v>2.7</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285">
+        <v>2.8</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+      <c r="Q285">
+        <v>1.875</v>
+      </c>
+      <c r="R285">
+        <v>1.975</v>
+      </c>
+      <c r="S285">
+        <v>2</v>
+      </c>
+      <c r="T285">
+        <v>1.8</v>
+      </c>
+      <c r="U285">
+        <v>2.05</v>
+      </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
         <v>33</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C286" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="E286" t="s">
+        <v>44</v>
+      </c>
+      <c r="F286" t="s">
+        <v>43</v>
+      </c>
+      <c r="J286">
+        <v>2.25</v>
+      </c>
+      <c r="K286">
+        <v>3.5</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286">
+        <v>2.25</v>
+      </c>
+      <c r="N286">
+        <v>3.5</v>
+      </c>
+      <c r="O286">
+        <v>3</v>
+      </c>
+      <c r="P286">
+        <v>-0.25</v>
+      </c>
+      <c r="Q286">
+        <v>1.975</v>
+      </c>
+      <c r="R286">
+        <v>1.875</v>
+      </c>
+      <c r="S286">
+        <v>2.5</v>
+      </c>
+      <c r="T286">
+        <v>1.875</v>
+      </c>
+      <c r="U286">
+        <v>1.975</v>
+      </c>
+      <c r="V286">
+        <v>0</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
         <v>34</v>
       </c>
-      <c r="D277" s="2">
-        <v>45418.58333333334</v>
-      </c>
-      <c r="E277" t="s">
-        <v>48</v>
-      </c>
-      <c r="F277" t="s">
-        <v>53</v>
-      </c>
-      <c r="J277">
-        <v>1.45</v>
-      </c>
-      <c r="K277">
-        <v>4.5</v>
-      </c>
-      <c r="L277">
-        <v>6.5</v>
-      </c>
-      <c r="M277">
-        <v>1.533</v>
-      </c>
-      <c r="N277">
-        <v>4.5</v>
-      </c>
-      <c r="O277">
-        <v>5.5</v>
-      </c>
-      <c r="P277">
-        <v>-1</v>
-      </c>
-      <c r="Q277">
-        <v>1.8</v>
-      </c>
-      <c r="R277">
-        <v>2.05</v>
-      </c>
-      <c r="S277">
-        <v>3</v>
-      </c>
-      <c r="T277">
+      <c r="C287" t="s">
+        <v>36</v>
+      </c>
+      <c r="D287" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="E287" t="s">
+        <v>49</v>
+      </c>
+      <c r="F287" t="s">
+        <v>38</v>
+      </c>
+      <c r="J287">
+        <v>2.55</v>
+      </c>
+      <c r="K287">
+        <v>3.4</v>
+      </c>
+      <c r="L287">
+        <v>2.625</v>
+      </c>
+      <c r="M287">
+        <v>2.55</v>
+      </c>
+      <c r="N287">
+        <v>3.4</v>
+      </c>
+      <c r="O287">
+        <v>2.625</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+      <c r="Q287">
+        <v>1.9</v>
+      </c>
+      <c r="R287">
         <v>1.95</v>
       </c>
-      <c r="U277">
-        <v>1.9</v>
-      </c>
-      <c r="V277">
-        <v>0</v>
-      </c>
-      <c r="W277">
-        <v>0</v>
-      </c>
-      <c r="X277">
+      <c r="S287">
+        <v>2.5</v>
+      </c>
+      <c r="T287">
+        <v>1.875</v>
+      </c>
+      <c r="U287">
+        <v>1.975</v>
+      </c>
+      <c r="V287">
+        <v>0</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+      <c r="C288" t="s">
+        <v>36</v>
+      </c>
+      <c r="D288" s="2">
+        <v>45425.58333333334</v>
+      </c>
+      <c r="E288" t="s">
+        <v>52</v>
+      </c>
+      <c r="F288" t="s">
+        <v>46</v>
+      </c>
+      <c r="J288">
+        <v>2</v>
+      </c>
+      <c r="K288">
+        <v>3.4</v>
+      </c>
+      <c r="L288">
+        <v>3.6</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3.4</v>
+      </c>
+      <c r="O288">
+        <v>3.6</v>
+      </c>
+      <c r="P288">
+        <v>-0.5</v>
+      </c>
+      <c r="Q288">
+        <v>2.025</v>
+      </c>
+      <c r="R288">
+        <v>1.825</v>
+      </c>
+      <c r="S288">
+        <v>2.5</v>
+      </c>
+      <c r="T288">
+        <v>1.925</v>
+      </c>
+      <c r="U288">
+        <v>1.925</v>
+      </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
         <v>0</v>
       </c>
     </row>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -24581,7 +24581,7 @@
         <v>1.5</v>
       </c>
       <c r="N280">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O280">
         <v>6</v>
@@ -24590,19 +24590,19 @@
         <v>-1</v>
       </c>
       <c r="Q280">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R280">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S280">
         <v>2.75</v>
       </c>
       <c r="T280">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U280">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -24643,22 +24643,22 @@
         <v>3.1</v>
       </c>
       <c r="M281">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N281">
         <v>3.2</v>
       </c>
       <c r="O281">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P281">
         <v>-0.25</v>
       </c>
       <c r="Q281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R281">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S281">
         <v>2.25</v>
@@ -24859,10 +24859,10 @@
         <v>2.75</v>
       </c>
       <c r="T284">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V284">
         <v>0</v>
@@ -24903,31 +24903,31 @@
         <v>2.75</v>
       </c>
       <c r="M285">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N285">
         <v>3</v>
       </c>
       <c r="O285">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P285">
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R285">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S285">
         <v>2</v>
       </c>
       <c r="T285">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V285">
         <v>0</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -24578,31 +24578,31 @@
         <v>6</v>
       </c>
       <c r="M280">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="N280">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O280">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P280">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q280">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R280">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
         <v>2.75</v>
       </c>
       <c r="T280">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U280">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>2.25</v>
       </c>
       <c r="T281">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U281">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V281">
         <v>0</v>
@@ -24773,31 +24773,31 @@
         <v>5.25</v>
       </c>
       <c r="M283">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="N283">
         <v>4</v>
       </c>
       <c r="O283">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P283">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q283">
+        <v>1.8</v>
+      </c>
+      <c r="R283">
         <v>2.05</v>
-      </c>
-      <c r="R283">
-        <v>1.8</v>
       </c>
       <c r="S283">
         <v>3</v>
       </c>
       <c r="T283">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U283">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24921,13 +24921,13 @@
         <v>1.925</v>
       </c>
       <c r="S285">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T285">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U285">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -25045,10 +25045,10 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R287">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
         <v>2.5</v>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,33 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>6990213</t>
-  </si>
-  <si>
-    <t>6984789</t>
-  </si>
-  <si>
-    <t>6994656</t>
-  </si>
-  <si>
-    <t>6965970</t>
-  </si>
-  <si>
-    <t>7012293</t>
-  </si>
-  <si>
-    <t>6993990</t>
-  </si>
-  <si>
-    <t>6994657</t>
-  </si>
-  <si>
-    <t>7016255</t>
-  </si>
-  <si>
-    <t>6990214</t>
   </si>
   <si>
     <t>Poland Ekstraklasa</t>
@@ -552,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB288"/>
+  <dimension ref="A1:AB279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,16 +622,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -667,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -735,16 +708,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -753,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -821,16 +794,16 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -839,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -907,16 +880,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -925,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -993,16 +966,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1011,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1079,16 +1052,16 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1097,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1165,16 +1138,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1183,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1251,16 +1224,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1269,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1337,16 +1310,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1355,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1423,16 +1396,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1441,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1509,16 +1482,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1527,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1595,16 +1568,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1613,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1681,16 +1654,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1699,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1767,16 +1740,16 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1785,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1853,16 +1826,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1871,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1939,16 +1912,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1957,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2025,16 +1998,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2043,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2111,16 +2084,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2129,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2197,16 +2170,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2215,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2283,16 +2256,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2301,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2369,16 +2342,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2387,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2455,16 +2428,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2473,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2541,16 +2514,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2559,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2627,16 +2600,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2645,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2713,16 +2686,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2731,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2799,16 +2772,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2817,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2885,16 +2858,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
         <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2903,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2971,16 +2944,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2989,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3057,16 +3030,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3075,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3143,16 +3116,16 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3161,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3229,16 +3202,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3247,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3315,17 +3288,17 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
         <v>37</v>
       </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
       <c r="G33">
         <v>2</v>
       </c>
@@ -3333,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3401,16 +3374,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3419,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3487,16 +3460,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3505,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3573,16 +3546,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3591,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3659,16 +3632,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3677,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3745,16 +3718,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3763,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3831,16 +3804,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3849,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3917,16 +3890,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3935,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -4003,16 +3976,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4021,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4089,16 +4062,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4107,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4175,16 +4148,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4193,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4261,16 +4234,16 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4279,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4347,16 +4320,16 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4365,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4433,16 +4406,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4451,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4519,16 +4492,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4537,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4605,16 +4578,16 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4623,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4691,16 +4664,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4709,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4777,16 +4750,16 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4795,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4863,16 +4836,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4881,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4949,16 +4922,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4967,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5035,16 +5008,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5053,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5121,16 +5094,16 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5139,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5207,16 +5180,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5225,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5293,16 +5266,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5311,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5379,16 +5352,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5397,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5465,16 +5438,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5483,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5551,16 +5524,16 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5569,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5637,16 +5610,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5655,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5723,16 +5696,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5741,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5809,16 +5782,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5827,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5895,16 +5868,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5913,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5981,16 +5954,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5999,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6067,16 +6040,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6085,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6153,16 +6126,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6171,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6239,16 +6212,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6257,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6325,16 +6298,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6343,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6411,16 +6384,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6429,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6497,16 +6470,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6515,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6583,16 +6556,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6601,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6669,16 +6642,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6687,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6755,16 +6728,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6773,7 +6746,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6841,16 +6814,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6859,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6927,16 +6900,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6945,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -7013,16 +6986,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7031,7 +7004,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7099,16 +7072,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7117,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7185,16 +7158,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7203,7 +7176,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7271,16 +7244,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7289,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7357,16 +7330,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7375,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7443,16 +7416,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7461,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7529,16 +7502,16 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7547,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7615,16 +7588,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7633,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7701,16 +7674,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7719,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7787,16 +7760,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7805,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7873,16 +7846,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7891,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7959,16 +7932,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7977,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8045,16 +8018,16 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8063,7 +8036,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8131,16 +8104,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8149,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8217,16 +8190,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8235,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8303,16 +8276,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8321,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8389,16 +8362,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8407,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8475,16 +8448,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8493,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8561,16 +8534,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8579,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8647,16 +8620,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8665,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8733,16 +8706,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8751,7 +8724,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8819,16 +8792,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8837,7 +8810,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8905,16 +8878,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
         <v>41</v>
-      </c>
-      <c r="F98" t="s">
-        <v>50</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8923,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8991,16 +8964,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -9009,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9077,16 +9050,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9095,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9163,16 +9136,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9181,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9249,16 +9222,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9267,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9335,16 +9308,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9353,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9421,16 +9394,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9439,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9507,16 +9480,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9525,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9593,16 +9566,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9611,7 +9584,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9679,16 +9652,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9697,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9765,16 +9738,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9783,7 +9756,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9851,16 +9824,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9869,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9937,16 +9910,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9955,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -10023,16 +9996,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10041,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10109,16 +10082,16 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10127,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10195,16 +10168,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" t="s">
         <v>43</v>
-      </c>
-      <c r="F113" t="s">
-        <v>52</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10213,7 +10186,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10281,16 +10254,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10299,7 +10272,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10367,16 +10340,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10385,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10453,16 +10426,16 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10471,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10539,16 +10512,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10557,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10625,16 +10598,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10643,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10711,16 +10684,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10729,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10797,16 +10770,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10815,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10883,16 +10856,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10901,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10969,16 +10942,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10987,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11055,16 +11028,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11073,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11141,16 +11114,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11159,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11227,16 +11200,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11245,7 +11218,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11313,16 +11286,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11331,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11399,16 +11372,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11417,7 +11390,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11485,16 +11458,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11503,7 +11476,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11571,16 +11544,16 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11589,7 +11562,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11657,16 +11630,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11675,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11743,16 +11716,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11761,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11829,16 +11802,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11847,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11915,16 +11888,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11933,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -12001,16 +11974,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12019,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12087,16 +12060,16 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12105,7 +12078,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12173,16 +12146,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12191,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12259,16 +12232,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12277,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12345,16 +12318,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12363,7 +12336,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12431,16 +12404,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12449,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12517,16 +12490,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12535,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12603,16 +12576,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12621,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12689,16 +12662,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12707,7 +12680,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12775,16 +12748,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12793,7 +12766,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12861,16 +12834,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12879,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12947,16 +12920,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12965,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13033,16 +13006,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13051,7 +13024,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13119,16 +13092,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13137,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13205,16 +13178,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13223,7 +13196,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13291,16 +13264,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13309,7 +13282,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13377,16 +13350,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13395,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13463,16 +13436,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13481,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13549,16 +13522,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13567,7 +13540,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13635,16 +13608,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13653,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13721,16 +13694,16 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13739,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13807,16 +13780,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13825,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13893,16 +13866,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13911,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13979,16 +13952,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13997,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14065,16 +14038,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14083,7 +14056,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14151,16 +14124,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14169,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14237,16 +14210,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14255,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14323,16 +14296,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14341,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14409,16 +14382,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14427,7 +14400,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14495,16 +14468,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14513,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14581,25 +14554,25 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
+        <v>40</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164" t="s">
         <v>49</v>
-      </c>
-      <c r="G164">
-        <v>2</v>
-      </c>
-      <c r="H164">
-        <v>2</v>
-      </c>
-      <c r="I164" t="s">
-        <v>58</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14667,16 +14640,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14685,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14753,16 +14726,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14771,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14839,16 +14812,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14857,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14925,16 +14898,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14943,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -15011,16 +14984,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15029,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15097,16 +15070,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15115,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15183,16 +15156,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15201,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15269,16 +15242,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15287,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15355,16 +15328,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15373,7 +15346,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15441,16 +15414,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15459,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15527,16 +15500,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15545,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15613,16 +15586,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15631,7 +15604,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15699,16 +15672,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F177" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15717,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15785,16 +15758,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15803,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15871,16 +15844,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15889,7 +15862,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15957,16 +15930,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15975,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16043,16 +16016,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16061,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16129,16 +16102,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16147,7 +16120,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16215,16 +16188,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16233,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16301,16 +16274,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16319,7 +16292,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16387,16 +16360,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F185" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16405,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16473,16 +16446,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16491,7 +16464,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16559,16 +16532,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16577,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16645,16 +16618,16 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F188" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16663,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16731,16 +16704,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16749,7 +16722,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16817,16 +16790,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16835,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16903,16 +16876,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F191" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16921,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16989,16 +16962,16 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17007,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17075,16 +17048,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17093,7 +17066,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17161,16 +17134,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17179,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17247,16 +17220,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17265,7 +17238,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17333,16 +17306,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F196" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17351,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17419,16 +17392,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17437,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17505,16 +17478,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17523,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17591,16 +17564,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17609,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17677,16 +17650,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17695,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17763,16 +17736,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17781,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17849,16 +17822,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17867,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17935,16 +17908,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45354.35416666666</v>
       </c>
       <c r="E203" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F203" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17953,7 +17926,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>2.45</v>
@@ -18021,16 +17994,16 @@
         <v>6775556</v>
       </c>
       <c r="C204" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18039,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J204">
         <v>2.05</v>
@@ -18107,16 +18080,16 @@
         <v>6775559</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E205" t="s">
+        <v>31</v>
+      </c>
+      <c r="F205" t="s">
         <v>40</v>
-      </c>
-      <c r="F205" t="s">
-        <v>49</v>
       </c>
       <c r="G205">
         <v>4</v>
@@ -18125,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J205">
         <v>1.95</v>
@@ -18193,16 +18166,16 @@
         <v>6775558</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45355.625</v>
       </c>
       <c r="E206" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18211,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>2.05</v>
@@ -18279,16 +18252,16 @@
         <v>6775564</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45359.58333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F207" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18297,7 +18270,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18365,16 +18338,16 @@
         <v>6775562</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45359.6875</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18383,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>1.952</v>
@@ -18451,16 +18424,16 @@
         <v>6775563</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E209" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" t="s">
         <v>45</v>
-      </c>
-      <c r="F209" t="s">
-        <v>54</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18469,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J209">
         <v>2.625</v>
@@ -18537,16 +18510,16 @@
         <v>6774879</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E210" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18555,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J210">
         <v>4.75</v>
@@ -18623,16 +18596,16 @@
         <v>6775561</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18641,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J211">
         <v>3</v>
@@ -18709,16 +18682,16 @@
         <v>6774464</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45361.35416666666</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F212" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G212">
         <v>3</v>
@@ -18727,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J212">
         <v>2</v>
@@ -18795,16 +18768,16 @@
         <v>6775565</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18813,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18881,16 +18854,16 @@
         <v>6775566</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45361.5625</v>
       </c>
       <c r="E214" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18899,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J214">
         <v>3.5</v>
@@ -18967,16 +18940,16 @@
         <v>6774465</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45362.625</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F215" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18985,7 +18958,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J215">
         <v>1.95</v>
@@ -19053,16 +19026,16 @@
         <v>7917193</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45364.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19071,7 +19044,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J216">
         <v>4</v>
@@ -19139,16 +19112,16 @@
         <v>6775568</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45366.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19157,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J217">
         <v>1.727</v>
@@ -19225,16 +19198,16 @@
         <v>6775570</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45366.6875</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19243,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19311,16 +19284,16 @@
         <v>6775567</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45367.35416666666</v>
       </c>
       <c r="E219" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19329,7 +19302,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>1.95</v>
@@ -19397,16 +19370,16 @@
         <v>6775572</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19415,7 +19388,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J220">
         <v>2.625</v>
@@ -19483,16 +19456,16 @@
         <v>6774466</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45367.5625</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19501,7 +19474,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19569,16 +19542,16 @@
         <v>6774878</v>
       </c>
       <c r="C222" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19587,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J222">
         <v>1.666</v>
@@ -19655,16 +19628,16 @@
         <v>6775569</v>
       </c>
       <c r="C223" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45368.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19673,7 +19646,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>3.4</v>
@@ -19741,16 +19714,16 @@
         <v>6774467</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19759,7 +19732,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J224">
         <v>5.5</v>
@@ -19827,16 +19800,16 @@
         <v>6775571</v>
       </c>
       <c r="C225" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G225">
         <v>3</v>
@@ -19845,7 +19818,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1.75</v>
@@ -19913,16 +19886,16 @@
         <v>6774469</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19931,7 +19904,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J226">
         <v>1.4</v>
@@ -19999,16 +19972,16 @@
         <v>6774468</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F227" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>6</v>
@@ -20017,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J227">
         <v>1.4</v>
@@ -20085,16 +20058,16 @@
         <v>6775574</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20103,7 +20076,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J228">
         <v>2.1</v>
@@ -20171,16 +20144,16 @@
         <v>6775575</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20189,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J229">
         <v>1.909</v>
@@ -20257,16 +20230,16 @@
         <v>6774877</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45383.3125</v>
       </c>
       <c r="E230" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20275,7 +20248,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J230">
         <v>2.625</v>
@@ -20343,16 +20316,16 @@
         <v>6775576</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20361,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J231">
         <v>4.333</v>
@@ -20429,16 +20402,16 @@
         <v>6775578</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45383.52083333334</v>
       </c>
       <c r="E232" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F232" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20447,7 +20420,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J232">
         <v>2.25</v>
@@ -20515,16 +20488,16 @@
         <v>6775573</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45383.625</v>
       </c>
       <c r="E233" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20533,7 +20506,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J233">
         <v>3.6</v>
@@ -20601,16 +20574,16 @@
         <v>6775577</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D234" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E234" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20619,7 +20592,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J234">
         <v>2.9</v>
@@ -20687,16 +20660,16 @@
         <v>6774470</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2">
         <v>45387.54166666666</v>
       </c>
       <c r="E235" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20705,7 +20678,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J235">
         <v>1.5</v>
@@ -20773,16 +20746,16 @@
         <v>6775585</v>
       </c>
       <c r="C236" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D236" s="2">
         <v>45387.64583333334</v>
       </c>
       <c r="E236" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20791,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -20859,16 +20832,16 @@
         <v>6775582</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20877,7 +20850,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J237">
         <v>1.8</v>
@@ -20945,16 +20918,16 @@
         <v>6774876</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E238" t="s">
+        <v>37</v>
+      </c>
+      <c r="F238" t="s">
         <v>46</v>
-      </c>
-      <c r="F238" t="s">
-        <v>55</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20963,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J238">
         <v>1.85</v>
@@ -21031,16 +21004,16 @@
         <v>6775587</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D239" s="2">
         <v>45388.625</v>
       </c>
       <c r="E239" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21049,7 +21022,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J239">
         <v>1.727</v>
@@ -21117,16 +21090,16 @@
         <v>6775586</v>
       </c>
       <c r="C240" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D240" s="2">
         <v>45389.3125</v>
       </c>
       <c r="E240" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21135,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J240">
         <v>2.5</v>
@@ -21203,16 +21176,16 @@
         <v>6775583</v>
       </c>
       <c r="C241" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21221,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J241">
         <v>2.5</v>
@@ -21289,16 +21262,16 @@
         <v>6775584</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D242" s="2">
         <v>45389.52083333334</v>
       </c>
       <c r="E242" t="s">
+        <v>29</v>
+      </c>
+      <c r="F242" t="s">
         <v>38</v>
-      </c>
-      <c r="F242" t="s">
-        <v>47</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21307,7 +21280,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21375,16 +21348,16 @@
         <v>6775579</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D243" s="2">
         <v>45390.58333333334</v>
       </c>
       <c r="E243" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21393,7 +21366,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J243">
         <v>2.2</v>
@@ -21461,16 +21434,16 @@
         <v>6775592</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
         <v>45394.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21479,7 +21452,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J244">
         <v>2.45</v>
@@ -21547,16 +21520,16 @@
         <v>6774471</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D245" s="2">
         <v>45394.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21565,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J245">
         <v>1.5</v>
@@ -21633,16 +21606,16 @@
         <v>6850053</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E246" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21651,7 +21624,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J246">
         <v>2.8</v>
@@ -21719,16 +21692,16 @@
         <v>6774875</v>
       </c>
       <c r="C247" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D247" s="2">
         <v>45395.52083333334</v>
       </c>
       <c r="E247" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21737,7 +21710,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J247">
         <v>4.333</v>
@@ -21805,16 +21778,16 @@
         <v>6775591</v>
       </c>
       <c r="C248" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D248" s="2">
         <v>45395.625</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21823,7 +21796,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J248">
         <v>2.25</v>
@@ -21891,16 +21864,16 @@
         <v>6775593</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D249" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E249" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -21909,7 +21882,7 @@
         <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J249">
         <v>3.5</v>
@@ -21977,16 +21950,16 @@
         <v>6775589</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D250" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E250" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F250" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21995,7 +21968,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -22063,16 +22036,16 @@
         <v>6775588</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D251" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F251" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22081,7 +22054,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J251">
         <v>2.25</v>
@@ -22149,16 +22122,16 @@
         <v>6775590</v>
       </c>
       <c r="C252" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22167,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J252">
         <v>2.15</v>
@@ -22235,16 +22208,16 @@
         <v>6775595</v>
       </c>
       <c r="C253" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D253" s="2">
         <v>45401.54166666666</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F253" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22253,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J253">
         <v>2.375</v>
@@ -22321,16 +22294,16 @@
         <v>6775598</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D254" s="2">
         <v>45401.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22339,7 +22312,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J254">
         <v>1.571</v>
@@ -22407,16 +22380,16 @@
         <v>6775597</v>
       </c>
       <c r="C255" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D255" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -22425,7 +22398,7 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J255">
         <v>1.85</v>
@@ -22493,16 +22466,16 @@
         <v>6774472</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D256" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22511,7 +22484,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J256">
         <v>2.55</v>
@@ -22579,16 +22552,16 @@
         <v>6775594</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D257" s="2">
         <v>45402.625</v>
       </c>
       <c r="E257" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -22597,7 +22570,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J257">
         <v>2.875</v>
@@ -22665,16 +22638,16 @@
         <v>6850054</v>
       </c>
       <c r="C258" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D258" s="2">
         <v>45403.3125</v>
       </c>
       <c r="E258" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F258" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -22683,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J258">
         <v>1.7</v>
@@ -22751,16 +22724,16 @@
         <v>6830603</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D259" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E259" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F259" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -22769,7 +22742,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J259">
         <v>4.75</v>
@@ -22837,16 +22810,16 @@
         <v>6775596</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D260" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22855,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J260">
         <v>1.7</v>
@@ -22923,16 +22896,16 @@
         <v>6885526</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D261" s="2">
         <v>45404.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -22941,7 +22914,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J261">
         <v>2.1</v>
@@ -23009,16 +22982,16 @@
         <v>6876422</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D262" s="2">
         <v>45408.54166666666</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -23027,7 +23000,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J262">
         <v>1.909</v>
@@ -23095,16 +23068,16 @@
         <v>6921816</v>
       </c>
       <c r="C263" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D263" s="2">
         <v>45408.64583333334</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G263">
         <v>2</v>
@@ -23113,7 +23086,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J263">
         <v>2.1</v>
@@ -23181,16 +23154,16 @@
         <v>6775599</v>
       </c>
       <c r="C264" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D264" s="2">
         <v>45409.41666666666</v>
       </c>
       <c r="E264" t="s">
+        <v>33</v>
+      </c>
+      <c r="F264" t="s">
         <v>42</v>
-      </c>
-      <c r="F264" t="s">
-        <v>51</v>
       </c>
       <c r="G264">
         <v>4</v>
@@ -23199,7 +23172,7 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J264">
         <v>1.615</v>
@@ -23267,16 +23240,16 @@
         <v>6774473</v>
       </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D265" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F265" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -23285,7 +23258,7 @@
         <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J265">
         <v>2</v>
@@ -23353,16 +23326,16 @@
         <v>6910897</v>
       </c>
       <c r="C266" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D266" s="2">
         <v>45409.625</v>
       </c>
       <c r="E266" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -23371,7 +23344,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J266">
         <v>3.6</v>
@@ -23439,16 +23412,16 @@
         <v>6817569</v>
       </c>
       <c r="C267" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D267" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E267" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -23457,7 +23430,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23525,16 +23498,16 @@
         <v>6921817</v>
       </c>
       <c r="C268" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D268" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E268" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23543,7 +23516,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J268">
         <v>4.75</v>
@@ -23611,16 +23584,16 @@
         <v>6916500</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D269" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E269" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F269" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -23629,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J269">
         <v>1.833</v>
@@ -23697,16 +23670,16 @@
         <v>6850052</v>
       </c>
       <c r="C270" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D270" s="2">
         <v>45411.58333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23715,7 +23688,7 @@
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J270">
         <v>2.8</v>
@@ -23783,16 +23756,16 @@
         <v>6956648</v>
       </c>
       <c r="C271" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D271" s="2">
         <v>45415.54166666666</v>
       </c>
       <c r="E271" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F271" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G271">
         <v>5</v>
@@ -23801,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J271">
         <v>2.25</v>
@@ -23869,16 +23842,16 @@
         <v>6961903</v>
       </c>
       <c r="C272" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D272" s="2">
         <v>45415.64583333334</v>
       </c>
       <c r="E272" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F272" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -23887,7 +23860,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J272">
         <v>3.6</v>
@@ -23955,16 +23928,16 @@
         <v>6953956</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D273" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -23973,7 +23946,7 @@
         <v>2</v>
       </c>
       <c r="I273" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J273">
         <v>3.8</v>
@@ -24041,16 +24014,16 @@
         <v>6961900</v>
       </c>
       <c r="C274" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D274" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G274">
         <v>2</v>
@@ -24059,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J274">
         <v>3.3</v>
@@ -24127,16 +24100,16 @@
         <v>6956649</v>
       </c>
       <c r="C275" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D275" s="2">
         <v>45416.625</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F275" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G275">
         <v>3</v>
@@ -24145,7 +24118,7 @@
         <v>2</v>
       </c>
       <c r="I275" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J275">
         <v>4.333</v>
@@ -24213,16 +24186,16 @@
         <v>6953955</v>
       </c>
       <c r="C276" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2">
         <v>45417.3125</v>
       </c>
       <c r="E276" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F276" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G276">
         <v>2</v>
@@ -24231,7 +24204,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J276">
         <v>2.55</v>
@@ -24299,16 +24272,16 @@
         <v>6946786</v>
       </c>
       <c r="C277" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D277" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E277" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -24317,7 +24290,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J277">
         <v>2.75</v>
@@ -24385,16 +24358,16 @@
         <v>6961901</v>
       </c>
       <c r="C278" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D278" s="2">
         <v>45417.52083333334</v>
       </c>
       <c r="E278" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F278" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -24403,7 +24376,7 @@
         <v>3</v>
       </c>
       <c r="I278" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J278">
         <v>1.5</v>
@@ -24471,16 +24444,16 @@
         <v>6961902</v>
       </c>
       <c r="C279" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D279" s="2">
         <v>45418.58333333334</v>
       </c>
       <c r="E279" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F279" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -24489,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J279">
         <v>1.45</v>
@@ -24547,591 +24520,6 @@
       </c>
       <c r="AB279">
         <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:28">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280" t="s">
-        <v>27</v>
-      </c>
-      <c r="C280" t="s">
-        <v>36</v>
-      </c>
-      <c r="D280" s="2">
-        <v>45422.54166666666</v>
-      </c>
-      <c r="E280" t="s">
-        <v>41</v>
-      </c>
-      <c r="F280" t="s">
-        <v>51</v>
-      </c>
-      <c r="J280">
-        <v>1.5</v>
-      </c>
-      <c r="K280">
-        <v>4.333</v>
-      </c>
-      <c r="L280">
-        <v>6</v>
-      </c>
-      <c r="M280">
-        <v>1.444</v>
-      </c>
-      <c r="N280">
-        <v>4.75</v>
-      </c>
-      <c r="O280">
-        <v>6.5</v>
-      </c>
-      <c r="P280">
-        <v>-1.25</v>
-      </c>
-      <c r="Q280">
-        <v>2</v>
-      </c>
-      <c r="R280">
-        <v>1.85</v>
-      </c>
-      <c r="S280">
-        <v>2.75</v>
-      </c>
-      <c r="T280">
-        <v>1.875</v>
-      </c>
-      <c r="U280">
-        <v>1.975</v>
-      </c>
-      <c r="V280">
-        <v>0</v>
-      </c>
-      <c r="W280">
-        <v>0</v>
-      </c>
-      <c r="X280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:28">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281" t="s">
-        <v>28</v>
-      </c>
-      <c r="C281" t="s">
-        <v>36</v>
-      </c>
-      <c r="D281" s="2">
-        <v>45422.64583333334</v>
-      </c>
-      <c r="E281" t="s">
-        <v>48</v>
-      </c>
-      <c r="F281" t="s">
-        <v>54</v>
-      </c>
-      <c r="J281">
-        <v>2.3</v>
-      </c>
-      <c r="K281">
-        <v>3.2</v>
-      </c>
-      <c r="L281">
-        <v>3.1</v>
-      </c>
-      <c r="M281">
-        <v>2.25</v>
-      </c>
-      <c r="N281">
-        <v>3.2</v>
-      </c>
-      <c r="O281">
-        <v>3.2</v>
-      </c>
-      <c r="P281">
-        <v>-0.25</v>
-      </c>
-      <c r="Q281">
-        <v>1.975</v>
-      </c>
-      <c r="R281">
-        <v>1.875</v>
-      </c>
-      <c r="S281">
-        <v>2.25</v>
-      </c>
-      <c r="T281">
-        <v>1.925</v>
-      </c>
-      <c r="U281">
-        <v>1.925</v>
-      </c>
-      <c r="V281">
-        <v>0</v>
-      </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:28">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282" t="s">
-        <v>29</v>
-      </c>
-      <c r="C282" t="s">
-        <v>36</v>
-      </c>
-      <c r="D282" s="2">
-        <v>45423.41666666666</v>
-      </c>
-      <c r="E282" t="s">
-        <v>42</v>
-      </c>
-      <c r="F282" t="s">
-        <v>39</v>
-      </c>
-      <c r="J282">
-        <v>1.6</v>
-      </c>
-      <c r="K282">
-        <v>4</v>
-      </c>
-      <c r="L282">
-        <v>5.25</v>
-      </c>
-      <c r="M282">
-        <v>1.6</v>
-      </c>
-      <c r="N282">
-        <v>4</v>
-      </c>
-      <c r="O282">
-        <v>5.25</v>
-      </c>
-      <c r="P282">
-        <v>-1</v>
-      </c>
-      <c r="Q282">
-        <v>2.05</v>
-      </c>
-      <c r="R282">
-        <v>1.8</v>
-      </c>
-      <c r="S282">
-        <v>2.75</v>
-      </c>
-      <c r="T282">
-        <v>2.025</v>
-      </c>
-      <c r="U282">
-        <v>1.825</v>
-      </c>
-      <c r="V282">
-        <v>0</v>
-      </c>
-      <c r="W282">
-        <v>0</v>
-      </c>
-      <c r="X282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:28">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283" t="s">
-        <v>30</v>
-      </c>
-      <c r="C283" t="s">
-        <v>36</v>
-      </c>
-      <c r="D283" s="2">
-        <v>45423.52083333334</v>
-      </c>
-      <c r="E283" t="s">
-        <v>47</v>
-      </c>
-      <c r="F283" t="s">
-        <v>45</v>
-      </c>
-      <c r="J283">
-        <v>1.6</v>
-      </c>
-      <c r="K283">
-        <v>4</v>
-      </c>
-      <c r="L283">
-        <v>5.25</v>
-      </c>
-      <c r="M283">
-        <v>1.615</v>
-      </c>
-      <c r="N283">
-        <v>4</v>
-      </c>
-      <c r="O283">
-        <v>5</v>
-      </c>
-      <c r="P283">
-        <v>-0.75</v>
-      </c>
-      <c r="Q283">
-        <v>1.8</v>
-      </c>
-      <c r="R283">
-        <v>2.05</v>
-      </c>
-      <c r="S283">
-        <v>3</v>
-      </c>
-      <c r="T283">
-        <v>2.025</v>
-      </c>
-      <c r="U283">
-        <v>1.825</v>
-      </c>
-      <c r="V283">
-        <v>0</v>
-      </c>
-      <c r="W283">
-        <v>0</v>
-      </c>
-      <c r="X283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:28">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284" t="s">
-        <v>31</v>
-      </c>
-      <c r="C284" t="s">
-        <v>36</v>
-      </c>
-      <c r="D284" s="2">
-        <v>45423.625</v>
-      </c>
-      <c r="E284" t="s">
-        <v>40</v>
-      </c>
-      <c r="F284" t="s">
-        <v>50</v>
-      </c>
-      <c r="J284">
-        <v>1.833</v>
-      </c>
-      <c r="K284">
-        <v>3.75</v>
-      </c>
-      <c r="L284">
-        <v>4</v>
-      </c>
-      <c r="M284">
-        <v>1.85</v>
-      </c>
-      <c r="N284">
-        <v>3.6</v>
-      </c>
-      <c r="O284">
-        <v>4</v>
-      </c>
-      <c r="P284">
-        <v>-0.5</v>
-      </c>
-      <c r="Q284">
-        <v>1.875</v>
-      </c>
-      <c r="R284">
-        <v>1.975</v>
-      </c>
-      <c r="S284">
-        <v>2.75</v>
-      </c>
-      <c r="T284">
-        <v>1.9</v>
-      </c>
-      <c r="U284">
-        <v>1.95</v>
-      </c>
-      <c r="V284">
-        <v>0</v>
-      </c>
-      <c r="W284">
-        <v>0</v>
-      </c>
-      <c r="X284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:28">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285" t="s">
-        <v>32</v>
-      </c>
-      <c r="C285" t="s">
-        <v>36</v>
-      </c>
-      <c r="D285" s="2">
-        <v>45424.3125</v>
-      </c>
-      <c r="E285" t="s">
-        <v>55</v>
-      </c>
-      <c r="F285" t="s">
-        <v>37</v>
-      </c>
-      <c r="J285">
-        <v>2.75</v>
-      </c>
-      <c r="K285">
-        <v>3</v>
-      </c>
-      <c r="L285">
-        <v>2.75</v>
-      </c>
-      <c r="M285">
-        <v>2.75</v>
-      </c>
-      <c r="N285">
-        <v>3</v>
-      </c>
-      <c r="O285">
-        <v>2.75</v>
-      </c>
-      <c r="P285">
-        <v>0</v>
-      </c>
-      <c r="Q285">
-        <v>1.925</v>
-      </c>
-      <c r="R285">
-        <v>1.925</v>
-      </c>
-      <c r="S285">
-        <v>2.25</v>
-      </c>
-      <c r="T285">
-        <v>2.05</v>
-      </c>
-      <c r="U285">
-        <v>1.8</v>
-      </c>
-      <c r="V285">
-        <v>0</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-      <c r="X285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:28">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286" t="s">
-        <v>33</v>
-      </c>
-      <c r="C286" t="s">
-        <v>36</v>
-      </c>
-      <c r="D286" s="2">
-        <v>45424.41666666666</v>
-      </c>
-      <c r="E286" t="s">
-        <v>44</v>
-      </c>
-      <c r="F286" t="s">
-        <v>43</v>
-      </c>
-      <c r="J286">
-        <v>2.25</v>
-      </c>
-      <c r="K286">
-        <v>3.5</v>
-      </c>
-      <c r="L286">
-        <v>3</v>
-      </c>
-      <c r="M286">
-        <v>2.25</v>
-      </c>
-      <c r="N286">
-        <v>3.5</v>
-      </c>
-      <c r="O286">
-        <v>3</v>
-      </c>
-      <c r="P286">
-        <v>-0.25</v>
-      </c>
-      <c r="Q286">
-        <v>1.975</v>
-      </c>
-      <c r="R286">
-        <v>1.875</v>
-      </c>
-      <c r="S286">
-        <v>2.5</v>
-      </c>
-      <c r="T286">
-        <v>1.875</v>
-      </c>
-      <c r="U286">
-        <v>1.975</v>
-      </c>
-      <c r="V286">
-        <v>0</v>
-      </c>
-      <c r="W286">
-        <v>0</v>
-      </c>
-      <c r="X286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:28">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287" t="s">
-        <v>34</v>
-      </c>
-      <c r="C287" t="s">
-        <v>36</v>
-      </c>
-      <c r="D287" s="2">
-        <v>45424.52083333334</v>
-      </c>
-      <c r="E287" t="s">
-        <v>49</v>
-      </c>
-      <c r="F287" t="s">
-        <v>38</v>
-      </c>
-      <c r="J287">
-        <v>2.55</v>
-      </c>
-      <c r="K287">
-        <v>3.4</v>
-      </c>
-      <c r="L287">
-        <v>2.625</v>
-      </c>
-      <c r="M287">
-        <v>2.55</v>
-      </c>
-      <c r="N287">
-        <v>3.4</v>
-      </c>
-      <c r="O287">
-        <v>2.625</v>
-      </c>
-      <c r="P287">
-        <v>0</v>
-      </c>
-      <c r="Q287">
-        <v>1.925</v>
-      </c>
-      <c r="R287">
-        <v>1.925</v>
-      </c>
-      <c r="S287">
-        <v>2.5</v>
-      </c>
-      <c r="T287">
-        <v>1.875</v>
-      </c>
-      <c r="U287">
-        <v>1.975</v>
-      </c>
-      <c r="V287">
-        <v>0</v>
-      </c>
-      <c r="W287">
-        <v>0</v>
-      </c>
-      <c r="X287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:28">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
-        <v>35</v>
-      </c>
-      <c r="C288" t="s">
-        <v>36</v>
-      </c>
-      <c r="D288" s="2">
-        <v>45425.58333333334</v>
-      </c>
-      <c r="E288" t="s">
-        <v>52</v>
-      </c>
-      <c r="F288" t="s">
-        <v>46</v>
-      </c>
-      <c r="J288">
-        <v>2</v>
-      </c>
-      <c r="K288">
-        <v>3.4</v>
-      </c>
-      <c r="L288">
-        <v>3.6</v>
-      </c>
-      <c r="M288">
-        <v>2</v>
-      </c>
-      <c r="N288">
-        <v>3.4</v>
-      </c>
-      <c r="O288">
-        <v>3.6</v>
-      </c>
-      <c r="P288">
-        <v>-0.5</v>
-      </c>
-      <c r="Q288">
-        <v>2.025</v>
-      </c>
-      <c r="R288">
-        <v>1.825</v>
-      </c>
-      <c r="S288">
-        <v>2.5</v>
-      </c>
-      <c r="T288">
-        <v>1.925</v>
-      </c>
-      <c r="U288">
-        <v>1.925</v>
-      </c>
-      <c r="V288">
-        <v>0</v>
-      </c>
-      <c r="W288">
-        <v>0</v>
-      </c>
-      <c r="X288">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
+++ b/Poland Ekstraklasa/Poland Ekstraklasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7035366</t>
+  </si>
+  <si>
+    <t>7025540</t>
+  </si>
+  <si>
+    <t>7021636</t>
+  </si>
+  <si>
+    <t>7021639</t>
+  </si>
+  <si>
+    <t>7021637</t>
+  </si>
+  <si>
+    <t>7024962</t>
+  </si>
+  <si>
+    <t>7023712</t>
+  </si>
+  <si>
+    <t>7021635</t>
   </si>
   <si>
     <t>Poland Ekstraklasa</t>
@@ -525,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB279"/>
+  <dimension ref="A1:AB296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +646,16 @@
         <v>6775418</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -640,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>3.1</v>
@@ -708,16 +732,16 @@
         <v>6774424</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -726,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -794,16 +818,16 @@
         <v>6775417</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -812,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -880,16 +904,16 @@
         <v>6775416</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -898,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>1.3</v>
@@ -966,16 +990,16 @@
         <v>6775050</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45129.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -984,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1052,16 +1076,16 @@
         <v>6775414</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1070,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J7">
         <v>1.909</v>
@@ -1138,16 +1162,16 @@
         <v>6774423</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1224,16 +1248,16 @@
         <v>6774903</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45130.625</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1242,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J9">
         <v>1.55</v>
@@ -1310,16 +1334,16 @@
         <v>6775415</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>2.2</v>
@@ -1396,16 +1420,16 @@
         <v>6774425</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1414,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1482,16 +1506,16 @@
         <v>6775424</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1500,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J12">
         <v>2.75</v>
@@ -1568,16 +1592,16 @@
         <v>6774902</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1586,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>1.95</v>
@@ -1654,16 +1678,16 @@
         <v>6775425</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45136.625</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1672,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1740,16 +1764,16 @@
         <v>6775423</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1758,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>3.6</v>
@@ -1826,16 +1850,16 @@
         <v>6775421</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1844,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J16">
         <v>1.75</v>
@@ -1912,16 +1936,16 @@
         <v>6775422</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45137.625</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1930,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -1998,16 +2022,16 @@
         <v>6775427</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>2.3</v>
@@ -2084,16 +2108,16 @@
         <v>6774427</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2102,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>2.55</v>
@@ -2170,16 +2194,16 @@
         <v>6775430</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>1.363</v>
@@ -2256,16 +2280,16 @@
         <v>6775426</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2274,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>3.25</v>
@@ -2342,16 +2366,16 @@
         <v>6775429</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45143.625</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2360,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J22">
         <v>2.05</v>
@@ -2428,16 +2452,16 @@
         <v>6775428</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45144.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>3.2</v>
@@ -2514,16 +2538,16 @@
         <v>6774426</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45144.625</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2532,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J24">
         <v>1.4</v>
@@ -2600,16 +2624,16 @@
         <v>6774901</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45145.58333333334</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J25">
         <v>2.75</v>
@@ -2686,16 +2710,16 @@
         <v>6775432</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2704,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2772,16 +2796,16 @@
         <v>6775435</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45149.64583333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2790,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>3.5</v>
@@ -2858,16 +2882,16 @@
         <v>6775437</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2876,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J28">
         <v>2.45</v>
@@ -2944,16 +2968,16 @@
         <v>6775433</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J29">
         <v>2.3</v>
@@ -3030,16 +3054,16 @@
         <v>6774429</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45150.625</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3048,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J30">
         <v>1.909</v>
@@ -3116,16 +3140,16 @@
         <v>6775436</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3134,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>1.727</v>
@@ -3202,16 +3226,16 @@
         <v>6774900</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3220,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3288,16 +3312,16 @@
         <v>6774428</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45152.58333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3374,16 +3398,16 @@
         <v>6774899</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3460,16 +3484,16 @@
         <v>6775439</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3478,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J35">
         <v>2.25</v>
@@ -3546,16 +3570,16 @@
         <v>6775441</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3564,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3632,16 +3656,16 @@
         <v>6775442</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3650,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J37">
         <v>1.285</v>
@@ -3718,16 +3742,16 @@
         <v>6774430</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45157.625</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3804,16 +3828,16 @@
         <v>6774431</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J39">
         <v>3.5</v>
@@ -3890,16 +3914,16 @@
         <v>6775443</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3908,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J40">
         <v>4.2</v>
@@ -3976,16 +4000,16 @@
         <v>6775440</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45158.625</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3994,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>1.4</v>
@@ -4062,16 +4086,16 @@
         <v>6775438</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45159.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4080,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <v>2.375</v>
@@ -4148,16 +4172,16 @@
         <v>6775448</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <v>3.25</v>
@@ -4234,16 +4258,16 @@
         <v>6775450</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4252,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4320,16 +4344,16 @@
         <v>6775449</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45164.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4338,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>2.5</v>
@@ -4406,16 +4430,16 @@
         <v>6774898</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45164.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4424,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4492,16 +4516,16 @@
         <v>6774432</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45164.625</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4510,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J47">
         <v>1.666</v>
@@ -4578,16 +4602,16 @@
         <v>6775445</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4596,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J48">
         <v>2.75</v>
@@ -4664,16 +4688,16 @@
         <v>6775444</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4682,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J49">
         <v>2.25</v>
@@ -4750,16 +4774,16 @@
         <v>7125569</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45168.5625</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4768,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>1.666</v>
@@ -4836,16 +4860,16 @@
         <v>6774434</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45170.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4854,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J51">
         <v>2.55</v>
@@ -4922,16 +4946,16 @@
         <v>6774433</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4940,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -5008,16 +5032,16 @@
         <v>6775455</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5094,16 +5118,16 @@
         <v>6775451</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5112,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J54">
         <v>1.85</v>
@@ -5180,16 +5204,16 @@
         <v>6775453</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45171.625</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5266,16 +5290,16 @@
         <v>6775456</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5284,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J56">
         <v>2.375</v>
@@ -5352,16 +5376,16 @@
         <v>6775452</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J57">
         <v>2.625</v>
@@ -5438,16 +5462,16 @@
         <v>6775454</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5456,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J58">
         <v>1.533</v>
@@ -5524,16 +5548,16 @@
         <v>6774897</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45172.625</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5542,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J59">
         <v>1.285</v>
@@ -5610,16 +5634,16 @@
         <v>6774896</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45184.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J60">
         <v>2.7</v>
@@ -5696,16 +5720,16 @@
         <v>6774435</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5714,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5782,16 +5806,16 @@
         <v>6775459</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5800,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <v>1.615</v>
@@ -5868,16 +5892,16 @@
         <v>6774436</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>1.333</v>
@@ -5954,16 +5978,16 @@
         <v>6775458</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45185.625</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5972,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J64">
         <v>2.6</v>
@@ -6040,16 +6064,16 @@
         <v>6775457</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45186.3125</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6058,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J65">
         <v>2.55</v>
@@ -6126,16 +6150,16 @@
         <v>6775462</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J66">
         <v>2.375</v>
@@ -6212,16 +6236,16 @@
         <v>6775461</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45186.52083333334</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6230,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6298,16 +6322,16 @@
         <v>6775460</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -6316,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6384,16 +6408,16 @@
         <v>6775465</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45191.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6402,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J69">
         <v>2.375</v>
@@ -6470,16 +6494,16 @@
         <v>6774438</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45191.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6488,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <v>2.625</v>
@@ -6556,16 +6580,16 @@
         <v>6774895</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45192.3125</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6574,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J71">
         <v>1.7</v>
@@ -6642,16 +6666,16 @@
         <v>6775468</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6660,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>3.5</v>
@@ -6728,16 +6752,16 @@
         <v>6775463</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6746,7 +6770,7 @@
         <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>2.55</v>
@@ -6814,16 +6838,16 @@
         <v>6775466</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45192.625</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6832,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6900,16 +6924,16 @@
         <v>6775464</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6918,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J75">
         <v>2.3</v>
@@ -6986,16 +7010,16 @@
         <v>6774437</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7004,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J76">
         <v>6</v>
@@ -7072,16 +7096,16 @@
         <v>6775467</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45193.52083333334</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7090,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J77">
         <v>1.45</v>
@@ -7158,16 +7182,16 @@
         <v>7107700</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45196.625</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7176,7 +7200,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J78">
         <v>2.55</v>
@@ -7244,16 +7268,16 @@
         <v>7256184</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45197.625</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7262,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7330,16 +7354,16 @@
         <v>6775474</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45198.54166666666</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7348,7 +7372,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J80">
         <v>2.45</v>
@@ -7416,16 +7440,16 @@
         <v>6775471</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45198.64583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7434,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J81">
         <v>1.666</v>
@@ -7502,16 +7526,16 @@
         <v>6774439</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7520,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J82">
         <v>3.1</v>
@@ -7588,16 +7612,16 @@
         <v>6774894</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45199.52083333334</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7606,7 +7630,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7674,16 +7698,16 @@
         <v>6775475</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45199.625</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7692,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>2.375</v>
@@ -7760,16 +7784,16 @@
         <v>6775473</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -7778,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7846,16 +7870,16 @@
         <v>6775472</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -7864,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J86">
         <v>2.7</v>
@@ -7932,16 +7956,16 @@
         <v>6775470</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45200.625</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>3.1</v>
@@ -8018,16 +8042,16 @@
         <v>6775469</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8036,7 +8060,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J88">
         <v>2.55</v>
@@ -8104,16 +8128,16 @@
         <v>6775478</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45205.54166666666</v>
       </c>
       <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
         <v>36</v>
-      </c>
-      <c r="F89" t="s">
-        <v>28</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8122,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>2.625</v>
@@ -8190,16 +8214,16 @@
         <v>6774893</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45205.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8208,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J90">
         <v>1.25</v>
@@ -8276,16 +8300,16 @@
         <v>6774440</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45206.3125</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8294,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J91">
         <v>1.75</v>
@@ -8362,16 +8386,16 @@
         <v>6775480</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45206.41666666666</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8380,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J92">
         <v>2.1</v>
@@ -8448,16 +8472,16 @@
         <v>6775477</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J93">
         <v>2.7</v>
@@ -8534,16 +8558,16 @@
         <v>6774441</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45206.625</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8552,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8620,16 +8644,16 @@
         <v>6775481</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45207.3125</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8638,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J95">
         <v>2.15</v>
@@ -8706,16 +8730,16 @@
         <v>6775476</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8724,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -8792,16 +8816,16 @@
         <v>6775479</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>2.2</v>
@@ -8878,16 +8902,16 @@
         <v>6775484</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45219.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8896,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J98">
         <v>2.2</v>
@@ -8964,16 +8988,16 @@
         <v>6775483</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45219.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8982,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J99">
         <v>2.3</v>
@@ -9050,16 +9074,16 @@
         <v>6774892</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J100">
         <v>3.2</v>
@@ -9136,16 +9160,16 @@
         <v>6775487</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45220.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9154,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J101">
         <v>3.3</v>
@@ -9222,16 +9246,16 @@
         <v>6774442</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45220.625</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9240,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9308,16 +9332,16 @@
         <v>6775485</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45221.3125</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9326,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>1.95</v>
@@ -9394,16 +9418,16 @@
         <v>6775482</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9412,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J104">
         <v>3.8</v>
@@ -9480,16 +9504,16 @@
         <v>6775486</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J105">
         <v>2.5</v>
@@ -9566,16 +9590,16 @@
         <v>7318979</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45223.54166666666</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9584,7 +9608,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J106">
         <v>1.533</v>
@@ -9652,16 +9676,16 @@
         <v>6774891</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -9670,7 +9694,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J107">
         <v>1.85</v>
@@ -9738,16 +9762,16 @@
         <v>6774445</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45226.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9756,7 +9780,7 @@
         <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9824,16 +9848,16 @@
         <v>6775493</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45227.3125</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9842,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J109">
         <v>3.4</v>
@@ -9910,16 +9934,16 @@
         <v>6775491</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45227.41666666666</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9928,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J110">
         <v>1.833</v>
@@ -9996,16 +10020,16 @@
         <v>6775488</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10014,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>3.5</v>
@@ -10082,16 +10106,16 @@
         <v>6774444</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45227.625</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J112">
         <v>2.7</v>
@@ -10168,16 +10192,16 @@
         <v>6775489</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45228.35416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10186,7 +10210,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J113">
         <v>2.25</v>
@@ -10254,16 +10278,16 @@
         <v>6775490</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10296,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J114">
         <v>1.4</v>
@@ -10340,16 +10364,16 @@
         <v>6775492</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J115">
         <v>1.363</v>
@@ -10426,16 +10450,16 @@
         <v>6775496</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45233.58333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10444,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10512,16 +10536,16 @@
         <v>6775495</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45233.6875</v>
       </c>
       <c r="E117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" t="s">
         <v>38</v>
-      </c>
-      <c r="F117" t="s">
-        <v>30</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -10530,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J117">
         <v>1.533</v>
@@ -10598,16 +10622,16 @@
         <v>6774890</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10616,7 +10640,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -10684,16 +10708,16 @@
         <v>6775503</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10702,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J119">
         <v>2.3</v>
@@ -10770,16 +10794,16 @@
         <v>6774446</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10788,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J120">
         <v>1.363</v>
@@ -10856,16 +10880,16 @@
         <v>6774447</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45235.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10874,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J121">
         <v>1.727</v>
@@ -10942,16 +10966,16 @@
         <v>6775502</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10960,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11028,16 +11052,16 @@
         <v>6775497</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45235.5625</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -11114,16 +11138,16 @@
         <v>6775494</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45236.625</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11132,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J124">
         <v>2.6</v>
@@ -11200,16 +11224,16 @@
         <v>6774888</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45240.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11218,7 +11242,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>1.833</v>
@@ -11286,16 +11310,16 @@
         <v>6775504</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45240.6875</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11304,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J126">
         <v>2.4</v>
@@ -11372,16 +11396,16 @@
         <v>6774449</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11390,7 +11414,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J127">
         <v>4.2</v>
@@ -11458,16 +11482,16 @@
         <v>6775505</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11476,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11544,16 +11568,16 @@
         <v>6775506</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J129">
         <v>2.75</v>
@@ -11630,16 +11654,16 @@
         <v>6775509</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11648,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J130">
         <v>2.65</v>
@@ -11716,16 +11740,16 @@
         <v>6775508</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11734,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J131">
         <v>2.625</v>
@@ -11802,16 +11826,16 @@
         <v>6775507</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J132">
         <v>2.25</v>
@@ -11888,16 +11912,16 @@
         <v>7350928</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45243.625</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11906,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11974,16 +11998,16 @@
         <v>7450451</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45248.5625</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -11992,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J134">
         <v>1.727</v>
@@ -12060,17 +12084,17 @@
         <v>6774451</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45254.58333333334</v>
       </c>
       <c r="E135" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" t="s">
         <v>42</v>
       </c>
-      <c r="F135" t="s">
-        <v>34</v>
-      </c>
       <c r="G135">
         <v>0</v>
       </c>
@@ -12078,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J135">
         <v>3.25</v>
@@ -12146,16 +12170,16 @@
         <v>6775510</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45254.6875</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12164,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J136">
         <v>2.875</v>
@@ -12232,16 +12256,16 @@
         <v>6775515</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45255.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12250,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J137">
         <v>1.5</v>
@@ -12318,16 +12342,16 @@
         <v>6775513</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12336,7 +12360,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J138">
         <v>1.4</v>
@@ -12404,16 +12428,16 @@
         <v>6775512</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12422,7 +12446,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12490,16 +12514,16 @@
         <v>6774887</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45256.35416666666</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12508,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J140">
         <v>3.1</v>
@@ -12576,16 +12600,16 @@
         <v>6774450</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J141">
         <v>2.625</v>
@@ -12662,16 +12686,16 @@
         <v>6775511</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12680,7 +12704,7 @@
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12748,16 +12772,16 @@
         <v>6775514</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45257.625</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12766,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J143">
         <v>2.3</v>
@@ -12834,16 +12858,16 @@
         <v>6775519</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45261.58333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12876,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>2.8</v>
@@ -12920,16 +12944,16 @@
         <v>6775516</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45261.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12938,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J145">
         <v>3.6</v>
@@ -13006,16 +13030,16 @@
         <v>6775520</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13024,7 +13048,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J146">
         <v>2.375</v>
@@ -13092,16 +13116,16 @@
         <v>6775518</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13110,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13178,16 +13202,16 @@
         <v>6774452</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45263.35416666666</v>
       </c>
       <c r="E148" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" t="s">
         <v>45</v>
-      </c>
-      <c r="F148" t="s">
-        <v>37</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13196,7 +13220,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13264,16 +13288,16 @@
         <v>6775517</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13282,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J149">
         <v>3.25</v>
@@ -13350,16 +13374,16 @@
         <v>6775521</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45263.5625</v>
       </c>
       <c r="E150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" t="s">
         <v>39</v>
-      </c>
-      <c r="F150" t="s">
-        <v>31</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13368,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J150">
         <v>3.4</v>
@@ -13436,16 +13460,16 @@
         <v>7482453</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13454,7 +13478,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13522,16 +13546,16 @@
         <v>6775525</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45268.6875</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13540,7 +13564,7 @@
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J152">
         <v>1.45</v>
@@ -13608,16 +13632,16 @@
         <v>6775526</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13626,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J153">
         <v>2.05</v>
@@ -13694,16 +13718,16 @@
         <v>6775522</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45269.5625</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13712,7 +13736,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J154">
         <v>1.833</v>
@@ -13780,16 +13804,16 @@
         <v>6775527</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J155">
         <v>2.15</v>
@@ -13866,16 +13890,16 @@
         <v>6775524</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45270.35416666666</v>
       </c>
       <c r="E156" t="s">
+        <v>48</v>
+      </c>
+      <c r="F156" t="s">
         <v>40</v>
-      </c>
-      <c r="F156" t="s">
-        <v>32</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13884,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -13952,16 +13976,16 @@
         <v>6774455</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13970,7 +13994,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J157">
         <v>5</v>
@@ -14038,16 +14062,16 @@
         <v>6775523</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14056,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J158">
         <v>2.7</v>
@@ -14124,16 +14148,16 @@
         <v>6774885</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45271.625</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14142,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J159">
         <v>2.7</v>
@@ -14210,16 +14234,16 @@
         <v>6775528</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45275.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14228,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J160">
         <v>2.15</v>
@@ -14296,16 +14320,16 @@
         <v>6775529</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45275.6875</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14314,7 +14338,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J161">
         <v>2.2</v>
@@ -14382,16 +14406,16 @@
         <v>6774884</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45276.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14400,7 +14424,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J162">
         <v>4.333</v>
@@ -14468,16 +14492,16 @@
         <v>6775534</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45276.5625</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14486,7 +14510,7 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>3.2</v>
@@ -14554,16 +14578,16 @@
         <v>6775532</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45276.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -14572,7 +14596,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J164">
         <v>3.3</v>
@@ -14640,16 +14664,16 @@
         <v>6774456</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45277.35416666666</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14658,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J165">
         <v>2.25</v>
@@ -14726,16 +14750,16 @@
         <v>6775533</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45277.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14744,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J166">
         <v>1.5</v>
@@ -14812,16 +14836,16 @@
         <v>6775530</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45277.5625</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14830,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J167">
         <v>1.615</v>
@@ -14898,16 +14922,16 @@
         <v>6775531</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45278.625</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -14916,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J168">
         <v>1.5</v>
@@ -14984,16 +15008,16 @@
         <v>7438438</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45280.625</v>
       </c>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15002,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J169">
         <v>3.4</v>
@@ -15070,16 +15094,16 @@
         <v>6774883</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45331.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15088,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J170">
         <v>2</v>
@@ -15156,16 +15180,16 @@
         <v>6774458</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45331.6875</v>
       </c>
       <c r="E171" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" t="s">
         <v>37</v>
-      </c>
-      <c r="F171" t="s">
-        <v>29</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15174,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J171">
         <v>5</v>
@@ -15242,16 +15266,16 @@
         <v>6775535</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -15260,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J172">
         <v>2.15</v>
@@ -15328,16 +15352,16 @@
         <v>6775537</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15370,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15414,16 +15438,16 @@
         <v>6775536</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15432,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>1.571</v>
@@ -15500,16 +15524,16 @@
         <v>6775539</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45333.35416666666</v>
       </c>
       <c r="E175" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15518,7 +15542,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15586,16 +15610,16 @@
         <v>6775540</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15628,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>2.6</v>
@@ -15672,16 +15696,16 @@
         <v>6775538</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15690,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J177">
         <v>3.9</v>
@@ -15758,16 +15782,16 @@
         <v>6774457</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45334.625</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15776,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J178">
         <v>1.95</v>
@@ -15844,16 +15868,16 @@
         <v>6775544</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45338.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15862,7 +15886,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J179">
         <v>3.25</v>
@@ -15930,16 +15954,16 @@
         <v>6775546</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45338.6875</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15948,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>1.8</v>
@@ -16016,16 +16040,16 @@
         <v>6774459</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16034,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16102,16 +16126,16 @@
         <v>6775542</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45339.5625</v>
       </c>
       <c r="E182" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16120,7 +16144,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>2.55</v>
@@ -16188,16 +16212,16 @@
         <v>6775545</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -16206,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J183">
         <v>1.727</v>
@@ -16274,16 +16298,16 @@
         <v>6775543</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45340.35416666666</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16360,16 +16384,16 @@
         <v>6774882</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45340.45833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J185">
         <v>1.333</v>
@@ -16446,16 +16470,16 @@
         <v>6774460</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45340.5625</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16464,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16532,16 +16556,16 @@
         <v>6775541</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45341.625</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -16550,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J187">
         <v>2.15</v>
@@ -16618,16 +16642,16 @@
         <v>6775548</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45345.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16636,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J188">
         <v>2</v>
@@ -16704,16 +16728,16 @@
         <v>6774461</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45345.6875</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>4</v>
@@ -16722,7 +16746,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J189">
         <v>1.333</v>
@@ -16790,16 +16814,16 @@
         <v>6774462</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16808,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J190">
         <v>1.444</v>
@@ -16876,16 +16900,16 @@
         <v>6775547</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E191" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16894,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J191">
         <v>1.833</v>
@@ -16962,16 +16986,16 @@
         <v>6775549</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E192" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -16980,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J192">
         <v>3.75</v>
@@ -17048,16 +17072,16 @@
         <v>6774881</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45347.35416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17066,7 +17090,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J193">
         <v>3.3</v>
@@ -17134,16 +17158,16 @@
         <v>6775551</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G194">
         <v>3</v>
@@ -17152,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J194">
         <v>2.55</v>
@@ -17220,16 +17244,16 @@
         <v>6775552</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17238,7 +17262,7 @@
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J195">
         <v>3.5</v>
@@ -17306,16 +17330,16 @@
         <v>6775550</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45348.625</v>
       </c>
       <c r="E196" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17324,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17392,16 +17416,16 @@
         <v>7863104</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45350.60416666666</v>
       </c>
       <c r="E197" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17410,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J197">
         <v>1.727</v>
@@ -17478,16 +17502,16 @@
         <v>6775554</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F198" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17496,7 +17520,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>1.8</v>
@@ -17564,16 +17588,16 @@
         <v>6774463</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45352.6875</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17582,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J199">
         <v>3.6</v>
@@ -17650,16 +17674,16 @@
         <v>6775555</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17668,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J200">
         <v>2.55</v>
@@ -17736,16 +17760,16 @@
         <v>6775560</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17754,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17822,16 +17846,16 @@
         <v>6775557</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E202" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -17908,16 +17932,16 @@
         <v>6774880</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45354.3541666666